--- a/COVID-19 Australia.xlsx
+++ b/COVID-19 Australia.xlsx
@@ -8,20 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcus/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{BCB7F2AC-4856-6B49-BCB5-3C9A178441F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A7C22F52-F2A8-C348-888E-387AB0A5518E}"/>
+  <xr:revisionPtr revIDLastSave="123" documentId="5_{730325EB-8413-5D40-891A-7A0FEDB24050}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2C1194E0-073B-2A46-9F95-82B56DBE63AA}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="460" windowWidth="33240" windowHeight="23540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8100" yWindow="460" windowWidth="33240" windowHeight="23540" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Daily" sheetId="1" r:id="rId1"/>
-    <sheet name="Cumulative" sheetId="2" r:id="rId2"/>
-    <sheet name="National Infections" sheetId="4" r:id="rId3"/>
-    <sheet name="Log National Infections" sheetId="5" r:id="rId4"/>
-    <sheet name="National Infections Without NSW" sheetId="7" r:id="rId5"/>
-    <sheet name="Log Infections Without NSW" sheetId="8" r:id="rId6"/>
-    <sheet name="Infections by State" sheetId="9" r:id="rId7"/>
-    <sheet name="Days to double" sheetId="10" r:id="rId8"/>
-    <sheet name="Active Cases" sheetId="6" r:id="rId9"/>
+    <sheet name="Sources" sheetId="11" r:id="rId1"/>
+    <sheet name="Daily" sheetId="1" r:id="rId2"/>
+    <sheet name="Cumulative" sheetId="2" r:id="rId3"/>
+    <sheet name="National Infections" sheetId="4" r:id="rId4"/>
+    <sheet name="Log National Infections" sheetId="5" r:id="rId5"/>
+    <sheet name="National Infections Without NSW" sheetId="7" r:id="rId6"/>
+    <sheet name="Log Infections Without NSW" sheetId="8" r:id="rId7"/>
+    <sheet name="Infections by State" sheetId="9" r:id="rId8"/>
+    <sheet name="Days to double" sheetId="10" r:id="rId9"/>
+    <sheet name="Active Cases" sheetId="6" r:id="rId10"/>
+    <sheet name="Changelog" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="71">
   <si>
     <t>Date</t>
   </si>
@@ -50,18 +52,6 @@
   </si>
   <si>
     <t>NT</t>
-  </si>
-  <si>
-    <t>Qld</t>
-  </si>
-  <si>
-    <t>Tas</t>
-  </si>
-  <si>
-    <t>Wa</t>
-  </si>
-  <si>
-    <t>Vic</t>
   </si>
   <si>
     <t>SA</t>
@@ -117,6 +107,138 @@
   <si>
     <t>Days to double</t>
   </si>
+  <si>
+    <t>https://health.act.gov.au/public-health-alert/updated-information-about-covid-19</t>
+  </si>
+  <si>
+    <t>Information site</t>
+  </si>
+  <si>
+    <t>Media releases</t>
+  </si>
+  <si>
+    <t>https://www.health.nsw.gov.au/news/Pages/2020-nsw-health.aspx</t>
+  </si>
+  <si>
+    <t>Twitter</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NSWHealth</t>
+  </si>
+  <si>
+    <t>COVID-19 Information</t>
+  </si>
+  <si>
+    <t>https://health.nt.gov.au/health-alerts/novel-coronavirus-covid-19</t>
+  </si>
+  <si>
+    <t>Government COVID-19</t>
+  </si>
+  <si>
+    <t>https://securent.nt.gov.au/alerts/coronavirus-covid-19-updates</t>
+  </si>
+  <si>
+    <t>Media Releases</t>
+  </si>
+  <si>
+    <t>https://twitter.com/ACTHealth</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/ACTHealthDirectorate</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/NewSouthWalesHealth</t>
+  </si>
+  <si>
+    <t>https://www.sahealth.sa.gov.au/wps/wcm/connect/public+content/sa+health+internet/about+us/news+and+media/all+media+releases</t>
+  </si>
+  <si>
+    <t>https://twitter.com/SAHealth</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sahealth</t>
+  </si>
+  <si>
+    <t>QLD</t>
+  </si>
+  <si>
+    <t>TAS</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>VIC</t>
+  </si>
+  <si>
+    <t>http://conditions.health.qld.gov.au/HealthCondition/condition/14/217/838/novel-coronavirus-covid-19</t>
+  </si>
+  <si>
+    <t>https://www.health.qld.gov.au/news-events/doh-media-releases</t>
+  </si>
+  <si>
+    <t>https://twitter.com/qldhealthnews</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/QLDHealth/</t>
+  </si>
+  <si>
+    <t>https://www.dhhs.tas.gov.au/news/2020</t>
+  </si>
+  <si>
+    <t>https://ww2.health.wa.gov.au/News/Media-releases-listing-page</t>
+  </si>
+  <si>
+    <t>https://twitter.com/WAHealth</t>
+  </si>
+  <si>
+    <t>https://www2.health.vic.gov.au/about/media-centre/mediareleases</t>
+  </si>
+  <si>
+    <t>https://twitter.com/VicGovDHHS</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Site / notes</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Federal Government</t>
+  </si>
+  <si>
+    <t>COVID-19 health aleart</t>
+  </si>
+  <si>
+    <t>https://www.health.gov.au/news/health-alerts/novel-coronavirus-2019-ncov-health-alert</t>
+  </si>
+  <si>
+    <t>State government site</t>
+  </si>
+  <si>
+    <t>No longer has case information</t>
+  </si>
+  <si>
+    <t>About 24-48 hours behind with cases</t>
+  </si>
+  <si>
+    <t>Release</t>
+  </si>
+  <si>
+    <t>Changes</t>
+  </si>
+  <si>
+    <t>Initial release</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updated data; Fix % Change formula; Add data sources </t>
+  </si>
 </sst>
 </file>
 
@@ -125,10 +247,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -151,10 +281,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -163,11 +294,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -416,7 +552,7 @@
                   <c:v>43902</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>#N/A</c:v>
+                  <c:v>43903</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>#N/A</c:v>
@@ -719,7 +855,7 @@
                   <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>0</c:v>
@@ -1278,7 +1414,7 @@
                   <c:v>43902</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>#N/A</c:v>
+                  <c:v>43903</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>#N/A</c:v>
@@ -1581,7 +1717,7 @@
                   <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>0</c:v>
@@ -2141,7 +2277,7 @@
                   <c:v>43902</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>#N/A</c:v>
+                  <c:v>43903</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>#N/A</c:v>
@@ -2444,7 +2580,7 @@
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>0</c:v>
@@ -3003,7 +3139,7 @@
                   <c:v>43902</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>#N/A</c:v>
+                  <c:v>43903</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>#N/A</c:v>
@@ -3306,7 +3442,7 @@
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>0</c:v>
@@ -3898,7 +4034,7 @@
                   <c:v>43902</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>#N/A</c:v>
+                  <c:v>43903</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>#N/A</c:v>
@@ -4201,7 +4337,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>0</c:v>
@@ -4540,7 +4676,7 @@
                   <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>0</c:v>
@@ -4879,7 +5015,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>0</c:v>
@@ -5218,7 +5354,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>0</c:v>
@@ -5383,7 +5519,7 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Qld</c:v>
+                  <c:v>QLD</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Cases</c:v>
@@ -5557,7 +5693,7 @@
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>0</c:v>
@@ -5722,7 +5858,7 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Tas</c:v>
+                  <c:v>TAS</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Cases</c:v>
@@ -5896,7 +6032,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>0</c:v>
@@ -6061,7 +6197,7 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Wa</c:v>
+                  <c:v>WA</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Cases</c:v>
@@ -6237,7 +6373,7 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>0</c:v>
@@ -6402,7 +6538,7 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Vic</c:v>
+                  <c:v>VIC</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Cases</c:v>
@@ -6578,7 +6714,7 @@
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>0</c:v>
@@ -7165,7 +7301,7 @@
                   <c:v>43902</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>#N/A</c:v>
+                  <c:v>43903</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>#N/A</c:v>
@@ -7453,10 +7589,10 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>#N/A</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>#N/A</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>#N/A</c:v>
@@ -7468,7 +7604,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>0</c:v>
@@ -8087,7 +8223,7 @@
                   <c:v>43902</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>#N/A</c:v>
+                  <c:v>43903</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>#N/A</c:v>
@@ -8387,10 +8523,10 @@
                   <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>131</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>0</c:v>
@@ -13212,14 +13348,270 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9DE41B-0E36-2141-B22D-FF546E770A0D}">
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.50390625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="112.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.76953125" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{F9ACC1B8-C67C-1B4A-B320-D0FCE23C3D90}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{51347AC9-9DA5-9C48-9E4D-5642CC830821}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{905E9D84-5C98-D94B-88E9-6DFECFB5D0D9}"/>
+    <hyperlink ref="C10" r:id="rId4" xr:uid="{FD22DB92-FF1D-F544-AEA4-781CB60BD263}"/>
+    <hyperlink ref="C11" r:id="rId5" xr:uid="{921609FB-B970-A947-B1F4-D09F9EAA9CB5}"/>
+    <hyperlink ref="C3" r:id="rId6" xr:uid="{3F9419AB-136B-8A42-AB5A-DD9C958A9270}"/>
+    <hyperlink ref="C4" r:id="rId7" xr:uid="{5C85C565-AEA0-6942-B24E-9EE5A8084F74}"/>
+    <hyperlink ref="C8" r:id="rId8" xr:uid="{5CB3704B-FFA7-8B45-B2C4-61C23C04B8A2}"/>
+    <hyperlink ref="C13" r:id="rId9" xr:uid="{44185A73-6F13-F247-AB76-EB3BE3083EBA}"/>
+    <hyperlink ref="C14" r:id="rId10" xr:uid="{98824CBD-7D7A-BD43-BDD6-88E4DE0FB2AD}"/>
+    <hyperlink ref="C15" r:id="rId11" xr:uid="{CC69BA96-3036-1645-8C20-93C8FA89D6E9}"/>
+    <hyperlink ref="C17" r:id="rId12" xr:uid="{AACFD4CF-BB21-874F-85E9-20C402EA2E2E}"/>
+    <hyperlink ref="C18" r:id="rId13" xr:uid="{731665A7-3BD6-7848-923C-BA8945C1FA97}"/>
+    <hyperlink ref="C19" r:id="rId14" xr:uid="{E951B6B8-CE49-EF4D-A830-8CC190D40771}"/>
+    <hyperlink ref="C20" r:id="rId15" xr:uid="{AFE56D18-9D7A-C44C-A165-070FD3B16289}"/>
+    <hyperlink ref="C22" r:id="rId16" xr:uid="{4D03143E-A70D-8C48-B698-DA6E3EB28AE8}"/>
+    <hyperlink ref="C24" r:id="rId17" xr:uid="{413C84B7-E1C2-774D-8B09-05FD1B829482}"/>
+    <hyperlink ref="C25" r:id="rId18" xr:uid="{C38F2CE8-48F2-524C-8925-44C735702834}"/>
+    <hyperlink ref="C27" r:id="rId19" xr:uid="{1DF66D07-7C9E-1F40-9914-DAB538EE6359}"/>
+    <hyperlink ref="C28" r:id="rId20" xr:uid="{2541CBDE-4076-1147-B928-ACFD7BA56906}"/>
+    <hyperlink ref="C30" r:id="rId21" xr:uid="{8EEFD09E-CE69-4049-B10C-D30EA400D9D7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A91E56D-E6EC-4A44-955C-803264524BFE}">
   <dimension ref="A1:AC100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="P45" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
       <selection pane="topRight" activeCell="R1" sqref="R1"/>
-      <selection pane="bottomRight" activeCell="E51" sqref="E51"/>
+      <selection pane="bottomRight" activeCell="W1" sqref="W1:Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13233,139 +13625,139 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6" t="s">
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6" t="s">
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="M2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="P2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="Q2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="S2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="T2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="V2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="W2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="X2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="Y2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="Z2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AA2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AB2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AC2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
@@ -14398,13 +14790,16 @@
       <c r="W51">
         <v>6</v>
       </c>
+      <c r="Z51">
+        <v>2</v>
+      </c>
       <c r="AA51">
         <f>B51+E51+H51+K51+N51+Q51+T51+W51</f>
         <v>30</v>
       </c>
       <c r="AB51">
         <f>C51+F51+I51+L51+O51+R51+U51+X51+Z51</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC51">
         <f>D51+G51+J51+M51+P51+S51+V51+Y51</f>
@@ -14412,14 +14807,37 @@
       </c>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A52" s="1"/>
+      <c r="A52" s="1">
+        <v>43903</v>
+      </c>
+      <c r="E52">
+        <v>14</v>
+      </c>
+      <c r="K52">
+        <v>4</v>
+      </c>
+      <c r="N52">
+        <v>8</v>
+      </c>
+      <c r="Q52">
+        <v>1</v>
+      </c>
+      <c r="T52">
+        <v>5</v>
+      </c>
+      <c r="W52">
+        <v>9</v>
+      </c>
+      <c r="Z52">
+        <v>2</v>
+      </c>
       <c r="AA52">
         <f t="shared" ref="AA52:AA73" si="4">B52+E52+H52+K52+N52+Q52+T52+W52</f>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="AB52">
         <f t="shared" ref="AB52" si="5">C52+F52+I52+L52+O52+R52+U52+X52+Z52</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC52">
         <f t="shared" ref="AC52:AC73" si="6">D52+G52+J52+M52+P52+S52+V52+Y52</f>
@@ -15159,15 +15577,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00CE068C-1164-624A-A0B4-3FDF7F131C48}">
   <dimension ref="A1:AV143"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AF23" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomRight" activeCell="E51" sqref="E51"/>
+      <selection pane="bottomRight" activeCell="AK1" sqref="AK1:AR1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15216,194 +15634,197 @@
     <col min="43" max="43" width="3.62890625" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="5.78125" customWidth="1"/>
     <col min="45" max="45" width="11.43359375" style="3" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="8.33984375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.10546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="8.7421875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.9140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6" t="s">
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6" t="s">
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6" t="s">
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="5" t="s">
+      <c r="AD1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AD1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="AJ1" s="6"/>
-      <c r="AK1" s="6" t="s">
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="8"/>
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AU1" t="s">
         <v>17</v>
       </c>
-      <c r="AL1" s="6"/>
-      <c r="AM1" s="6"/>
-      <c r="AN1" s="6"/>
-      <c r="AO1" s="6"/>
-      <c r="AP1" s="6"/>
-      <c r="AQ1" s="6"/>
-      <c r="AR1" s="6"/>
-      <c r="AS1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>21</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T2" t="s">
+        <v>6</v>
+      </c>
+      <c r="U2" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" t="s">
+        <v>8</v>
+      </c>
+      <c r="W2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="AJ2" t="s">
         <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R2" t="s">
-        <v>11</v>
-      </c>
-      <c r="S2" t="s">
-        <v>12</v>
-      </c>
-      <c r="T2" t="s">
-        <v>10</v>
-      </c>
-      <c r="U2" t="s">
-        <v>11</v>
-      </c>
-      <c r="V2" t="s">
-        <v>12</v>
-      </c>
-      <c r="W2" t="s">
-        <v>10</v>
-      </c>
-      <c r="X2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>16</v>
       </c>
       <c r="AK2" t="str">
         <f>B1</f>
@@ -15421,21 +15842,17 @@
         <f>K1</f>
         <v>SA</v>
       </c>
-      <c r="AO2" t="str">
-        <f>N1</f>
-        <v>Qld</v>
-      </c>
-      <c r="AP2" t="str">
-        <f>Q1</f>
-        <v>Tas</v>
-      </c>
-      <c r="AQ2" t="str">
-        <f>T1</f>
-        <v>Wa</v>
-      </c>
-      <c r="AR2" t="str">
-        <f>W1</f>
-        <v>Vic</v>
+      <c r="AO2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.2">
@@ -15620,7 +16037,7 @@
         <v>0</v>
       </c>
       <c r="AT3" s="2" t="str">
-        <f>IF(OR(ROW()&lt;=3,Daily!A3=""),"",Daily!AA3/Cumulative!Z3)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A3=""),"",IF(Z2=0,1,Daily!AA3/Cumulative!Z2))</f>
         <v/>
       </c>
       <c r="AU3" s="2" t="str">
@@ -15814,7 +16231,7 @@
         <v>2</v>
       </c>
       <c r="AT4" s="2">
-        <f>IF(OR(ROW()&lt;=3,Daily!A4=""),"",Daily!AA4/Cumulative!Z4)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A4=""),"",IF(Z3=0,1,Daily!AA4/Cumulative!Z3))</f>
         <v>1</v>
       </c>
       <c r="AU4" s="2">
@@ -16008,7 +16425,7 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="AT5" s="2">
-        <f>IF(OR(ROW()&lt;=3,Daily!A5=""),"",Daily!AA5/Cumulative!Z5)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A5=""),"",IF(Z4=0,1,Daily!AA5/Cumulative!Z4))</f>
         <v>0</v>
       </c>
       <c r="AU5" s="2">
@@ -16202,8 +16619,8 @@
         <v>1.25</v>
       </c>
       <c r="AT6" s="2">
-        <f>IF(OR(ROW()&lt;=3,Daily!A6=""),"",Daily!AA6/Cumulative!Z6)</f>
-        <v>0.2</v>
+        <f>IF(OR(ROW()&lt;=3,Daily!A6=""),"",IF(Z5=0,1,Daily!AA6/Cumulative!Z5))</f>
+        <v>0.25</v>
       </c>
       <c r="AU6" s="2">
         <f>IF(OR(ROW()&lt;=3,Daily!A6=""),"",IF(Daily!AA5=0,0,(Daily!AA6-Daily!AA5)/Daily!AA5))</f>
@@ -16396,7 +16813,7 @@
         <v>1</v>
       </c>
       <c r="AT7" s="2">
-        <f>IF(OR(ROW()&lt;=3,Daily!A7=""),"",Daily!AA7/Cumulative!Z7)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A7=""),"",IF(Z6=0,1,Daily!AA7/Cumulative!Z6))</f>
         <v>0</v>
       </c>
       <c r="AU7" s="2">
@@ -16590,8 +17007,8 @@
         <v>1.1666666666666667</v>
       </c>
       <c r="AT8" s="2">
-        <f>IF(OR(ROW()&lt;=3,Daily!A8=""),"",Daily!AA8/Cumulative!Z8)</f>
-        <v>0.2857142857142857</v>
+        <f>IF(OR(ROW()&lt;=3,Daily!A8=""),"",IF(Z7=0,1,Daily!AA8/Cumulative!Z7))</f>
+        <v>0.4</v>
       </c>
       <c r="AU8" s="2">
         <f>IF(OR(ROW()&lt;=3,Daily!A8=""),"",IF(Daily!AA7=0,0,(Daily!AA8-Daily!AA7)/Daily!AA7))</f>
@@ -16784,8 +17201,8 @@
         <v>1.2857142857142858</v>
       </c>
       <c r="AT9" s="2">
-        <f>IF(OR(ROW()&lt;=3,Daily!A9=""),"",Daily!AA9/Cumulative!Z9)</f>
-        <v>0.22222222222222221</v>
+        <f>IF(OR(ROW()&lt;=3,Daily!A9=""),"",IF(Z8=0,1,Daily!AA9/Cumulative!Z8))</f>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AU9" s="2">
         <f>IF(OR(ROW()&lt;=3,Daily!A9=""),"",IF(Daily!AA8=0,0,(Daily!AA9-Daily!AA8)/Daily!AA8))</f>
@@ -16978,8 +17395,8 @@
         <v>1.4285714285714286</v>
       </c>
       <c r="AT10" s="2">
-        <f>IF(OR(ROW()&lt;=3,Daily!A10=""),"",Daily!AA10/Cumulative!Z10)</f>
-        <v>0.1</v>
+        <f>IF(OR(ROW()&lt;=3,Daily!A10=""),"",IF(Z9=0,1,Daily!AA10/Cumulative!Z9))</f>
+        <v>0.1111111111111111</v>
       </c>
       <c r="AU10" s="2">
         <f>IF(OR(ROW()&lt;=3,Daily!A10=""),"",IF(Daily!AA9=0,0,(Daily!AA10-Daily!AA9)/Daily!AA9))</f>
@@ -17172,7 +17589,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="AT11" s="2">
-        <f>IF(OR(ROW()&lt;=3,Daily!A11=""),"",Daily!AA11/Cumulative!Z11)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A11=""),"",IF(Z10=0,1,Daily!AA11/Cumulative!Z10))</f>
         <v>0</v>
       </c>
       <c r="AU11" s="2">
@@ -17366,8 +17783,8 @@
         <v>1.1428571428571428</v>
       </c>
       <c r="AT12" s="2">
-        <f>IF(OR(ROW()&lt;=3,Daily!A12=""),"",Daily!AA12/Cumulative!Z12)</f>
-        <v>0.16666666666666666</v>
+        <f>IF(OR(ROW()&lt;=3,Daily!A12=""),"",IF(Z11=0,1,Daily!AA12/Cumulative!Z11))</f>
+        <v>0.2</v>
       </c>
       <c r="AU12" s="2">
         <f>IF(OR(ROW()&lt;=3,Daily!A12=""),"",IF(Daily!AA11=0,0,(Daily!AA12-Daily!AA11)/Daily!AA11))</f>
@@ -17560,7 +17977,7 @@
         <v>1</v>
       </c>
       <c r="AT13" s="2">
-        <f>IF(OR(ROW()&lt;=3,Daily!A13=""),"",Daily!AA13/Cumulative!Z13)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A13=""),"",IF(Z12=0,1,Daily!AA13/Cumulative!Z12))</f>
         <v>0</v>
       </c>
       <c r="AU13" s="2">
@@ -17754,8 +18171,8 @@
         <v>1.1428571428571428</v>
       </c>
       <c r="AT14" s="2">
-        <f>IF(OR(ROW()&lt;=3,Daily!A14=""),"",Daily!AA14/Cumulative!Z14)</f>
-        <v>7.6923076923076927E-2</v>
+        <f>IF(OR(ROW()&lt;=3,Daily!A14=""),"",IF(Z13=0,1,Daily!AA14/Cumulative!Z13))</f>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="AU14" s="2">
         <f>IF(OR(ROW()&lt;=3,Daily!A14=""),"",IF(Daily!AA13=0,0,(Daily!AA14-Daily!AA13)/Daily!AA13))</f>
@@ -17948,8 +18365,8 @@
         <v>1.1428571428571428</v>
       </c>
       <c r="AT15" s="2">
-        <f>IF(OR(ROW()&lt;=3,Daily!A15=""),"",Daily!AA15/Cumulative!Z15)</f>
-        <v>0.13333333333333333</v>
+        <f>IF(OR(ROW()&lt;=3,Daily!A15=""),"",IF(Z14=0,1,Daily!AA15/Cumulative!Z14))</f>
+        <v>0.15384615384615385</v>
       </c>
       <c r="AU15" s="2">
         <f>IF(OR(ROW()&lt;=3,Daily!A15=""),"",IF(Daily!AA14=0,0,(Daily!AA15-Daily!AA14)/Daily!AA14))</f>
@@ -18142,8 +18559,8 @@
         <v>1</v>
       </c>
       <c r="AT16" s="2">
-        <f>IF(OR(ROW()&lt;=3,Daily!A16=""),"",Daily!AA16/Cumulative!Z16)</f>
-        <v>6.25E-2</v>
+        <f>IF(OR(ROW()&lt;=3,Daily!A16=""),"",IF(Z15=0,1,Daily!AA16/Cumulative!Z15))</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AU16" s="2">
         <f>IF(OR(ROW()&lt;=3,Daily!A16=""),"",IF(Daily!AA15=0,0,(Daily!AA16-Daily!AA15)/Daily!AA15))</f>
@@ -18336,7 +18753,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="AT17" s="2">
-        <f>IF(OR(ROW()&lt;=3,Daily!A17=""),"",Daily!AA17/Cumulative!Z17)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A17=""),"",IF(Z16=0,1,Daily!AA17/Cumulative!Z16))</f>
         <v>0</v>
       </c>
       <c r="AU17" s="2">
@@ -18530,7 +18947,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="AT18" s="2">
-        <f>IF(OR(ROW()&lt;=3,Daily!A18=""),"",Daily!AA18/Cumulative!Z18)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A18=""),"",IF(Z17=0,1,Daily!AA18/Cumulative!Z17))</f>
         <v>0</v>
       </c>
       <c r="AU18" s="2">
@@ -18724,7 +19141,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="AT19" s="2">
-        <f>IF(OR(ROW()&lt;=3,Daily!A19=""),"",Daily!AA19/Cumulative!Z19)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A19=""),"",IF(Z18=0,1,Daily!AA19/Cumulative!Z18))</f>
         <v>0</v>
       </c>
       <c r="AU19" s="2">
@@ -18918,7 +19335,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="AT20" s="2">
-        <f>IF(OR(ROW()&lt;=3,Daily!A20=""),"",Daily!AA20/Cumulative!Z20)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A20=""),"",IF(Z19=0,1,Daily!AA20/Cumulative!Z19))</f>
         <v>0</v>
       </c>
       <c r="AU20" s="2">
@@ -19112,7 +19529,7 @@
         <v>0.42857142857142855</v>
       </c>
       <c r="AT21" s="2">
-        <f>IF(OR(ROW()&lt;=3,Daily!A21=""),"",Daily!AA21/Cumulative!Z21)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A21=""),"",IF(Z20=0,1,Daily!AA21/Cumulative!Z20))</f>
         <v>0</v>
       </c>
       <c r="AU21" s="2">
@@ -19306,7 +19723,7 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="AT22" s="2">
-        <f>IF(OR(ROW()&lt;=3,Daily!A22=""),"",Daily!AA22/Cumulative!Z22)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A22=""),"",IF(Z21=0,1,Daily!AA22/Cumulative!Z21))</f>
         <v>0</v>
       </c>
       <c r="AU22" s="2">
@@ -19500,7 +19917,7 @@
         <v>0</v>
       </c>
       <c r="AT23" s="2">
-        <f>IF(OR(ROW()&lt;=3,Daily!A23=""),"",Daily!AA23/Cumulative!Z23)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A23=""),"",IF(Z22=0,1,Daily!AA23/Cumulative!Z22))</f>
         <v>0</v>
       </c>
       <c r="AU23" s="2">
@@ -19694,7 +20111,7 @@
         <v>0</v>
       </c>
       <c r="AT24" s="2">
-        <f>IF(OR(ROW()&lt;=3,Daily!A24=""),"",Daily!AA24/Cumulative!Z24)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A24=""),"",IF(Z23=0,1,Daily!AA24/Cumulative!Z23))</f>
         <v>0</v>
       </c>
       <c r="AU24" s="2">
@@ -19888,7 +20305,7 @@
         <v>0</v>
       </c>
       <c r="AT25" s="2">
-        <f>IF(OR(ROW()&lt;=3,Daily!A25=""),"",Daily!AA25/Cumulative!Z25)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A25=""),"",IF(Z24=0,1,Daily!AA25/Cumulative!Z24))</f>
         <v>0</v>
       </c>
       <c r="AU25" s="2">
@@ -20082,7 +20499,7 @@
         <v>0</v>
       </c>
       <c r="AT26" s="2">
-        <f>IF(OR(ROW()&lt;=3,Daily!A26=""),"",Daily!AA26/Cumulative!Z26)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A26=""),"",IF(Z25=0,1,Daily!AA26/Cumulative!Z25))</f>
         <v>0</v>
       </c>
       <c r="AU26" s="2">
@@ -20276,7 +20693,7 @@
         <v>0</v>
       </c>
       <c r="AT27" s="2">
-        <f>IF(OR(ROW()&lt;=3,Daily!A27=""),"",Daily!AA27/Cumulative!Z27)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A27=""),"",IF(Z26=0,1,Daily!AA27/Cumulative!Z26))</f>
         <v>0</v>
       </c>
       <c r="AU27" s="2">
@@ -20470,7 +20887,7 @@
         <v>0</v>
       </c>
       <c r="AT28" s="2">
-        <f>IF(OR(ROW()&lt;=3,Daily!A28=""),"",Daily!AA28/Cumulative!Z28)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A28=""),"",IF(Z27=0,1,Daily!AA28/Cumulative!Z27))</f>
         <v>0</v>
       </c>
       <c r="AU28" s="2">
@@ -20664,7 +21081,7 @@
         <v>0</v>
       </c>
       <c r="AT29" s="2">
-        <f>IF(OR(ROW()&lt;=3,Daily!A29=""),"",Daily!AA29/Cumulative!Z29)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A29=""),"",IF(Z28=0,1,Daily!AA29/Cumulative!Z28))</f>
         <v>0</v>
       </c>
       <c r="AU29" s="2">
@@ -20858,8 +21275,8 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="AT30" s="2">
-        <f>IF(OR(ROW()&lt;=3,Daily!A30=""),"",Daily!AA30/Cumulative!Z30)</f>
-        <v>5.8823529411764705E-2</v>
+        <f>IF(OR(ROW()&lt;=3,Daily!A30=""),"",IF(Z29=0,1,Daily!AA30/Cumulative!Z29))</f>
+        <v>6.25E-2</v>
       </c>
       <c r="AU30" s="2">
         <f>IF(OR(ROW()&lt;=3,Daily!A30=""),"",IF(Daily!AA29=0,0,(Daily!AA30-Daily!AA29)/Daily!AA29))</f>
@@ -21052,8 +21469,8 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AT31" s="2">
-        <f>IF(OR(ROW()&lt;=3,Daily!A31=""),"",Daily!AA31/Cumulative!Z31)</f>
-        <v>5.5555555555555552E-2</v>
+        <f>IF(OR(ROW()&lt;=3,Daily!A31=""),"",IF(Z30=0,1,Daily!AA31/Cumulative!Z30))</f>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="AU31" s="2">
         <f>IF(OR(ROW()&lt;=3,Daily!A31=""),"",IF(Daily!AA30=0,0,(Daily!AA31-Daily!AA30)/Daily!AA30))</f>
@@ -21246,8 +21663,8 @@
         <v>1.1428571428571428</v>
       </c>
       <c r="AT32" s="2">
-        <f>IF(OR(ROW()&lt;=3,Daily!A32=""),"",Daily!AA32/Cumulative!Z32)</f>
-        <v>0.25</v>
+        <f>IF(OR(ROW()&lt;=3,Daily!A32=""),"",IF(Z31=0,1,Daily!AA32/Cumulative!Z31))</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AU32" s="2">
         <f>IF(OR(ROW()&lt;=3,Daily!A32=""),"",IF(Daily!AA31=0,0,(Daily!AA32-Daily!AA31)/Daily!AA31))</f>
@@ -21440,7 +21857,7 @@
         <v>1.1428571428571428</v>
       </c>
       <c r="AT33" s="2">
-        <f>IF(OR(ROW()&lt;=3,Daily!A33=""),"",Daily!AA33/Cumulative!Z33)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A33=""),"",IF(Z32=0,1,Daily!AA33/Cumulative!Z32))</f>
         <v>0</v>
       </c>
       <c r="AU33" s="2">
@@ -21634,7 +22051,7 @@
         <v>1.1428571428571428</v>
       </c>
       <c r="AT34" s="2">
-        <f>IF(OR(ROW()&lt;=3,Daily!A34=""),"",Daily!AA34/Cumulative!Z34)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A34=""),"",IF(Z33=0,1,Daily!AA34/Cumulative!Z33))</f>
         <v>0</v>
       </c>
       <c r="AU34" s="2">
@@ -21828,7 +22245,7 @@
         <v>1.1428571428571428</v>
       </c>
       <c r="AT35" s="2">
-        <f>IF(OR(ROW()&lt;=3,Daily!A35=""),"",Daily!AA35/Cumulative!Z35)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A35=""),"",IF(Z34=0,1,Daily!AA35/Cumulative!Z34))</f>
         <v>0</v>
       </c>
       <c r="AU35" s="2">
@@ -22022,7 +22439,7 @@
         <v>1.1428571428571428</v>
       </c>
       <c r="AT36" s="2">
-        <f>IF(OR(ROW()&lt;=3,Daily!A36=""),"",Daily!AA36/Cumulative!Z36)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A36=""),"",IF(Z35=0,1,Daily!AA36/Cumulative!Z35))</f>
         <v>0</v>
       </c>
       <c r="AU36" s="2">
@@ -22216,7 +22633,7 @@
         <v>1</v>
       </c>
       <c r="AT37" s="2">
-        <f>IF(OR(ROW()&lt;=3,Daily!A37=""),"",Daily!AA37/Cumulative!Z37)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A37=""),"",IF(Z36=0,1,Daily!AA37/Cumulative!Z36))</f>
         <v>0</v>
       </c>
       <c r="AU37" s="2">
@@ -22410,8 +22827,8 @@
         <v>1.1428571428571428</v>
       </c>
       <c r="AT38" s="2">
-        <f>IF(OR(ROW()&lt;=3,Daily!A38=""),"",Daily!AA38/Cumulative!Z38)</f>
-        <v>7.6923076923076927E-2</v>
+        <f>IF(OR(ROW()&lt;=3,Daily!A38=""),"",IF(Z37=0,1,Daily!AA38/Cumulative!Z37))</f>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="AU38" s="2">
         <f>IF(OR(ROW()&lt;=3,Daily!A38=""),"",IF(Daily!AA37=0,0,(Daily!AA38-Daily!AA37)/Daily!AA37))</f>
@@ -22604,7 +23021,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AT39" s="2">
-        <f>IF(OR(ROW()&lt;=3,Daily!A39=""),"",Daily!AA39/Cumulative!Z39)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A39=""),"",IF(Z38=0,1,Daily!AA39/Cumulative!Z38))</f>
         <v>0</v>
       </c>
       <c r="AU39" s="2">
@@ -22798,8 +23215,8 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="AT40" s="2">
-        <f>IF(OR(ROW()&lt;=3,Daily!A40=""),"",Daily!AA40/Cumulative!Z40)</f>
-        <v>0.13333333333333333</v>
+        <f>IF(OR(ROW()&lt;=3,Daily!A40=""),"",IF(Z39=0,1,Daily!AA40/Cumulative!Z39))</f>
+        <v>0.15384615384615385</v>
       </c>
       <c r="AU40" s="2">
         <f>IF(OR(ROW()&lt;=3,Daily!A40=""),"",IF(Daily!AA39=0,0,(Daily!AA40-Daily!AA39)/Daily!AA39))</f>
@@ -22992,8 +23409,8 @@
         <v>1.4285714285714286</v>
       </c>
       <c r="AT41" s="2">
-        <f>IF(OR(ROW()&lt;=3,Daily!A41=""),"",Daily!AA41/Cumulative!Z41)</f>
-        <v>0.11764705882352941</v>
+        <f>IF(OR(ROW()&lt;=3,Daily!A41=""),"",IF(Z40=0,1,Daily!AA41/Cumulative!Z40))</f>
+        <v>0.13333333333333333</v>
       </c>
       <c r="AU41" s="2">
         <f>IF(OR(ROW()&lt;=3,Daily!A41=""),"",IF(Daily!AA40=0,0,(Daily!AA41-Daily!AA40)/Daily!AA40))</f>
@@ -23186,8 +23603,8 @@
         <v>2.5714285714285716</v>
       </c>
       <c r="AT42" s="2">
-        <f>IF(OR(ROW()&lt;=3,Daily!A42=""),"",Daily!AA42/Cumulative!Z42)</f>
-        <v>0.19047619047619047</v>
+        <f>IF(OR(ROW()&lt;=3,Daily!A42=""),"",IF(Z41=0,1,Daily!AA42/Cumulative!Z41))</f>
+        <v>0.23529411764705882</v>
       </c>
       <c r="AU42" s="2">
         <f>IF(OR(ROW()&lt;=3,Daily!A42=""),"",IF(Daily!AA41=0,0,(Daily!AA42-Daily!AA41)/Daily!AA41))</f>
@@ -23380,8 +23797,8 @@
         <v>4</v>
       </c>
       <c r="AT43" s="2">
-        <f>IF(OR(ROW()&lt;=3,Daily!A43=""),"",Daily!AA43/Cumulative!Z43)</f>
-        <v>0.19230769230769232</v>
+        <f>IF(OR(ROW()&lt;=3,Daily!A43=""),"",IF(Z42=0,1,Daily!AA43/Cumulative!Z42))</f>
+        <v>0.23809523809523808</v>
       </c>
       <c r="AU43" s="2">
         <f>IF(OR(ROW()&lt;=3,Daily!A43=""),"",IF(Daily!AA42=0,0,(Daily!AA43-Daily!AA42)/Daily!AA42))</f>
@@ -23574,8 +23991,8 @@
         <v>5.1428571428571432</v>
       </c>
       <c r="AT44" s="2">
-        <f>IF(OR(ROW()&lt;=3,Daily!A44=""),"",Daily!AA44/Cumulative!Z44)</f>
-        <v>0.13333333333333333</v>
+        <f>IF(OR(ROW()&lt;=3,Daily!A44=""),"",IF(Z43=0,1,Daily!AA44/Cumulative!Z43))</f>
+        <v>0.15384615384615385</v>
       </c>
       <c r="AU44" s="2">
         <f>IF(OR(ROW()&lt;=3,Daily!A44=""),"",IF(Daily!AA43=0,0,(Daily!AA44-Daily!AA43)/Daily!AA43))</f>
@@ -23768,8 +24185,8 @@
         <v>5.4285714285714288</v>
       </c>
       <c r="AT45" s="2">
-        <f>IF(OR(ROW()&lt;=3,Daily!A45=""),"",Daily!AA45/Cumulative!Z45)</f>
-        <v>6.25E-2</v>
+        <f>IF(OR(ROW()&lt;=3,Daily!A45=""),"",IF(Z44=0,1,Daily!AA45/Cumulative!Z44))</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="AU45" s="2">
         <f>IF(OR(ROW()&lt;=3,Daily!A45=""),"",IF(Daily!AA44=0,0,(Daily!AA45-Daily!AA44)/Daily!AA44))</f>
@@ -23962,8 +24379,8 @@
         <v>6.7142857142857144</v>
       </c>
       <c r="AT46" s="2">
-        <f>IF(OR(ROW()&lt;=3,Daily!A46=""),"",Daily!AA46/Cumulative!Z46)</f>
-        <v>0.12328767123287671</v>
+        <f>IF(OR(ROW()&lt;=3,Daily!A46=""),"",IF(Z45=0,1,Daily!AA46/Cumulative!Z45))</f>
+        <v>0.140625</v>
       </c>
       <c r="AU46" s="2">
         <f>IF(OR(ROW()&lt;=3,Daily!A46=""),"",IF(Daily!AA45=0,0,(Daily!AA46-Daily!AA45)/Daily!AA45))</f>
@@ -24156,16 +24573,16 @@
         <v>7.2857142857142856</v>
       </c>
       <c r="AT47" s="2">
-        <f>IF(OR(ROW()&lt;=3,Daily!A47=""),"",Daily!AA47/Cumulative!Z47)</f>
-        <v>9.8765432098765427E-2</v>
+        <f>IF(OR(ROW()&lt;=3,Daily!A47=""),"",IF(Z46=0,1,Daily!AA47/Cumulative!Z46))</f>
+        <v>0.1095890410958904</v>
       </c>
       <c r="AU47" s="2">
         <f>IF(OR(ROW()&lt;=3,Daily!A47=""),"",IF(Daily!AA46=0,0,(Daily!AA47-Daily!AA46)/Daily!AA46))</f>
         <v>-0.1111111111111111</v>
       </c>
-      <c r="AV47" t="e">
+      <c r="AV47">
         <f>IF(OR(Daily!A47="",Z47=0),"",_xlfn.XLOOKUP(Z47*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A47)</f>
-        <v>#N/A</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:48" x14ac:dyDescent="0.2">
@@ -24350,16 +24767,16 @@
         <v>8.4285714285714288</v>
       </c>
       <c r="AT48" s="2">
-        <f>IF(OR(ROW()&lt;=3,Daily!A48=""),"",Daily!AA48/Cumulative!Z48)</f>
-        <v>0.12903225806451613</v>
+        <f>IF(OR(ROW()&lt;=3,Daily!A48=""),"",IF(Z47=0,1,Daily!AA48/Cumulative!Z47))</f>
+        <v>0.14814814814814814</v>
       </c>
       <c r="AU48" s="2">
         <f>IF(OR(ROW()&lt;=3,Daily!A48=""),"",IF(Daily!AA47=0,0,(Daily!AA48-Daily!AA47)/Daily!AA47))</f>
         <v>0.5</v>
       </c>
-      <c r="AV48" t="e">
+      <c r="AV48">
         <f>IF(OR(Daily!A48="",Z48=0),"",_xlfn.XLOOKUP(Z48*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A48)</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:48" x14ac:dyDescent="0.2">
@@ -24544,8 +24961,8 @@
         <v>10.142857142857142</v>
       </c>
       <c r="AT49" s="2">
-        <f>IF(OR(ROW()&lt;=3,Daily!A49=""),"",Daily!AA49/Cumulative!Z49)</f>
-        <v>0.17699115044247787</v>
+        <f>IF(OR(ROW()&lt;=3,Daily!A49=""),"",IF(Z48=0,1,Daily!AA49/Cumulative!Z48))</f>
+        <v>0.21505376344086022</v>
       </c>
       <c r="AU49" s="2">
         <f>IF(OR(ROW()&lt;=3,Daily!A49=""),"",IF(Daily!AA48=0,0,(Daily!AA49-Daily!AA48)/Daily!AA48))</f>
@@ -24738,8 +25155,8 @@
         <v>10.857142857142858</v>
       </c>
       <c r="AT50" s="2">
-        <f>IF(OR(ROW()&lt;=3,Daily!A50=""),"",Daily!AA50/Cumulative!Z50)</f>
-        <v>0.1171875</v>
+        <f>IF(OR(ROW()&lt;=3,Daily!A50=""),"",IF(Z49=0,1,Daily!AA50/Cumulative!Z49))</f>
+        <v>0.13274336283185842</v>
       </c>
       <c r="AU50" s="2">
         <f>IF(OR(ROW()&lt;=3,Daily!A50=""),"",IF(Daily!AA49=0,0,(Daily!AA50-Daily!AA49)/Daily!AA49))</f>
@@ -24857,7 +25274,7 @@
       </c>
       <c r="AA51">
         <f>IF(Daily!$A51="","",Daily!AB51+IF(ROW(Z51)&gt;4,AA50,0))</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AB51">
         <f>IF(Daily!$A51="","",Daily!AC51+IF(ROW(AA51)&gt;4,AB50,0))</f>
@@ -24869,7 +25286,7 @@
       </c>
       <c r="AD51">
         <f>IF(Daily!$A51="","",Z51-AA51-AB51)</f>
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AE51">
         <f>IF(Daily!$A51="","",Cumulative!Z51-Cumulative!E51)</f>
@@ -24877,7 +25294,7 @@
       </c>
       <c r="AF51">
         <f>IF(Daily!$A51="","",Cumulative!AA51-Cumulative!F51)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AG51">
         <f>IF(Daily!$A51="","",Cumulative!AB51-Cumulative!G51)</f>
@@ -24885,15 +25302,15 @@
       </c>
       <c r="AH51">
         <f>IF(Daily!$A51="","",AE51-AF51-AG51)</f>
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AI51" s="2">
         <f>IF(Daily!$A51="","",IF(OR($AA51+$AB51=0, Daily!A51=""),"",AB51/($AA51+$AB51)))</f>
-        <v>0.1111111111111111</v>
+        <v>0.10344827586206896</v>
       </c>
       <c r="AJ51" s="2">
         <f>IF(Daily!$A51="","",IF($AA51+$AB51=0,"",AA51/($AA51+$AB51)))</f>
-        <v>0.88888888888888884</v>
+        <v>0.89655172413793105</v>
       </c>
       <c r="AK51" s="2">
         <f>IF(Daily!$A51="","",IF($Z51=0,0,B51/$Z51))</f>
@@ -24932,8 +25349,8 @@
         <v>14</v>
       </c>
       <c r="AT51" s="2">
-        <f>IF(OR(ROW()&lt;=3,Daily!A51=""),"",Daily!AA51/Cumulative!Z51)</f>
-        <v>0.189873417721519</v>
+        <f>IF(OR(ROW()&lt;=3,Daily!A51=""),"",IF(Z50=0,1,Daily!AA51/Cumulative!Z50))</f>
+        <v>0.234375</v>
       </c>
       <c r="AU51" s="2">
         <f>IF(OR(ROW()&lt;=3,Daily!A51=""),"",IF(Daily!AA50=0,0,(Daily!AA51-Daily!AA50)/Daily!AA50))</f>
@@ -24945,197 +25362,197 @@
       </c>
     </row>
     <row r="52" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="e">
+      <c r="A52" s="1">
         <f>IF(Daily!$A52="",NA(),Daily!A52)</f>
+        <v>43903</v>
+      </c>
+      <c r="B52">
+        <f>IF(Daily!$A52="","",Daily!B52+IF(ROW(A52)&gt;4,B51,0))</f>
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <f>IF(Daily!$A52="","",Daily!C52+IF(ROW(B52)&gt;4,C51,0))</f>
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <f>IF(Daily!$A52="","",Daily!D52+IF(ROW(C52)&gt;4,D51,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <f>IF(Daily!$A52="","",Daily!E52+IF(ROW(D52)&gt;4,E51,0))</f>
+        <v>92</v>
+      </c>
+      <c r="F52">
+        <f>IF(Daily!$A52="","",Daily!F52+IF(ROW(E52)&gt;4,F51,0))</f>
+        <v>4</v>
+      </c>
+      <c r="G52">
+        <f>IF(Daily!$A52="","",Daily!G52+IF(ROW(F52)&gt;4,G51,0))</f>
+        <v>2</v>
+      </c>
+      <c r="H52">
+        <f>IF(Daily!$A52="","",Daily!H52+IF(ROW(G52)&gt;4,H51,0))</f>
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <f>IF(Daily!$A52="","",Daily!I52+IF(ROW(H52)&gt;4,I51,0))</f>
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <f>IF(Daily!$A52="","",Daily!J52+IF(ROW(I52)&gt;4,J51,0))</f>
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <f>IF(Daily!$A52="","",Daily!K52+IF(ROW(J52)&gt;4,K51,0))</f>
+        <v>16</v>
+      </c>
+      <c r="L52">
+        <f>IF(Daily!$A52="","",Daily!L52+IF(ROW(K52)&gt;4,L51,0))</f>
+        <v>3</v>
+      </c>
+      <c r="M52">
+        <f>IF(Daily!$A52="","",Daily!M52+IF(ROW(L52)&gt;4,M51,0))</f>
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <f>IF(Daily!$A52="","",Daily!N52+IF(ROW(M52)&gt;4,N51,0))</f>
+        <v>35</v>
+      </c>
+      <c r="O52">
+        <f>IF(Daily!$A52="","",Daily!O52+IF(ROW(N52)&gt;4,O51,0))</f>
+        <v>8</v>
+      </c>
+      <c r="P52">
+        <f>IF(Daily!$A52="","",Daily!P52+IF(ROW(O52)&gt;4,P51,0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <f>IF(Daily!$A52="","",Daily!Q52+IF(ROW(P52)&gt;4,Q51,0))</f>
+        <v>4</v>
+      </c>
+      <c r="R52">
+        <f>IF(Daily!$A52="","",Daily!R52+IF(ROW(Q52)&gt;4,R51,0))</f>
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <f>IF(Daily!$A52="","",Daily!S52+IF(ROW(R52)&gt;4,S51,0))</f>
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <f>IF(Daily!$A52="","",Daily!T52+IF(ROW(S52)&gt;4,T51,0))</f>
+        <v>14</v>
+      </c>
+      <c r="U52">
+        <f>IF(Daily!$A52="","",Daily!U52+IF(ROW(T52)&gt;4,U51,0))</f>
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <f>IF(Daily!$A52="","",Daily!V52+IF(ROW(U52)&gt;4,V51,0))</f>
+        <v>1</v>
+      </c>
+      <c r="W52">
+        <f>IF(Daily!$A52="","",Daily!W52+IF(ROW(V52)&gt;4,W51,0))</f>
+        <v>36</v>
+      </c>
+      <c r="X52">
+        <f>IF(Daily!$A52="","",Daily!X52+IF(ROW(W52)&gt;4,X51,0))</f>
+        <v>7</v>
+      </c>
+      <c r="Y52">
+        <f>IF(Daily!$A52="","",Daily!Y52+IF(ROW(X52)&gt;4,Y51,0))</f>
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <f>IF(Daily!$A52="","",Daily!AA52+IF(ROW(Y52)&gt;4,Z51,0))</f>
+        <v>199</v>
+      </c>
+      <c r="AA52">
+        <f>IF(Daily!$A52="","",Daily!AB52+IF(ROW(Z52)&gt;4,AA51,0))</f>
+        <v>28</v>
+      </c>
+      <c r="AB52">
+        <f>IF(Daily!$A52="","",Daily!AC52+IF(ROW(AA52)&gt;4,AB51,0))</f>
+        <v>3</v>
+      </c>
+      <c r="AC52" s="5">
+        <f>IF(OR(Daily!$A52="",ROW(Cumulative!A52)&lt;=3),"",IF(Daily!AA51=0,0,Daily!AA52/Daily!AA51))</f>
+        <v>1.3666666666666667</v>
+      </c>
+      <c r="AD52">
+        <f>IF(Daily!$A52="","",Z52-AA52-AB52)</f>
+        <v>168</v>
+      </c>
+      <c r="AE52">
+        <f>IF(Daily!$A52="","",Cumulative!Z52-Cumulative!E52)</f>
+        <v>107</v>
+      </c>
+      <c r="AF52">
+        <f>IF(Daily!$A52="","",Cumulative!AA52-Cumulative!F52)</f>
+        <v>24</v>
+      </c>
+      <c r="AG52">
+        <f>IF(Daily!$A52="","",Cumulative!AB52-Cumulative!G52)</f>
+        <v>1</v>
+      </c>
+      <c r="AH52">
+        <f>IF(Daily!$A52="","",AE52-AF52-AG52)</f>
+        <v>82</v>
+      </c>
+      <c r="AI52" s="2">
+        <f>IF(Daily!$A52="","",IF(OR($AA52+$AB52=0, Daily!A52=""),"",AB52/($AA52+$AB52)))</f>
+        <v>9.6774193548387094E-2</v>
+      </c>
+      <c r="AJ52" s="2">
+        <f>IF(Daily!$A52="","",IF($AA52+$AB52=0,"",AA52/($AA52+$AB52)))</f>
+        <v>0.90322580645161288</v>
+      </c>
+      <c r="AK52" s="2">
+        <f>IF(Daily!$A52="","",IF($Z52=0,0,B52/$Z52))</f>
+        <v>5.0251256281407036E-3</v>
+      </c>
+      <c r="AL52" s="2">
+        <f>IF(Daily!$A52="","",IF($Z52=0,0,E52/$Z52))</f>
+        <v>0.46231155778894473</v>
+      </c>
+      <c r="AM52" s="2">
+        <f>IF(Daily!$A52="","",IF($Z52=0,0,H52/$Z52))</f>
+        <v>5.0251256281407036E-3</v>
+      </c>
+      <c r="AN52" s="2">
+        <f>IF(Daily!$A52="","",IF($Z52=0,0,K52/$Z52))</f>
+        <v>8.0402010050251257E-2</v>
+      </c>
+      <c r="AO52" s="2">
+        <f>IF(Daily!$A52="","",IF($Z52=0,0,N52/$Z52))</f>
+        <v>0.17587939698492464</v>
+      </c>
+      <c r="AP52" s="2">
+        <f>IF(Daily!$A52="","",IF($Z52=0,0,Q52/$Z52))</f>
+        <v>2.0100502512562814E-2</v>
+      </c>
+      <c r="AQ52" s="2">
+        <f>IF(Daily!$A52="","",IF($Z52=0,0,T52/$Z52))</f>
+        <v>7.0351758793969849E-2</v>
+      </c>
+      <c r="AR52" s="2">
+        <f>IF(Daily!$A52="","",IF($Z52=0,0,W52/Z52))</f>
+        <v>0.18090452261306533</v>
+      </c>
+      <c r="AS52" s="3">
+        <f ca="1">IF(Daily!$A52="","",AVERAGE(INDIRECT("Daily!AA"&amp;MAX(ROW()-6,3)&amp;":AA"&amp;ROW())))</f>
+        <v>19.285714285714285</v>
+      </c>
+      <c r="AT52" s="2">
+        <f>IF(OR(ROW()&lt;=3,Daily!A52=""),"",IF(Z51=0,1,Daily!AA52/Cumulative!Z51))</f>
+        <v>0.25949367088607594</v>
+      </c>
+      <c r="AU52" s="2">
+        <f>IF(OR(ROW()&lt;=3,Daily!A52=""),"",IF(Daily!AA51=0,0,(Daily!AA52-Daily!AA51)/Daily!AA51))</f>
+        <v>0.36666666666666664</v>
+      </c>
+      <c r="AV52" t="e">
+        <f>IF(OR(Daily!A52="",Z52=0),"",_xlfn.XLOOKUP(Z52*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A52)</f>
         <v>#N/A</v>
-      </c>
-      <c r="B52" t="str">
-        <f>IF(Daily!$A52="","",Daily!B52+IF(ROW(A52)&gt;4,B51,0))</f>
-        <v/>
-      </c>
-      <c r="C52" t="str">
-        <f>IF(Daily!$A52="","",Daily!C52+IF(ROW(B52)&gt;4,C51,0))</f>
-        <v/>
-      </c>
-      <c r="D52" t="str">
-        <f>IF(Daily!$A52="","",Daily!D52+IF(ROW(C52)&gt;4,D51,0))</f>
-        <v/>
-      </c>
-      <c r="E52" t="str">
-        <f>IF(Daily!$A52="","",Daily!E52+IF(ROW(D52)&gt;4,E51,0))</f>
-        <v/>
-      </c>
-      <c r="F52" t="str">
-        <f>IF(Daily!$A52="","",Daily!F52+IF(ROW(E52)&gt;4,F51,0))</f>
-        <v/>
-      </c>
-      <c r="G52" t="str">
-        <f>IF(Daily!$A52="","",Daily!G52+IF(ROW(F52)&gt;4,G51,0))</f>
-        <v/>
-      </c>
-      <c r="H52" t="str">
-        <f>IF(Daily!$A52="","",Daily!H52+IF(ROW(G52)&gt;4,H51,0))</f>
-        <v/>
-      </c>
-      <c r="I52" t="str">
-        <f>IF(Daily!$A52="","",Daily!I52+IF(ROW(H52)&gt;4,I51,0))</f>
-        <v/>
-      </c>
-      <c r="J52" t="str">
-        <f>IF(Daily!$A52="","",Daily!J52+IF(ROW(I52)&gt;4,J51,0))</f>
-        <v/>
-      </c>
-      <c r="K52" t="str">
-        <f>IF(Daily!$A52="","",Daily!K52+IF(ROW(J52)&gt;4,K51,0))</f>
-        <v/>
-      </c>
-      <c r="L52" t="str">
-        <f>IF(Daily!$A52="","",Daily!L52+IF(ROW(K52)&gt;4,L51,0))</f>
-        <v/>
-      </c>
-      <c r="M52" t="str">
-        <f>IF(Daily!$A52="","",Daily!M52+IF(ROW(L52)&gt;4,M51,0))</f>
-        <v/>
-      </c>
-      <c r="N52" t="str">
-        <f>IF(Daily!$A52="","",Daily!N52+IF(ROW(M52)&gt;4,N51,0))</f>
-        <v/>
-      </c>
-      <c r="O52" t="str">
-        <f>IF(Daily!$A52="","",Daily!O52+IF(ROW(N52)&gt;4,O51,0))</f>
-        <v/>
-      </c>
-      <c r="P52" t="str">
-        <f>IF(Daily!$A52="","",Daily!P52+IF(ROW(O52)&gt;4,P51,0))</f>
-        <v/>
-      </c>
-      <c r="Q52" t="str">
-        <f>IF(Daily!$A52="","",Daily!Q52+IF(ROW(P52)&gt;4,Q51,0))</f>
-        <v/>
-      </c>
-      <c r="R52" t="str">
-        <f>IF(Daily!$A52="","",Daily!R52+IF(ROW(Q52)&gt;4,R51,0))</f>
-        <v/>
-      </c>
-      <c r="S52" t="str">
-        <f>IF(Daily!$A52="","",Daily!S52+IF(ROW(R52)&gt;4,S51,0))</f>
-        <v/>
-      </c>
-      <c r="T52" t="str">
-        <f>IF(Daily!$A52="","",Daily!T52+IF(ROW(S52)&gt;4,T51,0))</f>
-        <v/>
-      </c>
-      <c r="U52" t="str">
-        <f>IF(Daily!$A52="","",Daily!U52+IF(ROW(T52)&gt;4,U51,0))</f>
-        <v/>
-      </c>
-      <c r="V52" t="str">
-        <f>IF(Daily!$A52="","",Daily!V52+IF(ROW(U52)&gt;4,V51,0))</f>
-        <v/>
-      </c>
-      <c r="W52" t="str">
-        <f>IF(Daily!$A52="","",Daily!W52+IF(ROW(V52)&gt;4,W51,0))</f>
-        <v/>
-      </c>
-      <c r="X52" t="str">
-        <f>IF(Daily!$A52="","",Daily!X52+IF(ROW(W52)&gt;4,X51,0))</f>
-        <v/>
-      </c>
-      <c r="Y52" t="str">
-        <f>IF(Daily!$A52="","",Daily!Y52+IF(ROW(X52)&gt;4,Y51,0))</f>
-        <v/>
-      </c>
-      <c r="Z52" t="str">
-        <f>IF(Daily!$A52="","",Daily!AA52+IF(ROW(Y52)&gt;4,Z51,0))</f>
-        <v/>
-      </c>
-      <c r="AA52" t="str">
-        <f>IF(Daily!$A52="","",Daily!AB52+IF(ROW(Z52)&gt;4,AA51,0))</f>
-        <v/>
-      </c>
-      <c r="AB52" t="str">
-        <f>IF(Daily!$A52="","",Daily!AC52+IF(ROW(AA52)&gt;4,AB51,0))</f>
-        <v/>
-      </c>
-      <c r="AC52" s="5" t="str">
-        <f>IF(OR(Daily!$A52="",ROW(Cumulative!A52)&lt;=3),"",IF(Daily!AA51=0,0,Daily!AA52/Daily!AA51))</f>
-        <v/>
-      </c>
-      <c r="AD52" t="str">
-        <f>IF(Daily!$A52="","",Z52-AA52-AB52)</f>
-        <v/>
-      </c>
-      <c r="AE52" t="str">
-        <f>IF(Daily!$A52="","",Cumulative!Z52-Cumulative!E52)</f>
-        <v/>
-      </c>
-      <c r="AF52" t="str">
-        <f>IF(Daily!$A52="","",Cumulative!AA52-Cumulative!F52)</f>
-        <v/>
-      </c>
-      <c r="AG52" t="str">
-        <f>IF(Daily!$A52="","",Cumulative!AB52-Cumulative!G52)</f>
-        <v/>
-      </c>
-      <c r="AH52" t="str">
-        <f>IF(Daily!$A52="","",AE52-AF52-AG52)</f>
-        <v/>
-      </c>
-      <c r="AI52" s="2" t="str">
-        <f>IF(Daily!$A52="","",IF(OR($AA52+$AB52=0, Daily!A52=""),"",AB52/($AA52+$AB52)))</f>
-        <v/>
-      </c>
-      <c r="AJ52" s="2" t="str">
-        <f>IF(Daily!$A52="","",IF($AA52+$AB52=0,"",AA52/($AA52+$AB52)))</f>
-        <v/>
-      </c>
-      <c r="AK52" s="2" t="str">
-        <f>IF(Daily!$A52="","",IF($Z52=0,0,B52/$Z52))</f>
-        <v/>
-      </c>
-      <c r="AL52" s="2" t="str">
-        <f>IF(Daily!$A52="","",IF($Z52=0,0,E52/$Z52))</f>
-        <v/>
-      </c>
-      <c r="AM52" s="2" t="str">
-        <f>IF(Daily!$A52="","",IF($Z52=0,0,H52/$Z52))</f>
-        <v/>
-      </c>
-      <c r="AN52" s="2" t="str">
-        <f>IF(Daily!$A52="","",IF($Z52=0,0,K52/$Z52))</f>
-        <v/>
-      </c>
-      <c r="AO52" s="2" t="str">
-        <f>IF(Daily!$A52="","",IF($Z52=0,0,N52/$Z52))</f>
-        <v/>
-      </c>
-      <c r="AP52" s="2" t="str">
-        <f>IF(Daily!$A52="","",IF($Z52=0,0,Q52/$Z52))</f>
-        <v/>
-      </c>
-      <c r="AQ52" s="2" t="str">
-        <f>IF(Daily!$A52="","",IF($Z52=0,0,T52/$Z52))</f>
-        <v/>
-      </c>
-      <c r="AR52" s="2" t="str">
-        <f>IF(Daily!$A52="","",IF($Z52=0,0,W52/Z52))</f>
-        <v/>
-      </c>
-      <c r="AS52" s="3" t="str">
-        <f ca="1">IF(Daily!$A52="","",AVERAGE(INDIRECT("Daily!AA"&amp;MAX(ROW()-6,3)&amp;":AA"&amp;ROW())))</f>
-        <v/>
-      </c>
-      <c r="AT52" s="2" t="str">
-        <f>IF(OR(ROW()&lt;=3,Daily!A52=""),"",Daily!AA52/Cumulative!Z52)</f>
-        <v/>
-      </c>
-      <c r="AU52" s="2" t="str">
-        <f>IF(OR(ROW()&lt;=3,Daily!A52=""),"",IF(Daily!AA51=0,0,(Daily!AA52-Daily!AA51)/Daily!AA51))</f>
-        <v/>
-      </c>
-      <c r="AV52" t="str">
-        <f>IF(OR(Daily!A52="",Z52=0),"",_xlfn.XLOOKUP(Z52*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A52)</f>
-        <v/>
       </c>
     </row>
     <row r="53" spans="1:48" x14ac:dyDescent="0.2">
@@ -25320,7 +25737,7 @@
         <v/>
       </c>
       <c r="AT53" s="2" t="str">
-        <f>IF(OR(ROW()&lt;=3,Daily!A53=""),"",Daily!AA53/Cumulative!Z53)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A53=""),"",IF(Z52=0,1,Daily!AA53/Cumulative!Z52))</f>
         <v/>
       </c>
       <c r="AU53" s="2" t="str">
@@ -25514,7 +25931,7 @@
         <v/>
       </c>
       <c r="AT54" s="2" t="str">
-        <f>IF(OR(ROW()&lt;=3,Daily!A54=""),"",Daily!AA54/Cumulative!Z54)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A54=""),"",IF(Z53=0,1,Daily!AA54/Cumulative!Z53))</f>
         <v/>
       </c>
       <c r="AU54" s="2" t="str">
@@ -25708,7 +26125,7 @@
         <v/>
       </c>
       <c r="AT55" s="2" t="str">
-        <f>IF(OR(ROW()&lt;=3,Daily!A55=""),"",Daily!AA55/Cumulative!Z55)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A55=""),"",IF(Z54=0,1,Daily!AA55/Cumulative!Z54))</f>
         <v/>
       </c>
       <c r="AU55" s="2" t="str">
@@ -25902,7 +26319,7 @@
         <v/>
       </c>
       <c r="AT56" s="2" t="str">
-        <f>IF(OR(ROW()&lt;=3,Daily!A56=""),"",Daily!AA56/Cumulative!Z56)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A56=""),"",IF(Z55=0,1,Daily!AA56/Cumulative!Z55))</f>
         <v/>
       </c>
       <c r="AU56" s="2" t="str">
@@ -26096,7 +26513,7 @@
         <v/>
       </c>
       <c r="AT57" s="2" t="str">
-        <f>IF(OR(ROW()&lt;=3,Daily!A57=""),"",Daily!AA57/Cumulative!Z57)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A57=""),"",IF(Z56=0,1,Daily!AA57/Cumulative!Z56))</f>
         <v/>
       </c>
       <c r="AU57" s="2" t="str">
@@ -26290,7 +26707,7 @@
         <v/>
       </c>
       <c r="AT58" s="2" t="str">
-        <f>IF(OR(ROW()&lt;=3,Daily!A58=""),"",Daily!AA58/Cumulative!Z58)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A58=""),"",IF(Z57=0,1,Daily!AA58/Cumulative!Z57))</f>
         <v/>
       </c>
       <c r="AU58" s="2" t="str">
@@ -26484,7 +26901,7 @@
         <v/>
       </c>
       <c r="AT59" s="2" t="str">
-        <f>IF(OR(ROW()&lt;=3,Daily!A59=""),"",Daily!AA59/Cumulative!Z59)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A59=""),"",IF(Z58=0,1,Daily!AA59/Cumulative!Z58))</f>
         <v/>
       </c>
       <c r="AU59" s="2" t="str">
@@ -26678,7 +27095,7 @@
         <v/>
       </c>
       <c r="AT60" s="2" t="str">
-        <f>IF(OR(ROW()&lt;=3,Daily!A60=""),"",Daily!AA60/Cumulative!Z60)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A60=""),"",IF(Z59=0,1,Daily!AA60/Cumulative!Z59))</f>
         <v/>
       </c>
       <c r="AU60" s="2" t="str">
@@ -26872,7 +27289,7 @@
         <v/>
       </c>
       <c r="AT61" s="2" t="str">
-        <f>IF(OR(ROW()&lt;=3,Daily!A61=""),"",Daily!AA61/Cumulative!Z61)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A61=""),"",IF(Z60=0,1,Daily!AA61/Cumulative!Z60))</f>
         <v/>
       </c>
       <c r="AU61" s="2" t="str">
@@ -27066,7 +27483,7 @@
         <v/>
       </c>
       <c r="AT62" s="2" t="str">
-        <f>IF(OR(ROW()&lt;=3,Daily!A62=""),"",Daily!AA62/Cumulative!Z62)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A62=""),"",IF(Z61=0,1,Daily!AA62/Cumulative!Z61))</f>
         <v/>
       </c>
       <c r="AU62" s="2" t="str">
@@ -27260,7 +27677,7 @@
         <v/>
       </c>
       <c r="AT63" s="2" t="str">
-        <f>IF(OR(ROW()&lt;=3,Daily!A63=""),"",Daily!AA63/Cumulative!Z63)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A63=""),"",IF(Z62=0,1,Daily!AA63/Cumulative!Z62))</f>
         <v/>
       </c>
       <c r="AU63" s="2" t="str">
@@ -27454,7 +27871,7 @@
         <v/>
       </c>
       <c r="AT64" s="2" t="str">
-        <f>IF(OR(ROW()&lt;=3,Daily!A64=""),"",Daily!AA64/Cumulative!Z64)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A64=""),"",IF(Z63=0,1,Daily!AA64/Cumulative!Z63))</f>
         <v/>
       </c>
       <c r="AU64" s="2" t="str">
@@ -27648,7 +28065,7 @@
         <v/>
       </c>
       <c r="AT65" s="2" t="str">
-        <f>IF(OR(ROW()&lt;=3,Daily!A65=""),"",Daily!AA65/Cumulative!Z65)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A65=""),"",IF(Z64=0,1,Daily!AA65/Cumulative!Z64))</f>
         <v/>
       </c>
       <c r="AU65" s="2" t="str">
@@ -27842,7 +28259,7 @@
         <v/>
       </c>
       <c r="AT66" s="2" t="str">
-        <f>IF(OR(ROW()&lt;=3,Daily!A66=""),"",Daily!AA66/Cumulative!Z66)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A66=""),"",IF(Z65=0,1,Daily!AA66/Cumulative!Z65))</f>
         <v/>
       </c>
       <c r="AU66" s="2" t="str">
@@ -28036,7 +28453,7 @@
         <v/>
       </c>
       <c r="AT67" s="2" t="str">
-        <f>IF(OR(ROW()&lt;=3,Daily!A67=""),"",Daily!AA67/Cumulative!Z67)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A67=""),"",IF(Z66=0,1,Daily!AA67/Cumulative!Z66))</f>
         <v/>
       </c>
       <c r="AU67" s="2" t="str">
@@ -28230,7 +28647,7 @@
         <v/>
       </c>
       <c r="AT68" s="2" t="str">
-        <f>IF(OR(ROW()&lt;=3,Daily!A68=""),"",Daily!AA68/Cumulative!Z68)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A68=""),"",IF(Z67=0,1,Daily!AA68/Cumulative!Z67))</f>
         <v/>
       </c>
       <c r="AU68" s="2" t="str">
@@ -28424,7 +28841,7 @@
         <v/>
       </c>
       <c r="AT69" s="2" t="str">
-        <f>IF(OR(ROW()&lt;=3,Daily!A69=""),"",Daily!AA69/Cumulative!Z69)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A69=""),"",IF(Z68=0,1,Daily!AA69/Cumulative!Z68))</f>
         <v/>
       </c>
       <c r="AU69" s="2" t="str">
@@ -28618,7 +29035,7 @@
         <v/>
       </c>
       <c r="AT70" s="2" t="str">
-        <f>IF(OR(ROW()&lt;=3,Daily!A70=""),"",Daily!AA70/Cumulative!Z70)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A70=""),"",IF(Z69=0,1,Daily!AA70/Cumulative!Z69))</f>
         <v/>
       </c>
       <c r="AU70" s="2" t="str">
@@ -28812,7 +29229,7 @@
         <v/>
       </c>
       <c r="AT71" s="2" t="str">
-        <f>IF(OR(ROW()&lt;=3,Daily!A71=""),"",Daily!AA71/Cumulative!Z71)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A71=""),"",IF(Z70=0,1,Daily!AA71/Cumulative!Z70))</f>
         <v/>
       </c>
       <c r="AU71" s="2" t="str">
@@ -29006,7 +29423,7 @@
         <v/>
       </c>
       <c r="AT72" s="2" t="str">
-        <f>IF(OR(ROW()&lt;=3,Daily!A72=""),"",Daily!AA72/Cumulative!Z72)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A72=""),"",IF(Z71=0,1,Daily!AA72/Cumulative!Z71))</f>
         <v/>
       </c>
       <c r="AU72" s="2" t="str">
@@ -29200,7 +29617,7 @@
         <v/>
       </c>
       <c r="AT73" s="2" t="str">
-        <f>IF(OR(ROW()&lt;=3,Daily!A73=""),"",Daily!AA73/Cumulative!Z73)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A73=""),"",IF(Z72=0,1,Daily!AA73/Cumulative!Z72))</f>
         <v/>
       </c>
       <c r="AU73" s="2" t="str">
@@ -29394,7 +29811,7 @@
         <v/>
       </c>
       <c r="AT74" s="2" t="str">
-        <f>IF(OR(ROW()&lt;=3,Daily!A74=""),"",Daily!AA74/Cumulative!Z74)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A74=""),"",IF(Z73=0,1,Daily!AA74/Cumulative!Z73))</f>
         <v/>
       </c>
       <c r="AU74" s="2" t="str">
@@ -29588,7 +30005,7 @@
         <v/>
       </c>
       <c r="AT75" s="2" t="str">
-        <f>IF(OR(ROW()&lt;=3,Daily!A75=""),"",Daily!AA75/Cumulative!Z75)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A75=""),"",IF(Z74=0,1,Daily!AA75/Cumulative!Z74))</f>
         <v/>
       </c>
       <c r="AU75" s="2" t="str">
@@ -29782,7 +30199,7 @@
         <v/>
       </c>
       <c r="AT76" s="2" t="str">
-        <f>IF(OR(ROW()&lt;=3,Daily!A76=""),"",Daily!AA76/Cumulative!Z76)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A76=""),"",IF(Z75=0,1,Daily!AA76/Cumulative!Z75))</f>
         <v/>
       </c>
       <c r="AU76" s="2" t="str">
@@ -29976,7 +30393,7 @@
         <v/>
       </c>
       <c r="AT77" s="2" t="str">
-        <f>IF(OR(ROW()&lt;=3,Daily!A77=""),"",Daily!AA77/Cumulative!Z77)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A77=""),"",IF(Z76=0,1,Daily!AA77/Cumulative!Z76))</f>
         <v/>
       </c>
       <c r="AU77" s="2" t="str">
@@ -30170,7 +30587,7 @@
         <v/>
       </c>
       <c r="AT78" s="2" t="str">
-        <f>IF(OR(ROW()&lt;=3,Daily!A78=""),"",Daily!AA78/Cumulative!Z78)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A78=""),"",IF(Z77=0,1,Daily!AA78/Cumulative!Z77))</f>
         <v/>
       </c>
       <c r="AU78" s="2" t="str">
@@ -30364,7 +30781,7 @@
         <v/>
       </c>
       <c r="AT79" s="2" t="str">
-        <f>IF(OR(ROW()&lt;=3,Daily!A79=""),"",Daily!AA79/Cumulative!Z79)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A79=""),"",IF(Z78=0,1,Daily!AA79/Cumulative!Z78))</f>
         <v/>
       </c>
       <c r="AU79" s="2" t="str">
@@ -30558,7 +30975,7 @@
         <v/>
       </c>
       <c r="AT80" s="2" t="str">
-        <f>IF(OR(ROW()&lt;=3,Daily!A80=""),"",Daily!AA80/Cumulative!Z80)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A80=""),"",IF(Z79=0,1,Daily!AA80/Cumulative!Z79))</f>
         <v/>
       </c>
       <c r="AU80" s="2" t="str">
@@ -30752,7 +31169,7 @@
         <v/>
       </c>
       <c r="AT81" s="2" t="str">
-        <f>IF(OR(ROW()&lt;=3,Daily!A81=""),"",Daily!AA81/Cumulative!Z81)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A81=""),"",IF(Z80=0,1,Daily!AA81/Cumulative!Z80))</f>
         <v/>
       </c>
       <c r="AU81" s="2" t="str">
@@ -30946,7 +31363,7 @@
         <v/>
       </c>
       <c r="AT82" s="2" t="str">
-        <f>IF(OR(ROW()&lt;=3,Daily!A82=""),"",Daily!AA82/Cumulative!Z82)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A82=""),"",IF(Z81=0,1,Daily!AA82/Cumulative!Z81))</f>
         <v/>
       </c>
       <c r="AU82" s="2" t="str">
@@ -31140,7 +31557,7 @@
         <v/>
       </c>
       <c r="AT83" s="2" t="str">
-        <f>IF(OR(ROW()&lt;=3,Daily!A83=""),"",Daily!AA83/Cumulative!Z83)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A83=""),"",IF(Z82=0,1,Daily!AA83/Cumulative!Z82))</f>
         <v/>
       </c>
       <c r="AU83" s="2" t="str">
@@ -31334,7 +31751,7 @@
         <v/>
       </c>
       <c r="AT84" s="2" t="str">
-        <f>IF(OR(ROW()&lt;=3,Daily!A84=""),"",Daily!AA84/Cumulative!Z84)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A84=""),"",IF(Z83=0,1,Daily!AA84/Cumulative!Z83))</f>
         <v/>
       </c>
       <c r="AU84" s="2" t="str">
@@ -31528,7 +31945,7 @@
         <v/>
       </c>
       <c r="AT85" s="2" t="str">
-        <f>IF(OR(ROW()&lt;=3,Daily!A85=""),"",Daily!AA85/Cumulative!Z85)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A85=""),"",IF(Z84=0,1,Daily!AA85/Cumulative!Z84))</f>
         <v/>
       </c>
       <c r="AU85" s="2" t="str">
@@ -31722,7 +32139,7 @@
         <v/>
       </c>
       <c r="AT86" s="2" t="str">
-        <f>IF(OR(ROW()&lt;=3,Daily!A86=""),"",Daily!AA86/Cumulative!Z86)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A86=""),"",IF(Z85=0,1,Daily!AA86/Cumulative!Z85))</f>
         <v/>
       </c>
       <c r="AU86" s="2" t="str">
@@ -31916,7 +32333,7 @@
         <v/>
       </c>
       <c r="AT87" s="2" t="str">
-        <f>IF(OR(ROW()&lt;=3,Daily!A87=""),"",Daily!AA87/Cumulative!Z87)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A87=""),"",IF(Z86=0,1,Daily!AA87/Cumulative!Z86))</f>
         <v/>
       </c>
       <c r="AU87" s="2" t="str">
@@ -32110,7 +32527,7 @@
         <v/>
       </c>
       <c r="AT88" s="2" t="str">
-        <f>IF(OR(ROW()&lt;=3,Daily!A88=""),"",Daily!AA88/Cumulative!Z88)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A88=""),"",IF(Z87=0,1,Daily!AA88/Cumulative!Z87))</f>
         <v/>
       </c>
       <c r="AU88" s="2" t="str">
@@ -32304,7 +32721,7 @@
         <v/>
       </c>
       <c r="AT89" s="2" t="str">
-        <f>IF(OR(ROW()&lt;=3,Daily!A89=""),"",Daily!AA89/Cumulative!Z89)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A89=""),"",IF(Z88=0,1,Daily!AA89/Cumulative!Z88))</f>
         <v/>
       </c>
       <c r="AU89" s="2" t="str">
@@ -32498,7 +32915,7 @@
         <v/>
       </c>
       <c r="AT90" s="2" t="str">
-        <f>IF(OR(ROW()&lt;=3,Daily!A90=""),"",Daily!AA90/Cumulative!Z90)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A90=""),"",IF(Z89=0,1,Daily!AA90/Cumulative!Z89))</f>
         <v/>
       </c>
       <c r="AU90" s="2" t="str">
@@ -32692,7 +33109,7 @@
         <v/>
       </c>
       <c r="AT91" s="2" t="str">
-        <f>IF(OR(ROW()&lt;=3,Daily!A91=""),"",Daily!AA91/Cumulative!Z91)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A91=""),"",IF(Z90=0,1,Daily!AA91/Cumulative!Z90))</f>
         <v/>
       </c>
       <c r="AU91" s="2" t="str">
@@ -32886,7 +33303,7 @@
         <v/>
       </c>
       <c r="AT92" s="2" t="str">
-        <f>IF(OR(ROW()&lt;=3,Daily!A92=""),"",Daily!AA92/Cumulative!Z92)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A92=""),"",IF(Z91=0,1,Daily!AA92/Cumulative!Z91))</f>
         <v/>
       </c>
       <c r="AU92" s="2" t="str">
@@ -33080,7 +33497,7 @@
         <v/>
       </c>
       <c r="AT93" s="2" t="str">
-        <f>IF(OR(ROW()&lt;=3,Daily!A93=""),"",Daily!AA93/Cumulative!Z93)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A93=""),"",IF(Z92=0,1,Daily!AA93/Cumulative!Z92))</f>
         <v/>
       </c>
       <c r="AU93" s="2" t="str">
@@ -33274,7 +33691,7 @@
         <v/>
       </c>
       <c r="AT94" s="2" t="str">
-        <f>IF(OR(ROW()&lt;=3,Daily!A94=""),"",Daily!AA94/Cumulative!Z94)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A94=""),"",IF(Z93=0,1,Daily!AA94/Cumulative!Z93))</f>
         <v/>
       </c>
       <c r="AU94" s="2" t="str">
@@ -33468,7 +33885,7 @@
         <v/>
       </c>
       <c r="AT95" s="2" t="str">
-        <f>IF(OR(ROW()&lt;=3,Daily!A95=""),"",Daily!AA95/Cumulative!Z95)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A95=""),"",IF(Z94=0,1,Daily!AA95/Cumulative!Z94))</f>
         <v/>
       </c>
       <c r="AU95" s="2" t="str">
@@ -33662,7 +34079,7 @@
         <v/>
       </c>
       <c r="AT96" s="2" t="str">
-        <f>IF(OR(ROW()&lt;=3,Daily!A96=""),"",Daily!AA96/Cumulative!Z96)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A96=""),"",IF(Z95=0,1,Daily!AA96/Cumulative!Z95))</f>
         <v/>
       </c>
       <c r="AU96" s="2" t="str">
@@ -33856,7 +34273,7 @@
         <v/>
       </c>
       <c r="AT97" s="2" t="str">
-        <f>IF(OR(ROW()&lt;=3,Daily!A97=""),"",Daily!AA97/Cumulative!Z97)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A97=""),"",IF(Z96=0,1,Daily!AA97/Cumulative!Z96))</f>
         <v/>
       </c>
       <c r="AU97" s="2" t="str">
@@ -34050,7 +34467,7 @@
         <v/>
       </c>
       <c r="AT98" s="2" t="str">
-        <f>IF(OR(ROW()&lt;=3,Daily!A98=""),"",Daily!AA98/Cumulative!Z98)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A98=""),"",IF(Z97=0,1,Daily!AA98/Cumulative!Z97))</f>
         <v/>
       </c>
       <c r="AU98" s="2" t="str">
@@ -34244,7 +34661,7 @@
         <v/>
       </c>
       <c r="AT99" s="2" t="str">
-        <f>IF(OR(ROW()&lt;=3,Daily!A99=""),"",Daily!AA99/Cumulative!Z99)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A99=""),"",IF(Z98=0,1,Daily!AA99/Cumulative!Z98))</f>
         <v/>
       </c>
       <c r="AU99" s="2" t="str">
@@ -34438,7 +34855,7 @@
         <v/>
       </c>
       <c r="AT100" s="2" t="str">
-        <f>IF(OR(ROW()&lt;=3,Daily!A100=""),"",Daily!AA100/Cumulative!Z100)</f>
+        <f>IF(OR(ROW()&lt;=3,Daily!A100=""),"",IF(Z99=0,1,Daily!AA100/Cumulative!Z99))</f>
         <v/>
       </c>
       <c r="AU100" s="2" t="str">
@@ -34576,19 +34993,68 @@
       <c r="A143" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AK1:AR1"/>
-    <mergeCell ref="AI1:AJ1"/>
+  <mergeCells count="12">
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:P1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AK1:AR1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AE1:AG1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52250498-B13A-3F44-9F82-349791E8BD3C}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>43902</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>40981</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/COVID-19 Australia.xlsx
+++ b/COVID-19 Australia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcus/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="123" documentId="5_{730325EB-8413-5D40-891A-7A0FEDB24050}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2C1194E0-073B-2A46-9F95-82B56DBE63AA}"/>
+  <xr:revisionPtr revIDLastSave="141" documentId="5_{730325EB-8413-5D40-891A-7A0FEDB24050}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9626E890-8286-E445-B5A5-1F9F5F9953D3}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="460" windowWidth="33240" windowHeight="23540" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8100" yWindow="460" windowWidth="33240" windowHeight="23540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="11" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="68">
   <si>
     <t>Date</t>
   </si>
@@ -239,6 +239,12 @@
   <si>
     <t xml:space="preserve">Updated data; Fix % Change formula; Add data sources </t>
   </si>
+  <si>
+    <t>https://www.facebook.com/HealthyWA</t>
+  </si>
+  <si>
+    <t>Updated data; fix recovered case counts from 10/2 - 14/2</t>
+  </si>
 </sst>
 </file>
 
@@ -555,7 +561,7 @@
                   <c:v>43903</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>#N/A</c:v>
+                  <c:v>43904</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>#N/A</c:v>
@@ -858,7 +864,7 @@
                   <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>0</c:v>
@@ -1417,7 +1423,7 @@
                   <c:v>43903</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>#N/A</c:v>
+                  <c:v>43904</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>#N/A</c:v>
@@ -1720,7 +1726,7 @@
                   <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>0</c:v>
@@ -2280,7 +2286,7 @@
                   <c:v>43903</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>#N/A</c:v>
+                  <c:v>43904</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>#N/A</c:v>
@@ -2583,7 +2589,7 @@
                   <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>0</c:v>
@@ -3142,7 +3148,7 @@
                   <c:v>43903</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>#N/A</c:v>
+                  <c:v>43904</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>#N/A</c:v>
@@ -3445,7 +3451,7 @@
                   <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>0</c:v>
@@ -4037,7 +4043,7 @@
                   <c:v>43903</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>#N/A</c:v>
+                  <c:v>43904</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>#N/A</c:v>
@@ -4340,7 +4346,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>0</c:v>
@@ -4679,7 +4685,7 @@
                   <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>0</c:v>
@@ -5018,7 +5024,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>0</c:v>
@@ -5357,7 +5363,7 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>0</c:v>
@@ -5696,7 +5702,7 @@
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>0</c:v>
@@ -6035,7 +6041,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>0</c:v>
@@ -6376,7 +6382,7 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>0</c:v>
@@ -6717,7 +6723,7 @@
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>0</c:v>
@@ -7304,7 +7310,7 @@
                   <c:v>43903</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>#N/A</c:v>
+                  <c:v>43904</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>#N/A</c:v>
@@ -7595,7 +7601,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>#N/A</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>#N/A</c:v>
@@ -7607,7 +7613,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>0</c:v>
@@ -8226,7 +8232,7 @@
                   <c:v>43903</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>#N/A</c:v>
+                  <c:v>43904</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>#N/A</c:v>
@@ -8523,13 +8529,13 @@
                   <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>129</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>168</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>0</c:v>
@@ -13349,10 +13355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9DE41B-0E36-2141-B22D-FF546E770A0D}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13542,36 +13548,44 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>51</v>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
       <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C29" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="31" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>56</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C31" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D31" s="7" t="s">
         <v>61</v>
       </c>
     </row>
@@ -13595,9 +13609,10 @@
     <hyperlink ref="C22" r:id="rId16" xr:uid="{4D03143E-A70D-8C48-B698-DA6E3EB28AE8}"/>
     <hyperlink ref="C24" r:id="rId17" xr:uid="{413C84B7-E1C2-774D-8B09-05FD1B829482}"/>
     <hyperlink ref="C25" r:id="rId18" xr:uid="{C38F2CE8-48F2-524C-8925-44C735702834}"/>
-    <hyperlink ref="C27" r:id="rId19" xr:uid="{1DF66D07-7C9E-1F40-9914-DAB538EE6359}"/>
-    <hyperlink ref="C28" r:id="rId20" xr:uid="{2541CBDE-4076-1147-B928-ACFD7BA56906}"/>
-    <hyperlink ref="C30" r:id="rId21" xr:uid="{8EEFD09E-CE69-4049-B10C-D30EA400D9D7}"/>
+    <hyperlink ref="C28" r:id="rId19" xr:uid="{1DF66D07-7C9E-1F40-9914-DAB538EE6359}"/>
+    <hyperlink ref="C29" r:id="rId20" xr:uid="{2541CBDE-4076-1147-B928-ACFD7BA56906}"/>
+    <hyperlink ref="C31" r:id="rId21" xr:uid="{8EEFD09E-CE69-4049-B10C-D30EA400D9D7}"/>
+    <hyperlink ref="C26" r:id="rId22" xr:uid="{62D8E6EC-80C0-B240-B527-42ED98B5A6E4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13608,10 +13623,10 @@
   <dimension ref="A1:AC100"/>
   <sheetViews>
     <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="P45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="G42" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
       <selection pane="topRight" activeCell="R1" sqref="R1"/>
-      <selection pane="bottomRight" activeCell="W1" sqref="W1:Y1"/>
+      <selection pane="bottomRight" activeCell="Z53" sqref="Z53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14790,16 +14805,13 @@
       <c r="W51">
         <v>6</v>
       </c>
-      <c r="Z51">
-        <v>2</v>
-      </c>
       <c r="AA51">
         <f>B51+E51+H51+K51+N51+Q51+T51+W51</f>
         <v>30</v>
       </c>
       <c r="AB51">
         <f>C51+F51+I51+L51+O51+R51+U51+X51+Z51</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC51">
         <f>D51+G51+J51+M51+P51+S51+V51+Y51</f>
@@ -14845,14 +14857,37 @@
       </c>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A53" s="1"/>
+      <c r="A53" s="1">
+        <v>43904</v>
+      </c>
+      <c r="E53">
+        <v>20</v>
+      </c>
+      <c r="K53">
+        <v>3</v>
+      </c>
+      <c r="N53">
+        <v>11</v>
+      </c>
+      <c r="Q53">
+        <v>1</v>
+      </c>
+      <c r="T53">
+        <v>3</v>
+      </c>
+      <c r="W53">
+        <v>13</v>
+      </c>
+      <c r="Z53">
+        <v>1</v>
+      </c>
       <c r="AA53">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="AB53">
         <f t="shared" ref="AB53:AB76" si="7">C53+F53+I53+L53+O53+R53+U53+X53+Z53</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC53">
         <f t="shared" si="6"/>
@@ -15581,11 +15616,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00CE068C-1164-624A-A0B4-3FDF7F131C48}">
   <dimension ref="A1:AV143"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AF23" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="S34" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomRight" activeCell="AK1" sqref="AK1:AR1"/>
+      <selection pane="bottomRight" activeCell="AA53" sqref="AA53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -24968,9 +25003,9 @@
         <f>IF(OR(ROW()&lt;=3,Daily!A49=""),"",IF(Daily!AA48=0,0,(Daily!AA49-Daily!AA48)/Daily!AA48))</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AV49" t="e">
+      <c r="AV49">
         <f>IF(OR(Daily!A49="",Z49=0),"",_xlfn.XLOOKUP(Z49*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A49)</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:48" x14ac:dyDescent="0.2">
@@ -25274,7 +25309,7 @@
       </c>
       <c r="AA51">
         <f>IF(Daily!$A51="","",Daily!AB51+IF(ROW(Z51)&gt;4,AA50,0))</f>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AB51">
         <f>IF(Daily!$A51="","",Daily!AC51+IF(ROW(AA51)&gt;4,AB50,0))</f>
@@ -25286,7 +25321,7 @@
       </c>
       <c r="AD51">
         <f>IF(Daily!$A51="","",Z51-AA51-AB51)</f>
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AE51">
         <f>IF(Daily!$A51="","",Cumulative!Z51-Cumulative!E51)</f>
@@ -25294,7 +25329,7 @@
       </c>
       <c r="AF51">
         <f>IF(Daily!$A51="","",Cumulative!AA51-Cumulative!F51)</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AG51">
         <f>IF(Daily!$A51="","",Cumulative!AB51-Cumulative!G51)</f>
@@ -25302,15 +25337,15 @@
       </c>
       <c r="AH51">
         <f>IF(Daily!$A51="","",AE51-AF51-AG51)</f>
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AI51" s="2">
         <f>IF(Daily!$A51="","",IF(OR($AA51+$AB51=0, Daily!A51=""),"",AB51/($AA51+$AB51)))</f>
-        <v>0.10344827586206896</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="AJ51" s="2">
         <f>IF(Daily!$A51="","",IF($AA51+$AB51=0,"",AA51/($AA51+$AB51)))</f>
-        <v>0.89655172413793105</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="AK51" s="2">
         <f>IF(Daily!$A51="","",IF($Z51=0,0,B51/$Z51))</f>
@@ -25468,7 +25503,7 @@
       </c>
       <c r="AA52">
         <f>IF(Daily!$A52="","",Daily!AB52+IF(ROW(Z52)&gt;4,AA51,0))</f>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AB52">
         <f>IF(Daily!$A52="","",Daily!AC52+IF(ROW(AA52)&gt;4,AB51,0))</f>
@@ -25480,7 +25515,7 @@
       </c>
       <c r="AD52">
         <f>IF(Daily!$A52="","",Z52-AA52-AB52)</f>
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AE52">
         <f>IF(Daily!$A52="","",Cumulative!Z52-Cumulative!E52)</f>
@@ -25488,7 +25523,7 @@
       </c>
       <c r="AF52">
         <f>IF(Daily!$A52="","",Cumulative!AA52-Cumulative!F52)</f>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AG52">
         <f>IF(Daily!$A52="","",Cumulative!AB52-Cumulative!G52)</f>
@@ -25496,15 +25531,15 @@
       </c>
       <c r="AH52">
         <f>IF(Daily!$A52="","",AE52-AF52-AG52)</f>
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI52" s="2">
         <f>IF(Daily!$A52="","",IF(OR($AA52+$AB52=0, Daily!A52=""),"",AB52/($AA52+$AB52)))</f>
-        <v>9.6774193548387094E-2</v>
+        <v>0.10344827586206896</v>
       </c>
       <c r="AJ52" s="2">
         <f>IF(Daily!$A52="","",IF($AA52+$AB52=0,"",AA52/($AA52+$AB52)))</f>
-        <v>0.90322580645161288</v>
+        <v>0.89655172413793105</v>
       </c>
       <c r="AK52" s="2">
         <f>IF(Daily!$A52="","",IF($Z52=0,0,B52/$Z52))</f>
@@ -25556,197 +25591,197 @@
       </c>
     </row>
     <row r="53" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="e">
+      <c r="A53" s="1">
         <f>IF(Daily!$A53="",NA(),Daily!A53)</f>
+        <v>43904</v>
+      </c>
+      <c r="B53">
+        <f>IF(Daily!$A53="","",Daily!B53+IF(ROW(A53)&gt;4,B52,0))</f>
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <f>IF(Daily!$A53="","",Daily!C53+IF(ROW(B53)&gt;4,C52,0))</f>
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <f>IF(Daily!$A53="","",Daily!D53+IF(ROW(C53)&gt;4,D52,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <f>IF(Daily!$A53="","",Daily!E53+IF(ROW(D53)&gt;4,E52,0))</f>
+        <v>112</v>
+      </c>
+      <c r="F53">
+        <f>IF(Daily!$A53="","",Daily!F53+IF(ROW(E53)&gt;4,F52,0))</f>
+        <v>4</v>
+      </c>
+      <c r="G53">
+        <f>IF(Daily!$A53="","",Daily!G53+IF(ROW(F53)&gt;4,G52,0))</f>
+        <v>2</v>
+      </c>
+      <c r="H53">
+        <f>IF(Daily!$A53="","",Daily!H53+IF(ROW(G53)&gt;4,H52,0))</f>
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <f>IF(Daily!$A53="","",Daily!I53+IF(ROW(H53)&gt;4,I52,0))</f>
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <f>IF(Daily!$A53="","",Daily!J53+IF(ROW(I53)&gt;4,J52,0))</f>
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <f>IF(Daily!$A53="","",Daily!K53+IF(ROW(J53)&gt;4,K52,0))</f>
+        <v>19</v>
+      </c>
+      <c r="L53">
+        <f>IF(Daily!$A53="","",Daily!L53+IF(ROW(K53)&gt;4,L52,0))</f>
+        <v>3</v>
+      </c>
+      <c r="M53">
+        <f>IF(Daily!$A53="","",Daily!M53+IF(ROW(L53)&gt;4,M52,0))</f>
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <f>IF(Daily!$A53="","",Daily!N53+IF(ROW(M53)&gt;4,N52,0))</f>
+        <v>46</v>
+      </c>
+      <c r="O53">
+        <f>IF(Daily!$A53="","",Daily!O53+IF(ROW(N53)&gt;4,O52,0))</f>
+        <v>8</v>
+      </c>
+      <c r="P53">
+        <f>IF(Daily!$A53="","",Daily!P53+IF(ROW(O53)&gt;4,P52,0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <f>IF(Daily!$A53="","",Daily!Q53+IF(ROW(P53)&gt;4,Q52,0))</f>
+        <v>5</v>
+      </c>
+      <c r="R53">
+        <f>IF(Daily!$A53="","",Daily!R53+IF(ROW(Q53)&gt;4,R52,0))</f>
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <f>IF(Daily!$A53="","",Daily!S53+IF(ROW(R53)&gt;4,S52,0))</f>
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <f>IF(Daily!$A53="","",Daily!T53+IF(ROW(S53)&gt;4,T52,0))</f>
+        <v>17</v>
+      </c>
+      <c r="U53">
+        <f>IF(Daily!$A53="","",Daily!U53+IF(ROW(T53)&gt;4,U52,0))</f>
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <f>IF(Daily!$A53="","",Daily!V53+IF(ROW(U53)&gt;4,V52,0))</f>
+        <v>1</v>
+      </c>
+      <c r="W53">
+        <f>IF(Daily!$A53="","",Daily!W53+IF(ROW(V53)&gt;4,W52,0))</f>
+        <v>49</v>
+      </c>
+      <c r="X53">
+        <f>IF(Daily!$A53="","",Daily!X53+IF(ROW(W53)&gt;4,X52,0))</f>
+        <v>7</v>
+      </c>
+      <c r="Y53">
+        <f>IF(Daily!$A53="","",Daily!Y53+IF(ROW(X53)&gt;4,Y52,0))</f>
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <f>IF(Daily!$A53="","",Daily!AA53+IF(ROW(Y53)&gt;4,Z52,0))</f>
+        <v>250</v>
+      </c>
+      <c r="AA53">
+        <f>IF(Daily!$A53="","",Daily!AB53+IF(ROW(Z53)&gt;4,AA52,0))</f>
+        <v>27</v>
+      </c>
+      <c r="AB53">
+        <f>IF(Daily!$A53="","",Daily!AC53+IF(ROW(AA53)&gt;4,AB52,0))</f>
+        <v>3</v>
+      </c>
+      <c r="AC53" s="5">
+        <f>IF(OR(Daily!$A53="",ROW(Cumulative!A53)&lt;=3),"",IF(Daily!AA52=0,0,Daily!AA53/Daily!AA52))</f>
+        <v>1.2439024390243902</v>
+      </c>
+      <c r="AD53">
+        <f>IF(Daily!$A53="","",Z53-AA53-AB53)</f>
+        <v>220</v>
+      </c>
+      <c r="AE53">
+        <f>IF(Daily!$A53="","",Cumulative!Z53-Cumulative!E53)</f>
+        <v>138</v>
+      </c>
+      <c r="AF53">
+        <f>IF(Daily!$A53="","",Cumulative!AA53-Cumulative!F53)</f>
+        <v>23</v>
+      </c>
+      <c r="AG53">
+        <f>IF(Daily!$A53="","",Cumulative!AB53-Cumulative!G53)</f>
+        <v>1</v>
+      </c>
+      <c r="AH53">
+        <f>IF(Daily!$A53="","",AE53-AF53-AG53)</f>
+        <v>114</v>
+      </c>
+      <c r="AI53" s="2">
+        <f>IF(Daily!$A53="","",IF(OR($AA53+$AB53=0, Daily!A53=""),"",AB53/($AA53+$AB53)))</f>
+        <v>0.1</v>
+      </c>
+      <c r="AJ53" s="2">
+        <f>IF(Daily!$A53="","",IF($AA53+$AB53=0,"",AA53/($AA53+$AB53)))</f>
+        <v>0.9</v>
+      </c>
+      <c r="AK53" s="2">
+        <f>IF(Daily!$A53="","",IF($Z53=0,0,B53/$Z53))</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AL53" s="2">
+        <f>IF(Daily!$A53="","",IF($Z53=0,0,E53/$Z53))</f>
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="AM53" s="2">
+        <f>IF(Daily!$A53="","",IF($Z53=0,0,H53/$Z53))</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AN53" s="2">
+        <f>IF(Daily!$A53="","",IF($Z53=0,0,K53/$Z53))</f>
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="AO53" s="2">
+        <f>IF(Daily!$A53="","",IF($Z53=0,0,N53/$Z53))</f>
+        <v>0.184</v>
+      </c>
+      <c r="AP53" s="2">
+        <f>IF(Daily!$A53="","",IF($Z53=0,0,Q53/$Z53))</f>
+        <v>0.02</v>
+      </c>
+      <c r="AQ53" s="2">
+        <f>IF(Daily!$A53="","",IF($Z53=0,0,T53/$Z53))</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="AR53" s="2">
+        <f>IF(Daily!$A53="","",IF($Z53=0,0,W53/Z53))</f>
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="AS53" s="3">
+        <f ca="1">IF(Daily!$A53="","",AVERAGE(INDIRECT("Daily!AA"&amp;MAX(ROW()-6,3)&amp;":AA"&amp;ROW())))</f>
+        <v>25.285714285714285</v>
+      </c>
+      <c r="AT53" s="2">
+        <f>IF(OR(ROW()&lt;=3,Daily!A53=""),"",IF(Z52=0,1,Daily!AA53/Cumulative!Z52))</f>
+        <v>0.25628140703517588</v>
+      </c>
+      <c r="AU53" s="2">
+        <f>IF(OR(ROW()&lt;=3,Daily!A53=""),"",IF(Daily!AA52=0,0,(Daily!AA53-Daily!AA52)/Daily!AA52))</f>
+        <v>0.24390243902439024</v>
+      </c>
+      <c r="AV53" t="e">
+        <f>IF(OR(Daily!A53="",Z53=0),"",_xlfn.XLOOKUP(Z53*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A53)</f>
         <v>#N/A</v>
-      </c>
-      <c r="B53" t="str">
-        <f>IF(Daily!$A53="","",Daily!B53+IF(ROW(A53)&gt;4,B52,0))</f>
-        <v/>
-      </c>
-      <c r="C53" t="str">
-        <f>IF(Daily!$A53="","",Daily!C53+IF(ROW(B53)&gt;4,C52,0))</f>
-        <v/>
-      </c>
-      <c r="D53" t="str">
-        <f>IF(Daily!$A53="","",Daily!D53+IF(ROW(C53)&gt;4,D52,0))</f>
-        <v/>
-      </c>
-      <c r="E53" t="str">
-        <f>IF(Daily!$A53="","",Daily!E53+IF(ROW(D53)&gt;4,E52,0))</f>
-        <v/>
-      </c>
-      <c r="F53" t="str">
-        <f>IF(Daily!$A53="","",Daily!F53+IF(ROW(E53)&gt;4,F52,0))</f>
-        <v/>
-      </c>
-      <c r="G53" t="str">
-        <f>IF(Daily!$A53="","",Daily!G53+IF(ROW(F53)&gt;4,G52,0))</f>
-        <v/>
-      </c>
-      <c r="H53" t="str">
-        <f>IF(Daily!$A53="","",Daily!H53+IF(ROW(G53)&gt;4,H52,0))</f>
-        <v/>
-      </c>
-      <c r="I53" t="str">
-        <f>IF(Daily!$A53="","",Daily!I53+IF(ROW(H53)&gt;4,I52,0))</f>
-        <v/>
-      </c>
-      <c r="J53" t="str">
-        <f>IF(Daily!$A53="","",Daily!J53+IF(ROW(I53)&gt;4,J52,0))</f>
-        <v/>
-      </c>
-      <c r="K53" t="str">
-        <f>IF(Daily!$A53="","",Daily!K53+IF(ROW(J53)&gt;4,K52,0))</f>
-        <v/>
-      </c>
-      <c r="L53" t="str">
-        <f>IF(Daily!$A53="","",Daily!L53+IF(ROW(K53)&gt;4,L52,0))</f>
-        <v/>
-      </c>
-      <c r="M53" t="str">
-        <f>IF(Daily!$A53="","",Daily!M53+IF(ROW(L53)&gt;4,M52,0))</f>
-        <v/>
-      </c>
-      <c r="N53" t="str">
-        <f>IF(Daily!$A53="","",Daily!N53+IF(ROW(M53)&gt;4,N52,0))</f>
-        <v/>
-      </c>
-      <c r="O53" t="str">
-        <f>IF(Daily!$A53="","",Daily!O53+IF(ROW(N53)&gt;4,O52,0))</f>
-        <v/>
-      </c>
-      <c r="P53" t="str">
-        <f>IF(Daily!$A53="","",Daily!P53+IF(ROW(O53)&gt;4,P52,0))</f>
-        <v/>
-      </c>
-      <c r="Q53" t="str">
-        <f>IF(Daily!$A53="","",Daily!Q53+IF(ROW(P53)&gt;4,Q52,0))</f>
-        <v/>
-      </c>
-      <c r="R53" t="str">
-        <f>IF(Daily!$A53="","",Daily!R53+IF(ROW(Q53)&gt;4,R52,0))</f>
-        <v/>
-      </c>
-      <c r="S53" t="str">
-        <f>IF(Daily!$A53="","",Daily!S53+IF(ROW(R53)&gt;4,S52,0))</f>
-        <v/>
-      </c>
-      <c r="T53" t="str">
-        <f>IF(Daily!$A53="","",Daily!T53+IF(ROW(S53)&gt;4,T52,0))</f>
-        <v/>
-      </c>
-      <c r="U53" t="str">
-        <f>IF(Daily!$A53="","",Daily!U53+IF(ROW(T53)&gt;4,U52,0))</f>
-        <v/>
-      </c>
-      <c r="V53" t="str">
-        <f>IF(Daily!$A53="","",Daily!V53+IF(ROW(U53)&gt;4,V52,0))</f>
-        <v/>
-      </c>
-      <c r="W53" t="str">
-        <f>IF(Daily!$A53="","",Daily!W53+IF(ROW(V53)&gt;4,W52,0))</f>
-        <v/>
-      </c>
-      <c r="X53" t="str">
-        <f>IF(Daily!$A53="","",Daily!X53+IF(ROW(W53)&gt;4,X52,0))</f>
-        <v/>
-      </c>
-      <c r="Y53" t="str">
-        <f>IF(Daily!$A53="","",Daily!Y53+IF(ROW(X53)&gt;4,Y52,0))</f>
-        <v/>
-      </c>
-      <c r="Z53" t="str">
-        <f>IF(Daily!$A53="","",Daily!AA53+IF(ROW(Y53)&gt;4,Z52,0))</f>
-        <v/>
-      </c>
-      <c r="AA53" t="str">
-        <f>IF(Daily!$A53="","",Daily!AB53+IF(ROW(Z53)&gt;4,AA52,0))</f>
-        <v/>
-      </c>
-      <c r="AB53" t="str">
-        <f>IF(Daily!$A53="","",Daily!AC53+IF(ROW(AA53)&gt;4,AB52,0))</f>
-        <v/>
-      </c>
-      <c r="AC53" s="5" t="str">
-        <f>IF(OR(Daily!$A53="",ROW(Cumulative!A53)&lt;=3),"",IF(Daily!AA52=0,0,Daily!AA53/Daily!AA52))</f>
-        <v/>
-      </c>
-      <c r="AD53" t="str">
-        <f>IF(Daily!$A53="","",Z53-AA53-AB53)</f>
-        <v/>
-      </c>
-      <c r="AE53" t="str">
-        <f>IF(Daily!$A53="","",Cumulative!Z53-Cumulative!E53)</f>
-        <v/>
-      </c>
-      <c r="AF53" t="str">
-        <f>IF(Daily!$A53="","",Cumulative!AA53-Cumulative!F53)</f>
-        <v/>
-      </c>
-      <c r="AG53" t="str">
-        <f>IF(Daily!$A53="","",Cumulative!AB53-Cumulative!G53)</f>
-        <v/>
-      </c>
-      <c r="AH53" t="str">
-        <f>IF(Daily!$A53="","",AE53-AF53-AG53)</f>
-        <v/>
-      </c>
-      <c r="AI53" s="2" t="str">
-        <f>IF(Daily!$A53="","",IF(OR($AA53+$AB53=0, Daily!A53=""),"",AB53/($AA53+$AB53)))</f>
-        <v/>
-      </c>
-      <c r="AJ53" s="2" t="str">
-        <f>IF(Daily!$A53="","",IF($AA53+$AB53=0,"",AA53/($AA53+$AB53)))</f>
-        <v/>
-      </c>
-      <c r="AK53" s="2" t="str">
-        <f>IF(Daily!$A53="","",IF($Z53=0,0,B53/$Z53))</f>
-        <v/>
-      </c>
-      <c r="AL53" s="2" t="str">
-        <f>IF(Daily!$A53="","",IF($Z53=0,0,E53/$Z53))</f>
-        <v/>
-      </c>
-      <c r="AM53" s="2" t="str">
-        <f>IF(Daily!$A53="","",IF($Z53=0,0,H53/$Z53))</f>
-        <v/>
-      </c>
-      <c r="AN53" s="2" t="str">
-        <f>IF(Daily!$A53="","",IF($Z53=0,0,K53/$Z53))</f>
-        <v/>
-      </c>
-      <c r="AO53" s="2" t="str">
-        <f>IF(Daily!$A53="","",IF($Z53=0,0,N53/$Z53))</f>
-        <v/>
-      </c>
-      <c r="AP53" s="2" t="str">
-        <f>IF(Daily!$A53="","",IF($Z53=0,0,Q53/$Z53))</f>
-        <v/>
-      </c>
-      <c r="AQ53" s="2" t="str">
-        <f>IF(Daily!$A53="","",IF($Z53=0,0,T53/$Z53))</f>
-        <v/>
-      </c>
-      <c r="AR53" s="2" t="str">
-        <f>IF(Daily!$A53="","",IF($Z53=0,0,W53/Z53))</f>
-        <v/>
-      </c>
-      <c r="AS53" s="3" t="str">
-        <f ca="1">IF(Daily!$A53="","",AVERAGE(INDIRECT("Daily!AA"&amp;MAX(ROW()-6,3)&amp;":AA"&amp;ROW())))</f>
-        <v/>
-      </c>
-      <c r="AT53" s="2" t="str">
-        <f>IF(OR(ROW()&lt;=3,Daily!A53=""),"",IF(Z52=0,1,Daily!AA53/Cumulative!Z52))</f>
-        <v/>
-      </c>
-      <c r="AU53" s="2" t="str">
-        <f>IF(OR(ROW()&lt;=3,Daily!A53=""),"",IF(Daily!AA52=0,0,(Daily!AA53-Daily!AA52)/Daily!AA52))</f>
-        <v/>
-      </c>
-      <c r="AV53" t="str">
-        <f>IF(OR(Daily!A53="",Z53=0),"",_xlfn.XLOOKUP(Z53*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A53)</f>
-        <v/>
       </c>
     </row>
     <row r="54" spans="1:48" x14ac:dyDescent="0.2">
@@ -34994,18 +35029,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AK1:AR1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AE1:AG1"/>
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:P1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AK1:AR1"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AE1:AG1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -35013,10 +35048,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52250498-B13A-3F44-9F82-349791E8BD3C}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -35045,13 +35080,24 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>40981</v>
+        <v>43903</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>43904</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/COVID-19 Australia.xlsx
+++ b/COVID-19 Australia.xlsx
@@ -1,29 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10301"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcus/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="141" documentId="5_{730325EB-8413-5D40-891A-7A0FEDB24050}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9626E890-8286-E445-B5A5-1F9F5F9953D3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C924290-1D76-914A-B49B-294F6ABFE9EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="460" windowWidth="33240" windowHeight="23540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2580" yWindow="460" windowWidth="34260" windowHeight="23540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="11" r:id="rId1"/>
     <sheet name="Daily" sheetId="1" r:id="rId2"/>
     <sheet name="Cumulative" sheetId="2" r:id="rId3"/>
-    <sheet name="National Infections" sheetId="4" r:id="rId4"/>
-    <sheet name="Log National Infections" sheetId="5" r:id="rId5"/>
-    <sheet name="National Infections Without NSW" sheetId="7" r:id="rId6"/>
-    <sheet name="Log Infections Without NSW" sheetId="8" r:id="rId7"/>
-    <sheet name="Infections by State" sheetId="9" r:id="rId8"/>
-    <sheet name="Days to double" sheetId="10" r:id="rId9"/>
-    <sheet name="Active Cases" sheetId="6" r:id="rId10"/>
-    <sheet name="Changelog" sheetId="12" r:id="rId11"/>
+    <sheet name="International" sheetId="14" r:id="rId4"/>
+    <sheet name="National Infections" sheetId="4" r:id="rId5"/>
+    <sheet name="Log National Infections" sheetId="5" r:id="rId6"/>
+    <sheet name="National Infections Without NSW" sheetId="7" r:id="rId7"/>
+    <sheet name="Log Infections Without NSW" sheetId="8" r:id="rId8"/>
+    <sheet name="Infections by State" sheetId="9" r:id="rId9"/>
+    <sheet name="Days to double" sheetId="10" r:id="rId10"/>
+    <sheet name="Active Cases" sheetId="6" r:id="rId11"/>
+    <sheet name="Changelog" sheetId="12" r:id="rId12"/>
+    <sheet name="Connfiguration" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,8 +41,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="95">
   <si>
     <t>Date</t>
   </si>
@@ -237,13 +261,94 @@
     <t>Initial release</t>
   </si>
   <si>
-    <t xml:space="preserve">Updated data; Fix % Change formula; Add data sources </t>
-  </si>
-  <si>
     <t>https://www.facebook.com/HealthyWA</t>
   </si>
   <si>
-    <t>Updated data; fix recovered case counts from 10/2 - 14/2</t>
+    <t>Australian Population</t>
+  </si>
+  <si>
+    <t>https://www.abs.gov.au/ausstats/abs@.nsf/Latestproducts/3101.0Main%20Features1Jun%202019?opendocument&amp;tabname=Summary&amp;prodno=3101.0&amp;issue=Jun%202019&amp;num=&amp;view=</t>
+  </si>
+  <si>
+    <t>Cases Per Million Population</t>
+  </si>
+  <si>
+    <t>Daily count</t>
+  </si>
+  <si>
+    <t>Italian population</t>
+  </si>
+  <si>
+    <t>http://demo.istat.it/pop2019/index_e.html</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Cases per million population</t>
+  </si>
+  <si>
+    <t>Days behind Italy</t>
+  </si>
+  <si>
+    <t>Total Cases</t>
+  </si>
+  <si>
+    <t>Cases Per Million</t>
+  </si>
+  <si>
+    <t>Wikipedia</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/2020_coronavirus_pandemic_in_Italy#Statistics</t>
+  </si>
+  <si>
+    <t>I'm happy with using Wikipedia as a source, instead of trollig through Italy's site. The purpose of the workbook is Australian statistics</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/2020_coronavirus_pandemic_in_France</t>
+  </si>
+  <si>
+    <t>French Population</t>
+  </si>
+  <si>
+    <t>https://www.insee.fr/en/statistiques/serie/001641607?idbank=001641607</t>
+  </si>
+  <si>
+    <t>Days behind France</t>
+  </si>
+  <si>
+    <t>https://twitter.com/healthgovau</t>
+  </si>
+  <si>
+    <t>Fix % Change formula</t>
+  </si>
+  <si>
+    <t>Add data sources</t>
+  </si>
+  <si>
+    <t>Updated data</t>
+  </si>
+  <si>
+    <t>Fix recovered case counts from 10/2 - 14/2</t>
+  </si>
+  <si>
+    <t>Added Cases per Million</t>
+  </si>
+  <si>
+    <t>Added French and Italian cases per Million</t>
+  </si>
+  <si>
+    <t>Added Itanian and French cases (Data may not be accurate for these, but Approximate is enough for what I want to do with it)</t>
+  </si>
+  <si>
+    <t>Added Days behind Italay and France for cumulative and cases per million</t>
+  </si>
+  <si>
+    <t>Added Additional information sources</t>
   </si>
 </sst>
 </file>
@@ -253,7 +358,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,6 +373,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -291,7 +409,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -304,6 +422,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1179,11 +1299,6 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -2042,11 +2157,6 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -2904,11 +3014,6 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -3769,11 +3874,6 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -7069,11 +7169,6 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -7956,11 +8051,6 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -8850,11 +8940,6 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -13355,18 +13440,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9DE41B-0E36-2141-B22D-FF546E770A0D}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.50390625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="112.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.76953125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="112.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.83203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -13480,7 +13565,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -13553,7 +13638,7 @@
         <v>34</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -13575,7 +13660,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -13587,6 +13672,42 @@
       </c>
       <c r="D31" s="7" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -13613,6 +13734,8 @@
     <hyperlink ref="C29" r:id="rId20" xr:uid="{2541CBDE-4076-1147-B928-ACFD7BA56906}"/>
     <hyperlink ref="C31" r:id="rId21" xr:uid="{8EEFD09E-CE69-4049-B10C-D30EA400D9D7}"/>
     <hyperlink ref="C26" r:id="rId22" xr:uid="{62D8E6EC-80C0-B240-B527-42ED98B5A6E4}"/>
+    <hyperlink ref="C34" r:id="rId23" location="Statistics" xr:uid="{111BCD04-4522-BE4B-9483-DEAD648568A6}"/>
+    <hyperlink ref="C35" r:id="rId24" xr:uid="{910CD5BE-87E7-D443-9D04-D0F4134D675F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13623,71 +13746,71 @@
   <dimension ref="A1:AC100"/>
   <sheetViews>
     <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="G42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R1" sqref="R1"/>
       <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
-      <selection pane="topRight" activeCell="R1" sqref="R1"/>
-      <selection pane="bottomRight" activeCell="Z53" sqref="Z53"/>
+      <selection pane="bottomRight" activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.6484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8" t="s">
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8" t="s">
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8" t="s">
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8" t="s">
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8" t="s">
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
       <c r="Z1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AA1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
@@ -15614,143 +15737,145 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00CE068C-1164-624A-A0B4-3FDF7F131C48}">
-  <dimension ref="A1:AV143"/>
+  <dimension ref="A1:BA143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="S34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomRight" activeCell="AA53" sqref="AA53"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.53125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.55078125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.55078125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.6484375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.55078125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.6484375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.55078125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.6484375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.55078125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.6484375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.55078125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.6484375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.55078125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.6484375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.55078125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.6484375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.55078125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.6484375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.10546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.22265625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.55078125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="5.6484375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.22265625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="6.9921875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9.68359375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="4.03515625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="4.83984375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="3.49609375" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="4.4375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="3.49609375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="3.62890625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="5.78125" customWidth="1"/>
-    <col min="45" max="45" width="11.43359375" style="3" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="8.7421875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="12.9140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="4" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="5.83203125" customWidth="1"/>
+    <col min="45" max="45" width="11.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="47" max="48" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="23" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8" t="s">
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8" t="s">
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8" t="s">
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8" t="s">
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8" t="s">
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8" t="s">
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
       <c r="AC1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="AD1" t="s">
         <v>10</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AE1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="AF1" s="8"/>
-      <c r="AG1" s="8"/>
+      <c r="AF1" s="10"/>
+      <c r="AG1" s="10"/>
       <c r="AH1" t="s">
         <v>10</v>
       </c>
-      <c r="AI1" s="8" t="s">
+      <c r="AI1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AJ1" s="8"/>
-      <c r="AK1" s="8" t="s">
+      <c r="AJ1" s="10"/>
+      <c r="AK1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AL1" s="8"/>
-      <c r="AM1" s="8"/>
-      <c r="AN1" s="8"/>
-      <c r="AO1" s="8"/>
-      <c r="AP1" s="8"/>
-      <c r="AQ1" s="8"/>
-      <c r="AR1" s="8"/>
+      <c r="AL1" s="10"/>
+      <c r="AM1" s="10"/>
+      <c r="AN1" s="10"/>
+      <c r="AO1" s="10"/>
+      <c r="AP1" s="10"/>
+      <c r="AQ1" s="10"/>
+      <c r="AR1" s="10"/>
       <c r="AS1" s="3" t="s">
         <v>15</v>
       </c>
@@ -15763,8 +15888,19 @@
       <c r="AV1" t="s">
         <v>21</v>
       </c>
+      <c r="AW1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX1" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY1" s="10"/>
+      <c r="AZ1" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA1" s="10"/>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>6</v>
       </c>
@@ -15889,8 +16025,20 @@
       <c r="AR2" t="s">
         <v>43</v>
       </c>
+      <c r="AX2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <f>IF(Daily!$A3="",NA(),Daily!A3)</f>
         <v>43854</v>
@@ -16083,8 +16231,28 @@
         <f>IF(OR(Daily!A3="",Z3=0),"",_xlfn.XLOOKUP(Z3*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A3)</f>
         <v/>
       </c>
+      <c r="AW3" s="3">
+        <f>IF(Daily!$A3="","",Z3/(Connfiguration!$B$1/1000000))</f>
+        <v>0</v>
+      </c>
+      <c r="AX3" t="str" cm="1">
+        <f t="array" ref="AX3">IF(OR(Daily!$A3="", ROW()&lt;=3),"",$A3-_xlfn.XLOOKUP(Z3,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AY3" t="str" cm="1">
+        <f t="array" ref="AY3">IF(OR(Daily!$A3="", ROW()&lt;=3),"",$A3-_xlfn.XLOOKUP(AW3,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AZ3" t="str" cm="1">
+        <f t="array" ref="AZ3">IF(OR(Daily!$A3="", ROW()&lt;=3),"",$A3-_xlfn.XLOOKUP(Z3,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BA3" t="str" cm="1">
+        <f t="array" ref="BA3">IF(OR(Daily!$A3="", ROW()&lt;=3),"",$A3-_xlfn.XLOOKUP(AW3,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <f>IF(Daily!$A4="",NA(),Daily!A4)</f>
         <v>43855</v>
@@ -16277,8 +16445,28 @@
         <f>IF(OR(Daily!A4="",Z4=0),"",_xlfn.XLOOKUP(Z4*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A4)</f>
         <v>5</v>
       </c>
+      <c r="AW4" s="3">
+        <f>IF(Daily!$A4="","",Z4/(Connfiguration!$B$1/1000000))</f>
+        <v>0.15770196693778263</v>
+      </c>
+      <c r="AX4" cm="1">
+        <f t="array" ref="AX4">IF(OR(Daily!$A4="", ROW()&lt;=3),"",$A4-_xlfn.XLOOKUP(Z4,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-27</v>
+      </c>
+      <c r="AY4" cm="1">
+        <f t="array" ref="AY4">IF(OR(Daily!$A4="", ROW()&lt;=3),"",$A4-_xlfn.XLOOKUP(AW4,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-27</v>
+      </c>
+      <c r="AZ4" cm="1">
+        <f t="array" ref="AZ4">IF(OR(Daily!$A4="", ROW()&lt;=3),"",$A4-_xlfn.XLOOKUP(Z4,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-3</v>
+      </c>
+      <c r="BA4" cm="1">
+        <f t="array" ref="BA4">IF(OR(Daily!$A4="", ROW()&lt;=3),"",$A4-_xlfn.XLOOKUP(AW4,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <f>IF(Daily!$A5="",NA(),Daily!A5)</f>
         <v>43856</v>
@@ -16471,8 +16659,28 @@
         <f>IF(OR(Daily!A5="",Z5=0),"",_xlfn.XLOOKUP(Z5*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A5)</f>
         <v>4</v>
       </c>
+      <c r="AW5" s="3">
+        <f>IF(Daily!$A5="","",Z5/(Connfiguration!$B$1/1000000))</f>
+        <v>0.15770196693778263</v>
+      </c>
+      <c r="AX5" cm="1">
+        <f t="array" ref="AX5">IF(OR(Daily!$A5="", ROW()&lt;=3),"",$A5-_xlfn.XLOOKUP(Z5,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-26</v>
+      </c>
+      <c r="AY5" cm="1">
+        <f t="array" ref="AY5">IF(OR(Daily!$A5="", ROW()&lt;=3),"",$A5-_xlfn.XLOOKUP(AW5,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-26</v>
+      </c>
+      <c r="AZ5" cm="1">
+        <f t="array" ref="AZ5">IF(OR(Daily!$A5="", ROW()&lt;=3),"",$A5-_xlfn.XLOOKUP(Z5,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-2</v>
+      </c>
+      <c r="BA5" cm="1">
+        <f t="array" ref="BA5">IF(OR(Daily!$A5="", ROW()&lt;=3),"",$A5-_xlfn.XLOOKUP(AW5,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <f>IF(Daily!$A6="",NA(),Daily!A6)</f>
         <v>43857</v>
@@ -16665,8 +16873,28 @@
         <f>IF(OR(Daily!A6="",Z6=0),"",_xlfn.XLOOKUP(Z6*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A6)</f>
         <v>4</v>
       </c>
+      <c r="AW6" s="3">
+        <f>IF(Daily!$A6="","",Z6/(Connfiguration!$B$1/1000000))</f>
+        <v>0.19712745867222828</v>
+      </c>
+      <c r="AX6" cm="1">
+        <f t="array" ref="AX6">IF(OR(Daily!$A6="", ROW()&lt;=3),"",$A6-_xlfn.XLOOKUP(Z6,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-25</v>
+      </c>
+      <c r="AY6" cm="1">
+        <f t="array" ref="AY6">IF(OR(Daily!$A6="", ROW()&lt;=3),"",$A6-_xlfn.XLOOKUP(AW6,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-25</v>
+      </c>
+      <c r="AZ6" cm="1">
+        <f t="array" ref="AZ6">IF(OR(Daily!$A6="", ROW()&lt;=3),"",$A6-_xlfn.XLOOKUP(Z6,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-2</v>
+      </c>
+      <c r="BA6" cm="1">
+        <f t="array" ref="BA6">IF(OR(Daily!$A6="", ROW()&lt;=3),"",$A6-_xlfn.XLOOKUP(AW6,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>3</v>
+      </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <f>IF(Daily!$A7="",NA(),Daily!A7)</f>
         <v>43858</v>
@@ -16859,8 +17087,28 @@
         <f>IF(OR(Daily!A7="",Z7=0),"",_xlfn.XLOOKUP(Z7*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A7)</f>
         <v>3</v>
       </c>
+      <c r="AW7" s="3">
+        <f>IF(Daily!$A7="","",Z7/(Connfiguration!$B$1/1000000))</f>
+        <v>0.19712745867222828</v>
+      </c>
+      <c r="AX7" cm="1">
+        <f t="array" ref="AX7">IF(OR(Daily!$A7="", ROW()&lt;=3),"",$A7-_xlfn.XLOOKUP(Z7,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-24</v>
+      </c>
+      <c r="AY7" cm="1">
+        <f t="array" ref="AY7">IF(OR(Daily!$A7="", ROW()&lt;=3),"",$A7-_xlfn.XLOOKUP(AW7,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-24</v>
+      </c>
+      <c r="AZ7" cm="1">
+        <f t="array" ref="AZ7">IF(OR(Daily!$A7="", ROW()&lt;=3),"",$A7-_xlfn.XLOOKUP(Z7,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-1</v>
+      </c>
+      <c r="BA7" cm="1">
+        <f t="array" ref="BA7">IF(OR(Daily!$A7="", ROW()&lt;=3),"",$A7-_xlfn.XLOOKUP(AW7,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>4</v>
+      </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <f>IF(Daily!$A8="",NA(),Daily!A8)</f>
         <v>43859</v>
@@ -17053,8 +17301,28 @@
         <f>IF(OR(Daily!A8="",Z8=0),"",_xlfn.XLOOKUP(Z8*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A8)</f>
         <v>7</v>
       </c>
+      <c r="AW8" s="3">
+        <f>IF(Daily!$A8="","",Z8/(Connfiguration!$B$1/1000000))</f>
+        <v>0.27597844214111961</v>
+      </c>
+      <c r="AX8" cm="1">
+        <f t="array" ref="AX8">IF(OR(Daily!$A8="", ROW()&lt;=3),"",$A8-_xlfn.XLOOKUP(Z8,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-23</v>
+      </c>
+      <c r="AY8" cm="1">
+        <f t="array" ref="AY8">IF(OR(Daily!$A8="", ROW()&lt;=3),"",$A8-_xlfn.XLOOKUP(AW8,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-23</v>
+      </c>
+      <c r="AZ8" cm="1">
+        <f t="array" ref="AZ8">IF(OR(Daily!$A8="", ROW()&lt;=3),"",$A8-_xlfn.XLOOKUP(Z8,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-10</v>
+      </c>
+      <c r="BA8" cm="1">
+        <f t="array" ref="BA8">IF(OR(Daily!$A8="", ROW()&lt;=3),"",$A8-_xlfn.XLOOKUP(AW8,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>5</v>
+      </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <f>IF(Daily!$A9="",NA(),Daily!A9)</f>
         <v>43860</v>
@@ -17247,8 +17515,28 @@
         <f>IF(OR(Daily!A9="",Z9=0),"",_xlfn.XLOOKUP(Z9*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A9)</f>
         <v>22</v>
       </c>
+      <c r="AW9" s="3">
+        <f>IF(Daily!$A9="","",Z9/(Connfiguration!$B$1/1000000))</f>
+        <v>0.35482942561001091</v>
+      </c>
+      <c r="AX9" cm="1">
+        <f t="array" ref="AX9">IF(OR(Daily!$A9="", ROW()&lt;=3),"",$A9-_xlfn.XLOOKUP(Z9,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-22</v>
+      </c>
+      <c r="AY9" cm="1">
+        <f t="array" ref="AY9">IF(OR(Daily!$A9="", ROW()&lt;=3),"",$A9-_xlfn.XLOOKUP(AW9,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-23</v>
+      </c>
+      <c r="AZ9" cm="1">
+        <f t="array" ref="AZ9">IF(OR(Daily!$A9="", ROW()&lt;=3),"",$A9-_xlfn.XLOOKUP(Z9,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-9</v>
+      </c>
+      <c r="BA9" cm="1">
+        <f t="array" ref="BA9">IF(OR(Daily!$A9="", ROW()&lt;=3),"",$A9-_xlfn.XLOOKUP(AW9,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>6</v>
+      </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <f>IF(Daily!$A10="",NA(),Daily!A10)</f>
         <v>43861</v>
@@ -17441,8 +17729,28 @@
         <f>IF(OR(Daily!A10="",Z10=0),"",_xlfn.XLOOKUP(Z10*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A10)</f>
         <v>22</v>
       </c>
+      <c r="AW10" s="3">
+        <f>IF(Daily!$A10="","",Z10/(Connfiguration!$B$1/1000000))</f>
+        <v>0.39425491734445656</v>
+      </c>
+      <c r="AX10" cm="1">
+        <f t="array" ref="AX10">IF(OR(Daily!$A10="", ROW()&lt;=3),"",$A10-_xlfn.XLOOKUP(Z10,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-21</v>
+      </c>
+      <c r="AY10" cm="1">
+        <f t="array" ref="AY10">IF(OR(Daily!$A10="", ROW()&lt;=3),"",$A10-_xlfn.XLOOKUP(AW10,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-22</v>
+      </c>
+      <c r="AZ10" cm="1">
+        <f t="array" ref="AZ10">IF(OR(Daily!$A10="", ROW()&lt;=3),"",$A10-_xlfn.XLOOKUP(Z10,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-8</v>
+      </c>
+      <c r="BA10" cm="1">
+        <f t="array" ref="BA10">IF(OR(Daily!$A10="", ROW()&lt;=3),"",$A10-_xlfn.XLOOKUP(AW10,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <f>IF(Daily!$A11="",NA(),Daily!A11)</f>
         <v>43862</v>
@@ -17635,8 +17943,28 @@
         <f>IF(OR(Daily!A11="",Z11=0),"",_xlfn.XLOOKUP(Z11*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A11)</f>
         <v>21</v>
       </c>
+      <c r="AW11" s="3">
+        <f>IF(Daily!$A11="","",Z11/(Connfiguration!$B$1/1000000))</f>
+        <v>0.39425491734445656</v>
+      </c>
+      <c r="AX11" cm="1">
+        <f t="array" ref="AX11">IF(OR(Daily!$A11="", ROW()&lt;=3),"",$A11-_xlfn.XLOOKUP(Z11,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-20</v>
+      </c>
+      <c r="AY11" cm="1">
+        <f t="array" ref="AY11">IF(OR(Daily!$A11="", ROW()&lt;=3),"",$A11-_xlfn.XLOOKUP(AW11,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-21</v>
+      </c>
+      <c r="AZ11" cm="1">
+        <f t="array" ref="AZ11">IF(OR(Daily!$A11="", ROW()&lt;=3),"",$A11-_xlfn.XLOOKUP(Z11,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-7</v>
+      </c>
+      <c r="BA11" cm="1">
+        <f t="array" ref="BA11">IF(OR(Daily!$A11="", ROW()&lt;=3),"",$A11-_xlfn.XLOOKUP(AW11,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>8</v>
+      </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <f>IF(Daily!$A12="",NA(),Daily!A12)</f>
         <v>43863</v>
@@ -17829,8 +18157,28 @@
         <f>IF(OR(Daily!A12="",Z12=0),"",_xlfn.XLOOKUP(Z12*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A12)</f>
         <v>20</v>
       </c>
+      <c r="AW12" s="3">
+        <f>IF(Daily!$A12="","",Z12/(Connfiguration!$B$1/1000000))</f>
+        <v>0.47310590081334791</v>
+      </c>
+      <c r="AX12" cm="1">
+        <f t="array" ref="AX12">IF(OR(Daily!$A12="", ROW()&lt;=3),"",$A12-_xlfn.XLOOKUP(Z12,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-19</v>
+      </c>
+      <c r="AY12" cm="1">
+        <f t="array" ref="AY12">IF(OR(Daily!$A12="", ROW()&lt;=3),"",$A12-_xlfn.XLOOKUP(AW12,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-20</v>
+      </c>
+      <c r="AZ12" cm="1">
+        <f t="array" ref="AZ12">IF(OR(Daily!$A12="", ROW()&lt;=3),"",$A12-_xlfn.XLOOKUP(Z12,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-13</v>
+      </c>
+      <c r="BA12" cm="1">
+        <f t="array" ref="BA12">IF(OR(Daily!$A12="", ROW()&lt;=3),"",$A12-_xlfn.XLOOKUP(AW12,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>9</v>
+      </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <f>IF(Daily!$A13="",NA(),Daily!A13)</f>
         <v>43864</v>
@@ -18023,8 +18371,28 @@
         <f>IF(OR(Daily!A13="",Z13=0),"",_xlfn.XLOOKUP(Z13*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A13)</f>
         <v>19</v>
       </c>
+      <c r="AW13" s="3">
+        <f>IF(Daily!$A13="","",Z13/(Connfiguration!$B$1/1000000))</f>
+        <v>0.47310590081334791</v>
+      </c>
+      <c r="AX13" cm="1">
+        <f t="array" ref="AX13">IF(OR(Daily!$A13="", ROW()&lt;=3),"",$A13-_xlfn.XLOOKUP(Z13,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-18</v>
+      </c>
+      <c r="AY13" cm="1">
+        <f t="array" ref="AY13">IF(OR(Daily!$A13="", ROW()&lt;=3),"",$A13-_xlfn.XLOOKUP(AW13,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-19</v>
+      </c>
+      <c r="AZ13" cm="1">
+        <f t="array" ref="AZ13">IF(OR(Daily!$A13="", ROW()&lt;=3),"",$A13-_xlfn.XLOOKUP(Z13,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-12</v>
+      </c>
+      <c r="BA13" cm="1">
+        <f t="array" ref="BA13">IF(OR(Daily!$A13="", ROW()&lt;=3),"",$A13-_xlfn.XLOOKUP(AW13,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>10</v>
+      </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <f>IF(Daily!$A14="",NA(),Daily!A14)</f>
         <v>43865</v>
@@ -18217,8 +18585,28 @@
         <f>IF(OR(Daily!A14="",Z14=0),"",_xlfn.XLOOKUP(Z14*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A14)</f>
         <v>24</v>
       </c>
+      <c r="AW14" s="3">
+        <f>IF(Daily!$A14="","",Z14/(Connfiguration!$B$1/1000000))</f>
+        <v>0.51253139254779356</v>
+      </c>
+      <c r="AX14" cm="1">
+        <f t="array" ref="AX14">IF(OR(Daily!$A14="", ROW()&lt;=3),"",$A14-_xlfn.XLOOKUP(Z14,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-17</v>
+      </c>
+      <c r="AY14" cm="1">
+        <f t="array" ref="AY14">IF(OR(Daily!$A14="", ROW()&lt;=3),"",$A14-_xlfn.XLOOKUP(AW14,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-18</v>
+      </c>
+      <c r="AZ14" cm="1">
+        <f t="array" ref="AZ14">IF(OR(Daily!$A14="", ROW()&lt;=3),"",$A14-_xlfn.XLOOKUP(Z14,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-21</v>
+      </c>
+      <c r="BA14" cm="1">
+        <f t="array" ref="BA14">IF(OR(Daily!$A14="", ROW()&lt;=3),"",$A14-_xlfn.XLOOKUP(AW14,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>11</v>
+      </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <f>IF(Daily!$A15="",NA(),Daily!A15)</f>
         <v>43866</v>
@@ -18411,8 +18799,28 @@
         <f>IF(OR(Daily!A15="",Z15=0),"",_xlfn.XLOOKUP(Z15*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A15)</f>
         <v>25</v>
       </c>
+      <c r="AW15" s="3">
+        <f>IF(Daily!$A15="","",Z15/(Connfiguration!$B$1/1000000))</f>
+        <v>0.59138237601668486</v>
+      </c>
+      <c r="AX15" cm="1">
+        <f t="array" ref="AX15">IF(OR(Daily!$A15="", ROW()&lt;=3),"",$A15-_xlfn.XLOOKUP(Z15,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-16</v>
+      </c>
+      <c r="AY15" cm="1">
+        <f t="array" ref="AY15">IF(OR(Daily!$A15="", ROW()&lt;=3),"",$A15-_xlfn.XLOOKUP(AW15,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-17</v>
+      </c>
+      <c r="AZ15" cm="1">
+        <f t="array" ref="AZ15">IF(OR(Daily!$A15="", ROW()&lt;=3),"",$A15-_xlfn.XLOOKUP(Z15,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-21</v>
+      </c>
+      <c r="BA15" cm="1">
+        <f t="array" ref="BA15">IF(OR(Daily!$A15="", ROW()&lt;=3),"",$A15-_xlfn.XLOOKUP(AW15,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>12</v>
+      </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <f>IF(Daily!$A16="",NA(),Daily!A16)</f>
         <v>43867</v>
@@ -18605,8 +19013,28 @@
         <f>IF(OR(Daily!A16="",Z16=0),"",_xlfn.XLOOKUP(Z16*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A16)</f>
         <v>25</v>
       </c>
+      <c r="AW16" s="3">
+        <f>IF(Daily!$A16="","",Z16/(Connfiguration!$B$1/1000000))</f>
+        <v>0.63080786775113051</v>
+      </c>
+      <c r="AX16" cm="1">
+        <f t="array" ref="AX16">IF(OR(Daily!$A16="", ROW()&lt;=3),"",$A16-_xlfn.XLOOKUP(Z16,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-15</v>
+      </c>
+      <c r="AY16" cm="1">
+        <f t="array" ref="AY16">IF(OR(Daily!$A16="", ROW()&lt;=3),"",$A16-_xlfn.XLOOKUP(AW16,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-16</v>
+      </c>
+      <c r="AZ16" cm="1">
+        <f t="array" ref="AZ16">IF(OR(Daily!$A16="", ROW()&lt;=3),"",$A16-_xlfn.XLOOKUP(Z16,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-20</v>
+      </c>
+      <c r="BA16" cm="1">
+        <f t="array" ref="BA16">IF(OR(Daily!$A16="", ROW()&lt;=3),"",$A16-_xlfn.XLOOKUP(AW16,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>13</v>
+      </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <f>IF(Daily!$A17="",NA(),Daily!A17)</f>
         <v>43868</v>
@@ -18799,8 +19227,28 @@
         <f>IF(OR(Daily!A17="",Z17=0),"",_xlfn.XLOOKUP(Z17*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A17)</f>
         <v>24</v>
       </c>
+      <c r="AW17" s="3">
+        <f>IF(Daily!$A17="","",Z17/(Connfiguration!$B$1/1000000))</f>
+        <v>0.63080786775113051</v>
+      </c>
+      <c r="AX17" cm="1">
+        <f t="array" ref="AX17">IF(OR(Daily!$A17="", ROW()&lt;=3),"",$A17-_xlfn.XLOOKUP(Z17,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-14</v>
+      </c>
+      <c r="AY17" cm="1">
+        <f t="array" ref="AY17">IF(OR(Daily!$A17="", ROW()&lt;=3),"",$A17-_xlfn.XLOOKUP(AW17,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-15</v>
+      </c>
+      <c r="AZ17" cm="1">
+        <f t="array" ref="AZ17">IF(OR(Daily!$A17="", ROW()&lt;=3),"",$A17-_xlfn.XLOOKUP(Z17,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-19</v>
+      </c>
+      <c r="BA17" cm="1">
+        <f t="array" ref="BA17">IF(OR(Daily!$A17="", ROW()&lt;=3),"",$A17-_xlfn.XLOOKUP(AW17,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>14</v>
+      </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <f>IF(Daily!$A18="",NA(),Daily!A18)</f>
         <v>43869</v>
@@ -18993,8 +19441,28 @@
         <f>IF(OR(Daily!A18="",Z18=0),"",_xlfn.XLOOKUP(Z18*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A18)</f>
         <v>23</v>
       </c>
+      <c r="AW18" s="3">
+        <f>IF(Daily!$A18="","",Z18/(Connfiguration!$B$1/1000000))</f>
+        <v>0.63080786775113051</v>
+      </c>
+      <c r="AX18" cm="1">
+        <f t="array" ref="AX18">IF(OR(Daily!$A18="", ROW()&lt;=3),"",$A18-_xlfn.XLOOKUP(Z18,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-13</v>
+      </c>
+      <c r="AY18" cm="1">
+        <f t="array" ref="AY18">IF(OR(Daily!$A18="", ROW()&lt;=3),"",$A18-_xlfn.XLOOKUP(AW18,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-14</v>
+      </c>
+      <c r="AZ18" cm="1">
+        <f t="array" ref="AZ18">IF(OR(Daily!$A18="", ROW()&lt;=3),"",$A18-_xlfn.XLOOKUP(Z18,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-18</v>
+      </c>
+      <c r="BA18" cm="1">
+        <f t="array" ref="BA18">IF(OR(Daily!$A18="", ROW()&lt;=3),"",$A18-_xlfn.XLOOKUP(AW18,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>15</v>
+      </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <f>IF(Daily!$A19="",NA(),Daily!A19)</f>
         <v>43870</v>
@@ -19187,8 +19655,28 @@
         <f>IF(OR(Daily!A19="",Z19=0),"",_xlfn.XLOOKUP(Z19*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A19)</f>
         <v>22</v>
       </c>
+      <c r="AW19" s="3">
+        <f>IF(Daily!$A19="","",Z19/(Connfiguration!$B$1/1000000))</f>
+        <v>0.63080786775113051</v>
+      </c>
+      <c r="AX19" cm="1">
+        <f t="array" ref="AX19">IF(OR(Daily!$A19="", ROW()&lt;=3),"",$A19-_xlfn.XLOOKUP(Z19,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-12</v>
+      </c>
+      <c r="AY19" cm="1">
+        <f t="array" ref="AY19">IF(OR(Daily!$A19="", ROW()&lt;=3),"",$A19-_xlfn.XLOOKUP(AW19,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-13</v>
+      </c>
+      <c r="AZ19" cm="1">
+        <f t="array" ref="AZ19">IF(OR(Daily!$A19="", ROW()&lt;=3),"",$A19-_xlfn.XLOOKUP(Z19,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-17</v>
+      </c>
+      <c r="BA19" cm="1">
+        <f t="array" ref="BA19">IF(OR(Daily!$A19="", ROW()&lt;=3),"",$A19-_xlfn.XLOOKUP(AW19,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>16</v>
+      </c>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <f>IF(Daily!$A20="",NA(),Daily!A20)</f>
         <v>43871</v>
@@ -19381,8 +19869,28 @@
         <f>IF(OR(Daily!A20="",Z20=0),"",_xlfn.XLOOKUP(Z20*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A20)</f>
         <v>21</v>
       </c>
+      <c r="AW20" s="3">
+        <f>IF(Daily!$A20="","",Z20/(Connfiguration!$B$1/1000000))</f>
+        <v>0.63080786775113051</v>
+      </c>
+      <c r="AX20" cm="1">
+        <f t="array" ref="AX20">IF(OR(Daily!$A20="", ROW()&lt;=3),"",$A20-_xlfn.XLOOKUP(Z20,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-11</v>
+      </c>
+      <c r="AY20" cm="1">
+        <f t="array" ref="AY20">IF(OR(Daily!$A20="", ROW()&lt;=3),"",$A20-_xlfn.XLOOKUP(AW20,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-12</v>
+      </c>
+      <c r="AZ20" cm="1">
+        <f t="array" ref="AZ20">IF(OR(Daily!$A20="", ROW()&lt;=3),"",$A20-_xlfn.XLOOKUP(Z20,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-16</v>
+      </c>
+      <c r="BA20" cm="1">
+        <f t="array" ref="BA20">IF(OR(Daily!$A20="", ROW()&lt;=3),"",$A20-_xlfn.XLOOKUP(AW20,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>17</v>
+      </c>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <f>IF(Daily!$A21="",NA(),Daily!A21)</f>
         <v>43872</v>
@@ -19575,8 +20083,28 @@
         <f>IF(OR(Daily!A21="",Z21=0),"",_xlfn.XLOOKUP(Z21*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A21)</f>
         <v>20</v>
       </c>
+      <c r="AW21" s="3">
+        <f>IF(Daily!$A21="","",Z21/(Connfiguration!$B$1/1000000))</f>
+        <v>0.63080786775113051</v>
+      </c>
+      <c r="AX21" cm="1">
+        <f t="array" ref="AX21">IF(OR(Daily!$A21="", ROW()&lt;=3),"",$A21-_xlfn.XLOOKUP(Z21,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-10</v>
+      </c>
+      <c r="AY21" cm="1">
+        <f t="array" ref="AY21">IF(OR(Daily!$A21="", ROW()&lt;=3),"",$A21-_xlfn.XLOOKUP(AW21,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-11</v>
+      </c>
+      <c r="AZ21" cm="1">
+        <f t="array" ref="AZ21">IF(OR(Daily!$A21="", ROW()&lt;=3),"",$A21-_xlfn.XLOOKUP(Z21,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-15</v>
+      </c>
+      <c r="BA21" cm="1">
+        <f t="array" ref="BA21">IF(OR(Daily!$A21="", ROW()&lt;=3),"",$A21-_xlfn.XLOOKUP(AW21,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>18</v>
+      </c>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <f>IF(Daily!$A22="",NA(),Daily!A22)</f>
         <v>43873</v>
@@ -19769,8 +20297,28 @@
         <f>IF(OR(Daily!A22="",Z22=0),"",_xlfn.XLOOKUP(Z22*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A22)</f>
         <v>19</v>
       </c>
+      <c r="AW22" s="3">
+        <f>IF(Daily!$A22="","",Z22/(Connfiguration!$B$1/1000000))</f>
+        <v>0.63080786775113051</v>
+      </c>
+      <c r="AX22" cm="1">
+        <f t="array" ref="AX22">IF(OR(Daily!$A22="", ROW()&lt;=3),"",$A22-_xlfn.XLOOKUP(Z22,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-9</v>
+      </c>
+      <c r="AY22" cm="1">
+        <f t="array" ref="AY22">IF(OR(Daily!$A22="", ROW()&lt;=3),"",$A22-_xlfn.XLOOKUP(AW22,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-10</v>
+      </c>
+      <c r="AZ22" cm="1">
+        <f t="array" ref="AZ22">IF(OR(Daily!$A22="", ROW()&lt;=3),"",$A22-_xlfn.XLOOKUP(Z22,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-14</v>
+      </c>
+      <c r="BA22" cm="1">
+        <f t="array" ref="BA22">IF(OR(Daily!$A22="", ROW()&lt;=3),"",$A22-_xlfn.XLOOKUP(AW22,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>19</v>
+      </c>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <f>IF(Daily!$A23="",NA(),Daily!A23)</f>
         <v>43874</v>
@@ -19963,8 +20511,28 @@
         <f>IF(OR(Daily!A23="",Z23=0),"",_xlfn.XLOOKUP(Z23*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A23)</f>
         <v>18</v>
       </c>
+      <c r="AW23" s="3">
+        <f>IF(Daily!$A23="","",Z23/(Connfiguration!$B$1/1000000))</f>
+        <v>0.63080786775113051</v>
+      </c>
+      <c r="AX23" cm="1">
+        <f t="array" ref="AX23">IF(OR(Daily!$A23="", ROW()&lt;=3),"",$A23-_xlfn.XLOOKUP(Z23,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-8</v>
+      </c>
+      <c r="AY23" cm="1">
+        <f t="array" ref="AY23">IF(OR(Daily!$A23="", ROW()&lt;=3),"",$A23-_xlfn.XLOOKUP(AW23,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-9</v>
+      </c>
+      <c r="AZ23" cm="1">
+        <f t="array" ref="AZ23">IF(OR(Daily!$A23="", ROW()&lt;=3),"",$A23-_xlfn.XLOOKUP(Z23,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-13</v>
+      </c>
+      <c r="BA23" cm="1">
+        <f t="array" ref="BA23">IF(OR(Daily!$A23="", ROW()&lt;=3),"",$A23-_xlfn.XLOOKUP(AW23,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>20</v>
+      </c>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <f>IF(Daily!$A24="",NA(),Daily!A24)</f>
         <v>43875</v>
@@ -20157,8 +20725,28 @@
         <f>IF(OR(Daily!A24="",Z24=0),"",_xlfn.XLOOKUP(Z24*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A24)</f>
         <v>17</v>
       </c>
+      <c r="AW24" s="3">
+        <f>IF(Daily!$A24="","",Z24/(Connfiguration!$B$1/1000000))</f>
+        <v>0.63080786775113051</v>
+      </c>
+      <c r="AX24" cm="1">
+        <f t="array" ref="AX24">IF(OR(Daily!$A24="", ROW()&lt;=3),"",$A24-_xlfn.XLOOKUP(Z24,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-7</v>
+      </c>
+      <c r="AY24" cm="1">
+        <f t="array" ref="AY24">IF(OR(Daily!$A24="", ROW()&lt;=3),"",$A24-_xlfn.XLOOKUP(AW24,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-8</v>
+      </c>
+      <c r="AZ24" cm="1">
+        <f t="array" ref="AZ24">IF(OR(Daily!$A24="", ROW()&lt;=3),"",$A24-_xlfn.XLOOKUP(Z24,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-12</v>
+      </c>
+      <c r="BA24" cm="1">
+        <f t="array" ref="BA24">IF(OR(Daily!$A24="", ROW()&lt;=3),"",$A24-_xlfn.XLOOKUP(AW24,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>21</v>
+      </c>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <f>IF(Daily!$A25="",NA(),Daily!A25)</f>
         <v>43876</v>
@@ -20351,8 +20939,28 @@
         <f>IF(OR(Daily!A25="",Z25=0),"",_xlfn.XLOOKUP(Z25*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A25)</f>
         <v>16</v>
       </c>
+      <c r="AW25" s="3">
+        <f>IF(Daily!$A25="","",Z25/(Connfiguration!$B$1/1000000))</f>
+        <v>0.63080786775113051</v>
+      </c>
+      <c r="AX25" cm="1">
+        <f t="array" ref="AX25">IF(OR(Daily!$A25="", ROW()&lt;=3),"",$A25-_xlfn.XLOOKUP(Z25,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-6</v>
+      </c>
+      <c r="AY25" cm="1">
+        <f t="array" ref="AY25">IF(OR(Daily!$A25="", ROW()&lt;=3),"",$A25-_xlfn.XLOOKUP(AW25,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-7</v>
+      </c>
+      <c r="AZ25" cm="1">
+        <f t="array" ref="AZ25">IF(OR(Daily!$A25="", ROW()&lt;=3),"",$A25-_xlfn.XLOOKUP(Z25,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-11</v>
+      </c>
+      <c r="BA25" cm="1">
+        <f t="array" ref="BA25">IF(OR(Daily!$A25="", ROW()&lt;=3),"",$A25-_xlfn.XLOOKUP(AW25,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>22</v>
+      </c>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <f>IF(Daily!$A26="",NA(),Daily!A26)</f>
         <v>43877</v>
@@ -20545,8 +21153,28 @@
         <f>IF(OR(Daily!A26="",Z26=0),"",_xlfn.XLOOKUP(Z26*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A26)</f>
         <v>15</v>
       </c>
+      <c r="AW26" s="3">
+        <f>IF(Daily!$A26="","",Z26/(Connfiguration!$B$1/1000000))</f>
+        <v>0.63080786775113051</v>
+      </c>
+      <c r="AX26" cm="1">
+        <f t="array" ref="AX26">IF(OR(Daily!$A26="", ROW()&lt;=3),"",$A26-_xlfn.XLOOKUP(Z26,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-5</v>
+      </c>
+      <c r="AY26" cm="1">
+        <f t="array" ref="AY26">IF(OR(Daily!$A26="", ROW()&lt;=3),"",$A26-_xlfn.XLOOKUP(AW26,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-6</v>
+      </c>
+      <c r="AZ26" cm="1">
+        <f t="array" ref="AZ26">IF(OR(Daily!$A26="", ROW()&lt;=3),"",$A26-_xlfn.XLOOKUP(Z26,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-10</v>
+      </c>
+      <c r="BA26" cm="1">
+        <f t="array" ref="BA26">IF(OR(Daily!$A26="", ROW()&lt;=3),"",$A26-_xlfn.XLOOKUP(AW26,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>23</v>
+      </c>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <f>IF(Daily!$A27="",NA(),Daily!A27)</f>
         <v>43878</v>
@@ -20739,8 +21367,28 @@
         <f>IF(OR(Daily!A27="",Z27=0),"",_xlfn.XLOOKUP(Z27*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A27)</f>
         <v>14</v>
       </c>
+      <c r="AW27" s="3">
+        <f>IF(Daily!$A27="","",Z27/(Connfiguration!$B$1/1000000))</f>
+        <v>0.63080786775113051</v>
+      </c>
+      <c r="AX27" cm="1">
+        <f t="array" ref="AX27">IF(OR(Daily!$A27="", ROW()&lt;=3),"",$A27-_xlfn.XLOOKUP(Z27,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-4</v>
+      </c>
+      <c r="AY27" cm="1">
+        <f t="array" ref="AY27">IF(OR(Daily!$A27="", ROW()&lt;=3),"",$A27-_xlfn.XLOOKUP(AW27,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-5</v>
+      </c>
+      <c r="AZ27" cm="1">
+        <f t="array" ref="AZ27">IF(OR(Daily!$A27="", ROW()&lt;=3),"",$A27-_xlfn.XLOOKUP(Z27,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-9</v>
+      </c>
+      <c r="BA27" cm="1">
+        <f t="array" ref="BA27">IF(OR(Daily!$A27="", ROW()&lt;=3),"",$A27-_xlfn.XLOOKUP(AW27,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>24</v>
+      </c>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <f>IF(Daily!$A28="",NA(),Daily!A28)</f>
         <v>43879</v>
@@ -20933,8 +21581,28 @@
         <f>IF(OR(Daily!A28="",Z28=0),"",_xlfn.XLOOKUP(Z28*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A28)</f>
         <v>13</v>
       </c>
+      <c r="AW28" s="3">
+        <f>IF(Daily!$A28="","",Z28/(Connfiguration!$B$1/1000000))</f>
+        <v>0.63080786775113051</v>
+      </c>
+      <c r="AX28" cm="1">
+        <f t="array" ref="AX28">IF(OR(Daily!$A28="", ROW()&lt;=3),"",$A28-_xlfn.XLOOKUP(Z28,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-3</v>
+      </c>
+      <c r="AY28" cm="1">
+        <f t="array" ref="AY28">IF(OR(Daily!$A28="", ROW()&lt;=3),"",$A28-_xlfn.XLOOKUP(AW28,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-4</v>
+      </c>
+      <c r="AZ28" cm="1">
+        <f t="array" ref="AZ28">IF(OR(Daily!$A28="", ROW()&lt;=3),"",$A28-_xlfn.XLOOKUP(Z28,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-8</v>
+      </c>
+      <c r="BA28" cm="1">
+        <f t="array" ref="BA28">IF(OR(Daily!$A28="", ROW()&lt;=3),"",$A28-_xlfn.XLOOKUP(AW28,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>25</v>
+      </c>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <f>IF(Daily!$A29="",NA(),Daily!A29)</f>
         <v>43880</v>
@@ -21127,8 +21795,28 @@
         <f>IF(OR(Daily!A29="",Z29=0),"",_xlfn.XLOOKUP(Z29*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A29)</f>
         <v>12</v>
       </c>
+      <c r="AW29" s="3">
+        <f>IF(Daily!$A29="","",Z29/(Connfiguration!$B$1/1000000))</f>
+        <v>0.63080786775113051</v>
+      </c>
+      <c r="AX29" cm="1">
+        <f t="array" ref="AX29">IF(OR(Daily!$A29="", ROW()&lt;=3),"",$A29-_xlfn.XLOOKUP(Z29,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-2</v>
+      </c>
+      <c r="AY29" cm="1">
+        <f t="array" ref="AY29">IF(OR(Daily!$A29="", ROW()&lt;=3),"",$A29-_xlfn.XLOOKUP(AW29,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-3</v>
+      </c>
+      <c r="AZ29" cm="1">
+        <f t="array" ref="AZ29">IF(OR(Daily!$A29="", ROW()&lt;=3),"",$A29-_xlfn.XLOOKUP(Z29,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-7</v>
+      </c>
+      <c r="BA29" cm="1">
+        <f t="array" ref="BA29">IF(OR(Daily!$A29="", ROW()&lt;=3),"",$A29-_xlfn.XLOOKUP(AW29,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>26</v>
+      </c>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <f>IF(Daily!$A30="",NA(),Daily!A30)</f>
         <v>43881</v>
@@ -21321,8 +22009,28 @@
         <f>IF(OR(Daily!A30="",Z30=0),"",_xlfn.XLOOKUP(Z30*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A30)</f>
         <v>11</v>
       </c>
+      <c r="AW30" s="3">
+        <f>IF(Daily!$A30="","",Z30/(Connfiguration!$B$1/1000000))</f>
+        <v>0.67023335948557616</v>
+      </c>
+      <c r="AX30" cm="1">
+        <f t="array" ref="AX30">IF(OR(Daily!$A30="", ROW()&lt;=3),"",$A30-_xlfn.XLOOKUP(Z30,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-1</v>
+      </c>
+      <c r="AY30" cm="1">
+        <f t="array" ref="AY30">IF(OR(Daily!$A30="", ROW()&lt;=3),"",$A30-_xlfn.XLOOKUP(AW30,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-2</v>
+      </c>
+      <c r="AZ30" cm="1">
+        <f t="array" ref="AZ30">IF(OR(Daily!$A30="", ROW()&lt;=3),"",$A30-_xlfn.XLOOKUP(Z30,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-6</v>
+      </c>
+      <c r="BA30" cm="1">
+        <f t="array" ref="BA30">IF(OR(Daily!$A30="", ROW()&lt;=3),"",$A30-_xlfn.XLOOKUP(AW30,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>27</v>
+      </c>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <f>IF(Daily!$A31="",NA(),Daily!A31)</f>
         <v>43882</v>
@@ -21515,8 +22223,28 @@
         <f>IF(OR(Daily!A31="",Z31=0),"",_xlfn.XLOOKUP(Z31*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A31)</f>
         <v>11</v>
       </c>
+      <c r="AW31" s="3">
+        <f>IF(Daily!$A31="","",Z31/(Connfiguration!$B$1/1000000))</f>
+        <v>0.70965885122002181</v>
+      </c>
+      <c r="AX31" cm="1">
+        <f t="array" ref="AX31">IF(OR(Daily!$A31="", ROW()&lt;=3),"",$A31-_xlfn.XLOOKUP(Z31,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AY31" cm="1">
+        <f t="array" ref="AY31">IF(OR(Daily!$A31="", ROW()&lt;=3),"",$A31-_xlfn.XLOOKUP(AW31,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-1</v>
+      </c>
+      <c r="AZ31" cm="1">
+        <f t="array" ref="AZ31">IF(OR(Daily!$A31="", ROW()&lt;=3),"",$A31-_xlfn.XLOOKUP(Z31,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-5</v>
+      </c>
+      <c r="BA31" cm="1">
+        <f t="array" ref="BA31">IF(OR(Daily!$A31="", ROW()&lt;=3),"",$A31-_xlfn.XLOOKUP(AW31,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>28</v>
+      </c>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <f>IF(Daily!$A32="",NA(),Daily!A32)</f>
         <v>43883</v>
@@ -21709,8 +22437,28 @@
         <f>IF(OR(Daily!A32="",Z32=0),"",_xlfn.XLOOKUP(Z32*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A32)</f>
         <v>11</v>
       </c>
+      <c r="AW32" s="3">
+        <f>IF(Daily!$A32="","",Z32/(Connfiguration!$B$1/1000000))</f>
+        <v>0.94621180162669583</v>
+      </c>
+      <c r="AX32" cm="1">
+        <f t="array" ref="AX32">IF(OR(Daily!$A32="", ROW()&lt;=3),"",$A32-_xlfn.XLOOKUP(Z32,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AY32" cm="1">
+        <f t="array" ref="AY32">IF(OR(Daily!$A32="", ROW()&lt;=3),"",$A32-_xlfn.XLOOKUP(AW32,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AZ32" cm="1">
+        <f t="array" ref="AZ32">IF(OR(Daily!$A32="", ROW()&lt;=3),"",$A32-_xlfn.XLOOKUP(Z32,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-5</v>
+      </c>
+      <c r="BA32" cm="1">
+        <f t="array" ref="BA32">IF(OR(Daily!$A32="", ROW()&lt;=3),"",$A32-_xlfn.XLOOKUP(AW32,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>29</v>
+      </c>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <f>IF(Daily!$A33="",NA(),Daily!A33)</f>
         <v>43884</v>
@@ -21903,8 +22651,28 @@
         <f>IF(OR(Daily!A33="",Z33=0),"",_xlfn.XLOOKUP(Z33*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A33)</f>
         <v>10</v>
       </c>
+      <c r="AW33" s="3">
+        <f>IF(Daily!$A33="","",Z33/(Connfiguration!$B$1/1000000))</f>
+        <v>0.94621180162669583</v>
+      </c>
+      <c r="AX33" cm="1">
+        <f t="array" ref="AX33">IF(OR(Daily!$A33="", ROW()&lt;=3),"",$A33-_xlfn.XLOOKUP(Z33,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AY33" cm="1">
+        <f t="array" ref="AY33">IF(OR(Daily!$A33="", ROW()&lt;=3),"",$A33-_xlfn.XLOOKUP(AW33,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AZ33" cm="1">
+        <f t="array" ref="AZ33">IF(OR(Daily!$A33="", ROW()&lt;=3),"",$A33-_xlfn.XLOOKUP(Z33,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-4</v>
+      </c>
+      <c r="BA33" cm="1">
+        <f t="array" ref="BA33">IF(OR(Daily!$A33="", ROW()&lt;=3),"",$A33-_xlfn.XLOOKUP(AW33,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>30</v>
+      </c>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <f>IF(Daily!$A34="",NA(),Daily!A34)</f>
         <v>43885</v>
@@ -22097,8 +22865,28 @@
         <f>IF(OR(Daily!A34="",Z34=0),"",_xlfn.XLOOKUP(Z34*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A34)</f>
         <v>9</v>
       </c>
+      <c r="AW34" s="3">
+        <f>IF(Daily!$A34="","",Z34/(Connfiguration!$B$1/1000000))</f>
+        <v>0.94621180162669583</v>
+      </c>
+      <c r="AX34" cm="1">
+        <f t="array" ref="AX34">IF(OR(Daily!$A34="", ROW()&lt;=3),"",$A34-_xlfn.XLOOKUP(Z34,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>2</v>
+      </c>
+      <c r="AY34" cm="1">
+        <f t="array" ref="AY34">IF(OR(Daily!$A34="", ROW()&lt;=3),"",$A34-_xlfn.XLOOKUP(AW34,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>2</v>
+      </c>
+      <c r="AZ34" cm="1">
+        <f t="array" ref="AZ34">IF(OR(Daily!$A34="", ROW()&lt;=3),"",$A34-_xlfn.XLOOKUP(Z34,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-3</v>
+      </c>
+      <c r="BA34" cm="1">
+        <f t="array" ref="BA34">IF(OR(Daily!$A34="", ROW()&lt;=3),"",$A34-_xlfn.XLOOKUP(AW34,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>31</v>
+      </c>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <f>IF(Daily!$A35="",NA(),Daily!A35)</f>
         <v>43886</v>
@@ -22291,8 +23079,28 @@
         <f>IF(OR(Daily!A35="",Z35=0),"",_xlfn.XLOOKUP(Z35*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A35)</f>
         <v>8</v>
       </c>
+      <c r="AW35" s="3">
+        <f>IF(Daily!$A35="","",Z35/(Connfiguration!$B$1/1000000))</f>
+        <v>0.94621180162669583</v>
+      </c>
+      <c r="AX35" cm="1">
+        <f t="array" ref="AX35">IF(OR(Daily!$A35="", ROW()&lt;=3),"",$A35-_xlfn.XLOOKUP(Z35,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>3</v>
+      </c>
+      <c r="AY35" cm="1">
+        <f t="array" ref="AY35">IF(OR(Daily!$A35="", ROW()&lt;=3),"",$A35-_xlfn.XLOOKUP(AW35,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>3</v>
+      </c>
+      <c r="AZ35" cm="1">
+        <f t="array" ref="AZ35">IF(OR(Daily!$A35="", ROW()&lt;=3),"",$A35-_xlfn.XLOOKUP(Z35,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-2</v>
+      </c>
+      <c r="BA35" cm="1">
+        <f t="array" ref="BA35">IF(OR(Daily!$A35="", ROW()&lt;=3),"",$A35-_xlfn.XLOOKUP(AW35,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>32</v>
+      </c>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <f>IF(Daily!$A36="",NA(),Daily!A36)</f>
         <v>43887</v>
@@ -22485,8 +23293,28 @@
         <f>IF(OR(Daily!A36="",Z36=0),"",_xlfn.XLOOKUP(Z36*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A36)</f>
         <v>7</v>
       </c>
+      <c r="AW36" s="3">
+        <f>IF(Daily!$A36="","",Z36/(Connfiguration!$B$1/1000000))</f>
+        <v>0.94621180162669583</v>
+      </c>
+      <c r="AX36" cm="1">
+        <f t="array" ref="AX36">IF(OR(Daily!$A36="", ROW()&lt;=3),"",$A36-_xlfn.XLOOKUP(Z36,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>4</v>
+      </c>
+      <c r="AY36" cm="1">
+        <f t="array" ref="AY36">IF(OR(Daily!$A36="", ROW()&lt;=3),"",$A36-_xlfn.XLOOKUP(AW36,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>4</v>
+      </c>
+      <c r="AZ36" cm="1">
+        <f t="array" ref="AZ36">IF(OR(Daily!$A36="", ROW()&lt;=3),"",$A36-_xlfn.XLOOKUP(Z36,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>-1</v>
+      </c>
+      <c r="BA36" cm="1">
+        <f t="array" ref="BA36">IF(OR(Daily!$A36="", ROW()&lt;=3),"",$A36-_xlfn.XLOOKUP(AW36,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>33</v>
+      </c>
     </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <f>IF(Daily!$A37="",NA(),Daily!A37)</f>
         <v>43888</v>
@@ -22679,8 +23507,28 @@
         <f>IF(OR(Daily!A37="",Z37=0),"",_xlfn.XLOOKUP(Z37*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A37)</f>
         <v>6</v>
       </c>
+      <c r="AW37" s="3">
+        <f>IF(Daily!$A37="","",Z37/(Connfiguration!$B$1/1000000))</f>
+        <v>0.94621180162669583</v>
+      </c>
+      <c r="AX37" cm="1">
+        <f t="array" ref="AX37">IF(OR(Daily!$A37="", ROW()&lt;=3),"",$A37-_xlfn.XLOOKUP(Z37,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>5</v>
+      </c>
+      <c r="AY37" cm="1">
+        <f t="array" ref="AY37">IF(OR(Daily!$A37="", ROW()&lt;=3),"",$A37-_xlfn.XLOOKUP(AW37,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>5</v>
+      </c>
+      <c r="AZ37" cm="1">
+        <f t="array" ref="AZ37">IF(OR(Daily!$A37="", ROW()&lt;=3),"",$A37-_xlfn.XLOOKUP(Z37,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BA37" cm="1">
+        <f t="array" ref="BA37">IF(OR(Daily!$A37="", ROW()&lt;=3),"",$A37-_xlfn.XLOOKUP(AW37,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>34</v>
+      </c>
     </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <f>IF(Daily!$A38="",NA(),Daily!A38)</f>
         <v>43889</v>
@@ -22873,8 +23721,28 @@
         <f>IF(OR(Daily!A38="",Z38=0),"",_xlfn.XLOOKUP(Z38*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A38)</f>
         <v>5</v>
       </c>
+      <c r="AW38" s="3">
+        <f>IF(Daily!$A38="","",Z38/(Connfiguration!$B$1/1000000))</f>
+        <v>1.0250627850955871</v>
+      </c>
+      <c r="AX38" cm="1">
+        <f t="array" ref="AX38">IF(OR(Daily!$A38="", ROW()&lt;=3),"",$A38-_xlfn.XLOOKUP(Z38,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>6</v>
+      </c>
+      <c r="AY38" cm="1">
+        <f t="array" ref="AY38">IF(OR(Daily!$A38="", ROW()&lt;=3),"",$A38-_xlfn.XLOOKUP(AW38,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>6</v>
+      </c>
+      <c r="AZ38" cm="1">
+        <f t="array" ref="AZ38">IF(OR(Daily!$A38="", ROW()&lt;=3),"",$A38-_xlfn.XLOOKUP(Z38,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BA38" cm="1">
+        <f t="array" ref="BA38">IF(OR(Daily!$A38="", ROW()&lt;=3),"",$A38-_xlfn.XLOOKUP(AW38,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>35</v>
+      </c>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <f>IF(Daily!$A39="",NA(),Daily!A39)</f>
         <v>43890</v>
@@ -23067,8 +23935,28 @@
         <f>IF(OR(Daily!A39="",Z39=0),"",_xlfn.XLOOKUP(Z39*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A39)</f>
         <v>4</v>
       </c>
+      <c r="AW39" s="3">
+        <f>IF(Daily!$A39="","",Z39/(Connfiguration!$B$1/1000000))</f>
+        <v>1.0250627850955871</v>
+      </c>
+      <c r="AX39" cm="1">
+        <f t="array" ref="AX39">IF(OR(Daily!$A39="", ROW()&lt;=3),"",$A39-_xlfn.XLOOKUP(Z39,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>7</v>
+      </c>
+      <c r="AY39" cm="1">
+        <f t="array" ref="AY39">IF(OR(Daily!$A39="", ROW()&lt;=3),"",$A39-_xlfn.XLOOKUP(AW39,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>7</v>
+      </c>
+      <c r="AZ39" cm="1">
+        <f t="array" ref="AZ39">IF(OR(Daily!$A39="", ROW()&lt;=3),"",$A39-_xlfn.XLOOKUP(Z39,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>2</v>
+      </c>
+      <c r="BA39" cm="1">
+        <f t="array" ref="BA39">IF(OR(Daily!$A39="", ROW()&lt;=3),"",$A39-_xlfn.XLOOKUP(AW39,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>36</v>
+      </c>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <f>IF(Daily!$A40="",NA(),Daily!A40)</f>
         <v>43891</v>
@@ -23261,8 +24149,28 @@
         <f>IF(OR(Daily!A40="",Z40=0),"",_xlfn.XLOOKUP(Z40*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A40)</f>
         <v>4</v>
       </c>
+      <c r="AW40" s="3">
+        <f>IF(Daily!$A40="","",Z40/(Connfiguration!$B$1/1000000))</f>
+        <v>1.1827647520333697</v>
+      </c>
+      <c r="AX40" cm="1">
+        <f t="array" ref="AX40">IF(OR(Daily!$A40="", ROW()&lt;=3),"",$A40-_xlfn.XLOOKUP(Z40,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>8</v>
+      </c>
+      <c r="AY40" cm="1">
+        <f t="array" ref="AY40">IF(OR(Daily!$A40="", ROW()&lt;=3),"",$A40-_xlfn.XLOOKUP(AW40,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>8</v>
+      </c>
+      <c r="AZ40" cm="1">
+        <f t="array" ref="AZ40">IF(OR(Daily!$A40="", ROW()&lt;=3),"",$A40-_xlfn.XLOOKUP(Z40,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>3</v>
+      </c>
+      <c r="BA40" cm="1">
+        <f t="array" ref="BA40">IF(OR(Daily!$A40="", ROW()&lt;=3),"",$A40-_xlfn.XLOOKUP(AW40,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>37</v>
+      </c>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <f>IF(Daily!$A41="",NA(),Daily!A41)</f>
         <v>43892</v>
@@ -23455,8 +24363,28 @@
         <f>IF(OR(Daily!A41="",Z41=0),"",_xlfn.XLOOKUP(Z41*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A41)</f>
         <v>5</v>
       </c>
+      <c r="AW41" s="3">
+        <f>IF(Daily!$A41="","",Z41/(Connfiguration!$B$1/1000000))</f>
+        <v>1.3404667189711523</v>
+      </c>
+      <c r="AX41" cm="1">
+        <f t="array" ref="AX41">IF(OR(Daily!$A41="", ROW()&lt;=3),"",$A41-_xlfn.XLOOKUP(Z41,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>9</v>
+      </c>
+      <c r="AY41" cm="1">
+        <f t="array" ref="AY41">IF(OR(Daily!$A41="", ROW()&lt;=3),"",$A41-_xlfn.XLOOKUP(AW41,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>8</v>
+      </c>
+      <c r="AZ41" cm="1">
+        <f t="array" ref="AZ41">IF(OR(Daily!$A41="", ROW()&lt;=3),"",$A41-_xlfn.XLOOKUP(Z41,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>4</v>
+      </c>
+      <c r="BA41" cm="1">
+        <f t="array" ref="BA41">IF(OR(Daily!$A41="", ROW()&lt;=3),"",$A41-_xlfn.XLOOKUP(AW41,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>38</v>
+      </c>
     </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <f>IF(Daily!$A42="",NA(),Daily!A42)</f>
         <v>43893</v>
@@ -23649,8 +24577,28 @@
         <f>IF(OR(Daily!A42="",Z42=0),"",_xlfn.XLOOKUP(Z42*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A42)</f>
         <v>6</v>
       </c>
+      <c r="AW42" s="3">
+        <f>IF(Daily!$A42="","",Z42/(Connfiguration!$B$1/1000000))</f>
+        <v>1.6558706528467175</v>
+      </c>
+      <c r="AX42" cm="1">
+        <f t="array" ref="AX42">IF(OR(Daily!$A42="", ROW()&lt;=3),"",$A42-_xlfn.XLOOKUP(Z42,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>10</v>
+      </c>
+      <c r="AY42" cm="1">
+        <f t="array" ref="AY42">IF(OR(Daily!$A42="", ROW()&lt;=3),"",$A42-_xlfn.XLOOKUP(AW42,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>9</v>
+      </c>
+      <c r="AZ42" cm="1">
+        <f t="array" ref="AZ42">IF(OR(Daily!$A42="", ROW()&lt;=3),"",$A42-_xlfn.XLOOKUP(Z42,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>4</v>
+      </c>
+      <c r="BA42" cm="1">
+        <f t="array" ref="BA42">IF(OR(Daily!$A42="", ROW()&lt;=3),"",$A42-_xlfn.XLOOKUP(AW42,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>39</v>
+      </c>
     </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <f>IF(Daily!$A43="",NA(),Daily!A43)</f>
         <v>43894</v>
@@ -23843,8 +24791,28 @@
         <f>IF(OR(Daily!A43="",Z43=0),"",_xlfn.XLOOKUP(Z43*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A43)</f>
         <v>6</v>
       </c>
+      <c r="AW43" s="3">
+        <f>IF(Daily!$A43="","",Z43/(Connfiguration!$B$1/1000000))</f>
+        <v>2.0501255701911743</v>
+      </c>
+      <c r="AX43" cm="1">
+        <f t="array" ref="AX43">IF(OR(Daily!$A43="", ROW()&lt;=3),"",$A43-_xlfn.XLOOKUP(Z43,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>11</v>
+      </c>
+      <c r="AY43" cm="1">
+        <f t="array" ref="AY43">IF(OR(Daily!$A43="", ROW()&lt;=3),"",$A43-_xlfn.XLOOKUP(AW43,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>10</v>
+      </c>
+      <c r="AZ43" cm="1">
+        <f t="array" ref="AZ43">IF(OR(Daily!$A43="", ROW()&lt;=3),"",$A43-_xlfn.XLOOKUP(Z43,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>5</v>
+      </c>
+      <c r="BA43" cm="1">
+        <f t="array" ref="BA43">IF(OR(Daily!$A43="", ROW()&lt;=3),"",$A43-_xlfn.XLOOKUP(AW43,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>40</v>
+      </c>
     </row>
-    <row r="44" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <f>IF(Daily!$A44="",NA(),Daily!A44)</f>
         <v>43895</v>
@@ -24037,8 +25005,28 @@
         <f>IF(OR(Daily!A44="",Z44=0),"",_xlfn.XLOOKUP(Z44*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A44)</f>
         <v>6</v>
       </c>
+      <c r="AW44" s="3">
+        <f>IF(Daily!$A44="","",Z44/(Connfiguration!$B$1/1000000))</f>
+        <v>2.3655295040667395</v>
+      </c>
+      <c r="AX44" cm="1">
+        <f t="array" ref="AX44">IF(OR(Daily!$A44="", ROW()&lt;=3),"",$A44-_xlfn.XLOOKUP(Z44,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>12</v>
+      </c>
+      <c r="AY44" cm="1">
+        <f t="array" ref="AY44">IF(OR(Daily!$A44="", ROW()&lt;=3),"",$A44-_xlfn.XLOOKUP(AW44,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>11</v>
+      </c>
+      <c r="AZ44" cm="1">
+        <f t="array" ref="AZ44">IF(OR(Daily!$A44="", ROW()&lt;=3),"",$A44-_xlfn.XLOOKUP(Z44,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>5</v>
+      </c>
+      <c r="BA44" cm="1">
+        <f t="array" ref="BA44">IF(OR(Daily!$A44="", ROW()&lt;=3),"",$A44-_xlfn.XLOOKUP(AW44,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>41</v>
+      </c>
     </row>
-    <row r="45" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <f>IF(Daily!$A45="",NA(),Daily!A45)</f>
         <v>43896</v>
@@ -24231,8 +25219,28 @@
         <f>IF(OR(Daily!A45="",Z45=0),"",_xlfn.XLOOKUP(Z45*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A45)</f>
         <v>5</v>
       </c>
+      <c r="AW45" s="3">
+        <f>IF(Daily!$A45="","",Z45/(Connfiguration!$B$1/1000000))</f>
+        <v>2.5232314710045221</v>
+      </c>
+      <c r="AX45" cm="1">
+        <f t="array" ref="AX45">IF(OR(Daily!$A45="", ROW()&lt;=3),"",$A45-_xlfn.XLOOKUP(Z45,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>13</v>
+      </c>
+      <c r="AY45" cm="1">
+        <f t="array" ref="AY45">IF(OR(Daily!$A45="", ROW()&lt;=3),"",$A45-_xlfn.XLOOKUP(AW45,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>11</v>
+      </c>
+      <c r="AZ45" cm="1">
+        <f t="array" ref="AZ45">IF(OR(Daily!$A45="", ROW()&lt;=3),"",$A45-_xlfn.XLOOKUP(Z45,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>6</v>
+      </c>
+      <c r="BA45" cm="1">
+        <f t="array" ref="BA45">IF(OR(Daily!$A45="", ROW()&lt;=3),"",$A45-_xlfn.XLOOKUP(AW45,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>42</v>
+      </c>
     </row>
-    <row r="46" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <f>IF(Daily!$A46="",NA(),Daily!A46)</f>
         <v>43897</v>
@@ -24425,8 +25433,28 @@
         <f>IF(OR(Daily!A46="",Z46=0),"",_xlfn.XLOOKUP(Z46*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A46)</f>
         <v>5</v>
       </c>
+      <c r="AW46" s="3">
+        <f>IF(Daily!$A46="","",Z46/(Connfiguration!$B$1/1000000))</f>
+        <v>2.8780608966145329</v>
+      </c>
+      <c r="AX46" cm="1">
+        <f t="array" ref="AX46">IF(OR(Daily!$A46="", ROW()&lt;=3),"",$A46-_xlfn.XLOOKUP(Z46,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>14</v>
+      </c>
+      <c r="AY46" cm="1">
+        <f t="array" ref="AY46">IF(OR(Daily!$A46="", ROW()&lt;=3),"",$A46-_xlfn.XLOOKUP(AW46,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>12</v>
+      </c>
+      <c r="AZ46" cm="1">
+        <f t="array" ref="AZ46">IF(OR(Daily!$A46="", ROW()&lt;=3),"",$A46-_xlfn.XLOOKUP(Z46,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>7</v>
+      </c>
+      <c r="BA46" cm="1">
+        <f t="array" ref="BA46">IF(OR(Daily!$A46="", ROW()&lt;=3),"",$A46-_xlfn.XLOOKUP(AW46,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>43</v>
+      </c>
     </row>
-    <row r="47" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <f>IF(Daily!$A47="",NA(),Daily!A47)</f>
         <v>43898</v>
@@ -24619,8 +25647,28 @@
         <f>IF(OR(Daily!A47="",Z47=0),"",_xlfn.XLOOKUP(Z47*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A47)</f>
         <v>5</v>
       </c>
+      <c r="AW47" s="3">
+        <f>IF(Daily!$A47="","",Z47/(Connfiguration!$B$1/1000000))</f>
+        <v>3.1934648304900981</v>
+      </c>
+      <c r="AX47" cm="1">
+        <f t="array" ref="AX47">IF(OR(Daily!$A47="", ROW()&lt;=3),"",$A47-_xlfn.XLOOKUP(Z47,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>14</v>
+      </c>
+      <c r="AY47" cm="1">
+        <f t="array" ref="AY47">IF(OR(Daily!$A47="", ROW()&lt;=3),"",$A47-_xlfn.XLOOKUP(AW47,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>13</v>
+      </c>
+      <c r="AZ47" cm="1">
+        <f t="array" ref="AZ47">IF(OR(Daily!$A47="", ROW()&lt;=3),"",$A47-_xlfn.XLOOKUP(Z47,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>8</v>
+      </c>
+      <c r="BA47" cm="1">
+        <f t="array" ref="BA47">IF(OR(Daily!$A47="", ROW()&lt;=3),"",$A47-_xlfn.XLOOKUP(AW47,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>40</v>
+      </c>
     </row>
-    <row r="48" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <f>IF(Daily!$A48="",NA(),Daily!A48)</f>
         <v>43899</v>
@@ -24813,8 +25861,28 @@
         <f>IF(OR(Daily!A48="",Z48=0),"",_xlfn.XLOOKUP(Z48*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A48)</f>
         <v>4</v>
       </c>
+      <c r="AW48" s="3">
+        <f>IF(Daily!$A48="","",Z48/(Connfiguration!$B$1/1000000))</f>
+        <v>3.6665707313034464</v>
+      </c>
+      <c r="AX48" cm="1">
+        <f t="array" ref="AX48">IF(OR(Daily!$A48="", ROW()&lt;=3),"",$A48-_xlfn.XLOOKUP(Z48,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>15</v>
+      </c>
+      <c r="AY48" cm="1">
+        <f t="array" ref="AY48">IF(OR(Daily!$A48="", ROW()&lt;=3),"",$A48-_xlfn.XLOOKUP(AW48,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>14</v>
+      </c>
+      <c r="AZ48" cm="1">
+        <f t="array" ref="AZ48">IF(OR(Daily!$A48="", ROW()&lt;=3),"",$A48-_xlfn.XLOOKUP(Z48,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>9</v>
+      </c>
+      <c r="BA48" cm="1">
+        <f t="array" ref="BA48">IF(OR(Daily!$A48="", ROW()&lt;=3),"",$A48-_xlfn.XLOOKUP(AW48,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>41</v>
+      </c>
     </row>
-    <row r="49" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <f>IF(Daily!$A49="",NA(),Daily!A49)</f>
         <v>43900</v>
@@ -25007,8 +26075,28 @@
         <f>IF(OR(Daily!A49="",Z49=0),"",_xlfn.XLOOKUP(Z49*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A49)</f>
         <v>4</v>
       </c>
+      <c r="AW49" s="3">
+        <f>IF(Daily!$A49="","",Z49/(Connfiguration!$B$1/1000000))</f>
+        <v>4.4550805659923594</v>
+      </c>
+      <c r="AX49" cm="1">
+        <f t="array" ref="AX49">IF(OR(Daily!$A49="", ROW()&lt;=3),"",$A49-_xlfn.XLOOKUP(Z49,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>16</v>
+      </c>
+      <c r="AY49" cm="1">
+        <f t="array" ref="AY49">IF(OR(Daily!$A49="", ROW()&lt;=3),"",$A49-_xlfn.XLOOKUP(AW49,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>14</v>
+      </c>
+      <c r="AZ49" cm="1">
+        <f t="array" ref="AZ49">IF(OR(Daily!$A49="", ROW()&lt;=3),"",$A49-_xlfn.XLOOKUP(Z49,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>9</v>
+      </c>
+      <c r="BA49" cm="1">
+        <f t="array" ref="BA49">IF(OR(Daily!$A49="", ROW()&lt;=3),"",$A49-_xlfn.XLOOKUP(AW49,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>41</v>
+      </c>
     </row>
-    <row r="50" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <f>IF(Daily!$A50="",NA(),Daily!A50)</f>
         <v>43901</v>
@@ -25201,8 +26289,28 @@
         <f>IF(OR(Daily!A50="",Z50=0),"",_xlfn.XLOOKUP(Z50*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A50)</f>
         <v>#N/A</v>
       </c>
+      <c r="AW50" s="3">
+        <f>IF(Daily!$A50="","",Z50/(Connfiguration!$B$1/1000000))</f>
+        <v>5.0464629420090441</v>
+      </c>
+      <c r="AX50" cm="1">
+        <f t="array" ref="AX50">IF(OR(Daily!$A50="", ROW()&lt;=3),"",$A50-_xlfn.XLOOKUP(Z50,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>17</v>
+      </c>
+      <c r="AY50" cm="1">
+        <f t="array" ref="AY50">IF(OR(Daily!$A50="", ROW()&lt;=3),"",$A50-_xlfn.XLOOKUP(AW50,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>15</v>
+      </c>
+      <c r="AZ50" cm="1">
+        <f t="array" ref="AZ50">IF(OR(Daily!$A50="", ROW()&lt;=3),"",$A50-_xlfn.XLOOKUP(Z50,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>10</v>
+      </c>
+      <c r="BA50" cm="1">
+        <f t="array" ref="BA50">IF(OR(Daily!$A50="", ROW()&lt;=3),"",$A50-_xlfn.XLOOKUP(AW50,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>41</v>
+      </c>
     </row>
-    <row r="51" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <f>IF(Daily!$A51="",NA(),Daily!A51)</f>
         <v>43902</v>
@@ -25395,8 +26503,28 @@
         <f>IF(OR(Daily!A51="",Z51=0),"",_xlfn.XLOOKUP(Z51*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A51)</f>
         <v>#N/A</v>
       </c>
+      <c r="AW51" s="3">
+        <f>IF(Daily!$A51="","",Z51/(Connfiguration!$B$1/1000000))</f>
+        <v>6.2292276940424136</v>
+      </c>
+      <c r="AX51" cm="1">
+        <f t="array" ref="AX51">IF(OR(Daily!$A51="", ROW()&lt;=3),"",$A51-_xlfn.XLOOKUP(Z51,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>17</v>
+      </c>
+      <c r="AY51" cm="1">
+        <f t="array" ref="AY51">IF(OR(Daily!$A51="", ROW()&lt;=3),"",$A51-_xlfn.XLOOKUP(AW51,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>15</v>
+      </c>
+      <c r="AZ51" cm="1">
+        <f t="array" ref="AZ51">IF(OR(Daily!$A51="", ROW()&lt;=3),"",$A51-_xlfn.XLOOKUP(Z51,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>10</v>
+      </c>
+      <c r="BA51" cm="1">
+        <f t="array" ref="BA51">IF(OR(Daily!$A51="", ROW()&lt;=3),"",$A51-_xlfn.XLOOKUP(AW51,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>33</v>
+      </c>
     </row>
-    <row r="52" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <f>IF(Daily!$A52="",NA(),Daily!A52)</f>
         <v>43903</v>
@@ -25589,8 +26717,28 @@
         <f>IF(OR(Daily!A52="",Z52=0),"",_xlfn.XLOOKUP(Z52*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A52)</f>
         <v>#N/A</v>
       </c>
+      <c r="AW52" s="3">
+        <f>IF(Daily!$A52="","",Z52/(Connfiguration!$B$1/1000000))</f>
+        <v>7.8456728551546862</v>
+      </c>
+      <c r="AX52" cm="1">
+        <f t="array" ref="AX52">IF(OR(Daily!$A52="", ROW()&lt;=3),"",$A52-_xlfn.XLOOKUP(Z52,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>18</v>
+      </c>
+      <c r="AY52" cm="1">
+        <f t="array" ref="AY52">IF(OR(Daily!$A52="", ROW()&lt;=3),"",$A52-_xlfn.XLOOKUP(AW52,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>15</v>
+      </c>
+      <c r="AZ52" cm="1">
+        <f t="array" ref="AZ52">IF(OR(Daily!$A52="", ROW()&lt;=3),"",$A52-_xlfn.XLOOKUP(Z52,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>10</v>
+      </c>
+      <c r="BA52" cm="1">
+        <f t="array" ref="BA52">IF(OR(Daily!$A52="", ROW()&lt;=3),"",$A52-_xlfn.XLOOKUP(AW52,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>34</v>
+      </c>
     </row>
-    <row r="53" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <f>IF(Daily!$A53="",NA(),Daily!A53)</f>
         <v>43904</v>
@@ -25783,8 +26931,28 @@
         <f>IF(OR(Daily!A53="",Z53=0),"",_xlfn.XLOOKUP(Z53*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A53)</f>
         <v>#N/A</v>
       </c>
+      <c r="AW53" s="3">
+        <f>IF(Daily!$A53="","",Z53/(Connfiguration!$B$1/1000000))</f>
+        <v>9.8563729336114143</v>
+      </c>
+      <c r="AX53" cm="1">
+        <f t="array" ref="AX53">IF(OR(Daily!$A53="", ROW()&lt;=3),"",$A53-_xlfn.XLOOKUP(Z53,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>18</v>
+      </c>
+      <c r="AY53" cm="1">
+        <f t="array" ref="AY53">IF(OR(Daily!$A53="", ROW()&lt;=3),"",$A53-_xlfn.XLOOKUP(AW53,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>16</v>
+      </c>
+      <c r="AZ53" cm="1">
+        <f t="array" ref="AZ53">IF(OR(Daily!$A53="", ROW()&lt;=3),"",$A53-_xlfn.XLOOKUP(Z53,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>10</v>
+      </c>
+      <c r="BA53" cm="1">
+        <f t="array" ref="BA53">IF(OR(Daily!$A53="", ROW()&lt;=3),"",$A53-_xlfn.XLOOKUP(AW53,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v>35</v>
+      </c>
     </row>
-    <row r="54" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="e">
         <f>IF(Daily!$A54="",NA(),Daily!A54)</f>
         <v>#N/A</v>
@@ -25977,8 +27145,28 @@
         <f>IF(OR(Daily!A54="",Z54=0),"",_xlfn.XLOOKUP(Z54*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A54)</f>
         <v/>
       </c>
+      <c r="AW54" s="3" t="str">
+        <f>IF(Daily!$A54="","",Z54/(Connfiguration!$B$1/1000000))</f>
+        <v/>
+      </c>
+      <c r="AX54" t="str" cm="1">
+        <f t="array" ref="AX54">IF(OR(Daily!$A54="", ROW()&lt;=3),"",$A54-_xlfn.XLOOKUP(Z54,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AY54" t="str" cm="1">
+        <f t="array" ref="AY54">IF(OR(Daily!$A54="", ROW()&lt;=3),"",$A54-_xlfn.XLOOKUP(AW54,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AZ54" t="str" cm="1">
+        <f t="array" ref="AZ54">IF(OR(Daily!$A54="", ROW()&lt;=3),"",$A54-_xlfn.XLOOKUP(Z54,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BA54" t="str" cm="1">
+        <f t="array" ref="BA54">IF(OR(Daily!$A54="", ROW()&lt;=3),"",$A54-_xlfn.XLOOKUP(AW54,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
     </row>
-    <row r="55" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="e">
         <f>IF(Daily!$A55="",NA(),Daily!A55)</f>
         <v>#N/A</v>
@@ -26171,8 +27359,28 @@
         <f>IF(OR(Daily!A55="",Z55=0),"",_xlfn.XLOOKUP(Z55*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A55)</f>
         <v/>
       </c>
+      <c r="AW55" s="3" t="str">
+        <f>IF(Daily!$A55="","",Z55/(Connfiguration!$B$1/1000000))</f>
+        <v/>
+      </c>
+      <c r="AX55" t="str" cm="1">
+        <f t="array" ref="AX55">IF(OR(Daily!$A55="", ROW()&lt;=3),"",$A55-_xlfn.XLOOKUP(Z55,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AY55" t="str" cm="1">
+        <f t="array" ref="AY55">IF(OR(Daily!$A55="", ROW()&lt;=3),"",$A55-_xlfn.XLOOKUP(AW55,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AZ55" t="str" cm="1">
+        <f t="array" ref="AZ55">IF(OR(Daily!$A55="", ROW()&lt;=3),"",$A55-_xlfn.XLOOKUP(Z55,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BA55" t="str" cm="1">
+        <f t="array" ref="BA55">IF(OR(Daily!$A55="", ROW()&lt;=3),"",$A55-_xlfn.XLOOKUP(AW55,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
     </row>
-    <row r="56" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="e">
         <f>IF(Daily!$A56="",NA(),Daily!A56)</f>
         <v>#N/A</v>
@@ -26365,8 +27573,28 @@
         <f>IF(OR(Daily!A56="",Z56=0),"",_xlfn.XLOOKUP(Z56*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A56)</f>
         <v/>
       </c>
+      <c r="AW56" s="3" t="str">
+        <f>IF(Daily!$A56="","",Z56/(Connfiguration!$B$1/1000000))</f>
+        <v/>
+      </c>
+      <c r="AX56" t="str" cm="1">
+        <f t="array" ref="AX56">IF(OR(Daily!$A56="", ROW()&lt;=3),"",$A56-_xlfn.XLOOKUP(Z56,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AY56" t="str" cm="1">
+        <f t="array" ref="AY56">IF(OR(Daily!$A56="", ROW()&lt;=3),"",$A56-_xlfn.XLOOKUP(AW56,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AZ56" t="str" cm="1">
+        <f t="array" ref="AZ56">IF(OR(Daily!$A56="", ROW()&lt;=3),"",$A56-_xlfn.XLOOKUP(Z56,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BA56" t="str" cm="1">
+        <f t="array" ref="BA56">IF(OR(Daily!$A56="", ROW()&lt;=3),"",$A56-_xlfn.XLOOKUP(AW56,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
     </row>
-    <row r="57" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="e">
         <f>IF(Daily!$A57="",NA(),Daily!A57)</f>
         <v>#N/A</v>
@@ -26559,8 +27787,28 @@
         <f>IF(OR(Daily!A57="",Z57=0),"",_xlfn.XLOOKUP(Z57*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A57)</f>
         <v/>
       </c>
+      <c r="AW57" s="3" t="str">
+        <f>IF(Daily!$A57="","",Z57/(Connfiguration!$B$1/1000000))</f>
+        <v/>
+      </c>
+      <c r="AX57" t="str" cm="1">
+        <f t="array" ref="AX57">IF(OR(Daily!$A57="", ROW()&lt;=3),"",$A57-_xlfn.XLOOKUP(Z57,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AY57" t="str" cm="1">
+        <f t="array" ref="AY57">IF(OR(Daily!$A57="", ROW()&lt;=3),"",$A57-_xlfn.XLOOKUP(AW57,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AZ57" t="str" cm="1">
+        <f t="array" ref="AZ57">IF(OR(Daily!$A57="", ROW()&lt;=3),"",$A57-_xlfn.XLOOKUP(Z57,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BA57" t="str" cm="1">
+        <f t="array" ref="BA57">IF(OR(Daily!$A57="", ROW()&lt;=3),"",$A57-_xlfn.XLOOKUP(AW57,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
     </row>
-    <row r="58" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="e">
         <f>IF(Daily!$A58="",NA(),Daily!A58)</f>
         <v>#N/A</v>
@@ -26753,8 +28001,28 @@
         <f>IF(OR(Daily!A58="",Z58=0),"",_xlfn.XLOOKUP(Z58*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A58)</f>
         <v/>
       </c>
+      <c r="AW58" s="3" t="str">
+        <f>IF(Daily!$A58="","",Z58/(Connfiguration!$B$1/1000000))</f>
+        <v/>
+      </c>
+      <c r="AX58" t="str" cm="1">
+        <f t="array" ref="AX58">IF(OR(Daily!$A58="", ROW()&lt;=3),"",$A58-_xlfn.XLOOKUP(Z58,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AY58" t="str" cm="1">
+        <f t="array" ref="AY58">IF(OR(Daily!$A58="", ROW()&lt;=3),"",$A58-_xlfn.XLOOKUP(AW58,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AZ58" t="str" cm="1">
+        <f t="array" ref="AZ58">IF(OR(Daily!$A58="", ROW()&lt;=3),"",$A58-_xlfn.XLOOKUP(Z58,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BA58" t="str" cm="1">
+        <f t="array" ref="BA58">IF(OR(Daily!$A58="", ROW()&lt;=3),"",$A58-_xlfn.XLOOKUP(AW58,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
     </row>
-    <row r="59" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="e">
         <f>IF(Daily!$A59="",NA(),Daily!A59)</f>
         <v>#N/A</v>
@@ -26947,8 +28215,28 @@
         <f>IF(OR(Daily!A59="",Z59=0),"",_xlfn.XLOOKUP(Z59*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A59)</f>
         <v/>
       </c>
+      <c r="AW59" s="3" t="str">
+        <f>IF(Daily!$A59="","",Z59/(Connfiguration!$B$1/1000000))</f>
+        <v/>
+      </c>
+      <c r="AX59" t="str" cm="1">
+        <f t="array" ref="AX59">IF(OR(Daily!$A59="", ROW()&lt;=3),"",$A59-_xlfn.XLOOKUP(Z59,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AY59" t="str" cm="1">
+        <f t="array" ref="AY59">IF(OR(Daily!$A59="", ROW()&lt;=3),"",$A59-_xlfn.XLOOKUP(AW59,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AZ59" t="str" cm="1">
+        <f t="array" ref="AZ59">IF(OR(Daily!$A59="", ROW()&lt;=3),"",$A59-_xlfn.XLOOKUP(Z59,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BA59" t="str" cm="1">
+        <f t="array" ref="BA59">IF(OR(Daily!$A59="", ROW()&lt;=3),"",$A59-_xlfn.XLOOKUP(AW59,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
     </row>
-    <row r="60" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="e">
         <f>IF(Daily!$A60="",NA(),Daily!A60)</f>
         <v>#N/A</v>
@@ -27141,8 +28429,28 @@
         <f>IF(OR(Daily!A60="",Z60=0),"",_xlfn.XLOOKUP(Z60*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A60)</f>
         <v/>
       </c>
+      <c r="AW60" s="3" t="str">
+        <f>IF(Daily!$A60="","",Z60/(Connfiguration!$B$1/1000000))</f>
+        <v/>
+      </c>
+      <c r="AX60" t="str" cm="1">
+        <f t="array" ref="AX60">IF(OR(Daily!$A60="", ROW()&lt;=3),"",$A60-_xlfn.XLOOKUP(Z60,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AY60" t="str" cm="1">
+        <f t="array" ref="AY60">IF(OR(Daily!$A60="", ROW()&lt;=3),"",$A60-_xlfn.XLOOKUP(AW60,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AZ60" t="str" cm="1">
+        <f t="array" ref="AZ60">IF(OR(Daily!$A60="", ROW()&lt;=3),"",$A60-_xlfn.XLOOKUP(Z60,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BA60" t="str" cm="1">
+        <f t="array" ref="BA60">IF(OR(Daily!$A60="", ROW()&lt;=3),"",$A60-_xlfn.XLOOKUP(AW60,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
     </row>
-    <row r="61" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="e">
         <f>IF(Daily!$A61="",NA(),Daily!A61)</f>
         <v>#N/A</v>
@@ -27335,8 +28643,28 @@
         <f>IF(OR(Daily!A61="",Z61=0),"",_xlfn.XLOOKUP(Z61*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A61)</f>
         <v/>
       </c>
+      <c r="AW61" s="3" t="str">
+        <f>IF(Daily!$A61="","",Z61/(Connfiguration!$B$1/1000000))</f>
+        <v/>
+      </c>
+      <c r="AX61" t="str" cm="1">
+        <f t="array" ref="AX61">IF(OR(Daily!$A61="", ROW()&lt;=3),"",$A61-_xlfn.XLOOKUP(Z61,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AY61" t="str" cm="1">
+        <f t="array" ref="AY61">IF(OR(Daily!$A61="", ROW()&lt;=3),"",$A61-_xlfn.XLOOKUP(AW61,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AZ61" t="str" cm="1">
+        <f t="array" ref="AZ61">IF(OR(Daily!$A61="", ROW()&lt;=3),"",$A61-_xlfn.XLOOKUP(Z61,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BA61" t="str" cm="1">
+        <f t="array" ref="BA61">IF(OR(Daily!$A61="", ROW()&lt;=3),"",$A61-_xlfn.XLOOKUP(AW61,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
     </row>
-    <row r="62" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="e">
         <f>IF(Daily!$A62="",NA(),Daily!A62)</f>
         <v>#N/A</v>
@@ -27529,8 +28857,28 @@
         <f>IF(OR(Daily!A62="",Z62=0),"",_xlfn.XLOOKUP(Z62*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A62)</f>
         <v/>
       </c>
+      <c r="AW62" s="3" t="str">
+        <f>IF(Daily!$A62="","",Z62/(Connfiguration!$B$1/1000000))</f>
+        <v/>
+      </c>
+      <c r="AX62" t="str" cm="1">
+        <f t="array" ref="AX62">IF(OR(Daily!$A62="", ROW()&lt;=3),"",$A62-_xlfn.XLOOKUP(Z62,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AY62" t="str" cm="1">
+        <f t="array" ref="AY62">IF(OR(Daily!$A62="", ROW()&lt;=3),"",$A62-_xlfn.XLOOKUP(AW62,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AZ62" t="str" cm="1">
+        <f t="array" ref="AZ62">IF(OR(Daily!$A62="", ROW()&lt;=3),"",$A62-_xlfn.XLOOKUP(Z62,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BA62" t="str" cm="1">
+        <f t="array" ref="BA62">IF(OR(Daily!$A62="", ROW()&lt;=3),"",$A62-_xlfn.XLOOKUP(AW62,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
     </row>
-    <row r="63" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="e">
         <f>IF(Daily!$A63="",NA(),Daily!A63)</f>
         <v>#N/A</v>
@@ -27723,8 +29071,28 @@
         <f>IF(OR(Daily!A63="",Z63=0),"",_xlfn.XLOOKUP(Z63*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A63)</f>
         <v/>
       </c>
+      <c r="AW63" s="3" t="str">
+        <f>IF(Daily!$A63="","",Z63/(Connfiguration!$B$1/1000000))</f>
+        <v/>
+      </c>
+      <c r="AX63" t="str" cm="1">
+        <f t="array" ref="AX63">IF(OR(Daily!$A63="", ROW()&lt;=3),"",$A63-_xlfn.XLOOKUP(Z63,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AY63" t="str" cm="1">
+        <f t="array" ref="AY63">IF(OR(Daily!$A63="", ROW()&lt;=3),"",$A63-_xlfn.XLOOKUP(AW63,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AZ63" t="str" cm="1">
+        <f t="array" ref="AZ63">IF(OR(Daily!$A63="", ROW()&lt;=3),"",$A63-_xlfn.XLOOKUP(Z63,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BA63" t="str" cm="1">
+        <f t="array" ref="BA63">IF(OR(Daily!$A63="", ROW()&lt;=3),"",$A63-_xlfn.XLOOKUP(AW63,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
     </row>
-    <row r="64" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="e">
         <f>IF(Daily!$A64="",NA(),Daily!A64)</f>
         <v>#N/A</v>
@@ -27917,8 +29285,28 @@
         <f>IF(OR(Daily!A64="",Z64=0),"",_xlfn.XLOOKUP(Z64*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A64)</f>
         <v/>
       </c>
+      <c r="AW64" s="3" t="str">
+        <f>IF(Daily!$A64="","",Z64/(Connfiguration!$B$1/1000000))</f>
+        <v/>
+      </c>
+      <c r="AX64" t="str" cm="1">
+        <f t="array" ref="AX64">IF(OR(Daily!$A64="", ROW()&lt;=3),"",$A64-_xlfn.XLOOKUP(Z64,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AY64" t="str" cm="1">
+        <f t="array" ref="AY64">IF(OR(Daily!$A64="", ROW()&lt;=3),"",$A64-_xlfn.XLOOKUP(AW64,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AZ64" t="str" cm="1">
+        <f t="array" ref="AZ64">IF(OR(Daily!$A64="", ROW()&lt;=3),"",$A64-_xlfn.XLOOKUP(Z64,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BA64" t="str" cm="1">
+        <f t="array" ref="BA64">IF(OR(Daily!$A64="", ROW()&lt;=3),"",$A64-_xlfn.XLOOKUP(AW64,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
     </row>
-    <row r="65" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="e">
         <f>IF(Daily!$A65="",NA(),Daily!A65)</f>
         <v>#N/A</v>
@@ -28111,8 +29499,28 @@
         <f>IF(OR(Daily!A65="",Z65=0),"",_xlfn.XLOOKUP(Z65*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A65)</f>
         <v/>
       </c>
+      <c r="AW65" s="3" t="str">
+        <f>IF(Daily!$A65="","",Z65/(Connfiguration!$B$1/1000000))</f>
+        <v/>
+      </c>
+      <c r="AX65" t="str" cm="1">
+        <f t="array" ref="AX65">IF(OR(Daily!$A65="", ROW()&lt;=3),"",$A65-_xlfn.XLOOKUP(Z65,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AY65" t="str" cm="1">
+        <f t="array" ref="AY65">IF(OR(Daily!$A65="", ROW()&lt;=3),"",$A65-_xlfn.XLOOKUP(AW65,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AZ65" t="str" cm="1">
+        <f t="array" ref="AZ65">IF(OR(Daily!$A65="", ROW()&lt;=3),"",$A65-_xlfn.XLOOKUP(Z65,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BA65" t="str" cm="1">
+        <f t="array" ref="BA65">IF(OR(Daily!$A65="", ROW()&lt;=3),"",$A65-_xlfn.XLOOKUP(AW65,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
     </row>
-    <row r="66" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="e">
         <f>IF(Daily!$A66="",NA(),Daily!A66)</f>
         <v>#N/A</v>
@@ -28305,8 +29713,28 @@
         <f>IF(OR(Daily!A66="",Z66=0),"",_xlfn.XLOOKUP(Z66*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A66)</f>
         <v/>
       </c>
+      <c r="AW66" s="3" t="str">
+        <f>IF(Daily!$A66="","",Z66/(Connfiguration!$B$1/1000000))</f>
+        <v/>
+      </c>
+      <c r="AX66" t="str" cm="1">
+        <f t="array" ref="AX66">IF(OR(Daily!$A66="", ROW()&lt;=3),"",$A66-_xlfn.XLOOKUP(Z66,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AY66" t="str" cm="1">
+        <f t="array" ref="AY66">IF(OR(Daily!$A66="", ROW()&lt;=3),"",$A66-_xlfn.XLOOKUP(AW66,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AZ66" t="str" cm="1">
+        <f t="array" ref="AZ66">IF(OR(Daily!$A66="", ROW()&lt;=3),"",$A66-_xlfn.XLOOKUP(Z66,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BA66" t="str" cm="1">
+        <f t="array" ref="BA66">IF(OR(Daily!$A66="", ROW()&lt;=3),"",$A66-_xlfn.XLOOKUP(AW66,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
     </row>
-    <row r="67" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="e">
         <f>IF(Daily!$A67="",NA(),Daily!A67)</f>
         <v>#N/A</v>
@@ -28499,8 +29927,28 @@
         <f>IF(OR(Daily!A67="",Z67=0),"",_xlfn.XLOOKUP(Z67*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A67)</f>
         <v/>
       </c>
+      <c r="AW67" s="3" t="str">
+        <f>IF(Daily!$A67="","",Z67/(Connfiguration!$B$1/1000000))</f>
+        <v/>
+      </c>
+      <c r="AX67" t="str" cm="1">
+        <f t="array" ref="AX67">IF(OR(Daily!$A67="", ROW()&lt;=3),"",$A67-_xlfn.XLOOKUP(Z67,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AY67" t="str" cm="1">
+        <f t="array" ref="AY67">IF(OR(Daily!$A67="", ROW()&lt;=3),"",$A67-_xlfn.XLOOKUP(AW67,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AZ67" t="str" cm="1">
+        <f t="array" ref="AZ67">IF(OR(Daily!$A67="", ROW()&lt;=3),"",$A67-_xlfn.XLOOKUP(Z67,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BA67" t="str" cm="1">
+        <f t="array" ref="BA67">IF(OR(Daily!$A67="", ROW()&lt;=3),"",$A67-_xlfn.XLOOKUP(AW67,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
     </row>
-    <row r="68" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="e">
         <f>IF(Daily!$A68="",NA(),Daily!A68)</f>
         <v>#N/A</v>
@@ -28693,8 +30141,28 @@
         <f>IF(OR(Daily!A68="",Z68=0),"",_xlfn.XLOOKUP(Z68*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A68)</f>
         <v/>
       </c>
+      <c r="AW68" s="3" t="str">
+        <f>IF(Daily!$A68="","",Z68/(Connfiguration!$B$1/1000000))</f>
+        <v/>
+      </c>
+      <c r="AX68" t="str" cm="1">
+        <f t="array" ref="AX68">IF(OR(Daily!$A68="", ROW()&lt;=3),"",$A68-_xlfn.XLOOKUP(Z68,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AY68" t="str" cm="1">
+        <f t="array" ref="AY68">IF(OR(Daily!$A68="", ROW()&lt;=3),"",$A68-_xlfn.XLOOKUP(AW68,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AZ68" t="str" cm="1">
+        <f t="array" ref="AZ68">IF(OR(Daily!$A68="", ROW()&lt;=3),"",$A68-_xlfn.XLOOKUP(Z68,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BA68" t="str" cm="1">
+        <f t="array" ref="BA68">IF(OR(Daily!$A68="", ROW()&lt;=3),"",$A68-_xlfn.XLOOKUP(AW68,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
     </row>
-    <row r="69" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="e">
         <f>IF(Daily!$A69="",NA(),Daily!A69)</f>
         <v>#N/A</v>
@@ -28887,8 +30355,28 @@
         <f>IF(OR(Daily!A69="",Z69=0),"",_xlfn.XLOOKUP(Z69*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A69)</f>
         <v/>
       </c>
+      <c r="AW69" s="3" t="str">
+        <f>IF(Daily!$A69="","",Z69/(Connfiguration!$B$1/1000000))</f>
+        <v/>
+      </c>
+      <c r="AX69" t="str" cm="1">
+        <f t="array" ref="AX69">IF(OR(Daily!$A69="", ROW()&lt;=3),"",$A69-_xlfn.XLOOKUP(Z69,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AY69" t="str" cm="1">
+        <f t="array" ref="AY69">IF(OR(Daily!$A69="", ROW()&lt;=3),"",$A69-_xlfn.XLOOKUP(AW69,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AZ69" t="str" cm="1">
+        <f t="array" ref="AZ69">IF(OR(Daily!$A69="", ROW()&lt;=3),"",$A69-_xlfn.XLOOKUP(Z69,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BA69" t="str" cm="1">
+        <f t="array" ref="BA69">IF(OR(Daily!$A69="", ROW()&lt;=3),"",$A69-_xlfn.XLOOKUP(AW69,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
     </row>
-    <row r="70" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="e">
         <f>IF(Daily!$A70="",NA(),Daily!A70)</f>
         <v>#N/A</v>
@@ -29081,8 +30569,28 @@
         <f>IF(OR(Daily!A70="",Z70=0),"",_xlfn.XLOOKUP(Z70*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A70)</f>
         <v/>
       </c>
+      <c r="AW70" s="3" t="str">
+        <f>IF(Daily!$A70="","",Z70/(Connfiguration!$B$1/1000000))</f>
+        <v/>
+      </c>
+      <c r="AX70" t="str" cm="1">
+        <f t="array" ref="AX70">IF(OR(Daily!$A70="", ROW()&lt;=3),"",$A70-_xlfn.XLOOKUP(Z70,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AY70" t="str" cm="1">
+        <f t="array" ref="AY70">IF(OR(Daily!$A70="", ROW()&lt;=3),"",$A70-_xlfn.XLOOKUP(AW70,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AZ70" t="str" cm="1">
+        <f t="array" ref="AZ70">IF(OR(Daily!$A70="", ROW()&lt;=3),"",$A70-_xlfn.XLOOKUP(Z70,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BA70" t="str" cm="1">
+        <f t="array" ref="BA70">IF(OR(Daily!$A70="", ROW()&lt;=3),"",$A70-_xlfn.XLOOKUP(AW70,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
     </row>
-    <row r="71" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="e">
         <f>IF(Daily!$A71="",NA(),Daily!A71)</f>
         <v>#N/A</v>
@@ -29275,8 +30783,28 @@
         <f>IF(OR(Daily!A71="",Z71=0),"",_xlfn.XLOOKUP(Z71*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A71)</f>
         <v/>
       </c>
+      <c r="AW71" s="3" t="str">
+        <f>IF(Daily!$A71="","",Z71/(Connfiguration!$B$1/1000000))</f>
+        <v/>
+      </c>
+      <c r="AX71" t="str" cm="1">
+        <f t="array" ref="AX71">IF(OR(Daily!$A71="", ROW()&lt;=3),"",$A71-_xlfn.XLOOKUP(Z71,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AY71" t="str" cm="1">
+        <f t="array" ref="AY71">IF(OR(Daily!$A71="", ROW()&lt;=3),"",$A71-_xlfn.XLOOKUP(AW71,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AZ71" t="str" cm="1">
+        <f t="array" ref="AZ71">IF(OR(Daily!$A71="", ROW()&lt;=3),"",$A71-_xlfn.XLOOKUP(Z71,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BA71" t="str" cm="1">
+        <f t="array" ref="BA71">IF(OR(Daily!$A71="", ROW()&lt;=3),"",$A71-_xlfn.XLOOKUP(AW71,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
     </row>
-    <row r="72" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="e">
         <f>IF(Daily!$A72="",NA(),Daily!A72)</f>
         <v>#N/A</v>
@@ -29469,8 +30997,28 @@
         <f>IF(OR(Daily!A72="",Z72=0),"",_xlfn.XLOOKUP(Z72*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A72)</f>
         <v/>
       </c>
+      <c r="AW72" s="3" t="str">
+        <f>IF(Daily!$A72="","",Z72/(Connfiguration!$B$1/1000000))</f>
+        <v/>
+      </c>
+      <c r="AX72" t="str" cm="1">
+        <f t="array" ref="AX72">IF(OR(Daily!$A72="", ROW()&lt;=3),"",$A72-_xlfn.XLOOKUP(Z72,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AY72" t="str" cm="1">
+        <f t="array" ref="AY72">IF(OR(Daily!$A72="", ROW()&lt;=3),"",$A72-_xlfn.XLOOKUP(AW72,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AZ72" t="str" cm="1">
+        <f t="array" ref="AZ72">IF(OR(Daily!$A72="", ROW()&lt;=3),"",$A72-_xlfn.XLOOKUP(Z72,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BA72" t="str" cm="1">
+        <f t="array" ref="BA72">IF(OR(Daily!$A72="", ROW()&lt;=3),"",$A72-_xlfn.XLOOKUP(AW72,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
     </row>
-    <row r="73" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="e">
         <f>IF(Daily!$A73="",NA(),Daily!A73)</f>
         <v>#N/A</v>
@@ -29663,8 +31211,28 @@
         <f>IF(OR(Daily!A73="",Z73=0),"",_xlfn.XLOOKUP(Z73*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A73)</f>
         <v/>
       </c>
+      <c r="AW73" s="3" t="str">
+        <f>IF(Daily!$A73="","",Z73/(Connfiguration!$B$1/1000000))</f>
+        <v/>
+      </c>
+      <c r="AX73" t="str" cm="1">
+        <f t="array" ref="AX73">IF(OR(Daily!$A73="", ROW()&lt;=3),"",$A73-_xlfn.XLOOKUP(Z73,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AY73" t="str" cm="1">
+        <f t="array" ref="AY73">IF(OR(Daily!$A73="", ROW()&lt;=3),"",$A73-_xlfn.XLOOKUP(AW73,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AZ73" t="str" cm="1">
+        <f t="array" ref="AZ73">IF(OR(Daily!$A73="", ROW()&lt;=3),"",$A73-_xlfn.XLOOKUP(Z73,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BA73" t="str" cm="1">
+        <f t="array" ref="BA73">IF(OR(Daily!$A73="", ROW()&lt;=3),"",$A73-_xlfn.XLOOKUP(AW73,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
     </row>
-    <row r="74" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="e">
         <f>IF(Daily!$A74="",NA(),Daily!A74)</f>
         <v>#N/A</v>
@@ -29857,8 +31425,28 @@
         <f>IF(OR(Daily!A74="",Z74=0),"",_xlfn.XLOOKUP(Z74*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A74)</f>
         <v/>
       </c>
+      <c r="AW74" s="3" t="str">
+        <f>IF(Daily!$A74="","",Z74/(Connfiguration!$B$1/1000000))</f>
+        <v/>
+      </c>
+      <c r="AX74" t="str" cm="1">
+        <f t="array" ref="AX74">IF(OR(Daily!$A74="", ROW()&lt;=3),"",$A74-_xlfn.XLOOKUP(Z74,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AY74" t="str" cm="1">
+        <f t="array" ref="AY74">IF(OR(Daily!$A74="", ROW()&lt;=3),"",$A74-_xlfn.XLOOKUP(AW74,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AZ74" t="str" cm="1">
+        <f t="array" ref="AZ74">IF(OR(Daily!$A74="", ROW()&lt;=3),"",$A74-_xlfn.XLOOKUP(Z74,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BA74" t="str" cm="1">
+        <f t="array" ref="BA74">IF(OR(Daily!$A74="", ROW()&lt;=3),"",$A74-_xlfn.XLOOKUP(AW74,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
     </row>
-    <row r="75" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="e">
         <f>IF(Daily!$A75="",NA(),Daily!A75)</f>
         <v>#N/A</v>
@@ -30051,8 +31639,28 @@
         <f>IF(OR(Daily!A75="",Z75=0),"",_xlfn.XLOOKUP(Z75*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A75)</f>
         <v/>
       </c>
+      <c r="AW75" s="3" t="str">
+        <f>IF(Daily!$A75="","",Z75/(Connfiguration!$B$1/1000000))</f>
+        <v/>
+      </c>
+      <c r="AX75" t="str" cm="1">
+        <f t="array" ref="AX75">IF(OR(Daily!$A75="", ROW()&lt;=3),"",$A75-_xlfn.XLOOKUP(Z75,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AY75" t="str" cm="1">
+        <f t="array" ref="AY75">IF(OR(Daily!$A75="", ROW()&lt;=3),"",$A75-_xlfn.XLOOKUP(AW75,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AZ75" t="str" cm="1">
+        <f t="array" ref="AZ75">IF(OR(Daily!$A75="", ROW()&lt;=3),"",$A75-_xlfn.XLOOKUP(Z75,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BA75" t="str" cm="1">
+        <f t="array" ref="BA75">IF(OR(Daily!$A75="", ROW()&lt;=3),"",$A75-_xlfn.XLOOKUP(AW75,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
     </row>
-    <row r="76" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="e">
         <f>IF(Daily!$A76="",NA(),Daily!A76)</f>
         <v>#N/A</v>
@@ -30245,8 +31853,28 @@
         <f>IF(OR(Daily!A76="",Z76=0),"",_xlfn.XLOOKUP(Z76*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A76)</f>
         <v/>
       </c>
+      <c r="AW76" s="3" t="str">
+        <f>IF(Daily!$A76="","",Z76/(Connfiguration!$B$1/1000000))</f>
+        <v/>
+      </c>
+      <c r="AX76" t="str" cm="1">
+        <f t="array" ref="AX76">IF(OR(Daily!$A76="", ROW()&lt;=3),"",$A76-_xlfn.XLOOKUP(Z76,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AY76" t="str" cm="1">
+        <f t="array" ref="AY76">IF(OR(Daily!$A76="", ROW()&lt;=3),"",$A76-_xlfn.XLOOKUP(AW76,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AZ76" t="str" cm="1">
+        <f t="array" ref="AZ76">IF(OR(Daily!$A76="", ROW()&lt;=3),"",$A76-_xlfn.XLOOKUP(Z76,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BA76" t="str" cm="1">
+        <f t="array" ref="BA76">IF(OR(Daily!$A76="", ROW()&lt;=3),"",$A76-_xlfn.XLOOKUP(AW76,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
     </row>
-    <row r="77" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="e">
         <f>IF(Daily!$A77="",NA(),Daily!A77)</f>
         <v>#N/A</v>
@@ -30439,8 +32067,28 @@
         <f>IF(OR(Daily!A77="",Z77=0),"",_xlfn.XLOOKUP(Z77*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A77)</f>
         <v/>
       </c>
+      <c r="AW77" s="3" t="str">
+        <f>IF(Daily!$A77="","",Z77/(Connfiguration!$B$1/1000000))</f>
+        <v/>
+      </c>
+      <c r="AX77" t="str" cm="1">
+        <f t="array" ref="AX77">IF(OR(Daily!$A77="", ROW()&lt;=3),"",$A77-_xlfn.XLOOKUP(Z77,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AY77" t="str" cm="1">
+        <f t="array" ref="AY77">IF(OR(Daily!$A77="", ROW()&lt;=3),"",$A77-_xlfn.XLOOKUP(AW77,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AZ77" t="str" cm="1">
+        <f t="array" ref="AZ77">IF(OR(Daily!$A77="", ROW()&lt;=3),"",$A77-_xlfn.XLOOKUP(Z77,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BA77" t="str" cm="1">
+        <f t="array" ref="BA77">IF(OR(Daily!$A77="", ROW()&lt;=3),"",$A77-_xlfn.XLOOKUP(AW77,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
     </row>
-    <row r="78" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="e">
         <f>IF(Daily!$A78="",NA(),Daily!A78)</f>
         <v>#N/A</v>
@@ -30633,8 +32281,28 @@
         <f>IF(OR(Daily!A78="",Z78=0),"",_xlfn.XLOOKUP(Z78*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A78)</f>
         <v/>
       </c>
+      <c r="AW78" s="3" t="str">
+        <f>IF(Daily!$A78="","",Z78/(Connfiguration!$B$1/1000000))</f>
+        <v/>
+      </c>
+      <c r="AX78" t="str" cm="1">
+        <f t="array" ref="AX78">IF(OR(Daily!$A78="", ROW()&lt;=3),"",$A78-_xlfn.XLOOKUP(Z78,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AY78" t="str" cm="1">
+        <f t="array" ref="AY78">IF(OR(Daily!$A78="", ROW()&lt;=3),"",$A78-_xlfn.XLOOKUP(AW78,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AZ78" t="str" cm="1">
+        <f t="array" ref="AZ78">IF(OR(Daily!$A78="", ROW()&lt;=3),"",$A78-_xlfn.XLOOKUP(Z78,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BA78" t="str" cm="1">
+        <f t="array" ref="BA78">IF(OR(Daily!$A78="", ROW()&lt;=3),"",$A78-_xlfn.XLOOKUP(AW78,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
     </row>
-    <row r="79" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="e">
         <f>IF(Daily!$A79="",NA(),Daily!A79)</f>
         <v>#N/A</v>
@@ -30827,8 +32495,28 @@
         <f>IF(OR(Daily!A79="",Z79=0),"",_xlfn.XLOOKUP(Z79*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A79)</f>
         <v/>
       </c>
+      <c r="AW79" s="3" t="str">
+        <f>IF(Daily!$A79="","",Z79/(Connfiguration!$B$1/1000000))</f>
+        <v/>
+      </c>
+      <c r="AX79" t="str" cm="1">
+        <f t="array" ref="AX79">IF(OR(Daily!$A79="", ROW()&lt;=3),"",$A79-_xlfn.XLOOKUP(Z79,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AY79" t="str" cm="1">
+        <f t="array" ref="AY79">IF(OR(Daily!$A79="", ROW()&lt;=3),"",$A79-_xlfn.XLOOKUP(AW79,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AZ79" t="str" cm="1">
+        <f t="array" ref="AZ79">IF(OR(Daily!$A79="", ROW()&lt;=3),"",$A79-_xlfn.XLOOKUP(Z79,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BA79" t="str" cm="1">
+        <f t="array" ref="BA79">IF(OR(Daily!$A79="", ROW()&lt;=3),"",$A79-_xlfn.XLOOKUP(AW79,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
     </row>
-    <row r="80" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="e">
         <f>IF(Daily!$A80="",NA(),Daily!A80)</f>
         <v>#N/A</v>
@@ -31021,8 +32709,28 @@
         <f>IF(OR(Daily!A80="",Z80=0),"",_xlfn.XLOOKUP(Z80*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A80)</f>
         <v/>
       </c>
+      <c r="AW80" s="3" t="str">
+        <f>IF(Daily!$A80="","",Z80/(Connfiguration!$B$1/1000000))</f>
+        <v/>
+      </c>
+      <c r="AX80" t="str" cm="1">
+        <f t="array" ref="AX80">IF(OR(Daily!$A80="", ROW()&lt;=3),"",$A80-_xlfn.XLOOKUP(Z80,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AY80" t="str" cm="1">
+        <f t="array" ref="AY80">IF(OR(Daily!$A80="", ROW()&lt;=3),"",$A80-_xlfn.XLOOKUP(AW80,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AZ80" t="str" cm="1">
+        <f t="array" ref="AZ80">IF(OR(Daily!$A80="", ROW()&lt;=3),"",$A80-_xlfn.XLOOKUP(Z80,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BA80" t="str" cm="1">
+        <f t="array" ref="BA80">IF(OR(Daily!$A80="", ROW()&lt;=3),"",$A80-_xlfn.XLOOKUP(AW80,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
     </row>
-    <row r="81" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="e">
         <f>IF(Daily!$A81="",NA(),Daily!A81)</f>
         <v>#N/A</v>
@@ -31215,8 +32923,28 @@
         <f>IF(OR(Daily!A81="",Z81=0),"",_xlfn.XLOOKUP(Z81*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A81)</f>
         <v/>
       </c>
+      <c r="AW81" s="3" t="str">
+        <f>IF(Daily!$A81="","",Z81/(Connfiguration!$B$1/1000000))</f>
+        <v/>
+      </c>
+      <c r="AX81" t="str" cm="1">
+        <f t="array" ref="AX81">IF(OR(Daily!$A81="", ROW()&lt;=3),"",$A81-_xlfn.XLOOKUP(Z81,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AY81" t="str" cm="1">
+        <f t="array" ref="AY81">IF(OR(Daily!$A81="", ROW()&lt;=3),"",$A81-_xlfn.XLOOKUP(AW81,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AZ81" t="str" cm="1">
+        <f t="array" ref="AZ81">IF(OR(Daily!$A81="", ROW()&lt;=3),"",$A81-_xlfn.XLOOKUP(Z81,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BA81" t="str" cm="1">
+        <f t="array" ref="BA81">IF(OR(Daily!$A81="", ROW()&lt;=3),"",$A81-_xlfn.XLOOKUP(AW81,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
     </row>
-    <row r="82" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="e">
         <f>IF(Daily!$A82="",NA(),Daily!A82)</f>
         <v>#N/A</v>
@@ -31409,8 +33137,28 @@
         <f>IF(OR(Daily!A82="",Z82=0),"",_xlfn.XLOOKUP(Z82*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A82)</f>
         <v/>
       </c>
+      <c r="AW82" s="3" t="str">
+        <f>IF(Daily!$A82="","",Z82/(Connfiguration!$B$1/1000000))</f>
+        <v/>
+      </c>
+      <c r="AX82" t="str" cm="1">
+        <f t="array" ref="AX82">IF(OR(Daily!$A82="", ROW()&lt;=3),"",$A82-_xlfn.XLOOKUP(Z82,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AY82" t="str" cm="1">
+        <f t="array" ref="AY82">IF(OR(Daily!$A82="", ROW()&lt;=3),"",$A82-_xlfn.XLOOKUP(AW82,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AZ82" t="str" cm="1">
+        <f t="array" ref="AZ82">IF(OR(Daily!$A82="", ROW()&lt;=3),"",$A82-_xlfn.XLOOKUP(Z82,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BA82" t="str" cm="1">
+        <f t="array" ref="BA82">IF(OR(Daily!$A82="", ROW()&lt;=3),"",$A82-_xlfn.XLOOKUP(AW82,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
     </row>
-    <row r="83" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="e">
         <f>IF(Daily!$A83="",NA(),Daily!A83)</f>
         <v>#N/A</v>
@@ -31603,8 +33351,28 @@
         <f>IF(OR(Daily!A83="",Z83=0),"",_xlfn.XLOOKUP(Z83*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A83)</f>
         <v/>
       </c>
+      <c r="AW83" s="3" t="str">
+        <f>IF(Daily!$A83="","",Z83/(Connfiguration!$B$1/1000000))</f>
+        <v/>
+      </c>
+      <c r="AX83" t="str" cm="1">
+        <f t="array" ref="AX83">IF(OR(Daily!$A83="", ROW()&lt;=3),"",$A83-_xlfn.XLOOKUP(Z83,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AY83" t="str" cm="1">
+        <f t="array" ref="AY83">IF(OR(Daily!$A83="", ROW()&lt;=3),"",$A83-_xlfn.XLOOKUP(AW83,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AZ83" t="str" cm="1">
+        <f t="array" ref="AZ83">IF(OR(Daily!$A83="", ROW()&lt;=3),"",$A83-_xlfn.XLOOKUP(Z83,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BA83" t="str" cm="1">
+        <f t="array" ref="BA83">IF(OR(Daily!$A83="", ROW()&lt;=3),"",$A83-_xlfn.XLOOKUP(AW83,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
     </row>
-    <row r="84" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="e">
         <f>IF(Daily!$A84="",NA(),Daily!A84)</f>
         <v>#N/A</v>
@@ -31797,8 +33565,28 @@
         <f>IF(OR(Daily!A84="",Z84=0),"",_xlfn.XLOOKUP(Z84*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A84)</f>
         <v/>
       </c>
+      <c r="AW84" s="3" t="str">
+        <f>IF(Daily!$A84="","",Z84/(Connfiguration!$B$1/1000000))</f>
+        <v/>
+      </c>
+      <c r="AX84" t="str" cm="1">
+        <f t="array" ref="AX84">IF(OR(Daily!$A84="", ROW()&lt;=3),"",$A84-_xlfn.XLOOKUP(Z84,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AY84" t="str" cm="1">
+        <f t="array" ref="AY84">IF(OR(Daily!$A84="", ROW()&lt;=3),"",$A84-_xlfn.XLOOKUP(AW84,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AZ84" t="str" cm="1">
+        <f t="array" ref="AZ84">IF(OR(Daily!$A84="", ROW()&lt;=3),"",$A84-_xlfn.XLOOKUP(Z84,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BA84" t="str" cm="1">
+        <f t="array" ref="BA84">IF(OR(Daily!$A84="", ROW()&lt;=3),"",$A84-_xlfn.XLOOKUP(AW84,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
     </row>
-    <row r="85" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="e">
         <f>IF(Daily!$A85="",NA(),Daily!A85)</f>
         <v>#N/A</v>
@@ -31991,8 +33779,28 @@
         <f>IF(OR(Daily!A85="",Z85=0),"",_xlfn.XLOOKUP(Z85*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A85)</f>
         <v/>
       </c>
+      <c r="AW85" s="3" t="str">
+        <f>IF(Daily!$A85="","",Z85/(Connfiguration!$B$1/1000000))</f>
+        <v/>
+      </c>
+      <c r="AX85" t="str" cm="1">
+        <f t="array" ref="AX85">IF(OR(Daily!$A85="", ROW()&lt;=3),"",$A85-_xlfn.XLOOKUP(Z85,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AY85" t="str" cm="1">
+        <f t="array" ref="AY85">IF(OR(Daily!$A85="", ROW()&lt;=3),"",$A85-_xlfn.XLOOKUP(AW85,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AZ85" t="str" cm="1">
+        <f t="array" ref="AZ85">IF(OR(Daily!$A85="", ROW()&lt;=3),"",$A85-_xlfn.XLOOKUP(Z85,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BA85" t="str" cm="1">
+        <f t="array" ref="BA85">IF(OR(Daily!$A85="", ROW()&lt;=3),"",$A85-_xlfn.XLOOKUP(AW85,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
     </row>
-    <row r="86" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="e">
         <f>IF(Daily!$A86="",NA(),Daily!A86)</f>
         <v>#N/A</v>
@@ -32185,8 +33993,28 @@
         <f>IF(OR(Daily!A86="",Z86=0),"",_xlfn.XLOOKUP(Z86*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A86)</f>
         <v/>
       </c>
+      <c r="AW86" s="3" t="str">
+        <f>IF(Daily!$A86="","",Z86/(Connfiguration!$B$1/1000000))</f>
+        <v/>
+      </c>
+      <c r="AX86" t="str" cm="1">
+        <f t="array" ref="AX86">IF(OR(Daily!$A86="", ROW()&lt;=3),"",$A86-_xlfn.XLOOKUP(Z86,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AY86" t="str" cm="1">
+        <f t="array" ref="AY86">IF(OR(Daily!$A86="", ROW()&lt;=3),"",$A86-_xlfn.XLOOKUP(AW86,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AZ86" t="str" cm="1">
+        <f t="array" ref="AZ86">IF(OR(Daily!$A86="", ROW()&lt;=3),"",$A86-_xlfn.XLOOKUP(Z86,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BA86" t="str" cm="1">
+        <f t="array" ref="BA86">IF(OR(Daily!$A86="", ROW()&lt;=3),"",$A86-_xlfn.XLOOKUP(AW86,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
     </row>
-    <row r="87" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="e">
         <f>IF(Daily!$A87="",NA(),Daily!A87)</f>
         <v>#N/A</v>
@@ -32379,8 +34207,28 @@
         <f>IF(OR(Daily!A87="",Z87=0),"",_xlfn.XLOOKUP(Z87*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A87)</f>
         <v/>
       </c>
+      <c r="AW87" s="3" t="str">
+        <f>IF(Daily!$A87="","",Z87/(Connfiguration!$B$1/1000000))</f>
+        <v/>
+      </c>
+      <c r="AX87" t="str" cm="1">
+        <f t="array" ref="AX87">IF(OR(Daily!$A87="", ROW()&lt;=3),"",$A87-_xlfn.XLOOKUP(Z87,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AY87" t="str" cm="1">
+        <f t="array" ref="AY87">IF(OR(Daily!$A87="", ROW()&lt;=3),"",$A87-_xlfn.XLOOKUP(AW87,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AZ87" t="str" cm="1">
+        <f t="array" ref="AZ87">IF(OR(Daily!$A87="", ROW()&lt;=3),"",$A87-_xlfn.XLOOKUP(Z87,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BA87" t="str" cm="1">
+        <f t="array" ref="BA87">IF(OR(Daily!$A87="", ROW()&lt;=3),"",$A87-_xlfn.XLOOKUP(AW87,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
     </row>
-    <row r="88" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="e">
         <f>IF(Daily!$A88="",NA(),Daily!A88)</f>
         <v>#N/A</v>
@@ -32573,8 +34421,28 @@
         <f>IF(OR(Daily!A88="",Z88=0),"",_xlfn.XLOOKUP(Z88*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A88)</f>
         <v/>
       </c>
+      <c r="AW88" s="3" t="str">
+        <f>IF(Daily!$A88="","",Z88/(Connfiguration!$B$1/1000000))</f>
+        <v/>
+      </c>
+      <c r="AX88" t="str" cm="1">
+        <f t="array" ref="AX88">IF(OR(Daily!$A88="", ROW()&lt;=3),"",$A88-_xlfn.XLOOKUP(Z88,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AY88" t="str" cm="1">
+        <f t="array" ref="AY88">IF(OR(Daily!$A88="", ROW()&lt;=3),"",$A88-_xlfn.XLOOKUP(AW88,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AZ88" t="str" cm="1">
+        <f t="array" ref="AZ88">IF(OR(Daily!$A88="", ROW()&lt;=3),"",$A88-_xlfn.XLOOKUP(Z88,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BA88" t="str" cm="1">
+        <f t="array" ref="BA88">IF(OR(Daily!$A88="", ROW()&lt;=3),"",$A88-_xlfn.XLOOKUP(AW88,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
     </row>
-    <row r="89" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="e">
         <f>IF(Daily!$A89="",NA(),Daily!A89)</f>
         <v>#N/A</v>
@@ -32767,8 +34635,28 @@
         <f>IF(OR(Daily!A89="",Z89=0),"",_xlfn.XLOOKUP(Z89*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A89)</f>
         <v/>
       </c>
+      <c r="AW89" s="3" t="str">
+        <f>IF(Daily!$A89="","",Z89/(Connfiguration!$B$1/1000000))</f>
+        <v/>
+      </c>
+      <c r="AX89" t="str" cm="1">
+        <f t="array" ref="AX89">IF(OR(Daily!$A89="", ROW()&lt;=3),"",$A89-_xlfn.XLOOKUP(Z89,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AY89" t="str" cm="1">
+        <f t="array" ref="AY89">IF(OR(Daily!$A89="", ROW()&lt;=3),"",$A89-_xlfn.XLOOKUP(AW89,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AZ89" t="str" cm="1">
+        <f t="array" ref="AZ89">IF(OR(Daily!$A89="", ROW()&lt;=3),"",$A89-_xlfn.XLOOKUP(Z89,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BA89" t="str" cm="1">
+        <f t="array" ref="BA89">IF(OR(Daily!$A89="", ROW()&lt;=3),"",$A89-_xlfn.XLOOKUP(AW89,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
     </row>
-    <row r="90" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="e">
         <f>IF(Daily!$A90="",NA(),Daily!A90)</f>
         <v>#N/A</v>
@@ -32961,8 +34849,28 @@
         <f>IF(OR(Daily!A90="",Z90=0),"",_xlfn.XLOOKUP(Z90*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A90)</f>
         <v/>
       </c>
+      <c r="AW90" s="3" t="str">
+        <f>IF(Daily!$A90="","",Z90/(Connfiguration!$B$1/1000000))</f>
+        <v/>
+      </c>
+      <c r="AX90" t="str" cm="1">
+        <f t="array" ref="AX90">IF(OR(Daily!$A90="", ROW()&lt;=3),"",$A90-_xlfn.XLOOKUP(Z90,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AY90" t="str" cm="1">
+        <f t="array" ref="AY90">IF(OR(Daily!$A90="", ROW()&lt;=3),"",$A90-_xlfn.XLOOKUP(AW90,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AZ90" t="str" cm="1">
+        <f t="array" ref="AZ90">IF(OR(Daily!$A90="", ROW()&lt;=3),"",$A90-_xlfn.XLOOKUP(Z90,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BA90" t="str" cm="1">
+        <f t="array" ref="BA90">IF(OR(Daily!$A90="", ROW()&lt;=3),"",$A90-_xlfn.XLOOKUP(AW90,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
     </row>
-    <row r="91" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="e">
         <f>IF(Daily!$A91="",NA(),Daily!A91)</f>
         <v>#N/A</v>
@@ -33155,8 +35063,28 @@
         <f>IF(OR(Daily!A91="",Z91=0),"",_xlfn.XLOOKUP(Z91*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A91)</f>
         <v/>
       </c>
+      <c r="AW91" s="3" t="str">
+        <f>IF(Daily!$A91="","",Z91/(Connfiguration!$B$1/1000000))</f>
+        <v/>
+      </c>
+      <c r="AX91" t="str" cm="1">
+        <f t="array" ref="AX91">IF(OR(Daily!$A91="", ROW()&lt;=3),"",$A91-_xlfn.XLOOKUP(Z91,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AY91" t="str" cm="1">
+        <f t="array" ref="AY91">IF(OR(Daily!$A91="", ROW()&lt;=3),"",$A91-_xlfn.XLOOKUP(AW91,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AZ91" t="str" cm="1">
+        <f t="array" ref="AZ91">IF(OR(Daily!$A91="", ROW()&lt;=3),"",$A91-_xlfn.XLOOKUP(Z91,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BA91" t="str" cm="1">
+        <f t="array" ref="BA91">IF(OR(Daily!$A91="", ROW()&lt;=3),"",$A91-_xlfn.XLOOKUP(AW91,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
     </row>
-    <row r="92" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="e">
         <f>IF(Daily!$A92="",NA(),Daily!A92)</f>
         <v>#N/A</v>
@@ -33349,8 +35277,28 @@
         <f>IF(OR(Daily!A92="",Z92=0),"",_xlfn.XLOOKUP(Z92*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A92)</f>
         <v/>
       </c>
+      <c r="AW92" s="3" t="str">
+        <f>IF(Daily!$A92="","",Z92/(Connfiguration!$B$1/1000000))</f>
+        <v/>
+      </c>
+      <c r="AX92" t="str" cm="1">
+        <f t="array" ref="AX92">IF(OR(Daily!$A92="", ROW()&lt;=3),"",$A92-_xlfn.XLOOKUP(Z92,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AY92" t="str" cm="1">
+        <f t="array" ref="AY92">IF(OR(Daily!$A92="", ROW()&lt;=3),"",$A92-_xlfn.XLOOKUP(AW92,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AZ92" t="str" cm="1">
+        <f t="array" ref="AZ92">IF(OR(Daily!$A92="", ROW()&lt;=3),"",$A92-_xlfn.XLOOKUP(Z92,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BA92" t="str" cm="1">
+        <f t="array" ref="BA92">IF(OR(Daily!$A92="", ROW()&lt;=3),"",$A92-_xlfn.XLOOKUP(AW92,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
     </row>
-    <row r="93" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="e">
         <f>IF(Daily!$A93="",NA(),Daily!A93)</f>
         <v>#N/A</v>
@@ -33543,8 +35491,28 @@
         <f>IF(OR(Daily!A93="",Z93=0),"",_xlfn.XLOOKUP(Z93*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A93)</f>
         <v/>
       </c>
+      <c r="AW93" s="3" t="str">
+        <f>IF(Daily!$A93="","",Z93/(Connfiguration!$B$1/1000000))</f>
+        <v/>
+      </c>
+      <c r="AX93" t="str" cm="1">
+        <f t="array" ref="AX93">IF(OR(Daily!$A93="", ROW()&lt;=3),"",$A93-_xlfn.XLOOKUP(Z93,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AY93" t="str" cm="1">
+        <f t="array" ref="AY93">IF(OR(Daily!$A93="", ROW()&lt;=3),"",$A93-_xlfn.XLOOKUP(AW93,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AZ93" t="str" cm="1">
+        <f t="array" ref="AZ93">IF(OR(Daily!$A93="", ROW()&lt;=3),"",$A93-_xlfn.XLOOKUP(Z93,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BA93" t="str" cm="1">
+        <f t="array" ref="BA93">IF(OR(Daily!$A93="", ROW()&lt;=3),"",$A93-_xlfn.XLOOKUP(AW93,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
     </row>
-    <row r="94" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="e">
         <f>IF(Daily!$A94="",NA(),Daily!A94)</f>
         <v>#N/A</v>
@@ -33737,8 +35705,28 @@
         <f>IF(OR(Daily!A94="",Z94=0),"",_xlfn.XLOOKUP(Z94*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A94)</f>
         <v/>
       </c>
+      <c r="AW94" s="3" t="str">
+        <f>IF(Daily!$A94="","",Z94/(Connfiguration!$B$1/1000000))</f>
+        <v/>
+      </c>
+      <c r="AX94" t="str" cm="1">
+        <f t="array" ref="AX94">IF(OR(Daily!$A94="", ROW()&lt;=3),"",$A94-_xlfn.XLOOKUP(Z94,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AY94" t="str" cm="1">
+        <f t="array" ref="AY94">IF(OR(Daily!$A94="", ROW()&lt;=3),"",$A94-_xlfn.XLOOKUP(AW94,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AZ94" t="str" cm="1">
+        <f t="array" ref="AZ94">IF(OR(Daily!$A94="", ROW()&lt;=3),"",$A94-_xlfn.XLOOKUP(Z94,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BA94" t="str" cm="1">
+        <f t="array" ref="BA94">IF(OR(Daily!$A94="", ROW()&lt;=3),"",$A94-_xlfn.XLOOKUP(AW94,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
     </row>
-    <row r="95" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="e">
         <f>IF(Daily!$A95="",NA(),Daily!A95)</f>
         <v>#N/A</v>
@@ -33931,8 +35919,28 @@
         <f>IF(OR(Daily!A95="",Z95=0),"",_xlfn.XLOOKUP(Z95*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A95)</f>
         <v/>
       </c>
+      <c r="AW95" s="3" t="str">
+        <f>IF(Daily!$A95="","",Z95/(Connfiguration!$B$1/1000000))</f>
+        <v/>
+      </c>
+      <c r="AX95" t="str" cm="1">
+        <f t="array" ref="AX95">IF(OR(Daily!$A95="", ROW()&lt;=3),"",$A95-_xlfn.XLOOKUP(Z95,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AY95" t="str" cm="1">
+        <f t="array" ref="AY95">IF(OR(Daily!$A95="", ROW()&lt;=3),"",$A95-_xlfn.XLOOKUP(AW95,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AZ95" t="str" cm="1">
+        <f t="array" ref="AZ95">IF(OR(Daily!$A95="", ROW()&lt;=3),"",$A95-_xlfn.XLOOKUP(Z95,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BA95" t="str" cm="1">
+        <f t="array" ref="BA95">IF(OR(Daily!$A95="", ROW()&lt;=3),"",$A95-_xlfn.XLOOKUP(AW95,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
     </row>
-    <row r="96" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="e">
         <f>IF(Daily!$A96="",NA(),Daily!A96)</f>
         <v>#N/A</v>
@@ -34125,8 +36133,28 @@
         <f>IF(OR(Daily!A96="",Z96=0),"",_xlfn.XLOOKUP(Z96*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A96)</f>
         <v/>
       </c>
+      <c r="AW96" s="3" t="str">
+        <f>IF(Daily!$A96="","",Z96/(Connfiguration!$B$1/1000000))</f>
+        <v/>
+      </c>
+      <c r="AX96" t="str" cm="1">
+        <f t="array" ref="AX96">IF(OR(Daily!$A96="", ROW()&lt;=3),"",$A96-_xlfn.XLOOKUP(Z96,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AY96" t="str" cm="1">
+        <f t="array" ref="AY96">IF(OR(Daily!$A96="", ROW()&lt;=3),"",$A96-_xlfn.XLOOKUP(AW96,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AZ96" t="str" cm="1">
+        <f t="array" ref="AZ96">IF(OR(Daily!$A96="", ROW()&lt;=3),"",$A96-_xlfn.XLOOKUP(Z96,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BA96" t="str" cm="1">
+        <f t="array" ref="BA96">IF(OR(Daily!$A96="", ROW()&lt;=3),"",$A96-_xlfn.XLOOKUP(AW96,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
     </row>
-    <row r="97" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="e">
         <f>IF(Daily!$A97="",NA(),Daily!A97)</f>
         <v>#N/A</v>
@@ -34319,8 +36347,28 @@
         <f>IF(OR(Daily!A97="",Z97=0),"",_xlfn.XLOOKUP(Z97*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A97)</f>
         <v/>
       </c>
+      <c r="AW97" s="3" t="str">
+        <f>IF(Daily!$A97="","",Z97/(Connfiguration!$B$1/1000000))</f>
+        <v/>
+      </c>
+      <c r="AX97" t="str" cm="1">
+        <f t="array" ref="AX97">IF(OR(Daily!$A97="", ROW()&lt;=3),"",$A97-_xlfn.XLOOKUP(Z97,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AY97" t="str" cm="1">
+        <f t="array" ref="AY97">IF(OR(Daily!$A97="", ROW()&lt;=3),"",$A97-_xlfn.XLOOKUP(AW97,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AZ97" t="str" cm="1">
+        <f t="array" ref="AZ97">IF(OR(Daily!$A97="", ROW()&lt;=3),"",$A97-_xlfn.XLOOKUP(Z97,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BA97" t="str" cm="1">
+        <f t="array" ref="BA97">IF(OR(Daily!$A97="", ROW()&lt;=3),"",$A97-_xlfn.XLOOKUP(AW97,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
     </row>
-    <row r="98" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="e">
         <f>IF(Daily!$A98="",NA(),Daily!A98)</f>
         <v>#N/A</v>
@@ -34513,8 +36561,28 @@
         <f>IF(OR(Daily!A98="",Z98=0),"",_xlfn.XLOOKUP(Z98*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A98)</f>
         <v/>
       </c>
+      <c r="AW98" s="3" t="str">
+        <f>IF(Daily!$A98="","",Z98/(Connfiguration!$B$1/1000000))</f>
+        <v/>
+      </c>
+      <c r="AX98" t="str" cm="1">
+        <f t="array" ref="AX98">IF(OR(Daily!$A98="", ROW()&lt;=3),"",$A98-_xlfn.XLOOKUP(Z98,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AY98" t="str" cm="1">
+        <f t="array" ref="AY98">IF(OR(Daily!$A98="", ROW()&lt;=3),"",$A98-_xlfn.XLOOKUP(AW98,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AZ98" t="str" cm="1">
+        <f t="array" ref="AZ98">IF(OR(Daily!$A98="", ROW()&lt;=3),"",$A98-_xlfn.XLOOKUP(Z98,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BA98" t="str" cm="1">
+        <f t="array" ref="BA98">IF(OR(Daily!$A98="", ROW()&lt;=3),"",$A98-_xlfn.XLOOKUP(AW98,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
     </row>
-    <row r="99" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="e">
         <f>IF(Daily!$A99="",NA(),Daily!A99)</f>
         <v>#N/A</v>
@@ -34707,8 +36775,28 @@
         <f>IF(OR(Daily!A99="",Z99=0),"",_xlfn.XLOOKUP(Z99*2,Z$3:Z$2000,A$3:A$2000,NA(),1,1)-A99)</f>
         <v/>
       </c>
+      <c r="AW99" s="3" t="str">
+        <f>IF(Daily!$A99="","",Z99/(Connfiguration!$B$1/1000000))</f>
+        <v/>
+      </c>
+      <c r="AX99" t="str" cm="1">
+        <f t="array" ref="AX99">IF(OR(Daily!$A99="", ROW()&lt;=3),"",$A99-_xlfn.XLOOKUP(Z99,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AY99" t="str" cm="1">
+        <f t="array" ref="AY99">IF(OR(Daily!$A99="", ROW()&lt;=3),"",$A99-_xlfn.XLOOKUP(AW99,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AZ99" t="str" cm="1">
+        <f t="array" ref="AZ99">IF(OR(Daily!$A99="", ROW()&lt;=3),"",$A99-_xlfn.XLOOKUP(Z99,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BA99" t="str" cm="1">
+        <f t="array" ref="BA99">IF(OR(Daily!$A99="", ROW()&lt;=3),"",$A99-_xlfn.XLOOKUP(AW99,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
     </row>
-    <row r="100" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="e">
         <f>IF(Daily!$A100="",NA(),Daily!A100)</f>
         <v>#N/A</v>
@@ -34897,41 +36985,61 @@
         <f>IF(OR(ROW()&lt;=3,Daily!A100=""),"",IF(Daily!AA99=0,0,(Daily!AA100-Daily!AA99)/Daily!AA99))</f>
         <v/>
       </c>
+      <c r="AW100" s="3" t="str">
+        <f>IF(Daily!$A100="","",Z100/(Connfiguration!$B$1/1000000))</f>
+        <v/>
+      </c>
+      <c r="AX100" t="str" cm="1">
+        <f t="array" ref="AX100">IF(OR(Daily!$A100="", ROW()&lt;=3),"",$A100-_xlfn.XLOOKUP(Z100,International!$C$3:$C$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AY100" t="str" cm="1">
+        <f t="array" ref="AY100">IF(OR(Daily!$A100="", ROW()&lt;=3),"",$A100-_xlfn.XLOOKUP(AW100,International!$D$3:$D$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="AZ100" t="str" cm="1">
+        <f t="array" ref="AZ100">IF(OR(Daily!$A100="", ROW()&lt;=3),"",$A100-_xlfn.XLOOKUP(Z100,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BA100" t="str" cm="1">
+        <f t="array" ref="BA100">IF(OR(Daily!$A100="", ROW()&lt;=3),"",$A100-_xlfn.XLOOKUP(AW100,International!$F$3:$F$200,International!$A$3:A$200,NA(),1,1))</f>
+        <v/>
+      </c>
     </row>
-    <row r="101" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
     </row>
-    <row r="102" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
     </row>
-    <row r="103" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
     </row>
-    <row r="104" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
     </row>
-    <row r="105" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
     </row>
-    <row r="106" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
     </row>
-    <row r="107" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
     </row>
-    <row r="108" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
     </row>
-    <row r="109" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
     </row>
-    <row r="110" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
     </row>
-    <row r="111" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
     </row>
-    <row r="112" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
@@ -35028,33 +37136,2243 @@
       <c r="A143" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
+    <mergeCell ref="AX1:AY1"/>
+    <mergeCell ref="AZ1:BA1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
     <mergeCell ref="T1:V1"/>
     <mergeCell ref="W1:Y1"/>
     <mergeCell ref="Z1:AB1"/>
     <mergeCell ref="AK1:AR1"/>
     <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="AE1:AG1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AF635E-BD04-3446-9D5E-4D9FA141D81D}">
+  <dimension ref="A1:G109"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="A2" sqref="A2"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C54" sqref="C54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="23" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>43853</v>
+      </c>
+      <c r="C3">
+        <f>IF($A3="","",B3+IF(ROW()&lt;=3,0,C2))</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <f>IF($A3="","",C3/(Connfiguration!$B$2/1000000))</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>IF($A3="","",E3+IF(ROW()&lt;=3,0,F2))</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <f>IF($A3="","",F3/(Connfiguration!$B$3/1000000))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>43854</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C67" si="0">IF($A4="","",B4+IF(ROW()&lt;=3,0,C3))</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <f>IF($A4="","",C4/(Connfiguration!$B$2/1000000))</f>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F67" si="1">IF($A4="","",E4+IF(ROW()&lt;=3,0,F3))</f>
+        <v>3</v>
+      </c>
+      <c r="G4" s="3">
+        <f>IF($A4="","",F4/(Connfiguration!$B$3/1000000))</f>
+        <v>4.473005412336549E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>43855</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <f>IF($A5="","",C5/(Connfiguration!$B$2/1000000))</f>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G5" s="3">
+        <f>IF($A5="","",F5/(Connfiguration!$B$3/1000000))</f>
+        <v>4.473005412336549E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>43856</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <f>IF($A6="","",C6/(Connfiguration!$B$2/1000000))</f>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G6" s="3">
+        <f>IF($A6="","",F6/(Connfiguration!$B$3/1000000))</f>
+        <v>4.473005412336549E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>43857</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <f>IF($A7="","",C7/(Connfiguration!$B$2/1000000))</f>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G7" s="3">
+        <f>IF($A7="","",F7/(Connfiguration!$B$3/1000000))</f>
+        <v>4.473005412336549E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>43858</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <f>IF($A8="","",C8/(Connfiguration!$B$2/1000000))</f>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G8" s="3">
+        <f>IF($A8="","",F8/(Connfiguration!$B$3/1000000))</f>
+        <v>5.9640072164487315E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>43859</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <f>IF($A9="","",C9/(Connfiguration!$B$2/1000000))</f>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G9" s="3">
+        <f>IF($A9="","",F9/(Connfiguration!$B$3/1000000))</f>
+        <v>7.455009020560914E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>43860</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <f>IF($A10="","",C10/(Connfiguration!$B$2/1000000))</f>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G10" s="3">
+        <f>IF($A10="","",F10/(Connfiguration!$B$3/1000000))</f>
+        <v>8.9460108246730979E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>43861</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <f>IF($A11="","",C11/(Connfiguration!$B$2/1000000))</f>
+        <v>1.6567387700364745E-2</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G11" s="3">
+        <f>IF($A11="","",F11/(Connfiguration!$B$3/1000000))</f>
+        <v>8.9460108246730979E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>43862</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <f>IF($A12="","",C12/(Connfiguration!$B$2/1000000))</f>
+        <v>1.6567387700364745E-2</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G12" s="3">
+        <f>IF($A12="","",F12/(Connfiguration!$B$3/1000000))</f>
+        <v>8.9460108246730979E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>43863</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <f>IF($A13="","",C13/(Connfiguration!$B$2/1000000))</f>
+        <v>1.6567387700364745E-2</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G13" s="3">
+        <f>IF($A13="","",F13/(Connfiguration!$B$3/1000000))</f>
+        <v>8.9460108246730979E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>43864</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <f>IF($A14="","",C14/(Connfiguration!$B$2/1000000))</f>
+        <v>1.6567387700364745E-2</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G14" s="3">
+        <f>IF($A14="","",F14/(Connfiguration!$B$3/1000000))</f>
+        <v>8.9460108246730979E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>43865</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <f>IF($A15="","",C15/(Connfiguration!$B$2/1000000))</f>
+        <v>1.6567387700364745E-2</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G15" s="3">
+        <f>IF($A15="","",F15/(Connfiguration!$B$3/1000000))</f>
+        <v>8.9460108246730979E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>43866</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
+        <f>IF($A16="","",C16/(Connfiguration!$B$2/1000000))</f>
+        <v>1.6567387700364745E-2</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G16" s="3">
+        <f>IF($A16="","",F16/(Connfiguration!$B$3/1000000))</f>
+        <v>8.9460108246730979E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>43867</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D17" s="3">
+        <f>IF($A17="","",C17/(Connfiguration!$B$2/1000000))</f>
+        <v>3.313477540072949E-2</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G17" s="3">
+        <f>IF($A17="","",F17/(Connfiguration!$B$3/1000000))</f>
+        <v>8.9460108246730979E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>43868</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D18" s="3">
+        <f>IF($A18="","",C18/(Connfiguration!$B$2/1000000))</f>
+        <v>3.313477540072949E-2</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G18" s="3">
+        <f>IF($A18="","",F18/(Connfiguration!$B$3/1000000))</f>
+        <v>8.9460108246730979E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>43869</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D19" s="3">
+        <f>IF($A19="","",C19/(Connfiguration!$B$2/1000000))</f>
+        <v>3.313477540072949E-2</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="G19" s="3">
+        <f>IF($A19="","",F19/(Connfiguration!$B$3/1000000))</f>
+        <v>0.16401019845234013</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>43870</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D20" s="3">
+        <f>IF($A20="","",C20/(Connfiguration!$B$2/1000000))</f>
+        <v>3.313477540072949E-2</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="G20" s="3">
+        <f>IF($A20="","",F20/(Connfiguration!$B$3/1000000))</f>
+        <v>0.16401019845234013</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>43871</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D21" s="3">
+        <f>IF($A21="","",C21/(Connfiguration!$B$2/1000000))</f>
+        <v>3.313477540072949E-2</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="G21" s="3">
+        <f>IF($A21="","",F21/(Connfiguration!$B$3/1000000))</f>
+        <v>0.16401019845234013</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>43872</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D22" s="3">
+        <f>IF($A22="","",C22/(Connfiguration!$B$2/1000000))</f>
+        <v>3.313477540072949E-2</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="G22" s="3">
+        <f>IF($A22="","",F22/(Connfiguration!$B$3/1000000))</f>
+        <v>0.16401019845234013</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>43873</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D23" s="3">
+        <f>IF($A23="","",C23/(Connfiguration!$B$2/1000000))</f>
+        <v>3.313477540072949E-2</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="G23" s="3">
+        <f>IF($A23="","",F23/(Connfiguration!$B$3/1000000))</f>
+        <v>0.16401019845234013</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>43874</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D24" s="3">
+        <f>IF($A24="","",C24/(Connfiguration!$B$2/1000000))</f>
+        <v>3.313477540072949E-2</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="G24" s="3">
+        <f>IF($A24="","",F24/(Connfiguration!$B$3/1000000))</f>
+        <v>0.16401019845234013</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>43875</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D25" s="3">
+        <f>IF($A25="","",C25/(Connfiguration!$B$2/1000000))</f>
+        <v>3.313477540072949E-2</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="G25" s="3">
+        <f>IF($A25="","",F25/(Connfiguration!$B$3/1000000))</f>
+        <v>0.16401019845234013</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>43876</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D26" s="3">
+        <f>IF($A26="","",C26/(Connfiguration!$B$2/1000000))</f>
+        <v>3.313477540072949E-2</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="G26" s="3">
+        <f>IF($A26="","",F26/(Connfiguration!$B$3/1000000))</f>
+        <v>0.17892021649346196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>43877</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D27" s="3">
+        <f>IF($A27="","",C27/(Connfiguration!$B$2/1000000))</f>
+        <v>3.313477540072949E-2</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="G27" s="3">
+        <f>IF($A27="","",F27/(Connfiguration!$B$3/1000000))</f>
+        <v>0.17892021649346196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>43878</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D28" s="3">
+        <f>IF($A28="","",C28/(Connfiguration!$B$2/1000000))</f>
+        <v>3.313477540072949E-2</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="G28" s="3">
+        <f>IF($A28="","",F28/(Connfiguration!$B$3/1000000))</f>
+        <v>0.17892021649346196</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>43879</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D29" s="3">
+        <f>IF($A29="","",C29/(Connfiguration!$B$2/1000000))</f>
+        <v>3.313477540072949E-2</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="G29" s="3">
+        <f>IF($A29="","",F29/(Connfiguration!$B$3/1000000))</f>
+        <v>0.17892021649346196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>43880</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D30" s="3">
+        <f>IF($A30="","",C30/(Connfiguration!$B$2/1000000))</f>
+        <v>3.313477540072949E-2</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="G30" s="3">
+        <f>IF($A30="","",F30/(Connfiguration!$B$3/1000000))</f>
+        <v>0.17892021649346196</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>43881</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <f>IF($A31="","",C31/(Connfiguration!$B$2/1000000))</f>
+        <v>3.313477540072949E-2</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="G31" s="3">
+        <f>IF($A31="","",F31/(Connfiguration!$B$3/1000000))</f>
+        <v>0.17892021649346196</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>43882</v>
+      </c>
+      <c r="B32">
+        <v>17</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D32" s="3">
+        <f>IF($A32="","",C32/(Connfiguration!$B$2/1000000))</f>
+        <v>0.31478036630693013</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="G32" s="3">
+        <f>IF($A32="","",F32/(Connfiguration!$B$3/1000000))</f>
+        <v>0.17892021649346196</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B33">
+        <v>59</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="D33" s="3">
+        <f>IF($A33="","",C33/(Connfiguration!$B$2/1000000))</f>
+        <v>1.2922562406284501</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="G33" s="3">
+        <f>IF($A33="","",F33/(Connfiguration!$B$3/1000000))</f>
+        <v>0.17892021649346196</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B34">
+        <v>71</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>149</v>
+      </c>
+      <c r="D34" s="3">
+        <f>IF($A34="","",C34/(Connfiguration!$B$2/1000000))</f>
+        <v>2.4685407673543467</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="G34" s="3">
+        <f>IF($A34="","",F34/(Connfiguration!$B$3/1000000))</f>
+        <v>0.17892021649346196</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>43885</v>
+      </c>
+      <c r="B35">
+        <v>77</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>226</v>
+      </c>
+      <c r="D35" s="3">
+        <f>IF($A35="","",C35/(Connfiguration!$B$2/1000000))</f>
+        <v>3.7442296202824319</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="G35" s="3">
+        <f>IF($A35="","",F35/(Connfiguration!$B$3/1000000))</f>
+        <v>0.17892021649346196</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>43886</v>
+      </c>
+      <c r="B36">
+        <v>93</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>319</v>
+      </c>
+      <c r="D36" s="3">
+        <f>IF($A36="","",C36/(Connfiguration!$B$2/1000000))</f>
+        <v>5.2849966764163536</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="G36" s="3">
+        <f>IF($A36="","",F36/(Connfiguration!$B$3/1000000))</f>
+        <v>0.19383023453458378</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>43887</v>
+      </c>
+      <c r="B37">
+        <v>125</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>444</v>
+      </c>
+      <c r="D37" s="3">
+        <f>IF($A37="","",C37/(Connfiguration!$B$2/1000000))</f>
+        <v>7.3559201389619462</v>
+      </c>
+      <c r="E37">
+        <v>5</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="G37" s="3">
+        <f>IF($A37="","",F37/(Connfiguration!$B$3/1000000))</f>
+        <v>0.26838032474019291</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>43888</v>
+      </c>
+      <c r="B38">
+        <v>205</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>649</v>
+      </c>
+      <c r="D38" s="3">
+        <f>IF($A38="","",C38/(Connfiguration!$B$2/1000000))</f>
+        <v>10.752234617536718</v>
+      </c>
+      <c r="E38">
+        <v>20</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="G38" s="3">
+        <f>IF($A38="","",F38/(Connfiguration!$B$3/1000000))</f>
+        <v>0.56658068556262953</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>43889</v>
+      </c>
+      <c r="B39">
+        <v>238</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>887</v>
+      </c>
+      <c r="D39" s="3">
+        <f>IF($A39="","",C39/(Connfiguration!$B$2/1000000))</f>
+        <v>14.695272890223528</v>
+      </c>
+      <c r="E39">
+        <v>19</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="G39" s="3">
+        <f>IF($A39="","",F39/(Connfiguration!$B$3/1000000))</f>
+        <v>0.84987102834394423</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>43890</v>
+      </c>
+      <c r="B40">
+        <v>240</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>1127</v>
+      </c>
+      <c r="D40" s="3">
+        <f>IF($A40="","",C40/(Connfiguration!$B$2/1000000))</f>
+        <v>18.671445938311066</v>
+      </c>
+      <c r="E40">
+        <v>43</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="G40" s="3">
+        <f>IF($A40="","",F40/(Connfiguration!$B$3/1000000))</f>
+        <v>1.4910018041121829</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>43891</v>
+      </c>
+      <c r="B41">
+        <v>566</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>1693</v>
+      </c>
+      <c r="D41" s="3">
+        <f>IF($A41="","",C41/(Connfiguration!$B$2/1000000))</f>
+        <v>28.04858737671751</v>
+      </c>
+      <c r="E41">
+        <v>30</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="G41" s="3">
+        <f>IF($A41="","",F41/(Connfiguration!$B$3/1000000))</f>
+        <v>1.9383023453458379</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>43892</v>
+      </c>
+      <c r="B42">
+        <v>342</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>2035</v>
+      </c>
+      <c r="D42" s="3">
+        <f>IF($A42="","",C42/(Connfiguration!$B$2/1000000))</f>
+        <v>33.714633970242254</v>
+      </c>
+      <c r="E42">
+        <v>61</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="1"/>
+        <v>191</v>
+      </c>
+      <c r="G42" s="3">
+        <f>IF($A42="","",F42/(Connfiguration!$B$3/1000000))</f>
+        <v>2.8478134458542694</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>43893</v>
+      </c>
+      <c r="B43">
+        <v>466</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>2501</v>
+      </c>
+      <c r="D43" s="3">
+        <f>IF($A43="","",C43/(Connfiguration!$B$2/1000000))</f>
+        <v>41.435036638612225</v>
+      </c>
+      <c r="E43">
+        <v>21</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="1"/>
+        <v>212</v>
+      </c>
+      <c r="G43" s="3">
+        <f>IF($A43="","",F43/(Connfiguration!$B$3/1000000))</f>
+        <v>3.1609238247178277</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>43894</v>
+      </c>
+      <c r="B44">
+        <v>587</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>3088</v>
+      </c>
+      <c r="D44" s="3">
+        <f>IF($A44="","",C44/(Connfiguration!$B$2/1000000))</f>
+        <v>51.160093218726331</v>
+      </c>
+      <c r="E44">
+        <v>73</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="1"/>
+        <v>285</v>
+      </c>
+      <c r="G44" s="3">
+        <f>IF($A44="","",F44/(Connfiguration!$B$3/1000000))</f>
+        <v>4.2493551417197217</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>43895</v>
+      </c>
+      <c r="B45">
+        <v>769</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>3857</v>
+      </c>
+      <c r="D45" s="3">
+        <f>IF($A45="","",C45/(Connfiguration!$B$2/1000000))</f>
+        <v>63.900414360306819</v>
+      </c>
+      <c r="E45">
+        <v>138</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="1"/>
+        <v>423</v>
+      </c>
+      <c r="G45" s="3">
+        <f>IF($A45="","",F45/(Connfiguration!$B$3/1000000))</f>
+        <v>6.3069376313945336</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>43896</v>
+      </c>
+      <c r="B46">
+        <v>778</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>4635</v>
+      </c>
+      <c r="D46" s="3">
+        <f>IF($A46="","",C46/(Connfiguration!$B$2/1000000))</f>
+        <v>76.789841991190585</v>
+      </c>
+      <c r="E46">
+        <v>190</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="1"/>
+        <v>613</v>
+      </c>
+      <c r="G46" s="3">
+        <f>IF($A46="","",F46/(Connfiguration!$B$3/1000000))</f>
+        <v>9.1398410592076811</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>43897</v>
+      </c>
+      <c r="B47">
+        <v>1246</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>5881</v>
+      </c>
+      <c r="D47" s="3">
+        <f>IF($A47="","",C47/(Connfiguration!$B$2/1000000))</f>
+        <v>97.432807065845054</v>
+      </c>
+      <c r="E47">
+        <v>336</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="1"/>
+        <v>949</v>
+      </c>
+      <c r="G47" s="3">
+        <f>IF($A47="","",F47/(Connfiguration!$B$3/1000000))</f>
+        <v>14.149607121024616</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>43898</v>
+      </c>
+      <c r="B48">
+        <v>1492</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>7373</v>
+      </c>
+      <c r="D48" s="3">
+        <f>IF($A48="","",C48/(Connfiguration!$B$2/1000000))</f>
+        <v>122.15134951478926</v>
+      </c>
+      <c r="E48">
+        <v>177</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="1"/>
+        <v>1126</v>
+      </c>
+      <c r="G48" s="3">
+        <f>IF($A48="","",F48/(Connfiguration!$B$3/1000000))</f>
+        <v>16.788680314303178</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>43899</v>
+      </c>
+      <c r="B49">
+        <v>1767</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>9140</v>
+      </c>
+      <c r="D49" s="3">
+        <f>IF($A49="","",C49/(Connfiguration!$B$2/1000000))</f>
+        <v>151.42592358133376</v>
+      </c>
+      <c r="E49">
+        <v>286</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="1"/>
+        <v>1412</v>
+      </c>
+      <c r="G49" s="3">
+        <f>IF($A49="","",F49/(Connfiguration!$B$3/1000000))</f>
+        <v>21.052945474064021</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>43900</v>
+      </c>
+      <c r="B50">
+        <v>977</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>10117</v>
+      </c>
+      <c r="D50" s="3">
+        <f>IF($A50="","",C50/(Connfiguration!$B$2/1000000))</f>
+        <v>167.61226136459013</v>
+      </c>
+      <c r="E50">
+        <v>372</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="1"/>
+        <v>1784</v>
+      </c>
+      <c r="G50" s="3">
+        <f>IF($A50="","",F50/(Connfiguration!$B$3/1000000))</f>
+        <v>26.599472185361343</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>43901</v>
+      </c>
+      <c r="B51">
+        <v>2313</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>12430</v>
+      </c>
+      <c r="D51" s="3">
+        <f>IF($A51="","",C51/(Connfiguration!$B$2/1000000))</f>
+        <v>205.93262911553376</v>
+      </c>
+      <c r="E51">
+        <v>497</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="1"/>
+        <v>2281</v>
+      </c>
+      <c r="G51" s="3">
+        <f>IF($A51="","",F51/(Connfiguration!$B$3/1000000))</f>
+        <v>34.009751151798895</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>43902</v>
+      </c>
+      <c r="B52">
+        <v>2651</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>15081</v>
+      </c>
+      <c r="D52" s="3">
+        <f>IF($A52="","",C52/(Connfiguration!$B$2/1000000))</f>
+        <v>249.85277390920069</v>
+      </c>
+      <c r="E52">
+        <v>595</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="1"/>
+        <v>2876</v>
+      </c>
+      <c r="G52" s="3">
+        <f>IF($A52="","",F52/(Connfiguration!$B$3/1000000))</f>
+        <v>42.881211886266378</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>43903</v>
+      </c>
+      <c r="B53">
+        <v>2546</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>17627</v>
+      </c>
+      <c r="D53" s="3">
+        <f>IF($A53="","",C53/(Connfiguration!$B$2/1000000))</f>
+        <v>292.03334299432936</v>
+      </c>
+      <c r="E53">
+        <v>785</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="1"/>
+        <v>3661</v>
+      </c>
+      <c r="G53" s="3">
+        <f>IF($A53="","",F53/(Connfiguration!$B$3/1000000))</f>
+        <v>54.585576048547019</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>43904</v>
+      </c>
+      <c r="B54">
+        <v>3497</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>21124</v>
+      </c>
+      <c r="D54" s="3">
+        <f>IF($A54="","",C54/(Connfiguration!$B$2/1000000))</f>
+        <v>349.96949778250485</v>
+      </c>
+      <c r="E54">
+        <v>808</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="1"/>
+        <v>4469</v>
+      </c>
+      <c r="G54" s="3">
+        <f>IF($A54="","",F54/(Connfiguration!$B$3/1000000))</f>
+        <v>66.63287062577345</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="1"/>
+      <c r="C55" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D55" s="3" t="str">
+        <f>IF($A55="","",C55/(Connfiguration!$B$2/1000000))</f>
+        <v/>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G55" s="3" t="str">
+        <f>IF($A55="","",F55/(Connfiguration!$B$3/1000000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
+      <c r="C56" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D56" s="3" t="str">
+        <f>IF($A56="","",C56/(Connfiguration!$B$2/1000000))</f>
+        <v/>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G56" s="3" t="str">
+        <f>IF($A56="","",F56/(Connfiguration!$B$3/1000000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="1"/>
+      <c r="C57" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D57" s="3" t="str">
+        <f>IF($A57="","",C57/(Connfiguration!$B$2/1000000))</f>
+        <v/>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G57" s="3" t="str">
+        <f>IF($A57="","",F57/(Connfiguration!$B$3/1000000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="1"/>
+      <c r="C58" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D58" s="3" t="str">
+        <f>IF($A58="","",C58/(Connfiguration!$B$2/1000000))</f>
+        <v/>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G58" s="3" t="str">
+        <f>IF($A58="","",F58/(Connfiguration!$B$3/1000000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="1"/>
+      <c r="C59" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D59" s="3" t="str">
+        <f>IF($A59="","",C59/(Connfiguration!$B$2/1000000))</f>
+        <v/>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G59" s="3" t="str">
+        <f>IF($A59="","",F59/(Connfiguration!$B$3/1000000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="1"/>
+      <c r="C60" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D60" s="3" t="str">
+        <f>IF($A60="","",C60/(Connfiguration!$B$2/1000000))</f>
+        <v/>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G60" s="3" t="str">
+        <f>IF($A60="","",F60/(Connfiguration!$B$3/1000000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="1"/>
+      <c r="C61" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D61" s="3" t="str">
+        <f>IF($A61="","",C61/(Connfiguration!$B$2/1000000))</f>
+        <v/>
+      </c>
+      <c r="F61" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G61" s="3" t="str">
+        <f>IF($A61="","",F61/(Connfiguration!$B$3/1000000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="1"/>
+      <c r="C62" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D62" s="3" t="str">
+        <f>IF($A62="","",C62/(Connfiguration!$B$2/1000000))</f>
+        <v/>
+      </c>
+      <c r="F62" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G62" s="3" t="str">
+        <f>IF($A62="","",F62/(Connfiguration!$B$3/1000000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="1"/>
+      <c r="C63" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D63" s="3" t="str">
+        <f>IF($A63="","",C63/(Connfiguration!$B$2/1000000))</f>
+        <v/>
+      </c>
+      <c r="F63" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G63" s="3" t="str">
+        <f>IF($A63="","",F63/(Connfiguration!$B$3/1000000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="1"/>
+      <c r="C64" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D64" s="3" t="str">
+        <f>IF($A64="","",C64/(Connfiguration!$B$2/1000000))</f>
+        <v/>
+      </c>
+      <c r="F64" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G64" s="3" t="str">
+        <f>IF($A64="","",F64/(Connfiguration!$B$3/1000000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="1"/>
+      <c r="C65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D65" s="3" t="str">
+        <f>IF($A65="","",C65/(Connfiguration!$B$2/1000000))</f>
+        <v/>
+      </c>
+      <c r="F65" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G65" s="3" t="str">
+        <f>IF($A65="","",F65/(Connfiguration!$B$3/1000000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="1"/>
+      <c r="C66" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D66" s="3" t="str">
+        <f>IF($A66="","",C66/(Connfiguration!$B$2/1000000))</f>
+        <v/>
+      </c>
+      <c r="F66" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G66" s="3" t="str">
+        <f>IF($A66="","",F66/(Connfiguration!$B$3/1000000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="1"/>
+      <c r="C67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D67" s="3" t="str">
+        <f>IF($A67="","",C67/(Connfiguration!$B$2/1000000))</f>
+        <v/>
+      </c>
+      <c r="F67" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G67" s="3" t="str">
+        <f>IF($A67="","",F67/(Connfiguration!$B$3/1000000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="1"/>
+      <c r="C68" t="str">
+        <f t="shared" ref="C68:C99" si="2">IF($A68="","",B68+IF(ROW()&lt;=3,0,C67))</f>
+        <v/>
+      </c>
+      <c r="D68" s="3" t="str">
+        <f>IF($A68="","",C68/(Connfiguration!$B$2/1000000))</f>
+        <v/>
+      </c>
+      <c r="F68" t="str">
+        <f t="shared" ref="F68:F99" si="3">IF($A68="","",E68+IF(ROW()&lt;=3,0,F67))</f>
+        <v/>
+      </c>
+      <c r="G68" s="3" t="str">
+        <f>IF($A68="","",F68/(Connfiguration!$B$3/1000000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="1"/>
+      <c r="C69" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D69" s="3" t="str">
+        <f>IF($A69="","",C69/(Connfiguration!$B$2/1000000))</f>
+        <v/>
+      </c>
+      <c r="F69" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G69" s="3" t="str">
+        <f>IF($A69="","",F69/(Connfiguration!$B$3/1000000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="1"/>
+      <c r="C70" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D70" s="3" t="str">
+        <f>IF($A70="","",C70/(Connfiguration!$B$2/1000000))</f>
+        <v/>
+      </c>
+      <c r="F70" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G70" s="3" t="str">
+        <f>IF($A70="","",F70/(Connfiguration!$B$3/1000000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="1"/>
+      <c r="C71" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D71" s="3" t="str">
+        <f>IF($A71="","",C71/(Connfiguration!$B$2/1000000))</f>
+        <v/>
+      </c>
+      <c r="F71" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G71" s="3" t="str">
+        <f>IF($A71="","",F71/(Connfiguration!$B$3/1000000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="1"/>
+      <c r="C72" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D72" s="3" t="str">
+        <f>IF($A72="","",C72/(Connfiguration!$B$2/1000000))</f>
+        <v/>
+      </c>
+      <c r="F72" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G72" s="3" t="str">
+        <f>IF($A72="","",F72/(Connfiguration!$B$3/1000000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="1"/>
+      <c r="C73" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D73" s="3" t="str">
+        <f>IF($A73="","",C73/(Connfiguration!$B$2/1000000))</f>
+        <v/>
+      </c>
+      <c r="F73" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G73" s="3" t="str">
+        <f>IF($A73="","",F73/(Connfiguration!$B$3/1000000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="1"/>
+      <c r="C74" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D74" s="3" t="str">
+        <f>IF($A74="","",C74/(Connfiguration!$B$2/1000000))</f>
+        <v/>
+      </c>
+      <c r="F74" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G74" s="3" t="str">
+        <f>IF($A74="","",F74/(Connfiguration!$B$3/1000000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="1"/>
+      <c r="C75" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D75" s="3" t="str">
+        <f>IF($A75="","",C75/(Connfiguration!$B$2/1000000))</f>
+        <v/>
+      </c>
+      <c r="F75" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G75" s="3" t="str">
+        <f>IF($A75="","",F75/(Connfiguration!$B$3/1000000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="1"/>
+      <c r="C76" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D76" s="3" t="str">
+        <f>IF($A76="","",C76/(Connfiguration!$B$2/1000000))</f>
+        <v/>
+      </c>
+      <c r="F76" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G76" s="3" t="str">
+        <f>IF($A76="","",F76/(Connfiguration!$B$3/1000000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="1"/>
+      <c r="C77" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D77" s="3" t="str">
+        <f>IF($A77="","",C77/(Connfiguration!$B$2/1000000))</f>
+        <v/>
+      </c>
+      <c r="F77" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G77" s="3" t="str">
+        <f>IF($A77="","",F77/(Connfiguration!$B$3/1000000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="1"/>
+      <c r="C78" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D78" s="3" t="str">
+        <f>IF($A78="","",C78/(Connfiguration!$B$2/1000000))</f>
+        <v/>
+      </c>
+      <c r="F78" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G78" s="3" t="str">
+        <f>IF($A78="","",F78/(Connfiguration!$B$3/1000000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="1"/>
+      <c r="C79" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D79" s="3" t="str">
+        <f>IF($A79="","",C79/(Connfiguration!$B$2/1000000))</f>
+        <v/>
+      </c>
+      <c r="F79" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G79" s="3" t="str">
+        <f>IF($A79="","",F79/(Connfiguration!$B$3/1000000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="1"/>
+      <c r="C80" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D80" s="3" t="str">
+        <f>IF($A80="","",C80/(Connfiguration!$B$2/1000000))</f>
+        <v/>
+      </c>
+      <c r="F80" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G80" s="3" t="str">
+        <f>IF($A80="","",F80/(Connfiguration!$B$3/1000000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="1"/>
+      <c r="C81" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D81" s="3" t="str">
+        <f>IF($A81="","",C81/(Connfiguration!$B$2/1000000))</f>
+        <v/>
+      </c>
+      <c r="F81" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G81" s="3" t="str">
+        <f>IF($A81="","",F81/(Connfiguration!$B$3/1000000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="1"/>
+      <c r="C82" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D82" s="3" t="str">
+        <f>IF($A82="","",C82/(Connfiguration!$B$2/1000000))</f>
+        <v/>
+      </c>
+      <c r="F82" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G82" s="3" t="str">
+        <f>IF($A82="","",F82/(Connfiguration!$B$3/1000000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="1"/>
+      <c r="C83" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D83" s="3" t="str">
+        <f>IF($A83="","",C83/(Connfiguration!$B$2/1000000))</f>
+        <v/>
+      </c>
+      <c r="F83" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G83" s="3" t="str">
+        <f>IF($A83="","",F83/(Connfiguration!$B$3/1000000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="1"/>
+      <c r="C84" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D84" s="3" t="str">
+        <f>IF($A84="","",C84/(Connfiguration!$B$2/1000000))</f>
+        <v/>
+      </c>
+      <c r="F84" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G84" s="3" t="str">
+        <f>IF($A84="","",F84/(Connfiguration!$B$3/1000000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="1"/>
+      <c r="C85" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D85" s="3" t="str">
+        <f>IF($A85="","",C85/(Connfiguration!$B$2/1000000))</f>
+        <v/>
+      </c>
+      <c r="F85" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G85" s="3" t="str">
+        <f>IF($A85="","",F85/(Connfiguration!$B$3/1000000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="1"/>
+      <c r="C86" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D86" s="3" t="str">
+        <f>IF($A86="","",C86/(Connfiguration!$B$2/1000000))</f>
+        <v/>
+      </c>
+      <c r="F86" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G86" s="3" t="str">
+        <f>IF($A86="","",F86/(Connfiguration!$B$3/1000000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="1"/>
+      <c r="C87" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D87" s="3" t="str">
+        <f>IF($A87="","",C87/(Connfiguration!$B$2/1000000))</f>
+        <v/>
+      </c>
+      <c r="F87" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G87" s="3" t="str">
+        <f>IF($A87="","",F87/(Connfiguration!$B$3/1000000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="1"/>
+      <c r="C88" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D88" s="3" t="str">
+        <f>IF($A88="","",C88/(Connfiguration!$B$2/1000000))</f>
+        <v/>
+      </c>
+      <c r="F88" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G88" s="3" t="str">
+        <f>IF($A88="","",F88/(Connfiguration!$B$3/1000000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="1"/>
+      <c r="C89" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D89" s="3" t="str">
+        <f>IF($A89="","",C89/(Connfiguration!$B$2/1000000))</f>
+        <v/>
+      </c>
+      <c r="F89" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G89" s="3" t="str">
+        <f>IF($A89="","",F89/(Connfiguration!$B$3/1000000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="1"/>
+      <c r="C90" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D90" s="3" t="str">
+        <f>IF($A90="","",C90/(Connfiguration!$B$2/1000000))</f>
+        <v/>
+      </c>
+      <c r="F90" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G90" s="3" t="str">
+        <f>IF($A90="","",F90/(Connfiguration!$B$3/1000000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="1"/>
+      <c r="C91" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D91" s="3" t="str">
+        <f>IF($A91="","",C91/(Connfiguration!$B$2/1000000))</f>
+        <v/>
+      </c>
+      <c r="F91" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G91" s="3" t="str">
+        <f>IF($A91="","",F91/(Connfiguration!$B$3/1000000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="1"/>
+      <c r="C92" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D92" s="3" t="str">
+        <f>IF($A92="","",C92/(Connfiguration!$B$2/1000000))</f>
+        <v/>
+      </c>
+      <c r="F92" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G92" s="3" t="str">
+        <f>IF($A92="","",F92/(Connfiguration!$B$3/1000000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="1"/>
+      <c r="C93" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D93" s="3" t="str">
+        <f>IF($A93="","",C93/(Connfiguration!$B$2/1000000))</f>
+        <v/>
+      </c>
+      <c r="F93" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G93" s="3" t="str">
+        <f>IF($A93="","",F93/(Connfiguration!$B$3/1000000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="1"/>
+      <c r="C94" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D94" s="3" t="str">
+        <f>IF($A94="","",C94/(Connfiguration!$B$2/1000000))</f>
+        <v/>
+      </c>
+      <c r="F94" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G94" s="3" t="str">
+        <f>IF($A94="","",F94/(Connfiguration!$B$3/1000000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="1"/>
+      <c r="C95" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D95" s="3" t="str">
+        <f>IF($A95="","",C95/(Connfiguration!$B$2/1000000))</f>
+        <v/>
+      </c>
+      <c r="F95" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G95" s="3" t="str">
+        <f>IF($A95="","",F95/(Connfiguration!$B$3/1000000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="1"/>
+      <c r="C96" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D96" s="3" t="str">
+        <f>IF($A96="","",C96/(Connfiguration!$B$2/1000000))</f>
+        <v/>
+      </c>
+      <c r="F96" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G96" s="3" t="str">
+        <f>IF($A96="","",F96/(Connfiguration!$B$3/1000000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="1"/>
+      <c r="C97" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D97" s="3" t="str">
+        <f>IF($A97="","",C97/(Connfiguration!$B$2/1000000))</f>
+        <v/>
+      </c>
+      <c r="F97" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G97" s="3" t="str">
+        <f>IF($A97="","",F97/(Connfiguration!$B$3/1000000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="1"/>
+      <c r="C98" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D98" s="3" t="str">
+        <f>IF($A98="","",C98/(Connfiguration!$B$2/1000000))</f>
+        <v/>
+      </c>
+      <c r="F98" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G98" s="3" t="str">
+        <f>IF($A98="","",F98/(Connfiguration!$B$3/1000000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="1"/>
+      <c r="C99" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D99" s="3" t="str">
+        <f>IF($A99="","",C99/(Connfiguration!$B$2/1000000))</f>
+        <v/>
+      </c>
+      <c r="F99" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G99" s="3" t="str">
+        <f>IF($A99="","",F99/(Connfiguration!$B$3/1000000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="1"/>
+      <c r="C100" t="str">
+        <f t="shared" ref="C100" si="4">IF($A100="","",B100+IF(ROW()&lt;=3,0,C99))</f>
+        <v/>
+      </c>
+      <c r="D100" s="3" t="str">
+        <f>IF($A100="","",C100/(Connfiguration!$B$2/1000000))</f>
+        <v/>
+      </c>
+      <c r="F100" t="str">
+        <f t="shared" ref="F100" si="5">IF($A100="","",E100+IF(ROW()&lt;=3,0,F99))</f>
+        <v/>
+      </c>
+      <c r="G100" s="3" t="str">
+        <f>IF($A100="","",F100/(Connfiguration!$B$3/1000000))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="1"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" s="1"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="1"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" s="1"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="1"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" s="1"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" s="1"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" s="1"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52250498-B13A-3F44-9F82-349791E8BD3C}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -35086,18 +39404,119 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4" s="1"/>
+      <c r="C4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="C5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>43904</v>
       </c>
-      <c r="B4">
+      <c r="B6">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>43905</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7063DE57-A5BB-B944-B5D8-9750C5A6A1E4}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="149.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="8">
+        <v>25364300</v>
+      </c>
+      <c r="C1" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="9">
+        <v>60359546</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3">
+        <v>67069000</v>
+      </c>
+      <c r="C3" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/COVID-19 Australia.xlsx
+++ b/COVID-19 Australia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10301"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcus/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCA0AA6-BAE3-3D4A-8955-DBC2CBE532BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{6CCA0AA6-BAE3-3D4A-8955-DBC2CBE532BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{712BF303-65FB-E644-88CF-F99B2258F7CA}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="460" windowWidth="34260" windowHeight="23540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2580" yWindow="460" windowWidth="34260" windowHeight="23540" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="11" r:id="rId1"/>
@@ -359,9 +359,6 @@
     <t>Incomplete</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
     <t>Moved Daily totals to the Cumultive Sheet</t>
   </si>
   <si>
@@ -378,6 +375,9 @@
   </si>
   <si>
     <t>Remove Log graphs</t>
+  </si>
+  <si>
+    <t>Updated case counts</t>
   </si>
 </sst>
 </file>
@@ -713,7 +713,7 @@
                   <c:v>43904</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>#N/A</c:v>
+                  <c:v>43905</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>#N/A</c:v>
@@ -1016,7 +1016,7 @@
                   <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>0</c:v>
@@ -1328,6 +1328,11 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -1569,7 +1574,7 @@
                   <c:v>43904</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>#N/A</c:v>
+                  <c:v>43905</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>#N/A</c:v>
@@ -1872,7 +1877,7 @@
                   <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>0</c:v>
@@ -2215,6 +2220,11 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -2457,7 +2467,7 @@
                   <c:v>43904</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>#N/A</c:v>
+                  <c:v>43905</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>#N/A</c:v>
@@ -2760,7 +2770,7 @@
                   <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
+                  <c:v>166</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>0</c:v>
@@ -3072,6 +3082,11 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -3344,7 +3359,7 @@
                   <c:v>43904</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>#N/A</c:v>
+                  <c:v>43905</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>#N/A</c:v>
@@ -3647,7 +3662,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>0</c:v>
@@ -3986,7 +4001,7 @@
                   <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>0</c:v>
@@ -4325,7 +4340,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>0</c:v>
@@ -4664,7 +4679,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>0</c:v>
@@ -5003,7 +5018,7 @@
                   <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>0</c:v>
@@ -5342,7 +5357,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>0</c:v>
@@ -5683,7 +5698,7 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>0</c:v>
@@ -6024,7 +6039,7 @@
                   <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>0</c:v>
@@ -6367,6 +6382,11 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -6606,7 +6626,7 @@
                   <c:v>43904</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>#N/A</c:v>
+                  <c:v>43905</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>#N/A</c:v>
@@ -6897,7 +6917,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>#N/A</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>#N/A</c:v>
@@ -6909,7 +6929,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>0</c:v>
@@ -7252,6 +7272,11 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -7526,7 +7551,7 @@
                   <c:v>43904</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>#N/A</c:v>
+                  <c:v>43905</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>#N/A</c:v>
@@ -7829,7 +7854,7 @@
                   <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0</c:v>
+                  <c:v>262</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>0</c:v>
@@ -8141,6 +8166,11 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -11482,7 +11512,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3FB993C2-7BD7-5B43-BEE9-C92D63A13623}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="198" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="198" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -12034,12 +12064,12 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="112.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.83203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="17.484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.50390625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="112.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.76953125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -12153,7 +12183,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -12248,7 +12278,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -12270,7 +12300,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="68.25" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -12284,7 +12314,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="68.25" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>80</v>
       </c>
@@ -12334,18 +12364,18 @@
   <dimension ref="A1:AA94"/>
   <sheetViews>
     <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="U46" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
       <selection pane="topRight" activeCell="R1" sqref="R1"/>
-      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="19" max="19" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="19" max="19" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.6484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
@@ -13024,31 +13054,41 @@
       <c r="R53">
         <v>1</v>
       </c>
+      <c r="S53">
+        <v>1</v>
+      </c>
       <c r="U53">
         <v>3</v>
       </c>
       <c r="X53">
         <v>13</v>
-      </c>
-      <c r="AA53">
-        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>43905</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="B54" s="1"/>
       <c r="F54">
         <v>22</v>
       </c>
+      <c r="H54">
+        <v>4</v>
+      </c>
       <c r="L54">
         <v>1</v>
       </c>
+      <c r="M54">
+        <v>4</v>
+      </c>
+      <c r="O54">
+        <v>15</v>
+      </c>
       <c r="R54">
         <v>1</v>
+      </c>
+      <c r="U54">
+        <v>3</v>
       </c>
       <c r="X54">
         <v>8</v>
@@ -13233,65 +13273,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00CE068C-1164-624A-A0B4-3FDF7F131C48}">
   <dimension ref="A1:BD143"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="G44" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="5.6640625" customWidth="1"/>
-    <col min="29" max="29" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="7" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="4" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="43" max="44" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="5.83203125" customWidth="1"/>
-    <col min="48" max="48" width="11.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="50" max="51" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.55078125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6484375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.55078125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6484375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.55078125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6484375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.55078125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.6484375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.55078125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.6484375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.55078125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.6484375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.55078125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.6484375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.55078125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.6484375" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="5.6484375" customWidth="1"/>
+    <col min="29" max="29" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.55078125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.6484375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.10546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.22265625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.55078125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="5.6484375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.22265625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="6.9921875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.68359375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="4.03515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="4.83984375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="3.49609375" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="4.4375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="3.49609375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="3.62890625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="5.78125" customWidth="1"/>
+    <col min="48" max="48" width="11.43359375" style="3" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="8.609375" bestFit="1" customWidth="1"/>
+    <col min="50" max="51" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="23" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:56" x14ac:dyDescent="0.2">
@@ -24370,9 +24410,9 @@
         <f t="shared" si="21"/>
         <v>-0.25</v>
       </c>
-      <c r="AY50" t="e">
+      <c r="AY50">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="AZ50" s="3">
         <f>IF(_xlfn.IFNA($A50,"")="","",AC50/(Connfiguration!$B$1/1000000))</f>
@@ -24918,7 +24958,7 @@
       </c>
       <c r="R53">
         <f>IF(_xlfn.IFNA($A53,"")="","",Daily!S53+IF(ROW(Q53)&gt;4,R52,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S53">
         <f>IF(_xlfn.IFNA($A53,"")="","",Daily!T53+IF(ROW(R53)&gt;4,S52,0))</f>
@@ -25074,229 +25114,229 @@
       </c>
     </row>
     <row r="54" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="e">
+      <c r="A54" s="1">
         <f>IF(OR(Daily!$A54="",Daily!$B54="*"),NA(),Daily!A54)</f>
+        <v>43905</v>
+      </c>
+      <c r="B54">
+        <f>IF(_xlfn.IFNA($A54,"")="","",Daily!C54+IF(ROW(A54)&gt;4,B53,0))</f>
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <f>IF(_xlfn.IFNA($A54,"")="","",Daily!D54+IF(ROW(B54)&gt;4,C53,0))</f>
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <f>IF(_xlfn.IFNA($A54,"")="","",Daily!E54+IF(ROW(C54)&gt;4,D53,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <f>IF(_xlfn.IFNA($A54,"")="","",Daily!F54+IF(ROW(D54)&gt;4,E53,0))</f>
+        <v>134</v>
+      </c>
+      <c r="F54">
+        <f>IF(_xlfn.IFNA($A54,"")="","",Daily!G54+IF(ROW(E54)&gt;4,F53,0))</f>
+        <v>4</v>
+      </c>
+      <c r="G54">
+        <f>IF(_xlfn.IFNA($A54,"")="","",Daily!H54+IF(ROW(F54)&gt;4,G53,0))</f>
+        <v>6</v>
+      </c>
+      <c r="H54">
+        <f>IF(_xlfn.IFNA($A54,"")="","",Daily!I54+IF(ROW(G54)&gt;4,H53,0))</f>
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <f>IF(_xlfn.IFNA($A54,"")="","",Daily!J54+IF(ROW(H54)&gt;4,I53,0))</f>
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <f>IF(_xlfn.IFNA($A54,"")="","",Daily!K54+IF(ROW(I54)&gt;4,J53,0))</f>
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <f>IF(_xlfn.IFNA($A54,"")="","",Daily!L54+IF(ROW(J54)&gt;4,K53,0))</f>
+        <v>20</v>
+      </c>
+      <c r="L54">
+        <f>IF(_xlfn.IFNA($A54,"")="","",Daily!M54+IF(ROW(K54)&gt;4,L53,0))</f>
+        <v>9</v>
+      </c>
+      <c r="M54">
+        <f>IF(_xlfn.IFNA($A54,"")="","",Daily!N54+IF(ROW(L54)&gt;4,M53,0))</f>
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <f>IF(_xlfn.IFNA($A54,"")="","",Daily!O54+IF(ROW(M54)&gt;4,N53,0))</f>
+        <v>61</v>
+      </c>
+      <c r="O54">
+        <f>IF(_xlfn.IFNA($A54,"")="","",Daily!P54+IF(ROW(N54)&gt;4,O53,0))</f>
+        <v>8</v>
+      </c>
+      <c r="P54">
+        <f>IF(_xlfn.IFNA($A54,"")="","",Daily!Q54+IF(ROW(O54)&gt;4,P53,0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <f>IF(_xlfn.IFNA($A54,"")="","",Daily!R54+IF(ROW(P54)&gt;4,Q53,0))</f>
+        <v>6</v>
+      </c>
+      <c r="R54">
+        <f>IF(_xlfn.IFNA($A54,"")="","",Daily!S54+IF(ROW(Q54)&gt;4,R53,0))</f>
+        <v>1</v>
+      </c>
+      <c r="S54">
+        <f>IF(_xlfn.IFNA($A54,"")="","",Daily!T54+IF(ROW(R54)&gt;4,S53,0))</f>
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <f>IF(_xlfn.IFNA($A54,"")="","",Daily!U54+IF(ROW(S54)&gt;4,T53,0))</f>
+        <v>20</v>
+      </c>
+      <c r="U54">
+        <f>IF(_xlfn.IFNA($A54,"")="","",Daily!V54+IF(ROW(T54)&gt;4,U53,0))</f>
+        <v>0</v>
+      </c>
+      <c r="V54">
+        <f>IF(_xlfn.IFNA($A54,"")="","",Daily!W54+IF(ROW(U54)&gt;4,V53,0))</f>
+        <v>1</v>
+      </c>
+      <c r="W54">
+        <f>IF(_xlfn.IFNA($A54,"")="","",Daily!X54+IF(ROW(V54)&gt;4,W53,0))</f>
+        <v>57</v>
+      </c>
+      <c r="X54">
+        <f>IF(_xlfn.IFNA($A54,"")="","",Daily!Y54+IF(ROW(W54)&gt;4,X53,0))</f>
+        <v>7</v>
+      </c>
+      <c r="Y54">
+        <f>IF(_xlfn.IFNA($A54,"")="","",Daily!Z54+IF(ROW(X54)&gt;4,Y53,0))</f>
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <f>IF(_xlfn.IFNA($A54,"")="","",Daily!C54+Daily!F54+Daily!I54+Daily!L54+Daily!O54+Daily!R54+Daily!U54+Daily!X54)</f>
+        <v>50</v>
+      </c>
+      <c r="AA54">
+        <f>IF(_xlfn.IFNA($A54,"")="","",Daily!D54+Daily!G54+Daily!J54+Daily!M54+Daily!P54+Daily!S54+Daily!V54+Daily!Y54+Daily!AA54)</f>
+        <v>4</v>
+      </c>
+      <c r="AB54">
+        <f>IF(_xlfn.IFNA($A54,"")="","",Daily!E54+Daily!H54+Daily!K54+Daily!N54+Daily!Q54+Daily!T54+Daily!W54+Daily!Z54)</f>
+        <v>4</v>
+      </c>
+      <c r="AC54">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="AD54">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="AE54">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="AF54" s="5">
+        <f t="shared" si="3"/>
+        <v>0.98039215686274506</v>
+      </c>
+      <c r="AG54">
+        <f t="shared" si="4"/>
+        <v>262</v>
+      </c>
+      <c r="AH54">
+        <f t="shared" si="5"/>
+        <v>166</v>
+      </c>
+      <c r="AI54">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="AJ54">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AK54">
+        <f t="shared" si="8"/>
+        <v>138</v>
+      </c>
+      <c r="AL54" s="2">
+        <f t="shared" si="9"/>
+        <v>0.18421052631578946</v>
+      </c>
+      <c r="AM54" s="2">
+        <f t="shared" si="10"/>
+        <v>0.81578947368421051</v>
+      </c>
+      <c r="AN54" s="2">
+        <f t="shared" si="11"/>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="AO54" s="2">
+        <f t="shared" si="12"/>
+        <v>0.44666666666666666</v>
+      </c>
+      <c r="AP54" s="2">
+        <f t="shared" si="13"/>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="AQ54" s="2">
+        <f t="shared" si="14"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="AR54" s="2">
+        <f t="shared" si="15"/>
+        <v>0.20333333333333334</v>
+      </c>
+      <c r="AS54" s="2">
+        <f t="shared" si="16"/>
+        <v>0.02</v>
+      </c>
+      <c r="AT54" s="2">
+        <f t="shared" si="17"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="AU54" s="2">
+        <f t="shared" si="18"/>
+        <v>0.19</v>
+      </c>
+      <c r="AV54" s="3">
+        <f t="shared" ca="1" si="19"/>
+        <v>31.285714285714285</v>
+      </c>
+      <c r="AW54" s="2">
+        <f t="shared" si="20"/>
+        <v>0.2</v>
+      </c>
+      <c r="AX54" s="2">
+        <f t="shared" si="21"/>
+        <v>-1.9607843137254902E-2</v>
+      </c>
+      <c r="AY54" t="e">
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
-      <c r="B54" t="str">
-        <f>IF(_xlfn.IFNA($A54,"")="","",Daily!C54+IF(ROW(A54)&gt;4,B53,0))</f>
-        <v/>
-      </c>
-      <c r="C54" t="str">
-        <f>IF(_xlfn.IFNA($A54,"")="","",Daily!D54+IF(ROW(B54)&gt;4,C53,0))</f>
-        <v/>
-      </c>
-      <c r="D54" t="str">
-        <f>IF(_xlfn.IFNA($A54,"")="","",Daily!E54+IF(ROW(C54)&gt;4,D53,0))</f>
-        <v/>
-      </c>
-      <c r="E54" t="str">
-        <f>IF(_xlfn.IFNA($A54,"")="","",Daily!F54+IF(ROW(D54)&gt;4,E53,0))</f>
-        <v/>
-      </c>
-      <c r="F54" t="str">
-        <f>IF(_xlfn.IFNA($A54,"")="","",Daily!G54+IF(ROW(E54)&gt;4,F53,0))</f>
-        <v/>
-      </c>
-      <c r="G54" t="str">
-        <f>IF(_xlfn.IFNA($A54,"")="","",Daily!H54+IF(ROW(F54)&gt;4,G53,0))</f>
-        <v/>
-      </c>
-      <c r="H54" t="str">
-        <f>IF(_xlfn.IFNA($A54,"")="","",Daily!I54+IF(ROW(G54)&gt;4,H53,0))</f>
-        <v/>
-      </c>
-      <c r="I54" t="str">
-        <f>IF(_xlfn.IFNA($A54,"")="","",Daily!J54+IF(ROW(H54)&gt;4,I53,0))</f>
-        <v/>
-      </c>
-      <c r="J54" t="str">
-        <f>IF(_xlfn.IFNA($A54,"")="","",Daily!K54+IF(ROW(I54)&gt;4,J53,0))</f>
-        <v/>
-      </c>
-      <c r="K54" t="str">
-        <f>IF(_xlfn.IFNA($A54,"")="","",Daily!L54+IF(ROW(J54)&gt;4,K53,0))</f>
-        <v/>
-      </c>
-      <c r="L54" t="str">
-        <f>IF(_xlfn.IFNA($A54,"")="","",Daily!M54+IF(ROW(K54)&gt;4,L53,0))</f>
-        <v/>
-      </c>
-      <c r="M54" t="str">
-        <f>IF(_xlfn.IFNA($A54,"")="","",Daily!N54+IF(ROW(L54)&gt;4,M53,0))</f>
-        <v/>
-      </c>
-      <c r="N54" t="str">
-        <f>IF(_xlfn.IFNA($A54,"")="","",Daily!O54+IF(ROW(M54)&gt;4,N53,0))</f>
-        <v/>
-      </c>
-      <c r="O54" t="str">
-        <f>IF(_xlfn.IFNA($A54,"")="","",Daily!P54+IF(ROW(N54)&gt;4,O53,0))</f>
-        <v/>
-      </c>
-      <c r="P54" t="str">
-        <f>IF(_xlfn.IFNA($A54,"")="","",Daily!Q54+IF(ROW(O54)&gt;4,P53,0))</f>
-        <v/>
-      </c>
-      <c r="Q54" t="str">
-        <f>IF(_xlfn.IFNA($A54,"")="","",Daily!R54+IF(ROW(P54)&gt;4,Q53,0))</f>
-        <v/>
-      </c>
-      <c r="R54" t="str">
-        <f>IF(_xlfn.IFNA($A54,"")="","",Daily!S54+IF(ROW(Q54)&gt;4,R53,0))</f>
-        <v/>
-      </c>
-      <c r="S54" t="str">
-        <f>IF(_xlfn.IFNA($A54,"")="","",Daily!T54+IF(ROW(R54)&gt;4,S53,0))</f>
-        <v/>
-      </c>
-      <c r="T54" t="str">
-        <f>IF(_xlfn.IFNA($A54,"")="","",Daily!U54+IF(ROW(S54)&gt;4,T53,0))</f>
-        <v/>
-      </c>
-      <c r="U54" t="str">
-        <f>IF(_xlfn.IFNA($A54,"")="","",Daily!V54+IF(ROW(T54)&gt;4,U53,0))</f>
-        <v/>
-      </c>
-      <c r="V54" t="str">
-        <f>IF(_xlfn.IFNA($A54,"")="","",Daily!W54+IF(ROW(U54)&gt;4,V53,0))</f>
-        <v/>
-      </c>
-      <c r="W54" t="str">
-        <f>IF(_xlfn.IFNA($A54,"")="","",Daily!X54+IF(ROW(V54)&gt;4,W53,0))</f>
-        <v/>
-      </c>
-      <c r="X54" t="str">
-        <f>IF(_xlfn.IFNA($A54,"")="","",Daily!Y54+IF(ROW(W54)&gt;4,X53,0))</f>
-        <v/>
-      </c>
-      <c r="Y54" t="str">
-        <f>IF(_xlfn.IFNA($A54,"")="","",Daily!Z54+IF(ROW(X54)&gt;4,Y53,0))</f>
-        <v/>
-      </c>
-      <c r="Z54" t="str">
-        <f>IF(_xlfn.IFNA($A54,"")="","",Daily!C54+Daily!F54+Daily!I54+Daily!L54+Daily!O54+Daily!R54+Daily!U54+Daily!X54)</f>
-        <v/>
-      </c>
-      <c r="AA54" t="str">
-        <f>IF(_xlfn.IFNA($A54,"")="","",Daily!D54+Daily!G54+Daily!J54+Daily!M54+Daily!P54+Daily!S54+Daily!V54+Daily!Y54+Daily!AA54)</f>
-        <v/>
-      </c>
-      <c r="AB54" t="str">
-        <f>IF(_xlfn.IFNA($A54,"")="","",Daily!E54+Daily!H54+Daily!K54+Daily!N54+Daily!Q54+Daily!T54+Daily!W54+Daily!Z54)</f>
-        <v/>
-      </c>
-      <c r="AC54" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AD54" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AE54" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AF54" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AG54" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AH54" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AI54" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AJ54" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AK54" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AL54" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AM54" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AN54" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AO54" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AP54" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AQ54" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="AR54" s="2" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AS54" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="AT54" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AU54" s="2" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="AV54" s="3" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AW54" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="AX54" s="2" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AY54" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="AZ54" s="3" t="str">
+      <c r="AZ54" s="3">
         <f>IF(_xlfn.IFNA($A54,"")="","",AC54/(Connfiguration!$B$1/1000000))</f>
-        <v/>
-      </c>
-      <c r="BA54" t="str" cm="1">
+        <v>11.827647520333697</v>
+      </c>
+      <c r="BA54" cm="1">
         <f t="array" ref="BA54">IF(OR(_xlfn.IFNA($A54,"")="", ROW()&lt;=3),"",$A54-_xlfn.XLOOKUP(AC54,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
-      <c r="BB54" t="str" cm="1">
+        <v>19</v>
+      </c>
+      <c r="BB54" cm="1">
         <f t="array" ref="BB54">IF(OR(_xlfn.IFNA($A54,"")="", ROW()&lt;=3),"",$A54-_xlfn.XLOOKUP(AZ54,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
-      <c r="BC54" t="str" cm="1">
+        <v>16</v>
+      </c>
+      <c r="BC54" cm="1">
         <f t="array" ref="BC54">IF(OR(_xlfn.IFNA($A54,"")="", ROW()&lt;=3),"",$A54-_xlfn.XLOOKUP(AC54,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
-      <c r="BD54" t="str" cm="1">
+        <v>10</v>
+      </c>
+      <c r="BD54" cm="1">
         <f t="array" ref="BD54">IF(OR(_xlfn.IFNA($A54,"")="", ROW()&lt;=3),"",$A54-_xlfn.XLOOKUP(AZ54,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:56" x14ac:dyDescent="0.2">
@@ -35853,15 +35893,15 @@
     <sheetView topLeftCell="A2" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="23" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="3"/>
+    <col min="7" max="7" width="10.89453125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -38056,13 +38096,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52250498-B13A-3F44-9F82-349791E8BD3C}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -38162,31 +38202,39 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
         <v>104</v>
       </c>
     </row>
@@ -38203,10 +38251,10 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="149.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.890625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="149.72265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">

--- a/COVID-19 Australia.xlsx
+++ b/COVID-19 Australia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcus/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{6CCA0AA6-BAE3-3D4A-8955-DBC2CBE532BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{712BF303-65FB-E644-88CF-F99B2258F7CA}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{6CCA0AA6-BAE3-3D4A-8955-DBC2CBE532BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{75632C84-4AEA-764B-AC0D-586BD949777F}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="460" windowWidth="34260" windowHeight="23540" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2580" yWindow="460" windowWidth="34260" windowHeight="23540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="11" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="106">
   <si>
     <t>Date</t>
   </si>
@@ -379,6 +379,9 @@
   <si>
     <t>Updated case counts</t>
   </si>
+  <si>
+    <t>Correct NSW deaths for 15/3/20 - their headline is wrong</t>
+  </si>
 </sst>
 </file>
 
@@ -7854,7 +7857,7 @@
                   <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>262</c:v>
+                  <c:v>264</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>0</c:v>
@@ -11512,7 +11515,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3FB993C2-7BD7-5B43-BEE9-C92D63A13623}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="198" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="198" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -12364,10 +12367,10 @@
   <dimension ref="A1:AA94"/>
   <sheetViews>
     <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="U46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B46" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
       <selection pane="topRight" activeCell="R1" sqref="R1"/>
-      <selection pane="bottomRight" activeCell="B54" sqref="B54"/>
+      <selection pane="bottomRight" activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13073,7 +13076,7 @@
         <v>22</v>
       </c>
       <c r="H54">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L54">
         <v>1</v>
@@ -13273,7 +13276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00CE068C-1164-624A-A0B4-3FDF7F131C48}">
   <dimension ref="A1:BD143"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="G44" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
@@ -25140,7 +25143,7 @@
       </c>
       <c r="G54">
         <f>IF(_xlfn.IFNA($A54,"")="","",Daily!H54+IF(ROW(F54)&gt;4,G53,0))</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H54">
         <f>IF(_xlfn.IFNA($A54,"")="","",Daily!I54+IF(ROW(G54)&gt;4,H53,0))</f>
@@ -25224,7 +25227,7 @@
       </c>
       <c r="AB54">
         <f>IF(_xlfn.IFNA($A54,"")="","",Daily!E54+Daily!H54+Daily!K54+Daily!N54+Daily!Q54+Daily!T54+Daily!W54+Daily!Z54)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC54">
         <f t="shared" si="0"/>
@@ -25236,7 +25239,7 @@
       </c>
       <c r="AE54">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AF54" s="5">
         <f t="shared" si="3"/>
@@ -25244,7 +25247,7 @@
       </c>
       <c r="AG54">
         <f t="shared" si="4"/>
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AH54">
         <f t="shared" si="5"/>
@@ -25264,11 +25267,11 @@
       </c>
       <c r="AL54" s="2">
         <f t="shared" si="9"/>
-        <v>0.18421052631578946</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="AM54" s="2">
         <f t="shared" si="10"/>
-        <v>0.81578947368421051</v>
+        <v>0.86111111111111116</v>
       </c>
       <c r="AN54" s="2">
         <f t="shared" si="11"/>
@@ -38096,10 +38099,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52250498-B13A-3F44-9F82-349791E8BD3C}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -38236,6 +38239,14 @@
       </c>
       <c r="C19" t="s">
         <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/COVID-19 Australia.xlsx
+++ b/COVID-19 Australia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcus/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{6CCA0AA6-BAE3-3D4A-8955-DBC2CBE532BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{75632C84-4AEA-764B-AC0D-586BD949777F}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{6CCA0AA6-BAE3-3D4A-8955-DBC2CBE532BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5F880F9B-FE95-F942-90A6-17DBEB601C85}"/>
   <bookViews>
     <workbookView xWindow="2580" yWindow="460" windowWidth="34260" windowHeight="23540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="111">
   <si>
     <t>Date</t>
   </si>
@@ -382,6 +382,21 @@
   <si>
     <t>Correct NSW deaths for 15/3/20 - their headline is wrong</t>
   </si>
+  <si>
+    <t>COVID-19  case numbers</t>
+  </si>
+  <si>
+    <t>https://www.health.gov.au/news/health-alerts/novel-coronavirus-2019-ncov-health-alert/coronavirus-covid-19-current-situation-and-case-numbers</t>
+  </si>
+  <si>
+    <t>Update case stats</t>
+  </si>
+  <si>
+    <t>Fix some errors in the Italian numbers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Massage the recovered cases to get the numbers to match. </t>
+  </si>
 </sst>
 </file>
 
@@ -719,7 +734,7 @@
                   <c:v>43905</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>#N/A</c:v>
+                  <c:v>43906</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>#N/A</c:v>
@@ -1019,10 +1034,10 @@
                   <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>300</c:v>
+                  <c:v>299</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0</c:v>
+                  <c:v>377</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>0</c:v>
@@ -1580,7 +1595,7 @@
                   <c:v>43905</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>#N/A</c:v>
+                  <c:v>43906</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>#N/A</c:v>
@@ -1880,10 +1895,10 @@
                   <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>50</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>0</c:v>
@@ -2473,7 +2488,7 @@
                   <c:v>43905</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>#N/A</c:v>
+                  <c:v>43906</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>#N/A</c:v>
@@ -2773,10 +2788,10 @@
                   <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>166</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>0</c:v>
@@ -3365,7 +3380,7 @@
                   <c:v>43905</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>#N/A</c:v>
+                  <c:v>43906</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>#N/A</c:v>
@@ -3668,7 +3683,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>0</c:v>
@@ -4007,7 +4022,7 @@
                   <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>0</c:v>
@@ -4346,7 +4361,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>0</c:v>
@@ -4685,7 +4700,7 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>0</c:v>
@@ -5024,7 +5039,7 @@
                   <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>0</c:v>
@@ -5360,10 +5375,10 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>0</c:v>
@@ -5701,10 +5716,10 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>0</c:v>
@@ -6045,7 +6060,7 @@
                   <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>0</c:v>
@@ -6632,7 +6647,7 @@
                   <c:v>43905</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>#N/A</c:v>
+                  <c:v>43906</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>#N/A</c:v>
@@ -6923,7 +6938,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>#N/A</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>#N/A</c:v>
@@ -6935,7 +6950,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>0</c:v>
@@ -7557,7 +7572,7 @@
                   <c:v>43905</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>#N/A</c:v>
+                  <c:v>43906</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>#N/A</c:v>
@@ -7845,22 +7860,22 @@
                   <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>101</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>131</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>170</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>220</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>264</c:v>
+                  <c:v>265</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
+                  <c:v>343</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>0</c:v>
@@ -12061,18 +12076,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9DE41B-0E36-2141-B22D-FF546E770A0D}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="C9" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.484375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.50390625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="112.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.76953125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="122.8203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.90234375" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -12281,7 +12296,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -12291,43 +12306,54 @@
       <c r="C31" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C33" s="6" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="68.25" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>72</v>
-      </c>
-      <c r="B34" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>79</v>
+      <c r="D33" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="68.25" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B35" t="s">
         <v>77</v>
       </c>
       <c r="C35" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="68.25" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D36" s="7" t="s">
         <v>79</v>
       </c>
     </row>
@@ -12355,8 +12381,9 @@
     <hyperlink ref="C29" r:id="rId20" xr:uid="{2541CBDE-4076-1147-B928-ACFD7BA56906}"/>
     <hyperlink ref="C31" r:id="rId21" xr:uid="{8EEFD09E-CE69-4049-B10C-D30EA400D9D7}"/>
     <hyperlink ref="C26" r:id="rId22" xr:uid="{62D8E6EC-80C0-B240-B527-42ED98B5A6E4}"/>
-    <hyperlink ref="C34" r:id="rId23" location="Statistics" xr:uid="{111BCD04-4522-BE4B-9483-DEAD648568A6}"/>
-    <hyperlink ref="C35" r:id="rId24" xr:uid="{910CD5BE-87E7-D443-9D04-D0F4134D675F}"/>
+    <hyperlink ref="C35" r:id="rId23" location="Statistics" xr:uid="{111BCD04-4522-BE4B-9483-DEAD648568A6}"/>
+    <hyperlink ref="C36" r:id="rId24" xr:uid="{910CD5BE-87E7-D443-9D04-D0F4134D675F}"/>
+    <hyperlink ref="C32" r:id="rId25" xr:uid="{3B7E89E7-E2C2-9D45-BF70-F257875444ED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12367,10 +12394,10 @@
   <dimension ref="A1:AA94"/>
   <sheetViews>
     <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="Y51" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
       <selection pane="topRight" activeCell="R1" sqref="R1"/>
-      <selection pane="bottomRight" activeCell="H55" sqref="H55"/>
+      <selection pane="bottomRight" activeCell="AA50" sqref="AA50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12950,7 +12977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>43900</v>
       </c>
@@ -12965,7 +12992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>43901</v>
       </c>
@@ -12988,11 +13015,8 @@
       <c r="X50">
         <v>3</v>
       </c>
-      <c r="AA50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>43902</v>
       </c>
@@ -13013,7 +13037,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>43903</v>
       </c>
@@ -13040,7 +13064,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>43904</v>
       </c>
@@ -13067,7 +13091,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>43905</v>
       </c>
@@ -13088,52 +13112,72 @@
         <v>15</v>
       </c>
       <c r="R54">
+        <v>2</v>
+      </c>
+      <c r="U54">
         <v>1</v>
-      </c>
-      <c r="U54">
-        <v>3</v>
       </c>
       <c r="X54">
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A55" s="1"/>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>43906</v>
+      </c>
       <c r="B55" s="1"/>
-    </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>37</v>
+      </c>
+      <c r="L55">
+        <v>9</v>
+      </c>
+      <c r="O55">
+        <v>7</v>
+      </c>
+      <c r="U55">
+        <v>10</v>
+      </c>
+      <c r="X55">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
     </row>
@@ -13277,7 +13321,7 @@
   <dimension ref="A1:BD143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="G44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B43" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomRight"/>
@@ -24319,7 +24363,7 @@
       </c>
       <c r="AA50">
         <f>IF(_xlfn.IFNA($A50,"")="","",Daily!D50+Daily!G50+Daily!J50+Daily!M50+Daily!P50+Daily!S50+Daily!V50+Daily!Y50+Daily!AA50)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB50">
         <f>IF(_xlfn.IFNA($A50,"")="","",Daily!E50+Daily!H50+Daily!K50+Daily!N50+Daily!Q50+Daily!T50+Daily!W50+Daily!Z50)</f>
@@ -24331,7 +24375,7 @@
       </c>
       <c r="AD50">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE50">
         <f t="shared" si="2"/>
@@ -24343,7 +24387,7 @@
       </c>
       <c r="AG50">
         <f t="shared" si="4"/>
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AH50">
         <f t="shared" si="5"/>
@@ -24351,7 +24395,7 @@
       </c>
       <c r="AI50">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AJ50">
         <f t="shared" si="7"/>
@@ -24359,15 +24403,15 @@
       </c>
       <c r="AK50">
         <f t="shared" si="8"/>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AL50" s="2">
         <f t="shared" si="9"/>
-        <v>0.1111111111111111</v>
+        <v>0.12</v>
       </c>
       <c r="AM50" s="2">
         <f t="shared" si="10"/>
-        <v>0.88888888888888884</v>
+        <v>0.88</v>
       </c>
       <c r="AN50" s="2">
         <f t="shared" si="11"/>
@@ -24557,7 +24601,7 @@
       </c>
       <c r="AD51">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE51">
         <f t="shared" si="2"/>
@@ -24569,7 +24613,7 @@
       </c>
       <c r="AG51">
         <f t="shared" si="4"/>
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AH51">
         <f t="shared" si="5"/>
@@ -24577,7 +24621,7 @@
       </c>
       <c r="AI51">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AJ51">
         <f t="shared" si="7"/>
@@ -24585,15 +24629,15 @@
       </c>
       <c r="AK51">
         <f t="shared" si="8"/>
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AL51" s="2">
         <f t="shared" si="9"/>
-        <v>0.1111111111111111</v>
+        <v>0.12</v>
       </c>
       <c r="AM51" s="2">
         <f t="shared" si="10"/>
-        <v>0.88888888888888884</v>
+        <v>0.88</v>
       </c>
       <c r="AN51" s="2">
         <f t="shared" si="11"/>
@@ -24639,9 +24683,9 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AY51" t="e">
+      <c r="AY51">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="AZ51" s="3">
         <f>IF(_xlfn.IFNA($A51,"")="","",AC51/(Connfiguration!$B$1/1000000))</f>
@@ -24783,7 +24827,7 @@
       </c>
       <c r="AD52">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AE52">
         <f t="shared" si="2"/>
@@ -24795,7 +24839,7 @@
       </c>
       <c r="AG52">
         <f t="shared" si="4"/>
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AH52">
         <f t="shared" si="5"/>
@@ -24803,7 +24847,7 @@
       </c>
       <c r="AI52">
         <f t="shared" si="6"/>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AJ52">
         <f t="shared" si="7"/>
@@ -24811,15 +24855,15 @@
       </c>
       <c r="AK52">
         <f t="shared" si="8"/>
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AL52" s="2">
         <f t="shared" si="9"/>
-        <v>0.10344827586206896</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="AM52" s="2">
         <f t="shared" si="10"/>
-        <v>0.89655172413793105</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="AN52" s="2">
         <f t="shared" si="11"/>
@@ -25009,7 +25053,7 @@
       </c>
       <c r="AD53">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE53">
         <f t="shared" si="2"/>
@@ -25021,7 +25065,7 @@
       </c>
       <c r="AG53">
         <f t="shared" si="4"/>
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AH53">
         <f t="shared" si="5"/>
@@ -25029,7 +25073,7 @@
       </c>
       <c r="AI53">
         <f t="shared" si="6"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ53">
         <f t="shared" si="7"/>
@@ -25037,15 +25081,15 @@
       </c>
       <c r="AK53">
         <f t="shared" si="8"/>
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AL53" s="2">
         <f t="shared" si="9"/>
-        <v>0.1</v>
+        <v>0.10714285714285714</v>
       </c>
       <c r="AM53" s="2">
         <f t="shared" si="10"/>
-        <v>0.9</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="AN53" s="2">
         <f t="shared" si="11"/>
@@ -25183,7 +25227,7 @@
       </c>
       <c r="Q54">
         <f>IF(_xlfn.IFNA($A54,"")="","",Daily!R54+IF(ROW(P54)&gt;4,Q53,0))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R54">
         <f>IF(_xlfn.IFNA($A54,"")="","",Daily!S54+IF(ROW(Q54)&gt;4,R53,0))</f>
@@ -25195,7 +25239,7 @@
       </c>
       <c r="T54">
         <f>IF(_xlfn.IFNA($A54,"")="","",Daily!U54+IF(ROW(S54)&gt;4,T53,0))</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U54">
         <f>IF(_xlfn.IFNA($A54,"")="","",Daily!V54+IF(ROW(T54)&gt;4,U53,0))</f>
@@ -25219,7 +25263,7 @@
       </c>
       <c r="Z54">
         <f>IF(_xlfn.IFNA($A54,"")="","",Daily!C54+Daily!F54+Daily!I54+Daily!L54+Daily!O54+Daily!R54+Daily!U54+Daily!X54)</f>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA54">
         <f>IF(_xlfn.IFNA($A54,"")="","",Daily!D54+Daily!G54+Daily!J54+Daily!M54+Daily!P54+Daily!S54+Daily!V54+Daily!Y54+Daily!AA54)</f>
@@ -25231,11 +25275,11 @@
       </c>
       <c r="AC54">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AD54">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AE54">
         <f t="shared" si="2"/>
@@ -25243,19 +25287,19 @@
       </c>
       <c r="AF54" s="5">
         <f t="shared" si="3"/>
-        <v>0.98039215686274506</v>
+        <v>0.96078431372549022</v>
       </c>
       <c r="AG54">
         <f t="shared" si="4"/>
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AH54">
         <f t="shared" si="5"/>
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AI54">
         <f t="shared" si="6"/>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AJ54">
         <f t="shared" si="7"/>
@@ -25263,59 +25307,59 @@
       </c>
       <c r="AK54">
         <f t="shared" si="8"/>
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AL54" s="2">
         <f t="shared" si="9"/>
-        <v>0.1388888888888889</v>
+        <v>0.14705882352941177</v>
       </c>
       <c r="AM54" s="2">
         <f t="shared" si="10"/>
-        <v>0.86111111111111116</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="AN54" s="2">
         <f t="shared" si="11"/>
-        <v>3.3333333333333335E-3</v>
+        <v>3.3444816053511705E-3</v>
       </c>
       <c r="AO54" s="2">
         <f t="shared" si="12"/>
-        <v>0.44666666666666666</v>
+        <v>0.44816053511705684</v>
       </c>
       <c r="AP54" s="2">
         <f t="shared" si="13"/>
-        <v>3.3333333333333335E-3</v>
+        <v>3.3444816053511705E-3</v>
       </c>
       <c r="AQ54" s="2">
         <f t="shared" si="14"/>
-        <v>6.6666666666666666E-2</v>
+        <v>6.6889632107023408E-2</v>
       </c>
       <c r="AR54" s="2">
         <f t="shared" si="15"/>
-        <v>0.20333333333333334</v>
+        <v>0.20401337792642141</v>
       </c>
       <c r="AS54" s="2">
         <f t="shared" si="16"/>
-        <v>0.02</v>
+        <v>2.3411371237458192E-2</v>
       </c>
       <c r="AT54" s="2">
         <f t="shared" si="17"/>
-        <v>6.6666666666666666E-2</v>
+        <v>6.0200668896321072E-2</v>
       </c>
       <c r="AU54" s="2">
         <f t="shared" si="18"/>
-        <v>0.19</v>
+        <v>0.19063545150501673</v>
       </c>
       <c r="AV54" s="3">
         <f t="shared" ca="1" si="19"/>
-        <v>31.285714285714285</v>
+        <v>31.142857142857142</v>
       </c>
       <c r="AW54" s="2">
         <f t="shared" si="20"/>
-        <v>0.2</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="AX54" s="2">
         <f t="shared" si="21"/>
-        <v>-1.9607843137254902E-2</v>
+        <v>-3.9215686274509803E-2</v>
       </c>
       <c r="AY54" t="e">
         <f t="shared" si="22"/>
@@ -25323,7 +25367,7 @@
       </c>
       <c r="AZ54" s="3">
         <f>IF(_xlfn.IFNA($A54,"")="","",AC54/(Connfiguration!$B$1/1000000))</f>
-        <v>11.827647520333697</v>
+        <v>11.788222028599252</v>
       </c>
       <c r="BA54" cm="1">
         <f t="array" ref="BA54">IF(OR(_xlfn.IFNA($A54,"")="", ROW()&lt;=3),"",$A54-_xlfn.XLOOKUP(AC54,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
@@ -25343,229 +25387,229 @@
       </c>
     </row>
     <row r="55" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="e">
+      <c r="A55" s="1">
         <f>IF(OR(Daily!$A55="",Daily!$B55="*"),NA(),Daily!A55)</f>
+        <v>43906</v>
+      </c>
+      <c r="B55">
+        <f>IF(_xlfn.IFNA($A55,"")="","",Daily!C55+IF(ROW(A55)&gt;4,B54,0))</f>
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <f>IF(_xlfn.IFNA($A55,"")="","",Daily!D55+IF(ROW(B55)&gt;4,C54,0))</f>
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <f>IF(_xlfn.IFNA($A55,"")="","",Daily!E55+IF(ROW(C55)&gt;4,D54,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <f>IF(_xlfn.IFNA($A55,"")="","",Daily!F55+IF(ROW(D55)&gt;4,E54,0))</f>
+        <v>171</v>
+      </c>
+      <c r="F55">
+        <f>IF(_xlfn.IFNA($A55,"")="","",Daily!G55+IF(ROW(E55)&gt;4,F54,0))</f>
+        <v>4</v>
+      </c>
+      <c r="G55">
+        <f>IF(_xlfn.IFNA($A55,"")="","",Daily!H55+IF(ROW(F55)&gt;4,G54,0))</f>
+        <v>4</v>
+      </c>
+      <c r="H55">
+        <f>IF(_xlfn.IFNA($A55,"")="","",Daily!I55+IF(ROW(G55)&gt;4,H54,0))</f>
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <f>IF(_xlfn.IFNA($A55,"")="","",Daily!J55+IF(ROW(H55)&gt;4,I54,0))</f>
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <f>IF(_xlfn.IFNA($A55,"")="","",Daily!K55+IF(ROW(I55)&gt;4,J54,0))</f>
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <f>IF(_xlfn.IFNA($A55,"")="","",Daily!L55+IF(ROW(J55)&gt;4,K54,0))</f>
+        <v>29</v>
+      </c>
+      <c r="L55">
+        <f>IF(_xlfn.IFNA($A55,"")="","",Daily!M55+IF(ROW(K55)&gt;4,L54,0))</f>
+        <v>9</v>
+      </c>
+      <c r="M55">
+        <f>IF(_xlfn.IFNA($A55,"")="","",Daily!N55+IF(ROW(L55)&gt;4,M54,0))</f>
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <f>IF(_xlfn.IFNA($A55,"")="","",Daily!O55+IF(ROW(M55)&gt;4,N54,0))</f>
+        <v>68</v>
+      </c>
+      <c r="O55">
+        <f>IF(_xlfn.IFNA($A55,"")="","",Daily!P55+IF(ROW(N55)&gt;4,O54,0))</f>
+        <v>8</v>
+      </c>
+      <c r="P55">
+        <f>IF(_xlfn.IFNA($A55,"")="","",Daily!Q55+IF(ROW(O55)&gt;4,P54,0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <f>IF(_xlfn.IFNA($A55,"")="","",Daily!R55+IF(ROW(P55)&gt;4,Q54,0))</f>
+        <v>7</v>
+      </c>
+      <c r="R55">
+        <f>IF(_xlfn.IFNA($A55,"")="","",Daily!S55+IF(ROW(Q55)&gt;4,R54,0))</f>
+        <v>1</v>
+      </c>
+      <c r="S55">
+        <f>IF(_xlfn.IFNA($A55,"")="","",Daily!T55+IF(ROW(R55)&gt;4,S54,0))</f>
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <f>IF(_xlfn.IFNA($A55,"")="","",Daily!U55+IF(ROW(S55)&gt;4,T54,0))</f>
+        <v>28</v>
+      </c>
+      <c r="U55">
+        <f>IF(_xlfn.IFNA($A55,"")="","",Daily!V55+IF(ROW(T55)&gt;4,U54,0))</f>
+        <v>0</v>
+      </c>
+      <c r="V55">
+        <f>IF(_xlfn.IFNA($A55,"")="","",Daily!W55+IF(ROW(U55)&gt;4,V54,0))</f>
+        <v>1</v>
+      </c>
+      <c r="W55">
+        <f>IF(_xlfn.IFNA($A55,"")="","",Daily!X55+IF(ROW(V55)&gt;4,W54,0))</f>
+        <v>71</v>
+      </c>
+      <c r="X55">
+        <f>IF(_xlfn.IFNA($A55,"")="","",Daily!Y55+IF(ROW(W55)&gt;4,X54,0))</f>
+        <v>7</v>
+      </c>
+      <c r="Y55">
+        <f>IF(_xlfn.IFNA($A55,"")="","",Daily!Z55+IF(ROW(X55)&gt;4,Y54,0))</f>
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <f>IF(_xlfn.IFNA($A55,"")="","",Daily!C55+Daily!F55+Daily!I55+Daily!L55+Daily!O55+Daily!R55+Daily!U55+Daily!X55)</f>
+        <v>78</v>
+      </c>
+      <c r="AA55">
+        <f>IF(_xlfn.IFNA($A55,"")="","",Daily!D55+Daily!G55+Daily!J55+Daily!M55+Daily!P55+Daily!S55+Daily!V55+Daily!Y55+Daily!AA55)</f>
+        <v>0</v>
+      </c>
+      <c r="AB55">
+        <f>IF(_xlfn.IFNA($A55,"")="","",Daily!E55+Daily!H55+Daily!K55+Daily!N55+Daily!Q55+Daily!T55+Daily!W55+Daily!Z55)</f>
+        <v>0</v>
+      </c>
+      <c r="AC55">
+        <f t="shared" si="0"/>
+        <v>377</v>
+      </c>
+      <c r="AD55">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="AE55">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="AF55" s="5">
+        <f t="shared" si="3"/>
+        <v>1.5918367346938775</v>
+      </c>
+      <c r="AG55">
+        <f t="shared" si="4"/>
+        <v>343</v>
+      </c>
+      <c r="AH55">
+        <f t="shared" si="5"/>
+        <v>206</v>
+      </c>
+      <c r="AI55">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="AJ55">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AK55">
+        <f t="shared" si="8"/>
+        <v>180</v>
+      </c>
+      <c r="AL55" s="2">
+        <f t="shared" si="9"/>
+        <v>0.14705882352941177</v>
+      </c>
+      <c r="AM55" s="2">
+        <f t="shared" si="10"/>
+        <v>0.8529411764705882</v>
+      </c>
+      <c r="AN55" s="2">
+        <f t="shared" si="11"/>
+        <v>5.3050397877984082E-3</v>
+      </c>
+      <c r="AO55" s="2">
+        <f t="shared" si="12"/>
+        <v>0.45358090185676392</v>
+      </c>
+      <c r="AP55" s="2">
+        <f t="shared" si="13"/>
+        <v>2.6525198938992041E-3</v>
+      </c>
+      <c r="AQ55" s="2">
+        <f t="shared" si="14"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="AR55" s="2">
+        <f t="shared" si="15"/>
+        <v>0.18037135278514588</v>
+      </c>
+      <c r="AS55" s="2">
+        <f t="shared" si="16"/>
+        <v>1.8567639257294429E-2</v>
+      </c>
+      <c r="AT55" s="2">
+        <f t="shared" si="17"/>
+        <v>7.4270557029177717E-2</v>
+      </c>
+      <c r="AU55" s="2">
+        <f t="shared" si="18"/>
+        <v>0.1883289124668435</v>
+      </c>
+      <c r="AV55" s="3">
+        <f t="shared" ca="1" si="19"/>
+        <v>40.571428571428569</v>
+      </c>
+      <c r="AW55" s="2">
+        <f t="shared" si="20"/>
+        <v>0.2608695652173913</v>
+      </c>
+      <c r="AX55" s="2">
+        <f t="shared" si="21"/>
+        <v>0.59183673469387754</v>
+      </c>
+      <c r="AY55" t="e">
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
-      <c r="B55" t="str">
-        <f>IF(_xlfn.IFNA($A55,"")="","",Daily!C55+IF(ROW(A55)&gt;4,B54,0))</f>
-        <v/>
-      </c>
-      <c r="C55" t="str">
-        <f>IF(_xlfn.IFNA($A55,"")="","",Daily!D55+IF(ROW(B55)&gt;4,C54,0))</f>
-        <v/>
-      </c>
-      <c r="D55" t="str">
-        <f>IF(_xlfn.IFNA($A55,"")="","",Daily!E55+IF(ROW(C55)&gt;4,D54,0))</f>
-        <v/>
-      </c>
-      <c r="E55" t="str">
-        <f>IF(_xlfn.IFNA($A55,"")="","",Daily!F55+IF(ROW(D55)&gt;4,E54,0))</f>
-        <v/>
-      </c>
-      <c r="F55" t="str">
-        <f>IF(_xlfn.IFNA($A55,"")="","",Daily!G55+IF(ROW(E55)&gt;4,F54,0))</f>
-        <v/>
-      </c>
-      <c r="G55" t="str">
-        <f>IF(_xlfn.IFNA($A55,"")="","",Daily!H55+IF(ROW(F55)&gt;4,G54,0))</f>
-        <v/>
-      </c>
-      <c r="H55" t="str">
-        <f>IF(_xlfn.IFNA($A55,"")="","",Daily!I55+IF(ROW(G55)&gt;4,H54,0))</f>
-        <v/>
-      </c>
-      <c r="I55" t="str">
-        <f>IF(_xlfn.IFNA($A55,"")="","",Daily!J55+IF(ROW(H55)&gt;4,I54,0))</f>
-        <v/>
-      </c>
-      <c r="J55" t="str">
-        <f>IF(_xlfn.IFNA($A55,"")="","",Daily!K55+IF(ROW(I55)&gt;4,J54,0))</f>
-        <v/>
-      </c>
-      <c r="K55" t="str">
-        <f>IF(_xlfn.IFNA($A55,"")="","",Daily!L55+IF(ROW(J55)&gt;4,K54,0))</f>
-        <v/>
-      </c>
-      <c r="L55" t="str">
-        <f>IF(_xlfn.IFNA($A55,"")="","",Daily!M55+IF(ROW(K55)&gt;4,L54,0))</f>
-        <v/>
-      </c>
-      <c r="M55" t="str">
-        <f>IF(_xlfn.IFNA($A55,"")="","",Daily!N55+IF(ROW(L55)&gt;4,M54,0))</f>
-        <v/>
-      </c>
-      <c r="N55" t="str">
-        <f>IF(_xlfn.IFNA($A55,"")="","",Daily!O55+IF(ROW(M55)&gt;4,N54,0))</f>
-        <v/>
-      </c>
-      <c r="O55" t="str">
-        <f>IF(_xlfn.IFNA($A55,"")="","",Daily!P55+IF(ROW(N55)&gt;4,O54,0))</f>
-        <v/>
-      </c>
-      <c r="P55" t="str">
-        <f>IF(_xlfn.IFNA($A55,"")="","",Daily!Q55+IF(ROW(O55)&gt;4,P54,0))</f>
-        <v/>
-      </c>
-      <c r="Q55" t="str">
-        <f>IF(_xlfn.IFNA($A55,"")="","",Daily!R55+IF(ROW(P55)&gt;4,Q54,0))</f>
-        <v/>
-      </c>
-      <c r="R55" t="str">
-        <f>IF(_xlfn.IFNA($A55,"")="","",Daily!S55+IF(ROW(Q55)&gt;4,R54,0))</f>
-        <v/>
-      </c>
-      <c r="S55" t="str">
-        <f>IF(_xlfn.IFNA($A55,"")="","",Daily!T55+IF(ROW(R55)&gt;4,S54,0))</f>
-        <v/>
-      </c>
-      <c r="T55" t="str">
-        <f>IF(_xlfn.IFNA($A55,"")="","",Daily!U55+IF(ROW(S55)&gt;4,T54,0))</f>
-        <v/>
-      </c>
-      <c r="U55" t="str">
-        <f>IF(_xlfn.IFNA($A55,"")="","",Daily!V55+IF(ROW(T55)&gt;4,U54,0))</f>
-        <v/>
-      </c>
-      <c r="V55" t="str">
-        <f>IF(_xlfn.IFNA($A55,"")="","",Daily!W55+IF(ROW(U55)&gt;4,V54,0))</f>
-        <v/>
-      </c>
-      <c r="W55" t="str">
-        <f>IF(_xlfn.IFNA($A55,"")="","",Daily!X55+IF(ROW(V55)&gt;4,W54,0))</f>
-        <v/>
-      </c>
-      <c r="X55" t="str">
-        <f>IF(_xlfn.IFNA($A55,"")="","",Daily!Y55+IF(ROW(W55)&gt;4,X54,0))</f>
-        <v/>
-      </c>
-      <c r="Y55" t="str">
-        <f>IF(_xlfn.IFNA($A55,"")="","",Daily!Z55+IF(ROW(X55)&gt;4,Y54,0))</f>
-        <v/>
-      </c>
-      <c r="Z55" t="str">
-        <f>IF(_xlfn.IFNA($A55,"")="","",Daily!C55+Daily!F55+Daily!I55+Daily!L55+Daily!O55+Daily!R55+Daily!U55+Daily!X55)</f>
-        <v/>
-      </c>
-      <c r="AA55" t="str">
-        <f>IF(_xlfn.IFNA($A55,"")="","",Daily!D55+Daily!G55+Daily!J55+Daily!M55+Daily!P55+Daily!S55+Daily!V55+Daily!Y55+Daily!AA55)</f>
-        <v/>
-      </c>
-      <c r="AB55" t="str">
-        <f>IF(_xlfn.IFNA($A55,"")="","",Daily!E55+Daily!H55+Daily!K55+Daily!N55+Daily!Q55+Daily!T55+Daily!W55+Daily!Z55)</f>
-        <v/>
-      </c>
-      <c r="AC55" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AD55" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AE55" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AF55" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AG55" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AH55" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AI55" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AJ55" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AK55" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AL55" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AM55" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AN55" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AO55" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AP55" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AQ55" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="AR55" s="2" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AS55" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="AT55" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AU55" s="2" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="AV55" s="3" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AW55" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="AX55" s="2" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AY55" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="AZ55" s="3" t="str">
+      <c r="AZ55" s="3">
         <f>IF(_xlfn.IFNA($A55,"")="","",AC55/(Connfiguration!$B$1/1000000))</f>
-        <v/>
-      </c>
-      <c r="BA55" t="str" cm="1">
+        <v>14.863410383886013</v>
+      </c>
+      <c r="BA55" cm="1">
         <f t="array" ref="BA55">IF(OR(_xlfn.IFNA($A55,"")="", ROW()&lt;=3),"",$A55-_xlfn.XLOOKUP(AC55,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
-      <c r="BB55" t="str" cm="1">
+        <v>19</v>
+      </c>
+      <c r="BB55" cm="1">
         <f t="array" ref="BB55">IF(OR(_xlfn.IFNA($A55,"")="", ROW()&lt;=3),"",$A55-_xlfn.XLOOKUP(AZ55,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
-      <c r="BC55" t="str" cm="1">
+        <v>16</v>
+      </c>
+      <c r="BC55" cm="1">
         <f t="array" ref="BC55">IF(OR(_xlfn.IFNA($A55,"")="", ROW()&lt;=3),"",$A55-_xlfn.XLOOKUP(AC55,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
-      <c r="BD55" t="str" cm="1">
+        <v>11</v>
+      </c>
+      <c r="BD55" cm="1">
         <f t="array" ref="BD55">IF(OR(_xlfn.IFNA($A55,"")="", ROW()&lt;=3),"",$A55-_xlfn.XLOOKUP(AZ55,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:56" x14ac:dyDescent="0.2">
@@ -35894,11 +35938,11 @@
   <dimension ref="A1:G109"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E50" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="C54" sqref="C54"/>
+      <selection pane="bottomRight" activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -36130,15 +36174,15 @@
         <v>43861</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="3">
         <f>IF($A11="","",C11/(Connfiguration!$B$2/1000000))</f>
-        <v>1.6567387700364745E-2</v>
+        <v>3.313477540072949E-2</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
@@ -36155,11 +36199,11 @@
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="3">
         <f>IF($A12="","",C12/(Connfiguration!$B$2/1000000))</f>
-        <v>1.6567387700364745E-2</v>
+        <v>3.313477540072949E-2</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
@@ -36176,11 +36220,11 @@
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="3">
         <f>IF($A13="","",C13/(Connfiguration!$B$2/1000000))</f>
-        <v>1.6567387700364745E-2</v>
+        <v>3.313477540072949E-2</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
@@ -36197,11 +36241,11 @@
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" s="3">
         <f>IF($A14="","",C14/(Connfiguration!$B$2/1000000))</f>
-        <v>1.6567387700364745E-2</v>
+        <v>3.313477540072949E-2</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
@@ -36218,11 +36262,11 @@
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" s="3">
         <f>IF($A15="","",C15/(Connfiguration!$B$2/1000000))</f>
-        <v>1.6567387700364745E-2</v>
+        <v>3.313477540072949E-2</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
@@ -36239,11 +36283,11 @@
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="3">
         <f>IF($A16="","",C16/(Connfiguration!$B$2/1000000))</f>
-        <v>1.6567387700364745E-2</v>
+        <v>3.313477540072949E-2</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
@@ -36263,11 +36307,11 @@
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" s="3">
         <f>IF($A17="","",C17/(Connfiguration!$B$2/1000000))</f>
-        <v>3.313477540072949E-2</v>
+        <v>4.9702163101094231E-2</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
@@ -36284,11 +36328,11 @@
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" s="3">
         <f>IF($A18="","",C18/(Connfiguration!$B$2/1000000))</f>
-        <v>3.313477540072949E-2</v>
+        <v>4.9702163101094231E-2</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
@@ -36305,11 +36349,11 @@
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" s="3">
         <f>IF($A19="","",C19/(Connfiguration!$B$2/1000000))</f>
-        <v>3.313477540072949E-2</v>
+        <v>4.9702163101094231E-2</v>
       </c>
       <c r="E19">
         <v>5</v>
@@ -36329,11 +36373,11 @@
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" s="3">
         <f>IF($A20="","",C20/(Connfiguration!$B$2/1000000))</f>
-        <v>3.313477540072949E-2</v>
+        <v>4.9702163101094231E-2</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
@@ -36350,11 +36394,11 @@
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" s="3">
         <f>IF($A21="","",C21/(Connfiguration!$B$2/1000000))</f>
-        <v>3.313477540072949E-2</v>
+        <v>4.9702163101094231E-2</v>
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
@@ -36371,11 +36415,11 @@
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" s="3">
         <f>IF($A22="","",C22/(Connfiguration!$B$2/1000000))</f>
-        <v>3.313477540072949E-2</v>
+        <v>4.9702163101094231E-2</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
@@ -36392,11 +36436,11 @@
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" s="3">
         <f>IF($A23="","",C23/(Connfiguration!$B$2/1000000))</f>
-        <v>3.313477540072949E-2</v>
+        <v>4.9702163101094231E-2</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
@@ -36413,11 +36457,11 @@
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" s="3">
         <f>IF($A24="","",C24/(Connfiguration!$B$2/1000000))</f>
-        <v>3.313477540072949E-2</v>
+        <v>4.9702163101094231E-2</v>
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
@@ -36434,11 +36478,11 @@
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" s="3">
         <f>IF($A25="","",C25/(Connfiguration!$B$2/1000000))</f>
-        <v>3.313477540072949E-2</v>
+        <v>4.9702163101094231E-2</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
@@ -36455,11 +36499,11 @@
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" s="3">
         <f>IF($A26="","",C26/(Connfiguration!$B$2/1000000))</f>
-        <v>3.313477540072949E-2</v>
+        <v>4.9702163101094231E-2</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -36479,11 +36523,11 @@
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" s="3">
         <f>IF($A27="","",C27/(Connfiguration!$B$2/1000000))</f>
-        <v>3.313477540072949E-2</v>
+        <v>4.9702163101094231E-2</v>
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
@@ -36500,11 +36544,11 @@
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" s="3">
         <f>IF($A28="","",C28/(Connfiguration!$B$2/1000000))</f>
-        <v>3.313477540072949E-2</v>
+        <v>4.9702163101094231E-2</v>
       </c>
       <c r="F28">
         <f t="shared" si="1"/>
@@ -36521,11 +36565,11 @@
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" s="3">
         <f>IF($A29="","",C29/(Connfiguration!$B$2/1000000))</f>
-        <v>3.313477540072949E-2</v>
+        <v>4.9702163101094231E-2</v>
       </c>
       <c r="F29">
         <f t="shared" si="1"/>
@@ -36542,11 +36586,11 @@
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" s="3">
         <f>IF($A30="","",C30/(Connfiguration!$B$2/1000000))</f>
-        <v>3.313477540072949E-2</v>
+        <v>4.9702163101094231E-2</v>
       </c>
       <c r="F30">
         <f t="shared" si="1"/>
@@ -36563,11 +36607,11 @@
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" s="3">
         <f>IF($A31="","",C31/(Connfiguration!$B$2/1000000))</f>
-        <v>3.313477540072949E-2</v>
+        <v>4.9702163101094231E-2</v>
       </c>
       <c r="F31">
         <f t="shared" si="1"/>
@@ -36587,11 +36631,11 @@
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D32" s="3">
         <f>IF($A32="","",C32/(Connfiguration!$B$2/1000000))</f>
-        <v>0.31478036630693013</v>
+        <v>0.33134775400729488</v>
       </c>
       <c r="F32">
         <f t="shared" si="1"/>
@@ -36611,11 +36655,11 @@
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D33" s="3">
         <f>IF($A33="","",C33/(Connfiguration!$B$2/1000000))</f>
-        <v>1.2922562406284501</v>
+        <v>1.3088236283288148</v>
       </c>
       <c r="F33">
         <f t="shared" si="1"/>
@@ -36635,11 +36679,11 @@
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D34" s="3">
         <f>IF($A34="","",C34/(Connfiguration!$B$2/1000000))</f>
-        <v>2.4685407673543467</v>
+        <v>2.4851081550547116</v>
       </c>
       <c r="F34">
         <f t="shared" si="1"/>
@@ -36659,11 +36703,11 @@
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D35" s="3">
         <f>IF($A35="","",C35/(Connfiguration!$B$2/1000000))</f>
-        <v>3.7442296202824319</v>
+        <v>3.7607970079827968</v>
       </c>
       <c r="F35">
         <f t="shared" si="1"/>
@@ -36683,11 +36727,11 @@
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D36" s="3">
         <f>IF($A36="","",C36/(Connfiguration!$B$2/1000000))</f>
-        <v>5.2849966764163536</v>
+        <v>5.3015640641167181</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -36710,11 +36754,11 @@
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D37" s="3">
         <f>IF($A37="","",C37/(Connfiguration!$B$2/1000000))</f>
-        <v>7.3559201389619462</v>
+        <v>7.3724875266623107</v>
       </c>
       <c r="E37">
         <v>5</v>
@@ -36737,11 +36781,11 @@
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D38" s="3">
         <f>IF($A38="","",C38/(Connfiguration!$B$2/1000000))</f>
-        <v>10.752234617536718</v>
+        <v>10.768802005237083</v>
       </c>
       <c r="E38">
         <v>20</v>
@@ -36764,11 +36808,11 @@
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D39" s="3">
         <f>IF($A39="","",C39/(Connfiguration!$B$2/1000000))</f>
-        <v>14.695272890223528</v>
+        <v>14.711840277923892</v>
       </c>
       <c r="E39">
         <v>19</v>
@@ -36791,11 +36835,11 @@
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="D40" s="3">
         <f>IF($A40="","",C40/(Connfiguration!$B$2/1000000))</f>
-        <v>18.671445938311066</v>
+        <v>18.688013326011433</v>
       </c>
       <c r="E40">
         <v>43</v>
@@ -36818,11 +36862,11 @@
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="D41" s="3">
         <f>IF($A41="","",C41/(Connfiguration!$B$2/1000000))</f>
-        <v>28.04858737671751</v>
+        <v>28.065154764417876</v>
       </c>
       <c r="E41">
         <v>30</v>
@@ -36845,11 +36889,11 @@
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="D42" s="3">
         <f>IF($A42="","",C42/(Connfiguration!$B$2/1000000))</f>
-        <v>33.714633970242254</v>
+        <v>33.731201357942616</v>
       </c>
       <c r="E42">
         <v>61</v>
@@ -36872,11 +36916,11 @@
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
-        <v>2501</v>
+        <v>2502</v>
       </c>
       <c r="D43" s="3">
         <f>IF($A43="","",C43/(Connfiguration!$B$2/1000000))</f>
-        <v>41.435036638612225</v>
+        <v>41.451604026312587</v>
       </c>
       <c r="E43">
         <v>21</v>
@@ -36899,11 +36943,11 @@
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
-        <v>3088</v>
+        <v>3089</v>
       </c>
       <c r="D44" s="3">
         <f>IF($A44="","",C44/(Connfiguration!$B$2/1000000))</f>
-        <v>51.160093218726331</v>
+        <v>51.176660606426694</v>
       </c>
       <c r="E44">
         <v>73</v>
@@ -36926,11 +36970,11 @@
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
-        <v>3857</v>
+        <v>3858</v>
       </c>
       <c r="D45" s="3">
         <f>IF($A45="","",C45/(Connfiguration!$B$2/1000000))</f>
-        <v>63.900414360306819</v>
+        <v>63.916981748007181</v>
       </c>
       <c r="E45">
         <v>138</v>
@@ -36953,11 +36997,11 @@
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
-        <v>4635</v>
+        <v>4636</v>
       </c>
       <c r="D46" s="3">
         <f>IF($A46="","",C46/(Connfiguration!$B$2/1000000))</f>
-        <v>76.789841991190585</v>
+        <v>76.806409378890947</v>
       </c>
       <c r="E46">
         <v>190</v>
@@ -36980,11 +37024,11 @@
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
-        <v>5881</v>
+        <v>5882</v>
       </c>
       <c r="D47" s="3">
         <f>IF($A47="","",C47/(Connfiguration!$B$2/1000000))</f>
-        <v>97.432807065845054</v>
+        <v>97.449374453545417</v>
       </c>
       <c r="E47">
         <v>336</v>
@@ -37007,11 +37051,11 @@
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
-        <v>7373</v>
+        <v>7374</v>
       </c>
       <c r="D48" s="3">
         <f>IF($A48="","",C48/(Connfiguration!$B$2/1000000))</f>
-        <v>122.15134951478926</v>
+        <v>122.16791690248962</v>
       </c>
       <c r="E48">
         <v>177</v>
@@ -37030,15 +37074,15 @@
         <v>43899</v>
       </c>
       <c r="B49">
-        <v>1767</v>
+        <v>1797</v>
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
-        <v>9140</v>
+        <v>9171</v>
       </c>
       <c r="D49" s="3">
         <f>IF($A49="","",C49/(Connfiguration!$B$2/1000000))</f>
-        <v>151.42592358133376</v>
+        <v>151.93951260004508</v>
       </c>
       <c r="E49">
         <v>286</v>
@@ -37061,11 +37105,11 @@
       </c>
       <c r="C50">
         <f t="shared" si="0"/>
-        <v>10117</v>
+        <v>10148</v>
       </c>
       <c r="D50" s="3">
         <f>IF($A50="","",C50/(Connfiguration!$B$2/1000000))</f>
-        <v>167.61226136459013</v>
+        <v>168.12585038330141</v>
       </c>
       <c r="E50">
         <v>372</v>
@@ -37088,11 +37132,11 @@
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
-        <v>12430</v>
+        <v>12461</v>
       </c>
       <c r="D51" s="3">
         <f>IF($A51="","",C51/(Connfiguration!$B$2/1000000))</f>
-        <v>205.93262911553376</v>
+        <v>206.44621813424507</v>
       </c>
       <c r="E51">
         <v>497</v>
@@ -37115,11 +37159,11 @@
       </c>
       <c r="C52">
         <f t="shared" si="0"/>
-        <v>15081</v>
+        <v>15112</v>
       </c>
       <c r="D52" s="3">
         <f>IF($A52="","",C52/(Connfiguration!$B$2/1000000))</f>
-        <v>249.85277390920069</v>
+        <v>250.36636292791201</v>
       </c>
       <c r="E52">
         <v>595</v>
@@ -37138,15 +37182,15 @@
         <v>43903</v>
       </c>
       <c r="B53">
-        <v>2546</v>
+        <v>2547</v>
       </c>
       <c r="C53">
         <f t="shared" si="0"/>
-        <v>17627</v>
+        <v>17659</v>
       </c>
       <c r="D53" s="3">
         <f>IF($A53="","",C53/(Connfiguration!$B$2/1000000))</f>
-        <v>292.03334299432936</v>
+        <v>292.56349940074102</v>
       </c>
       <c r="E53">
         <v>785</v>
@@ -37169,41 +37213,49 @@
       </c>
       <c r="C54">
         <f t="shared" si="0"/>
-        <v>21124</v>
+        <v>21156</v>
       </c>
       <c r="D54" s="3">
         <f>IF($A54="","",C54/(Connfiguration!$B$2/1000000))</f>
-        <v>349.96949778250485</v>
+        <v>350.49965418891651</v>
       </c>
       <c r="E54">
-        <v>808</v>
+        <v>838</v>
       </c>
       <c r="F54">
         <f t="shared" si="1"/>
-        <v>4469</v>
+        <v>4499</v>
       </c>
       <c r="G54" s="3">
         <f>IF($A54="","",F54/(Connfiguration!$B$3/1000000))</f>
-        <v>66.63287062577345</v>
+        <v>67.080171167007109</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="1"/>
-      <c r="C55" t="str">
+      <c r="A55" s="1">
+        <v>43905</v>
+      </c>
+      <c r="B55">
+        <v>3590</v>
+      </c>
+      <c r="C55">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D55" s="3" t="str">
+        <v>24746</v>
+      </c>
+      <c r="D55" s="3">
         <f>IF($A55="","",C55/(Connfiguration!$B$2/1000000))</f>
-        <v/>
-      </c>
-      <c r="F55" t="str">
+        <v>409.97657603322597</v>
+      </c>
+      <c r="E55">
+        <v>924</v>
+      </c>
+      <c r="F55">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G55" s="3" t="str">
+        <v>5423</v>
+      </c>
+      <c r="G55" s="3">
         <f>IF($A55="","",F55/(Connfiguration!$B$3/1000000))</f>
-        <v/>
+        <v>80.857027837003685</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -38099,10 +38151,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52250498-B13A-3F44-9F82-349791E8BD3C}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="A15" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -38223,17 +38275,17 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>3</v>
       </c>
@@ -38241,12 +38293,33 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>4</v>
       </c>
       <c r="C20" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>43906</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/COVID-19 Australia.xlsx
+++ b/COVID-19 Australia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcus/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{6CCA0AA6-BAE3-3D4A-8955-DBC2CBE532BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5F880F9B-FE95-F942-90A6-17DBEB601C85}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{6CCA0AA6-BAE3-3D4A-8955-DBC2CBE532BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5B18281C-9C83-934D-A1C9-861D13E9EB2F}"/>
   <bookViews>
     <workbookView xWindow="2580" yWindow="460" windowWidth="34260" windowHeight="23540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="112">
   <si>
     <t>Date</t>
   </si>
@@ -397,6 +397,9 @@
   <si>
     <t xml:space="preserve">Massage the recovered cases to get the numbers to match. </t>
   </si>
+  <si>
+    <t>Update data for today. Note: SA reported 2 cases, but the totals jumped by 3</t>
+  </si>
 </sst>
 </file>
 
@@ -737,7 +740,7 @@
                   <c:v>43906</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>#N/A</c:v>
+                  <c:v>43907</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>#N/A</c:v>
@@ -1040,7 +1043,7 @@
                   <c:v>377</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
+                  <c:v>455</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>0</c:v>
@@ -1598,7 +1601,7 @@
                   <c:v>43906</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>#N/A</c:v>
+                  <c:v>43907</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>#N/A</c:v>
@@ -1901,7 +1904,7 @@
                   <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>0</c:v>
@@ -2491,7 +2494,7 @@
                   <c:v>43906</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>#N/A</c:v>
+                  <c:v>43907</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>#N/A</c:v>
@@ -2794,7 +2797,7 @@
                   <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
+                  <c:v>245</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>0</c:v>
@@ -3383,7 +3386,7 @@
                   <c:v>43906</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>#N/A</c:v>
+                  <c:v>43907</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>#N/A</c:v>
@@ -3686,7 +3689,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>0</c:v>
@@ -4025,7 +4028,7 @@
                   <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>0</c:v>
@@ -4364,7 +4367,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>0</c:v>
@@ -4703,7 +4706,7 @@
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>0</c:v>
@@ -5042,7 +5045,7 @@
                   <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>0</c:v>
@@ -5381,7 +5384,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>0</c:v>
@@ -5722,7 +5725,7 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>0</c:v>
@@ -6063,7 +6066,7 @@
                   <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>0</c:v>
@@ -6650,7 +6653,7 @@
                   <c:v>43906</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>#N/A</c:v>
+                  <c:v>43907</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>#N/A</c:v>
@@ -6941,7 +6944,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>#N/A</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>#N/A</c:v>
@@ -6953,7 +6956,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>0</c:v>
@@ -7575,7 +7578,7 @@
                   <c:v>43906</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>#N/A</c:v>
+                  <c:v>43907</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>#N/A</c:v>
@@ -7878,7 +7881,7 @@
                   <c:v>343</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0</c:v>
+                  <c:v>421</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>0</c:v>
@@ -12394,10 +12397,10 @@
   <dimension ref="A1:AA94"/>
   <sheetViews>
     <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="Y51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="O49" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
       <selection pane="topRight" activeCell="R1" sqref="R1"/>
-      <selection pane="bottomRight" activeCell="AA50" sqref="AA50"/>
+      <selection pane="bottomRight" activeCell="AA57" sqref="AA57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13146,8 +13149,25 @@
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A56" s="1"/>
+      <c r="A56" s="1">
+        <v>43907</v>
+      </c>
       <c r="B56" s="1"/>
+      <c r="F56">
+        <v>39</v>
+      </c>
+      <c r="L56">
+        <v>3</v>
+      </c>
+      <c r="O56">
+        <v>10</v>
+      </c>
+      <c r="U56">
+        <v>3</v>
+      </c>
+      <c r="X56">
+        <v>23</v>
+      </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
@@ -13321,10 +13341,10 @@
   <dimension ref="A1:BD143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C51" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="AY31" sqref="AY31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -24909,9 +24929,9 @@
         <f t="shared" si="21"/>
         <v>0.36666666666666664</v>
       </c>
-      <c r="AY52" t="e">
+      <c r="AY52">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="AZ52" s="3">
         <f>IF(_xlfn.IFNA($A52,"")="","",AC52/(Connfiguration!$B$1/1000000))</f>
@@ -25613,229 +25633,229 @@
       </c>
     </row>
     <row r="56" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="e">
+      <c r="A56" s="1">
         <f>IF(OR(Daily!$A56="",Daily!$B56="*"),NA(),Daily!A56)</f>
+        <v>43907</v>
+      </c>
+      <c r="B56">
+        <f>IF(_xlfn.IFNA($A56,"")="","",Daily!C56+IF(ROW(A56)&gt;4,B55,0))</f>
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <f>IF(_xlfn.IFNA($A56,"")="","",Daily!D56+IF(ROW(B56)&gt;4,C55,0))</f>
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <f>IF(_xlfn.IFNA($A56,"")="","",Daily!E56+IF(ROW(C56)&gt;4,D55,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <f>IF(_xlfn.IFNA($A56,"")="","",Daily!F56+IF(ROW(D56)&gt;4,E55,0))</f>
+        <v>210</v>
+      </c>
+      <c r="F56">
+        <f>IF(_xlfn.IFNA($A56,"")="","",Daily!G56+IF(ROW(E56)&gt;4,F55,0))</f>
+        <v>4</v>
+      </c>
+      <c r="G56">
+        <f>IF(_xlfn.IFNA($A56,"")="","",Daily!H56+IF(ROW(F56)&gt;4,G55,0))</f>
+        <v>4</v>
+      </c>
+      <c r="H56">
+        <f>IF(_xlfn.IFNA($A56,"")="","",Daily!I56+IF(ROW(G56)&gt;4,H55,0))</f>
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <f>IF(_xlfn.IFNA($A56,"")="","",Daily!J56+IF(ROW(H56)&gt;4,I55,0))</f>
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <f>IF(_xlfn.IFNA($A56,"")="","",Daily!K56+IF(ROW(I56)&gt;4,J55,0))</f>
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <f>IF(_xlfn.IFNA($A56,"")="","",Daily!L56+IF(ROW(J56)&gt;4,K55,0))</f>
+        <v>32</v>
+      </c>
+      <c r="L56">
+        <f>IF(_xlfn.IFNA($A56,"")="","",Daily!M56+IF(ROW(K56)&gt;4,L55,0))</f>
+        <v>9</v>
+      </c>
+      <c r="M56">
+        <f>IF(_xlfn.IFNA($A56,"")="","",Daily!N56+IF(ROW(L56)&gt;4,M55,0))</f>
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <f>IF(_xlfn.IFNA($A56,"")="","",Daily!O56+IF(ROW(M56)&gt;4,N55,0))</f>
+        <v>78</v>
+      </c>
+      <c r="O56">
+        <f>IF(_xlfn.IFNA($A56,"")="","",Daily!P56+IF(ROW(N56)&gt;4,O55,0))</f>
+        <v>8</v>
+      </c>
+      <c r="P56">
+        <f>IF(_xlfn.IFNA($A56,"")="","",Daily!Q56+IF(ROW(O56)&gt;4,P55,0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <f>IF(_xlfn.IFNA($A56,"")="","",Daily!R56+IF(ROW(P56)&gt;4,Q55,0))</f>
+        <v>7</v>
+      </c>
+      <c r="R56">
+        <f>IF(_xlfn.IFNA($A56,"")="","",Daily!S56+IF(ROW(Q56)&gt;4,R55,0))</f>
+        <v>1</v>
+      </c>
+      <c r="S56">
+        <f>IF(_xlfn.IFNA($A56,"")="","",Daily!T56+IF(ROW(R56)&gt;4,S55,0))</f>
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <f>IF(_xlfn.IFNA($A56,"")="","",Daily!U56+IF(ROW(S56)&gt;4,T55,0))</f>
+        <v>31</v>
+      </c>
+      <c r="U56">
+        <f>IF(_xlfn.IFNA($A56,"")="","",Daily!V56+IF(ROW(T56)&gt;4,U55,0))</f>
+        <v>0</v>
+      </c>
+      <c r="V56">
+        <f>IF(_xlfn.IFNA($A56,"")="","",Daily!W56+IF(ROW(U56)&gt;4,V55,0))</f>
+        <v>1</v>
+      </c>
+      <c r="W56">
+        <f>IF(_xlfn.IFNA($A56,"")="","",Daily!X56+IF(ROW(V56)&gt;4,W55,0))</f>
+        <v>94</v>
+      </c>
+      <c r="X56">
+        <f>IF(_xlfn.IFNA($A56,"")="","",Daily!Y56+IF(ROW(W56)&gt;4,X55,0))</f>
+        <v>7</v>
+      </c>
+      <c r="Y56">
+        <f>IF(_xlfn.IFNA($A56,"")="","",Daily!Z56+IF(ROW(X56)&gt;4,Y55,0))</f>
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <f>IF(_xlfn.IFNA($A56,"")="","",Daily!C56+Daily!F56+Daily!I56+Daily!L56+Daily!O56+Daily!R56+Daily!U56+Daily!X56)</f>
+        <v>78</v>
+      </c>
+      <c r="AA56">
+        <f>IF(_xlfn.IFNA($A56,"")="","",Daily!D56+Daily!G56+Daily!J56+Daily!M56+Daily!P56+Daily!S56+Daily!V56+Daily!Y56+Daily!AA56)</f>
+        <v>0</v>
+      </c>
+      <c r="AB56">
+        <f>IF(_xlfn.IFNA($A56,"")="","",Daily!E56+Daily!H56+Daily!K56+Daily!N56+Daily!Q56+Daily!T56+Daily!W56+Daily!Z56)</f>
+        <v>0</v>
+      </c>
+      <c r="AC56">
+        <f t="shared" si="0"/>
+        <v>455</v>
+      </c>
+      <c r="AD56">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="AE56">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="AF56" s="5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AG56">
+        <f t="shared" si="4"/>
+        <v>421</v>
+      </c>
+      <c r="AH56">
+        <f t="shared" si="5"/>
+        <v>245</v>
+      </c>
+      <c r="AI56">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="AJ56">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AK56">
+        <f t="shared" si="8"/>
+        <v>219</v>
+      </c>
+      <c r="AL56" s="2">
+        <f t="shared" si="9"/>
+        <v>0.14705882352941177</v>
+      </c>
+      <c r="AM56" s="2">
+        <f t="shared" si="10"/>
+        <v>0.8529411764705882</v>
+      </c>
+      <c r="AN56" s="2">
+        <f t="shared" si="11"/>
+        <v>4.3956043956043956E-3</v>
+      </c>
+      <c r="AO56" s="2">
+        <f t="shared" si="12"/>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="AP56" s="2">
+        <f t="shared" si="13"/>
+        <v>2.1978021978021978E-3</v>
+      </c>
+      <c r="AQ56" s="2">
+        <f t="shared" si="14"/>
+        <v>7.032967032967033E-2</v>
+      </c>
+      <c r="AR56" s="2">
+        <f t="shared" si="15"/>
+        <v>0.17142857142857143</v>
+      </c>
+      <c r="AS56" s="2">
+        <f t="shared" si="16"/>
+        <v>1.5384615384615385E-2</v>
+      </c>
+      <c r="AT56" s="2">
+        <f t="shared" si="17"/>
+        <v>6.8131868131868126E-2</v>
+      </c>
+      <c r="AU56" s="2">
+        <f t="shared" si="18"/>
+        <v>0.20659340659340658</v>
+      </c>
+      <c r="AV56" s="3">
+        <f t="shared" ca="1" si="19"/>
+        <v>48.857142857142854</v>
+      </c>
+      <c r="AW56" s="2">
+        <f t="shared" si="20"/>
+        <v>0.20689655172413793</v>
+      </c>
+      <c r="AX56" s="2">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AY56" t="e">
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
-      <c r="B56" t="str">
-        <f>IF(_xlfn.IFNA($A56,"")="","",Daily!C56+IF(ROW(A56)&gt;4,B55,0))</f>
-        <v/>
-      </c>
-      <c r="C56" t="str">
-        <f>IF(_xlfn.IFNA($A56,"")="","",Daily!D56+IF(ROW(B56)&gt;4,C55,0))</f>
-        <v/>
-      </c>
-      <c r="D56" t="str">
-        <f>IF(_xlfn.IFNA($A56,"")="","",Daily!E56+IF(ROW(C56)&gt;4,D55,0))</f>
-        <v/>
-      </c>
-      <c r="E56" t="str">
-        <f>IF(_xlfn.IFNA($A56,"")="","",Daily!F56+IF(ROW(D56)&gt;4,E55,0))</f>
-        <v/>
-      </c>
-      <c r="F56" t="str">
-        <f>IF(_xlfn.IFNA($A56,"")="","",Daily!G56+IF(ROW(E56)&gt;4,F55,0))</f>
-        <v/>
-      </c>
-      <c r="G56" t="str">
-        <f>IF(_xlfn.IFNA($A56,"")="","",Daily!H56+IF(ROW(F56)&gt;4,G55,0))</f>
-        <v/>
-      </c>
-      <c r="H56" t="str">
-        <f>IF(_xlfn.IFNA($A56,"")="","",Daily!I56+IF(ROW(G56)&gt;4,H55,0))</f>
-        <v/>
-      </c>
-      <c r="I56" t="str">
-        <f>IF(_xlfn.IFNA($A56,"")="","",Daily!J56+IF(ROW(H56)&gt;4,I55,0))</f>
-        <v/>
-      </c>
-      <c r="J56" t="str">
-        <f>IF(_xlfn.IFNA($A56,"")="","",Daily!K56+IF(ROW(I56)&gt;4,J55,0))</f>
-        <v/>
-      </c>
-      <c r="K56" t="str">
-        <f>IF(_xlfn.IFNA($A56,"")="","",Daily!L56+IF(ROW(J56)&gt;4,K55,0))</f>
-        <v/>
-      </c>
-      <c r="L56" t="str">
-        <f>IF(_xlfn.IFNA($A56,"")="","",Daily!M56+IF(ROW(K56)&gt;4,L55,0))</f>
-        <v/>
-      </c>
-      <c r="M56" t="str">
-        <f>IF(_xlfn.IFNA($A56,"")="","",Daily!N56+IF(ROW(L56)&gt;4,M55,0))</f>
-        <v/>
-      </c>
-      <c r="N56" t="str">
-        <f>IF(_xlfn.IFNA($A56,"")="","",Daily!O56+IF(ROW(M56)&gt;4,N55,0))</f>
-        <v/>
-      </c>
-      <c r="O56" t="str">
-        <f>IF(_xlfn.IFNA($A56,"")="","",Daily!P56+IF(ROW(N56)&gt;4,O55,0))</f>
-        <v/>
-      </c>
-      <c r="P56" t="str">
-        <f>IF(_xlfn.IFNA($A56,"")="","",Daily!Q56+IF(ROW(O56)&gt;4,P55,0))</f>
-        <v/>
-      </c>
-      <c r="Q56" t="str">
-        <f>IF(_xlfn.IFNA($A56,"")="","",Daily!R56+IF(ROW(P56)&gt;4,Q55,0))</f>
-        <v/>
-      </c>
-      <c r="R56" t="str">
-        <f>IF(_xlfn.IFNA($A56,"")="","",Daily!S56+IF(ROW(Q56)&gt;4,R55,0))</f>
-        <v/>
-      </c>
-      <c r="S56" t="str">
-        <f>IF(_xlfn.IFNA($A56,"")="","",Daily!T56+IF(ROW(R56)&gt;4,S55,0))</f>
-        <v/>
-      </c>
-      <c r="T56" t="str">
-        <f>IF(_xlfn.IFNA($A56,"")="","",Daily!U56+IF(ROW(S56)&gt;4,T55,0))</f>
-        <v/>
-      </c>
-      <c r="U56" t="str">
-        <f>IF(_xlfn.IFNA($A56,"")="","",Daily!V56+IF(ROW(T56)&gt;4,U55,0))</f>
-        <v/>
-      </c>
-      <c r="V56" t="str">
-        <f>IF(_xlfn.IFNA($A56,"")="","",Daily!W56+IF(ROW(U56)&gt;4,V55,0))</f>
-        <v/>
-      </c>
-      <c r="W56" t="str">
-        <f>IF(_xlfn.IFNA($A56,"")="","",Daily!X56+IF(ROW(V56)&gt;4,W55,0))</f>
-        <v/>
-      </c>
-      <c r="X56" t="str">
-        <f>IF(_xlfn.IFNA($A56,"")="","",Daily!Y56+IF(ROW(W56)&gt;4,X55,0))</f>
-        <v/>
-      </c>
-      <c r="Y56" t="str">
-        <f>IF(_xlfn.IFNA($A56,"")="","",Daily!Z56+IF(ROW(X56)&gt;4,Y55,0))</f>
-        <v/>
-      </c>
-      <c r="Z56" t="str">
-        <f>IF(_xlfn.IFNA($A56,"")="","",Daily!C56+Daily!F56+Daily!I56+Daily!L56+Daily!O56+Daily!R56+Daily!U56+Daily!X56)</f>
-        <v/>
-      </c>
-      <c r="AA56" t="str">
-        <f>IF(_xlfn.IFNA($A56,"")="","",Daily!D56+Daily!G56+Daily!J56+Daily!M56+Daily!P56+Daily!S56+Daily!V56+Daily!Y56+Daily!AA56)</f>
-        <v/>
-      </c>
-      <c r="AB56" t="str">
-        <f>IF(_xlfn.IFNA($A56,"")="","",Daily!E56+Daily!H56+Daily!K56+Daily!N56+Daily!Q56+Daily!T56+Daily!W56+Daily!Z56)</f>
-        <v/>
-      </c>
-      <c r="AC56" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AD56" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AE56" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AF56" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AG56" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AH56" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AI56" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AJ56" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AK56" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AL56" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AM56" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AN56" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AO56" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AP56" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AQ56" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="AR56" s="2" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AS56" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="AT56" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AU56" s="2" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="AV56" s="3" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AW56" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="AX56" s="2" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AY56" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="AZ56" s="3" t="str">
+      <c r="AZ56" s="3">
         <f>IF(_xlfn.IFNA($A56,"")="","",AC56/(Connfiguration!$B$1/1000000))</f>
-        <v/>
-      </c>
-      <c r="BA56" t="str" cm="1">
+        <v>17.938598739172775</v>
+      </c>
+      <c r="BA56" cm="1">
         <f t="array" ref="BA56">IF(OR(_xlfn.IFNA($A56,"")="", ROW()&lt;=3),"",$A56-_xlfn.XLOOKUP(AC56,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
-      <c r="BB56" t="str" cm="1">
+        <v>19</v>
+      </c>
+      <c r="BB56" cm="1">
         <f t="array" ref="BB56">IF(OR(_xlfn.IFNA($A56,"")="", ROW()&lt;=3),"",$A56-_xlfn.XLOOKUP(AZ56,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
-      <c r="BC56" t="str" cm="1">
+        <v>17</v>
+      </c>
+      <c r="BC56" cm="1">
         <f t="array" ref="BC56">IF(OR(_xlfn.IFNA($A56,"")="", ROW()&lt;=3),"",$A56-_xlfn.XLOOKUP(AC56,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
-      <c r="BD56" t="str" cm="1">
+        <v>11</v>
+      </c>
+      <c r="BD56" cm="1">
         <f t="array" ref="BD56">IF(OR(_xlfn.IFNA($A56,"")="", ROW()&lt;=3),"",$A56-_xlfn.XLOOKUP(AZ56,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:56" x14ac:dyDescent="0.2">
@@ -38151,10 +38171,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52250498-B13A-3F44-9F82-349791E8BD3C}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView topLeftCell="A15" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:C23"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -38320,6 +38340,17 @@
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>43907</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/COVID-19 Australia.xlsx
+++ b/COVID-19 Australia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10301"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcus/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcus/Developer/AusCovid-19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{6CCA0AA6-BAE3-3D4A-8955-DBC2CBE532BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5B18281C-9C83-934D-A1C9-861D13E9EB2F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AF1E4C-F52E-9B44-82FB-742CBBA73A2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="460" windowWidth="34260" windowHeight="23540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2580" yWindow="460" windowWidth="34260" windowHeight="23540" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="11" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="115">
   <si>
     <t>Date</t>
   </si>
@@ -400,6 +400,15 @@
   <si>
     <t>Update data for today. Note: SA reported 2 cases, but the totals jumped by 3</t>
   </si>
+  <si>
+    <t>Days since half</t>
+  </si>
+  <si>
+    <t>Update data for today</t>
+  </si>
+  <si>
+    <t>Add Days since half statistic</t>
+  </si>
 </sst>
 </file>
 
@@ -743,7 +752,7 @@
                   <c:v>43907</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>#N/A</c:v>
+                  <c:v>43908</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>#N/A</c:v>
@@ -1046,7 +1055,7 @@
                   <c:v>455</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0</c:v>
+                  <c:v>568</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>0</c:v>
@@ -1349,11 +1358,6 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -1604,7 +1608,7 @@
                   <c:v>43907</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>#N/A</c:v>
+                  <c:v>43908</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>#N/A</c:v>
@@ -1907,7 +1911,7 @@
                   <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>0</c:v>
@@ -2241,11 +2245,6 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -2497,7 +2496,7 @@
                   <c:v>43907</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>#N/A</c:v>
+                  <c:v>43908</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>#N/A</c:v>
@@ -2800,7 +2799,7 @@
                   <c:v>245</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0</c:v>
+                  <c:v>301</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>0</c:v>
@@ -3103,11 +3102,6 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -3389,7 +3383,7 @@
                   <c:v>43907</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>#N/A</c:v>
+                  <c:v>43908</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>#N/A</c:v>
@@ -3692,7 +3686,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>0</c:v>
@@ -4031,7 +4025,7 @@
                   <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0</c:v>
+                  <c:v>267</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>0</c:v>
@@ -4370,7 +4364,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>0</c:v>
@@ -4709,7 +4703,7 @@
                   <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>0</c:v>
@@ -5048,7 +5042,7 @@
                   <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>0</c:v>
@@ -5387,7 +5381,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>0</c:v>
@@ -5728,7 +5722,7 @@
                   <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>0</c:v>
@@ -6069,7 +6063,7 @@
                   <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>0</c:v>
@@ -6403,11 +6397,6 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -6656,7 +6645,7 @@
                   <c:v>43907</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>#N/A</c:v>
+                  <c:v>43908</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>#N/A</c:v>
@@ -6947,7 +6936,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>#N/A</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>#N/A</c:v>
@@ -6959,7 +6948,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>0</c:v>
@@ -7293,11 +7282,6 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -7581,7 +7565,7 @@
                   <c:v>43907</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>#N/A</c:v>
+                  <c:v>43908</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>#N/A</c:v>
@@ -7884,7 +7868,7 @@
                   <c:v>421</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0</c:v>
+                  <c:v>519</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>0</c:v>
@@ -8187,11 +8171,6 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -12085,12 +12064,12 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.50390625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="122.8203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.90234375" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="122.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.83203125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -12204,7 +12183,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -12310,7 +12289,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>106</v>
       </c>
@@ -12321,7 +12300,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>26</v>
       </c>
@@ -12332,7 +12311,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="68.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>72</v>
       </c>
@@ -12346,7 +12325,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="68.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>80</v>
       </c>
@@ -12397,18 +12376,18 @@
   <dimension ref="A1:AA94"/>
   <sheetViews>
     <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="O49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R1" sqref="R1"/>
       <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
-      <selection pane="topRight" activeCell="R1" sqref="R1"/>
       <selection pane="bottomRight" activeCell="AA57" sqref="AA57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.625" customWidth="1"/>
-    <col min="19" max="19" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.6484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="19" max="19" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
@@ -12980,7 +12959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>43900</v>
       </c>
@@ -12995,7 +12974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>43901</v>
       </c>
@@ -13019,7 +12998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>43902</v>
       </c>
@@ -13040,7 +13019,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>43903</v>
       </c>
@@ -13067,7 +13046,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>43904</v>
       </c>
@@ -13094,7 +13073,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>43905</v>
       </c>
@@ -13124,7 +13103,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>43906</v>
       </c>
@@ -13148,7 +13127,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>43907</v>
       </c>
@@ -13169,35 +13148,64 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A57" s="1"/>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>43908</v>
+      </c>
       <c r="B57" s="1"/>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>57</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>5</v>
+      </c>
+      <c r="O57">
+        <v>16</v>
+      </c>
+      <c r="R57">
+        <v>3</v>
+      </c>
+      <c r="U57">
+        <v>4</v>
+      </c>
+      <c r="X57">
+        <v>27</v>
+      </c>
+      <c r="AA57">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
     </row>
@@ -13338,70 +13346,71 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00CE068C-1164-624A-A0B4-3FDF7F131C48}">
-  <dimension ref="A1:BD143"/>
+  <dimension ref="A1:BE143"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C51" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="AI3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomRight" activeCell="AY31" sqref="AY31"/>
+      <selection pane="bottomRight" activeCell="BF1" sqref="BF1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.53125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.55078125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.55078125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.6484375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.55078125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.6484375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.55078125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.6484375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.55078125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.6484375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.55078125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.6484375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.55078125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.6484375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.55078125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.6484375" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="5.6484375" customWidth="1"/>
-    <col min="29" max="29" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.55078125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="5.6484375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.10546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.22265625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.55078125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="5.6484375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="10.22265625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="6.9921875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="9.68359375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="4.03515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="4.83984375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="3.49609375" bestFit="1" customWidth="1"/>
-    <col min="43" max="44" width="4.4375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="3.49609375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="3.62890625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="5.78125" customWidth="1"/>
-    <col min="48" max="48" width="11.43359375" style="3" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="8.609375" bestFit="1" customWidth="1"/>
-    <col min="50" max="51" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="23" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="5.6640625" customWidth="1"/>
+    <col min="29" max="29" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="7" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="4" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="5.83203125" customWidth="1"/>
+    <col min="48" max="48" width="11.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="51" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="12.83203125" customWidth="1"/>
+    <col min="53" max="53" width="23" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13492,22 +13501,23 @@
       <c r="AX1" t="s">
         <v>17</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AY1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="AZ1" s="10"/>
+      <c r="BA1" t="s">
         <v>68</v>
       </c>
-      <c r="BA1" s="10" t="s">
+      <c r="BB1" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="BB1" s="10"/>
-      <c r="BC1" s="10" t="s">
+      <c r="BC1" s="10"/>
+      <c r="BD1" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="BD1" s="10"/>
-    </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="BE1" s="10"/>
+    </row>
+    <row r="2" spans="1:57" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>6</v>
       </c>
@@ -13641,20 +13651,26 @@
       <c r="AU2" t="s">
         <v>43</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="AY2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>112</v>
+      </c>
+      <c r="BB2" t="s">
         <v>75</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BC2" t="s">
         <v>76</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BD2" t="s">
         <v>75</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BE2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <f>IF(OR(Daily!$A3="",Daily!$B3="*"),NA(),Daily!A3)</f>
         <v>43854</v>
@@ -13859,28 +13875,32 @@
         <f>IF(OR(_xlfn.IFNA($A3,"")="",AC3=0),"",_xlfn.XLOOKUP(AC3*2,AC$3:AC$2000,A$3:A$2000,NA(),1,1)-A3)</f>
         <v/>
       </c>
-      <c r="AZ3" s="3">
+      <c r="AZ3" t="str">
+        <f>IF(OR(_xlfn.IFNA($A3,"")="",AC3=0),"",A3-_xlfn.XLOOKUP(AC3/2,AC$3:AC$2000,A$3:A$2000,NA(),-1,-1))</f>
+        <v/>
+      </c>
+      <c r="BA3" s="3">
         <f>IF(_xlfn.IFNA($A3,"")="","",AC3/(Connfiguration!$B$1/1000000))</f>
         <v>0</v>
       </c>
-      <c r="BA3" t="str" cm="1">
-        <f t="array" ref="BA3">IF(OR(_xlfn.IFNA($A3,"")="", ROW()&lt;=3),"",$A3-_xlfn.XLOOKUP(AC3,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
       <c r="BB3" t="str" cm="1">
-        <f t="array" ref="BB3">IF(OR(_xlfn.IFNA($A3,"")="", ROW()&lt;=3),"",$A3-_xlfn.XLOOKUP(AZ3,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BB3">IF(OR(_xlfn.IFNA($A3,"")="", ROW()&lt;=3),"",$A3-_xlfn.XLOOKUP(AC3,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BC3" t="str" cm="1">
-        <f t="array" ref="BC3">IF(OR(_xlfn.IFNA($A3,"")="", ROW()&lt;=3),"",$A3-_xlfn.XLOOKUP(AC3,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BC3">IF(OR(_xlfn.IFNA($A3,"")="", ROW()&lt;=3),"",$A3-_xlfn.XLOOKUP(BA3,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BD3" t="str" cm="1">
-        <f t="array" ref="BD3">IF(OR(_xlfn.IFNA($A3,"")="", ROW()&lt;=3),"",$A3-_xlfn.XLOOKUP(AZ3,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.2">
+        <f t="array" ref="BD3">IF(OR(_xlfn.IFNA($A3,"")="", ROW()&lt;=3),"",$A3-_xlfn.XLOOKUP(AC3,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BE3" t="str" cm="1">
+        <f t="array" ref="BE3">IF(OR(_xlfn.IFNA($A3,"")="", ROW()&lt;=3),"",$A3-_xlfn.XLOOKUP(BA3,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <f>IF(OR(Daily!$A4="",Daily!$B4="*"),NA(),Daily!A4)</f>
         <v>43855</v>
@@ -14085,28 +14105,32 @@
         <f t="shared" ref="AY4:AY67" si="22">IF(OR(_xlfn.IFNA($A4,"")="",AC4=0),"",_xlfn.XLOOKUP(AC4*2,AC$3:AC$2000,A$3:A$2000,NA(),1,1)-A4)</f>
         <v>5</v>
       </c>
-      <c r="AZ4" s="3">
+      <c r="AZ4">
+        <f t="shared" ref="AZ4:AZ67" si="23">IF(OR(_xlfn.IFNA($A4,"")="",AC4=0),"",A4-_xlfn.XLOOKUP(AC4/2,AC$3:AC$2000,A$3:A$2000,NA(),-1,-1))</f>
+        <v>1</v>
+      </c>
+      <c r="BA4" s="3">
         <f>IF(_xlfn.IFNA($A4,"")="","",AC4/(Connfiguration!$B$1/1000000))</f>
         <v>0.15770196693778263</v>
       </c>
-      <c r="BA4" cm="1">
-        <f t="array" ref="BA4">IF(OR(_xlfn.IFNA($A4,"")="", ROW()&lt;=3),"",$A4-_xlfn.XLOOKUP(AC4,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BB4" cm="1">
+        <f t="array" ref="BB4">IF(OR(_xlfn.IFNA($A4,"")="", ROW()&lt;=3),"",$A4-_xlfn.XLOOKUP(AC4,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-27</v>
       </c>
-      <c r="BB4" cm="1">
-        <f t="array" ref="BB4">IF(OR(_xlfn.IFNA($A4,"")="", ROW()&lt;=3),"",$A4-_xlfn.XLOOKUP(AZ4,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BC4" cm="1">
+        <f t="array" ref="BC4">IF(OR(_xlfn.IFNA($A4,"")="", ROW()&lt;=3),"",$A4-_xlfn.XLOOKUP(BA4,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-27</v>
       </c>
-      <c r="BC4" cm="1">
-        <f t="array" ref="BC4">IF(OR(_xlfn.IFNA($A4,"")="", ROW()&lt;=3),"",$A4-_xlfn.XLOOKUP(AC4,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BD4" cm="1">
+        <f t="array" ref="BD4">IF(OR(_xlfn.IFNA($A4,"")="", ROW()&lt;=3),"",$A4-_xlfn.XLOOKUP(AC4,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-3</v>
       </c>
-      <c r="BD4" cm="1">
-        <f t="array" ref="BD4">IF(OR(_xlfn.IFNA($A4,"")="", ROW()&lt;=3),"",$A4-_xlfn.XLOOKUP(AZ4,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BE4" cm="1">
+        <f t="array" ref="BE4">IF(OR(_xlfn.IFNA($A4,"")="", ROW()&lt;=3),"",$A4-_xlfn.XLOOKUP(BA4,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <f>IF(OR(Daily!$A5="",Daily!$B5="*"),NA(),Daily!A5)</f>
         <v>43856</v>
@@ -14311,28 +14335,32 @@
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="AZ5" s="3">
+      <c r="AZ5">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="BA5" s="3">
         <f>IF(_xlfn.IFNA($A5,"")="","",AC5/(Connfiguration!$B$1/1000000))</f>
         <v>0.15770196693778263</v>
       </c>
-      <c r="BA5" cm="1">
-        <f t="array" ref="BA5">IF(OR(_xlfn.IFNA($A5,"")="", ROW()&lt;=3),"",$A5-_xlfn.XLOOKUP(AC5,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BB5" cm="1">
+        <f t="array" ref="BB5">IF(OR(_xlfn.IFNA($A5,"")="", ROW()&lt;=3),"",$A5-_xlfn.XLOOKUP(AC5,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-26</v>
       </c>
-      <c r="BB5" cm="1">
-        <f t="array" ref="BB5">IF(OR(_xlfn.IFNA($A5,"")="", ROW()&lt;=3),"",$A5-_xlfn.XLOOKUP(AZ5,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BC5" cm="1">
+        <f t="array" ref="BC5">IF(OR(_xlfn.IFNA($A5,"")="", ROW()&lt;=3),"",$A5-_xlfn.XLOOKUP(BA5,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-26</v>
       </c>
-      <c r="BC5" cm="1">
-        <f t="array" ref="BC5">IF(OR(_xlfn.IFNA($A5,"")="", ROW()&lt;=3),"",$A5-_xlfn.XLOOKUP(AC5,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BD5" cm="1">
+        <f t="array" ref="BD5">IF(OR(_xlfn.IFNA($A5,"")="", ROW()&lt;=3),"",$A5-_xlfn.XLOOKUP(AC5,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-2</v>
       </c>
-      <c r="BD5" cm="1">
-        <f t="array" ref="BD5">IF(OR(_xlfn.IFNA($A5,"")="", ROW()&lt;=3),"",$A5-_xlfn.XLOOKUP(AZ5,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BE5" cm="1">
+        <f t="array" ref="BE5">IF(OR(_xlfn.IFNA($A5,"")="", ROW()&lt;=3),"",$A5-_xlfn.XLOOKUP(BA5,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <f>IF(OR(Daily!$A6="",Daily!$B6="*"),NA(),Daily!A6)</f>
         <v>43857</v>
@@ -14537,28 +14565,32 @@
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="AZ6" s="3">
+      <c r="AZ6">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="BA6" s="3">
         <f>IF(_xlfn.IFNA($A6,"")="","",AC6/(Connfiguration!$B$1/1000000))</f>
         <v>0.19712745867222828</v>
       </c>
-      <c r="BA6" cm="1">
-        <f t="array" ref="BA6">IF(OR(_xlfn.IFNA($A6,"")="", ROW()&lt;=3),"",$A6-_xlfn.XLOOKUP(AC6,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BB6" cm="1">
+        <f t="array" ref="BB6">IF(OR(_xlfn.IFNA($A6,"")="", ROW()&lt;=3),"",$A6-_xlfn.XLOOKUP(AC6,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-25</v>
       </c>
-      <c r="BB6" cm="1">
-        <f t="array" ref="BB6">IF(OR(_xlfn.IFNA($A6,"")="", ROW()&lt;=3),"",$A6-_xlfn.XLOOKUP(AZ6,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BC6" cm="1">
+        <f t="array" ref="BC6">IF(OR(_xlfn.IFNA($A6,"")="", ROW()&lt;=3),"",$A6-_xlfn.XLOOKUP(BA6,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-25</v>
       </c>
-      <c r="BC6" cm="1">
-        <f t="array" ref="BC6">IF(OR(_xlfn.IFNA($A6,"")="", ROW()&lt;=3),"",$A6-_xlfn.XLOOKUP(AC6,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BD6" cm="1">
+        <f t="array" ref="BD6">IF(OR(_xlfn.IFNA($A6,"")="", ROW()&lt;=3),"",$A6-_xlfn.XLOOKUP(AC6,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-2</v>
       </c>
-      <c r="BD6" cm="1">
-        <f t="array" ref="BD6">IF(OR(_xlfn.IFNA($A6,"")="", ROW()&lt;=3),"",$A6-_xlfn.XLOOKUP(AZ6,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BE6" cm="1">
+        <f t="array" ref="BE6">IF(OR(_xlfn.IFNA($A6,"")="", ROW()&lt;=3),"",$A6-_xlfn.XLOOKUP(BA6,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <f>IF(OR(Daily!$A7="",Daily!$B7="*"),NA(),Daily!A7)</f>
         <v>43858</v>
@@ -14763,28 +14795,32 @@
         <f t="shared" si="22"/>
         <v>3</v>
       </c>
-      <c r="AZ7" s="3">
+      <c r="AZ7">
+        <f t="shared" si="23"/>
+        <v>4</v>
+      </c>
+      <c r="BA7" s="3">
         <f>IF(_xlfn.IFNA($A7,"")="","",AC7/(Connfiguration!$B$1/1000000))</f>
         <v>0.19712745867222828</v>
       </c>
-      <c r="BA7" cm="1">
-        <f t="array" ref="BA7">IF(OR(_xlfn.IFNA($A7,"")="", ROW()&lt;=3),"",$A7-_xlfn.XLOOKUP(AC7,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BB7" cm="1">
+        <f t="array" ref="BB7">IF(OR(_xlfn.IFNA($A7,"")="", ROW()&lt;=3),"",$A7-_xlfn.XLOOKUP(AC7,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-24</v>
       </c>
-      <c r="BB7" cm="1">
-        <f t="array" ref="BB7">IF(OR(_xlfn.IFNA($A7,"")="", ROW()&lt;=3),"",$A7-_xlfn.XLOOKUP(AZ7,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BC7" cm="1">
+        <f t="array" ref="BC7">IF(OR(_xlfn.IFNA($A7,"")="", ROW()&lt;=3),"",$A7-_xlfn.XLOOKUP(BA7,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-24</v>
       </c>
-      <c r="BC7" cm="1">
-        <f t="array" ref="BC7">IF(OR(_xlfn.IFNA($A7,"")="", ROW()&lt;=3),"",$A7-_xlfn.XLOOKUP(AC7,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BD7" cm="1">
+        <f t="array" ref="BD7">IF(OR(_xlfn.IFNA($A7,"")="", ROW()&lt;=3),"",$A7-_xlfn.XLOOKUP(AC7,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-1</v>
       </c>
-      <c r="BD7" cm="1">
-        <f t="array" ref="BD7">IF(OR(_xlfn.IFNA($A7,"")="", ROW()&lt;=3),"",$A7-_xlfn.XLOOKUP(AZ7,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BE7" cm="1">
+        <f t="array" ref="BE7">IF(OR(_xlfn.IFNA($A7,"")="", ROW()&lt;=3),"",$A7-_xlfn.XLOOKUP(BA7,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <f>IF(OR(Daily!$A8="",Daily!$B8="*"),NA(),Daily!A8)</f>
         <v>43859</v>
@@ -14989,28 +15025,32 @@
         <f t="shared" si="22"/>
         <v>7</v>
       </c>
-      <c r="AZ8" s="3">
+      <c r="AZ8">
+        <f t="shared" si="23"/>
+        <v>5</v>
+      </c>
+      <c r="BA8" s="3">
         <f>IF(_xlfn.IFNA($A8,"")="","",AC8/(Connfiguration!$B$1/1000000))</f>
         <v>0.27597844214111961</v>
       </c>
-      <c r="BA8" cm="1">
-        <f t="array" ref="BA8">IF(OR(_xlfn.IFNA($A8,"")="", ROW()&lt;=3),"",$A8-_xlfn.XLOOKUP(AC8,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BB8" cm="1">
+        <f t="array" ref="BB8">IF(OR(_xlfn.IFNA($A8,"")="", ROW()&lt;=3),"",$A8-_xlfn.XLOOKUP(AC8,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-23</v>
       </c>
-      <c r="BB8" cm="1">
-        <f t="array" ref="BB8">IF(OR(_xlfn.IFNA($A8,"")="", ROW()&lt;=3),"",$A8-_xlfn.XLOOKUP(AZ8,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BC8" cm="1">
+        <f t="array" ref="BC8">IF(OR(_xlfn.IFNA($A8,"")="", ROW()&lt;=3),"",$A8-_xlfn.XLOOKUP(BA8,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-23</v>
       </c>
-      <c r="BC8" cm="1">
-        <f t="array" ref="BC8">IF(OR(_xlfn.IFNA($A8,"")="", ROW()&lt;=3),"",$A8-_xlfn.XLOOKUP(AC8,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BD8" cm="1">
+        <f t="array" ref="BD8">IF(OR(_xlfn.IFNA($A8,"")="", ROW()&lt;=3),"",$A8-_xlfn.XLOOKUP(AC8,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-10</v>
       </c>
-      <c r="BD8" cm="1">
-        <f t="array" ref="BD8">IF(OR(_xlfn.IFNA($A8,"")="", ROW()&lt;=3),"",$A8-_xlfn.XLOOKUP(AZ8,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BE8" cm="1">
+        <f t="array" ref="BE8">IF(OR(_xlfn.IFNA($A8,"")="", ROW()&lt;=3),"",$A8-_xlfn.XLOOKUP(BA8,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <f>IF(OR(Daily!$A9="",Daily!$B9="*"),NA(),Daily!A9)</f>
         <v>43860</v>
@@ -15215,28 +15255,32 @@
         <f t="shared" si="22"/>
         <v>22</v>
       </c>
-      <c r="AZ9" s="3">
+      <c r="AZ9">
+        <f t="shared" si="23"/>
+        <v>4</v>
+      </c>
+      <c r="BA9" s="3">
         <f>IF(_xlfn.IFNA($A9,"")="","",AC9/(Connfiguration!$B$1/1000000))</f>
         <v>0.35482942561001091</v>
       </c>
-      <c r="BA9" cm="1">
-        <f t="array" ref="BA9">IF(OR(_xlfn.IFNA($A9,"")="", ROW()&lt;=3),"",$A9-_xlfn.XLOOKUP(AC9,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BB9" cm="1">
+        <f t="array" ref="BB9">IF(OR(_xlfn.IFNA($A9,"")="", ROW()&lt;=3),"",$A9-_xlfn.XLOOKUP(AC9,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-22</v>
       </c>
-      <c r="BB9" cm="1">
-        <f t="array" ref="BB9">IF(OR(_xlfn.IFNA($A9,"")="", ROW()&lt;=3),"",$A9-_xlfn.XLOOKUP(AZ9,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BC9" cm="1">
+        <f t="array" ref="BC9">IF(OR(_xlfn.IFNA($A9,"")="", ROW()&lt;=3),"",$A9-_xlfn.XLOOKUP(BA9,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-23</v>
       </c>
-      <c r="BC9" cm="1">
-        <f t="array" ref="BC9">IF(OR(_xlfn.IFNA($A9,"")="", ROW()&lt;=3),"",$A9-_xlfn.XLOOKUP(AC9,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BD9" cm="1">
+        <f t="array" ref="BD9">IF(OR(_xlfn.IFNA($A9,"")="", ROW()&lt;=3),"",$A9-_xlfn.XLOOKUP(AC9,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-9</v>
       </c>
-      <c r="BD9" cm="1">
-        <f t="array" ref="BD9">IF(OR(_xlfn.IFNA($A9,"")="", ROW()&lt;=3),"",$A9-_xlfn.XLOOKUP(AZ9,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BE9" cm="1">
+        <f t="array" ref="BE9">IF(OR(_xlfn.IFNA($A9,"")="", ROW()&lt;=3),"",$A9-_xlfn.XLOOKUP(BA9,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <f>IF(OR(Daily!$A10="",Daily!$B10="*"),NA(),Daily!A10)</f>
         <v>43861</v>
@@ -15441,28 +15485,32 @@
         <f t="shared" si="22"/>
         <v>22</v>
       </c>
-      <c r="AZ10" s="3">
+      <c r="AZ10">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="BA10" s="3">
         <f>IF(_xlfn.IFNA($A10,"")="","",AC10/(Connfiguration!$B$1/1000000))</f>
         <v>0.39425491734445656</v>
       </c>
-      <c r="BA10" cm="1">
-        <f t="array" ref="BA10">IF(OR(_xlfn.IFNA($A10,"")="", ROW()&lt;=3),"",$A10-_xlfn.XLOOKUP(AC10,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BB10" cm="1">
+        <f t="array" ref="BB10">IF(OR(_xlfn.IFNA($A10,"")="", ROW()&lt;=3),"",$A10-_xlfn.XLOOKUP(AC10,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-21</v>
       </c>
-      <c r="BB10" cm="1">
-        <f t="array" ref="BB10">IF(OR(_xlfn.IFNA($A10,"")="", ROW()&lt;=3),"",$A10-_xlfn.XLOOKUP(AZ10,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BC10" cm="1">
+        <f t="array" ref="BC10">IF(OR(_xlfn.IFNA($A10,"")="", ROW()&lt;=3),"",$A10-_xlfn.XLOOKUP(BA10,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-22</v>
       </c>
-      <c r="BC10" cm="1">
-        <f t="array" ref="BC10">IF(OR(_xlfn.IFNA($A10,"")="", ROW()&lt;=3),"",$A10-_xlfn.XLOOKUP(AC10,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BD10" cm="1">
+        <f t="array" ref="BD10">IF(OR(_xlfn.IFNA($A10,"")="", ROW()&lt;=3),"",$A10-_xlfn.XLOOKUP(AC10,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-8</v>
       </c>
-      <c r="BD10" cm="1">
-        <f t="array" ref="BD10">IF(OR(_xlfn.IFNA($A10,"")="", ROW()&lt;=3),"",$A10-_xlfn.XLOOKUP(AZ10,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BE10" cm="1">
+        <f t="array" ref="BE10">IF(OR(_xlfn.IFNA($A10,"")="", ROW()&lt;=3),"",$A10-_xlfn.XLOOKUP(BA10,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <f>IF(OR(Daily!$A11="",Daily!$B11="*"),NA(),Daily!A11)</f>
         <v>43862</v>
@@ -15667,28 +15715,32 @@
         <f t="shared" si="22"/>
         <v>21</v>
       </c>
-      <c r="AZ11" s="3">
+      <c r="AZ11">
+        <f t="shared" si="23"/>
+        <v>4</v>
+      </c>
+      <c r="BA11" s="3">
         <f>IF(_xlfn.IFNA($A11,"")="","",AC11/(Connfiguration!$B$1/1000000))</f>
         <v>0.39425491734445656</v>
       </c>
-      <c r="BA11" cm="1">
-        <f t="array" ref="BA11">IF(OR(_xlfn.IFNA($A11,"")="", ROW()&lt;=3),"",$A11-_xlfn.XLOOKUP(AC11,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BB11" cm="1">
+        <f t="array" ref="BB11">IF(OR(_xlfn.IFNA($A11,"")="", ROW()&lt;=3),"",$A11-_xlfn.XLOOKUP(AC11,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-20</v>
       </c>
-      <c r="BB11" cm="1">
-        <f t="array" ref="BB11">IF(OR(_xlfn.IFNA($A11,"")="", ROW()&lt;=3),"",$A11-_xlfn.XLOOKUP(AZ11,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BC11" cm="1">
+        <f t="array" ref="BC11">IF(OR(_xlfn.IFNA($A11,"")="", ROW()&lt;=3),"",$A11-_xlfn.XLOOKUP(BA11,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-21</v>
       </c>
-      <c r="BC11" cm="1">
-        <f t="array" ref="BC11">IF(OR(_xlfn.IFNA($A11,"")="", ROW()&lt;=3),"",$A11-_xlfn.XLOOKUP(AC11,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BD11" cm="1">
+        <f t="array" ref="BD11">IF(OR(_xlfn.IFNA($A11,"")="", ROW()&lt;=3),"",$A11-_xlfn.XLOOKUP(AC11,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-7</v>
       </c>
-      <c r="BD11" cm="1">
-        <f t="array" ref="BD11">IF(OR(_xlfn.IFNA($A11,"")="", ROW()&lt;=3),"",$A11-_xlfn.XLOOKUP(AZ11,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BE11" cm="1">
+        <f t="array" ref="BE11">IF(OR(_xlfn.IFNA($A11,"")="", ROW()&lt;=3),"",$A11-_xlfn.XLOOKUP(BA11,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <f>IF(OR(Daily!$A12="",Daily!$B12="*"),NA(),Daily!A12)</f>
         <v>43863</v>
@@ -15893,28 +15945,32 @@
         <f t="shared" si="22"/>
         <v>20</v>
       </c>
-      <c r="AZ12" s="3">
+      <c r="AZ12">
+        <f t="shared" si="23"/>
+        <v>5</v>
+      </c>
+      <c r="BA12" s="3">
         <f>IF(_xlfn.IFNA($A12,"")="","",AC12/(Connfiguration!$B$1/1000000))</f>
         <v>0.47310590081334791</v>
       </c>
-      <c r="BA12" cm="1">
-        <f t="array" ref="BA12">IF(OR(_xlfn.IFNA($A12,"")="", ROW()&lt;=3),"",$A12-_xlfn.XLOOKUP(AC12,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BB12" cm="1">
+        <f t="array" ref="BB12">IF(OR(_xlfn.IFNA($A12,"")="", ROW()&lt;=3),"",$A12-_xlfn.XLOOKUP(AC12,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-19</v>
       </c>
-      <c r="BB12" cm="1">
-        <f t="array" ref="BB12">IF(OR(_xlfn.IFNA($A12,"")="", ROW()&lt;=3),"",$A12-_xlfn.XLOOKUP(AZ12,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BC12" cm="1">
+        <f t="array" ref="BC12">IF(OR(_xlfn.IFNA($A12,"")="", ROW()&lt;=3),"",$A12-_xlfn.XLOOKUP(BA12,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-20</v>
       </c>
-      <c r="BC12" cm="1">
-        <f t="array" ref="BC12">IF(OR(_xlfn.IFNA($A12,"")="", ROW()&lt;=3),"",$A12-_xlfn.XLOOKUP(AC12,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BD12" cm="1">
+        <f t="array" ref="BD12">IF(OR(_xlfn.IFNA($A12,"")="", ROW()&lt;=3),"",$A12-_xlfn.XLOOKUP(AC12,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-13</v>
       </c>
-      <c r="BD12" cm="1">
-        <f t="array" ref="BD12">IF(OR(_xlfn.IFNA($A12,"")="", ROW()&lt;=3),"",$A12-_xlfn.XLOOKUP(AZ12,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BE12" cm="1">
+        <f t="array" ref="BE12">IF(OR(_xlfn.IFNA($A12,"")="", ROW()&lt;=3),"",$A12-_xlfn.XLOOKUP(BA12,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <f>IF(OR(Daily!$A13="",Daily!$B13="*"),NA(),Daily!A13)</f>
         <v>43864</v>
@@ -16119,28 +16175,32 @@
         <f t="shared" si="22"/>
         <v>19</v>
       </c>
-      <c r="AZ13" s="3">
+      <c r="AZ13">
+        <f t="shared" si="23"/>
+        <v>6</v>
+      </c>
+      <c r="BA13" s="3">
         <f>IF(_xlfn.IFNA($A13,"")="","",AC13/(Connfiguration!$B$1/1000000))</f>
         <v>0.47310590081334791</v>
       </c>
-      <c r="BA13" cm="1">
-        <f t="array" ref="BA13">IF(OR(_xlfn.IFNA($A13,"")="", ROW()&lt;=3),"",$A13-_xlfn.XLOOKUP(AC13,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BB13" cm="1">
+        <f t="array" ref="BB13">IF(OR(_xlfn.IFNA($A13,"")="", ROW()&lt;=3),"",$A13-_xlfn.XLOOKUP(AC13,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-18</v>
       </c>
-      <c r="BB13" cm="1">
-        <f t="array" ref="BB13">IF(OR(_xlfn.IFNA($A13,"")="", ROW()&lt;=3),"",$A13-_xlfn.XLOOKUP(AZ13,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BC13" cm="1">
+        <f t="array" ref="BC13">IF(OR(_xlfn.IFNA($A13,"")="", ROW()&lt;=3),"",$A13-_xlfn.XLOOKUP(BA13,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-19</v>
       </c>
-      <c r="BC13" cm="1">
-        <f t="array" ref="BC13">IF(OR(_xlfn.IFNA($A13,"")="", ROW()&lt;=3),"",$A13-_xlfn.XLOOKUP(AC13,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BD13" cm="1">
+        <f t="array" ref="BD13">IF(OR(_xlfn.IFNA($A13,"")="", ROW()&lt;=3),"",$A13-_xlfn.XLOOKUP(AC13,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-12</v>
       </c>
-      <c r="BD13" cm="1">
-        <f t="array" ref="BD13">IF(OR(_xlfn.IFNA($A13,"")="", ROW()&lt;=3),"",$A13-_xlfn.XLOOKUP(AZ13,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BE13" cm="1">
+        <f t="array" ref="BE13">IF(OR(_xlfn.IFNA($A13,"")="", ROW()&lt;=3),"",$A13-_xlfn.XLOOKUP(BA13,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <f>IF(OR(Daily!$A14="",Daily!$B14="*"),NA(),Daily!A14)</f>
         <v>43865</v>
@@ -16345,28 +16405,32 @@
         <f t="shared" si="22"/>
         <v>24</v>
       </c>
-      <c r="AZ14" s="3">
+      <c r="AZ14">
+        <f t="shared" si="23"/>
+        <v>7</v>
+      </c>
+      <c r="BA14" s="3">
         <f>IF(_xlfn.IFNA($A14,"")="","",AC14/(Connfiguration!$B$1/1000000))</f>
         <v>0.51253139254779356</v>
       </c>
-      <c r="BA14" cm="1">
-        <f t="array" ref="BA14">IF(OR(_xlfn.IFNA($A14,"")="", ROW()&lt;=3),"",$A14-_xlfn.XLOOKUP(AC14,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BB14" cm="1">
+        <f t="array" ref="BB14">IF(OR(_xlfn.IFNA($A14,"")="", ROW()&lt;=3),"",$A14-_xlfn.XLOOKUP(AC14,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-17</v>
       </c>
-      <c r="BB14" cm="1">
-        <f t="array" ref="BB14">IF(OR(_xlfn.IFNA($A14,"")="", ROW()&lt;=3),"",$A14-_xlfn.XLOOKUP(AZ14,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BC14" cm="1">
+        <f t="array" ref="BC14">IF(OR(_xlfn.IFNA($A14,"")="", ROW()&lt;=3),"",$A14-_xlfn.XLOOKUP(BA14,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-18</v>
       </c>
-      <c r="BC14" cm="1">
-        <f t="array" ref="BC14">IF(OR(_xlfn.IFNA($A14,"")="", ROW()&lt;=3),"",$A14-_xlfn.XLOOKUP(AC14,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BD14" cm="1">
+        <f t="array" ref="BD14">IF(OR(_xlfn.IFNA($A14,"")="", ROW()&lt;=3),"",$A14-_xlfn.XLOOKUP(AC14,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-21</v>
       </c>
-      <c r="BD14" cm="1">
-        <f t="array" ref="BD14">IF(OR(_xlfn.IFNA($A14,"")="", ROW()&lt;=3),"",$A14-_xlfn.XLOOKUP(AZ14,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BE14" cm="1">
+        <f t="array" ref="BE14">IF(OR(_xlfn.IFNA($A14,"")="", ROW()&lt;=3),"",$A14-_xlfn.XLOOKUP(BA14,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <f>IF(OR(Daily!$A15="",Daily!$B15="*"),NA(),Daily!A15)</f>
         <v>43866</v>
@@ -16571,28 +16635,32 @@
         <f t="shared" si="22"/>
         <v>25</v>
       </c>
-      <c r="AZ15" s="3">
+      <c r="AZ15">
+        <f t="shared" si="23"/>
+        <v>7</v>
+      </c>
+      <c r="BA15" s="3">
         <f>IF(_xlfn.IFNA($A15,"")="","",AC15/(Connfiguration!$B$1/1000000))</f>
         <v>0.59138237601668486</v>
       </c>
-      <c r="BA15" cm="1">
-        <f t="array" ref="BA15">IF(OR(_xlfn.IFNA($A15,"")="", ROW()&lt;=3),"",$A15-_xlfn.XLOOKUP(AC15,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BB15" cm="1">
+        <f t="array" ref="BB15">IF(OR(_xlfn.IFNA($A15,"")="", ROW()&lt;=3),"",$A15-_xlfn.XLOOKUP(AC15,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-16</v>
       </c>
-      <c r="BB15" cm="1">
-        <f t="array" ref="BB15">IF(OR(_xlfn.IFNA($A15,"")="", ROW()&lt;=3),"",$A15-_xlfn.XLOOKUP(AZ15,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BC15" cm="1">
+        <f t="array" ref="BC15">IF(OR(_xlfn.IFNA($A15,"")="", ROW()&lt;=3),"",$A15-_xlfn.XLOOKUP(BA15,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-17</v>
       </c>
-      <c r="BC15" cm="1">
-        <f t="array" ref="BC15">IF(OR(_xlfn.IFNA($A15,"")="", ROW()&lt;=3),"",$A15-_xlfn.XLOOKUP(AC15,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BD15" cm="1">
+        <f t="array" ref="BD15">IF(OR(_xlfn.IFNA($A15,"")="", ROW()&lt;=3),"",$A15-_xlfn.XLOOKUP(AC15,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-21</v>
       </c>
-      <c r="BD15" cm="1">
-        <f t="array" ref="BD15">IF(OR(_xlfn.IFNA($A15,"")="", ROW()&lt;=3),"",$A15-_xlfn.XLOOKUP(AZ15,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BE15" cm="1">
+        <f t="array" ref="BE15">IF(OR(_xlfn.IFNA($A15,"")="", ROW()&lt;=3),"",$A15-_xlfn.XLOOKUP(BA15,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <f>IF(OR(Daily!$A16="",Daily!$B16="*"),NA(),Daily!A16)</f>
         <v>43867</v>
@@ -16797,28 +16865,32 @@
         <f t="shared" si="22"/>
         <v>25</v>
       </c>
-      <c r="AZ16" s="3">
+      <c r="AZ16">
+        <f t="shared" si="23"/>
+        <v>8</v>
+      </c>
+      <c r="BA16" s="3">
         <f>IF(_xlfn.IFNA($A16,"")="","",AC16/(Connfiguration!$B$1/1000000))</f>
         <v>0.63080786775113051</v>
       </c>
-      <c r="BA16" cm="1">
-        <f t="array" ref="BA16">IF(OR(_xlfn.IFNA($A16,"")="", ROW()&lt;=3),"",$A16-_xlfn.XLOOKUP(AC16,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BB16" cm="1">
+        <f t="array" ref="BB16">IF(OR(_xlfn.IFNA($A16,"")="", ROW()&lt;=3),"",$A16-_xlfn.XLOOKUP(AC16,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-15</v>
       </c>
-      <c r="BB16" cm="1">
-        <f t="array" ref="BB16">IF(OR(_xlfn.IFNA($A16,"")="", ROW()&lt;=3),"",$A16-_xlfn.XLOOKUP(AZ16,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BC16" cm="1">
+        <f t="array" ref="BC16">IF(OR(_xlfn.IFNA($A16,"")="", ROW()&lt;=3),"",$A16-_xlfn.XLOOKUP(BA16,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-16</v>
       </c>
-      <c r="BC16" cm="1">
-        <f t="array" ref="BC16">IF(OR(_xlfn.IFNA($A16,"")="", ROW()&lt;=3),"",$A16-_xlfn.XLOOKUP(AC16,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BD16" cm="1">
+        <f t="array" ref="BD16">IF(OR(_xlfn.IFNA($A16,"")="", ROW()&lt;=3),"",$A16-_xlfn.XLOOKUP(AC16,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-20</v>
       </c>
-      <c r="BD16" cm="1">
-        <f t="array" ref="BD16">IF(OR(_xlfn.IFNA($A16,"")="", ROW()&lt;=3),"",$A16-_xlfn.XLOOKUP(AZ16,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BE16" cm="1">
+        <f t="array" ref="BE16">IF(OR(_xlfn.IFNA($A16,"")="", ROW()&lt;=3),"",$A16-_xlfn.XLOOKUP(BA16,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <f>IF(OR(Daily!$A17="",Daily!$B17="*"),NA(),Daily!A17)</f>
         <v>43868</v>
@@ -17023,28 +17095,32 @@
         <f t="shared" si="22"/>
         <v>24</v>
       </c>
-      <c r="AZ17" s="3">
+      <c r="AZ17">
+        <f t="shared" si="23"/>
+        <v>9</v>
+      </c>
+      <c r="BA17" s="3">
         <f>IF(_xlfn.IFNA($A17,"")="","",AC17/(Connfiguration!$B$1/1000000))</f>
         <v>0.63080786775113051</v>
       </c>
-      <c r="BA17" cm="1">
-        <f t="array" ref="BA17">IF(OR(_xlfn.IFNA($A17,"")="", ROW()&lt;=3),"",$A17-_xlfn.XLOOKUP(AC17,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BB17" cm="1">
+        <f t="array" ref="BB17">IF(OR(_xlfn.IFNA($A17,"")="", ROW()&lt;=3),"",$A17-_xlfn.XLOOKUP(AC17,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-14</v>
       </c>
-      <c r="BB17" cm="1">
-        <f t="array" ref="BB17">IF(OR(_xlfn.IFNA($A17,"")="", ROW()&lt;=3),"",$A17-_xlfn.XLOOKUP(AZ17,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BC17" cm="1">
+        <f t="array" ref="BC17">IF(OR(_xlfn.IFNA($A17,"")="", ROW()&lt;=3),"",$A17-_xlfn.XLOOKUP(BA17,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-15</v>
       </c>
-      <c r="BC17" cm="1">
-        <f t="array" ref="BC17">IF(OR(_xlfn.IFNA($A17,"")="", ROW()&lt;=3),"",$A17-_xlfn.XLOOKUP(AC17,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BD17" cm="1">
+        <f t="array" ref="BD17">IF(OR(_xlfn.IFNA($A17,"")="", ROW()&lt;=3),"",$A17-_xlfn.XLOOKUP(AC17,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-19</v>
       </c>
-      <c r="BD17" cm="1">
-        <f t="array" ref="BD17">IF(OR(_xlfn.IFNA($A17,"")="", ROW()&lt;=3),"",$A17-_xlfn.XLOOKUP(AZ17,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BE17" cm="1">
+        <f t="array" ref="BE17">IF(OR(_xlfn.IFNA($A17,"")="", ROW()&lt;=3),"",$A17-_xlfn.XLOOKUP(BA17,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <f>IF(OR(Daily!$A18="",Daily!$B18="*"),NA(),Daily!A18)</f>
         <v>43869</v>
@@ -17249,28 +17325,32 @@
         <f t="shared" si="22"/>
         <v>23</v>
       </c>
-      <c r="AZ18" s="3">
+      <c r="AZ18">
+        <f t="shared" si="23"/>
+        <v>10</v>
+      </c>
+      <c r="BA18" s="3">
         <f>IF(_xlfn.IFNA($A18,"")="","",AC18/(Connfiguration!$B$1/1000000))</f>
         <v>0.63080786775113051</v>
       </c>
-      <c r="BA18" cm="1">
-        <f t="array" ref="BA18">IF(OR(_xlfn.IFNA($A18,"")="", ROW()&lt;=3),"",$A18-_xlfn.XLOOKUP(AC18,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BB18" cm="1">
+        <f t="array" ref="BB18">IF(OR(_xlfn.IFNA($A18,"")="", ROW()&lt;=3),"",$A18-_xlfn.XLOOKUP(AC18,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-13</v>
       </c>
-      <c r="BB18" cm="1">
-        <f t="array" ref="BB18">IF(OR(_xlfn.IFNA($A18,"")="", ROW()&lt;=3),"",$A18-_xlfn.XLOOKUP(AZ18,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BC18" cm="1">
+        <f t="array" ref="BC18">IF(OR(_xlfn.IFNA($A18,"")="", ROW()&lt;=3),"",$A18-_xlfn.XLOOKUP(BA18,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-14</v>
       </c>
-      <c r="BC18" cm="1">
-        <f t="array" ref="BC18">IF(OR(_xlfn.IFNA($A18,"")="", ROW()&lt;=3),"",$A18-_xlfn.XLOOKUP(AC18,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BD18" cm="1">
+        <f t="array" ref="BD18">IF(OR(_xlfn.IFNA($A18,"")="", ROW()&lt;=3),"",$A18-_xlfn.XLOOKUP(AC18,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-18</v>
       </c>
-      <c r="BD18" cm="1">
-        <f t="array" ref="BD18">IF(OR(_xlfn.IFNA($A18,"")="", ROW()&lt;=3),"",$A18-_xlfn.XLOOKUP(AZ18,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BE18" cm="1">
+        <f t="array" ref="BE18">IF(OR(_xlfn.IFNA($A18,"")="", ROW()&lt;=3),"",$A18-_xlfn.XLOOKUP(BA18,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <f>IF(OR(Daily!$A19="",Daily!$B19="*"),NA(),Daily!A19)</f>
         <v>43870</v>
@@ -17475,28 +17555,32 @@
         <f t="shared" si="22"/>
         <v>22</v>
       </c>
-      <c r="AZ19" s="3">
+      <c r="AZ19">
+        <f t="shared" si="23"/>
+        <v>11</v>
+      </c>
+      <c r="BA19" s="3">
         <f>IF(_xlfn.IFNA($A19,"")="","",AC19/(Connfiguration!$B$1/1000000))</f>
         <v>0.63080786775113051</v>
       </c>
-      <c r="BA19" cm="1">
-        <f t="array" ref="BA19">IF(OR(_xlfn.IFNA($A19,"")="", ROW()&lt;=3),"",$A19-_xlfn.XLOOKUP(AC19,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BB19" cm="1">
+        <f t="array" ref="BB19">IF(OR(_xlfn.IFNA($A19,"")="", ROW()&lt;=3),"",$A19-_xlfn.XLOOKUP(AC19,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-12</v>
       </c>
-      <c r="BB19" cm="1">
-        <f t="array" ref="BB19">IF(OR(_xlfn.IFNA($A19,"")="", ROW()&lt;=3),"",$A19-_xlfn.XLOOKUP(AZ19,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BC19" cm="1">
+        <f t="array" ref="BC19">IF(OR(_xlfn.IFNA($A19,"")="", ROW()&lt;=3),"",$A19-_xlfn.XLOOKUP(BA19,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-13</v>
       </c>
-      <c r="BC19" cm="1">
-        <f t="array" ref="BC19">IF(OR(_xlfn.IFNA($A19,"")="", ROW()&lt;=3),"",$A19-_xlfn.XLOOKUP(AC19,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BD19" cm="1">
+        <f t="array" ref="BD19">IF(OR(_xlfn.IFNA($A19,"")="", ROW()&lt;=3),"",$A19-_xlfn.XLOOKUP(AC19,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-17</v>
       </c>
-      <c r="BD19" cm="1">
-        <f t="array" ref="BD19">IF(OR(_xlfn.IFNA($A19,"")="", ROW()&lt;=3),"",$A19-_xlfn.XLOOKUP(AZ19,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BE19" cm="1">
+        <f t="array" ref="BE19">IF(OR(_xlfn.IFNA($A19,"")="", ROW()&lt;=3),"",$A19-_xlfn.XLOOKUP(BA19,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <f>IF(OR(Daily!$A20="",Daily!$B20="*"),NA(),Daily!A20)</f>
         <v>43871</v>
@@ -17701,28 +17785,32 @@
         <f t="shared" si="22"/>
         <v>21</v>
       </c>
-      <c r="AZ20" s="3">
+      <c r="AZ20">
+        <f t="shared" si="23"/>
+        <v>12</v>
+      </c>
+      <c r="BA20" s="3">
         <f>IF(_xlfn.IFNA($A20,"")="","",AC20/(Connfiguration!$B$1/1000000))</f>
         <v>0.63080786775113051</v>
       </c>
-      <c r="BA20" cm="1">
-        <f t="array" ref="BA20">IF(OR(_xlfn.IFNA($A20,"")="", ROW()&lt;=3),"",$A20-_xlfn.XLOOKUP(AC20,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BB20" cm="1">
+        <f t="array" ref="BB20">IF(OR(_xlfn.IFNA($A20,"")="", ROW()&lt;=3),"",$A20-_xlfn.XLOOKUP(AC20,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-11</v>
       </c>
-      <c r="BB20" cm="1">
-        <f t="array" ref="BB20">IF(OR(_xlfn.IFNA($A20,"")="", ROW()&lt;=3),"",$A20-_xlfn.XLOOKUP(AZ20,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BC20" cm="1">
+        <f t="array" ref="BC20">IF(OR(_xlfn.IFNA($A20,"")="", ROW()&lt;=3),"",$A20-_xlfn.XLOOKUP(BA20,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-12</v>
       </c>
-      <c r="BC20" cm="1">
-        <f t="array" ref="BC20">IF(OR(_xlfn.IFNA($A20,"")="", ROW()&lt;=3),"",$A20-_xlfn.XLOOKUP(AC20,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BD20" cm="1">
+        <f t="array" ref="BD20">IF(OR(_xlfn.IFNA($A20,"")="", ROW()&lt;=3),"",$A20-_xlfn.XLOOKUP(AC20,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-16</v>
       </c>
-      <c r="BD20" cm="1">
-        <f t="array" ref="BD20">IF(OR(_xlfn.IFNA($A20,"")="", ROW()&lt;=3),"",$A20-_xlfn.XLOOKUP(AZ20,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BE20" cm="1">
+        <f t="array" ref="BE20">IF(OR(_xlfn.IFNA($A20,"")="", ROW()&lt;=3),"",$A20-_xlfn.XLOOKUP(BA20,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <f>IF(OR(Daily!$A21="",Daily!$B21="*"),NA(),Daily!A21)</f>
         <v>43872</v>
@@ -17927,28 +18015,32 @@
         <f t="shared" si="22"/>
         <v>20</v>
       </c>
-      <c r="AZ21" s="3">
+      <c r="AZ21">
+        <f t="shared" si="23"/>
+        <v>13</v>
+      </c>
+      <c r="BA21" s="3">
         <f>IF(_xlfn.IFNA($A21,"")="","",AC21/(Connfiguration!$B$1/1000000))</f>
         <v>0.63080786775113051</v>
       </c>
-      <c r="BA21" cm="1">
-        <f t="array" ref="BA21">IF(OR(_xlfn.IFNA($A21,"")="", ROW()&lt;=3),"",$A21-_xlfn.XLOOKUP(AC21,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BB21" cm="1">
+        <f t="array" ref="BB21">IF(OR(_xlfn.IFNA($A21,"")="", ROW()&lt;=3),"",$A21-_xlfn.XLOOKUP(AC21,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-10</v>
       </c>
-      <c r="BB21" cm="1">
-        <f t="array" ref="BB21">IF(OR(_xlfn.IFNA($A21,"")="", ROW()&lt;=3),"",$A21-_xlfn.XLOOKUP(AZ21,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BC21" cm="1">
+        <f t="array" ref="BC21">IF(OR(_xlfn.IFNA($A21,"")="", ROW()&lt;=3),"",$A21-_xlfn.XLOOKUP(BA21,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-11</v>
       </c>
-      <c r="BC21" cm="1">
-        <f t="array" ref="BC21">IF(OR(_xlfn.IFNA($A21,"")="", ROW()&lt;=3),"",$A21-_xlfn.XLOOKUP(AC21,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BD21" cm="1">
+        <f t="array" ref="BD21">IF(OR(_xlfn.IFNA($A21,"")="", ROW()&lt;=3),"",$A21-_xlfn.XLOOKUP(AC21,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-15</v>
       </c>
-      <c r="BD21" cm="1">
-        <f t="array" ref="BD21">IF(OR(_xlfn.IFNA($A21,"")="", ROW()&lt;=3),"",$A21-_xlfn.XLOOKUP(AZ21,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BE21" cm="1">
+        <f t="array" ref="BE21">IF(OR(_xlfn.IFNA($A21,"")="", ROW()&lt;=3),"",$A21-_xlfn.XLOOKUP(BA21,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <f>IF(OR(Daily!$A22="",Daily!$B22="*"),NA(),Daily!A22)</f>
         <v>43873</v>
@@ -18153,28 +18245,32 @@
         <f t="shared" si="22"/>
         <v>19</v>
       </c>
-      <c r="AZ22" s="3">
+      <c r="AZ22">
+        <f t="shared" si="23"/>
+        <v>14</v>
+      </c>
+      <c r="BA22" s="3">
         <f>IF(_xlfn.IFNA($A22,"")="","",AC22/(Connfiguration!$B$1/1000000))</f>
         <v>0.63080786775113051</v>
       </c>
-      <c r="BA22" cm="1">
-        <f t="array" ref="BA22">IF(OR(_xlfn.IFNA($A22,"")="", ROW()&lt;=3),"",$A22-_xlfn.XLOOKUP(AC22,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BB22" cm="1">
+        <f t="array" ref="BB22">IF(OR(_xlfn.IFNA($A22,"")="", ROW()&lt;=3),"",$A22-_xlfn.XLOOKUP(AC22,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-9</v>
       </c>
-      <c r="BB22" cm="1">
-        <f t="array" ref="BB22">IF(OR(_xlfn.IFNA($A22,"")="", ROW()&lt;=3),"",$A22-_xlfn.XLOOKUP(AZ22,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BC22" cm="1">
+        <f t="array" ref="BC22">IF(OR(_xlfn.IFNA($A22,"")="", ROW()&lt;=3),"",$A22-_xlfn.XLOOKUP(BA22,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-10</v>
       </c>
-      <c r="BC22" cm="1">
-        <f t="array" ref="BC22">IF(OR(_xlfn.IFNA($A22,"")="", ROW()&lt;=3),"",$A22-_xlfn.XLOOKUP(AC22,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BD22" cm="1">
+        <f t="array" ref="BD22">IF(OR(_xlfn.IFNA($A22,"")="", ROW()&lt;=3),"",$A22-_xlfn.XLOOKUP(AC22,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-14</v>
       </c>
-      <c r="BD22" cm="1">
-        <f t="array" ref="BD22">IF(OR(_xlfn.IFNA($A22,"")="", ROW()&lt;=3),"",$A22-_xlfn.XLOOKUP(AZ22,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BE22" cm="1">
+        <f t="array" ref="BE22">IF(OR(_xlfn.IFNA($A22,"")="", ROW()&lt;=3),"",$A22-_xlfn.XLOOKUP(BA22,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <f>IF(OR(Daily!$A23="",Daily!$B23="*"),NA(),Daily!A23)</f>
         <v>43874</v>
@@ -18379,28 +18475,32 @@
         <f t="shared" si="22"/>
         <v>18</v>
       </c>
-      <c r="AZ23" s="3">
+      <c r="AZ23">
+        <f t="shared" si="23"/>
+        <v>15</v>
+      </c>
+      <c r="BA23" s="3">
         <f>IF(_xlfn.IFNA($A23,"")="","",AC23/(Connfiguration!$B$1/1000000))</f>
         <v>0.63080786775113051</v>
       </c>
-      <c r="BA23" cm="1">
-        <f t="array" ref="BA23">IF(OR(_xlfn.IFNA($A23,"")="", ROW()&lt;=3),"",$A23-_xlfn.XLOOKUP(AC23,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BB23" cm="1">
+        <f t="array" ref="BB23">IF(OR(_xlfn.IFNA($A23,"")="", ROW()&lt;=3),"",$A23-_xlfn.XLOOKUP(AC23,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-8</v>
       </c>
-      <c r="BB23" cm="1">
-        <f t="array" ref="BB23">IF(OR(_xlfn.IFNA($A23,"")="", ROW()&lt;=3),"",$A23-_xlfn.XLOOKUP(AZ23,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BC23" cm="1">
+        <f t="array" ref="BC23">IF(OR(_xlfn.IFNA($A23,"")="", ROW()&lt;=3),"",$A23-_xlfn.XLOOKUP(BA23,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-9</v>
       </c>
-      <c r="BC23" cm="1">
-        <f t="array" ref="BC23">IF(OR(_xlfn.IFNA($A23,"")="", ROW()&lt;=3),"",$A23-_xlfn.XLOOKUP(AC23,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BD23" cm="1">
+        <f t="array" ref="BD23">IF(OR(_xlfn.IFNA($A23,"")="", ROW()&lt;=3),"",$A23-_xlfn.XLOOKUP(AC23,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-13</v>
       </c>
-      <c r="BD23" cm="1">
-        <f t="array" ref="BD23">IF(OR(_xlfn.IFNA($A23,"")="", ROW()&lt;=3),"",$A23-_xlfn.XLOOKUP(AZ23,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BE23" cm="1">
+        <f t="array" ref="BE23">IF(OR(_xlfn.IFNA($A23,"")="", ROW()&lt;=3),"",$A23-_xlfn.XLOOKUP(BA23,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <f>IF(OR(Daily!$A24="",Daily!$B24="*"),NA(),Daily!A24)</f>
         <v>43875</v>
@@ -18605,28 +18705,32 @@
         <f t="shared" si="22"/>
         <v>17</v>
       </c>
-      <c r="AZ24" s="3">
+      <c r="AZ24">
+        <f t="shared" si="23"/>
+        <v>16</v>
+      </c>
+      <c r="BA24" s="3">
         <f>IF(_xlfn.IFNA($A24,"")="","",AC24/(Connfiguration!$B$1/1000000))</f>
         <v>0.63080786775113051</v>
       </c>
-      <c r="BA24" cm="1">
-        <f t="array" ref="BA24">IF(OR(_xlfn.IFNA($A24,"")="", ROW()&lt;=3),"",$A24-_xlfn.XLOOKUP(AC24,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BB24" cm="1">
+        <f t="array" ref="BB24">IF(OR(_xlfn.IFNA($A24,"")="", ROW()&lt;=3),"",$A24-_xlfn.XLOOKUP(AC24,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-7</v>
       </c>
-      <c r="BB24" cm="1">
-        <f t="array" ref="BB24">IF(OR(_xlfn.IFNA($A24,"")="", ROW()&lt;=3),"",$A24-_xlfn.XLOOKUP(AZ24,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BC24" cm="1">
+        <f t="array" ref="BC24">IF(OR(_xlfn.IFNA($A24,"")="", ROW()&lt;=3),"",$A24-_xlfn.XLOOKUP(BA24,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-8</v>
       </c>
-      <c r="BC24" cm="1">
-        <f t="array" ref="BC24">IF(OR(_xlfn.IFNA($A24,"")="", ROW()&lt;=3),"",$A24-_xlfn.XLOOKUP(AC24,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BD24" cm="1">
+        <f t="array" ref="BD24">IF(OR(_xlfn.IFNA($A24,"")="", ROW()&lt;=3),"",$A24-_xlfn.XLOOKUP(AC24,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-12</v>
       </c>
-      <c r="BD24" cm="1">
-        <f t="array" ref="BD24">IF(OR(_xlfn.IFNA($A24,"")="", ROW()&lt;=3),"",$A24-_xlfn.XLOOKUP(AZ24,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BE24" cm="1">
+        <f t="array" ref="BE24">IF(OR(_xlfn.IFNA($A24,"")="", ROW()&lt;=3),"",$A24-_xlfn.XLOOKUP(BA24,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <f>IF(OR(Daily!$A25="",Daily!$B25="*"),NA(),Daily!A25)</f>
         <v>43876</v>
@@ -18831,28 +18935,32 @@
         <f t="shared" si="22"/>
         <v>16</v>
       </c>
-      <c r="AZ25" s="3">
+      <c r="AZ25">
+        <f t="shared" si="23"/>
+        <v>17</v>
+      </c>
+      <c r="BA25" s="3">
         <f>IF(_xlfn.IFNA($A25,"")="","",AC25/(Connfiguration!$B$1/1000000))</f>
         <v>0.63080786775113051</v>
       </c>
-      <c r="BA25" cm="1">
-        <f t="array" ref="BA25">IF(OR(_xlfn.IFNA($A25,"")="", ROW()&lt;=3),"",$A25-_xlfn.XLOOKUP(AC25,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BB25" cm="1">
+        <f t="array" ref="BB25">IF(OR(_xlfn.IFNA($A25,"")="", ROW()&lt;=3),"",$A25-_xlfn.XLOOKUP(AC25,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-6</v>
       </c>
-      <c r="BB25" cm="1">
-        <f t="array" ref="BB25">IF(OR(_xlfn.IFNA($A25,"")="", ROW()&lt;=3),"",$A25-_xlfn.XLOOKUP(AZ25,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BC25" cm="1">
+        <f t="array" ref="BC25">IF(OR(_xlfn.IFNA($A25,"")="", ROW()&lt;=3),"",$A25-_xlfn.XLOOKUP(BA25,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-7</v>
       </c>
-      <c r="BC25" cm="1">
-        <f t="array" ref="BC25">IF(OR(_xlfn.IFNA($A25,"")="", ROW()&lt;=3),"",$A25-_xlfn.XLOOKUP(AC25,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BD25" cm="1">
+        <f t="array" ref="BD25">IF(OR(_xlfn.IFNA($A25,"")="", ROW()&lt;=3),"",$A25-_xlfn.XLOOKUP(AC25,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-11</v>
       </c>
-      <c r="BD25" cm="1">
-        <f t="array" ref="BD25">IF(OR(_xlfn.IFNA($A25,"")="", ROW()&lt;=3),"",$A25-_xlfn.XLOOKUP(AZ25,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BE25" cm="1">
+        <f t="array" ref="BE25">IF(OR(_xlfn.IFNA($A25,"")="", ROW()&lt;=3),"",$A25-_xlfn.XLOOKUP(BA25,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <f>IF(OR(Daily!$A26="",Daily!$B26="*"),NA(),Daily!A26)</f>
         <v>43877</v>
@@ -19057,28 +19165,32 @@
         <f t="shared" si="22"/>
         <v>15</v>
       </c>
-      <c r="AZ26" s="3">
+      <c r="AZ26">
+        <f t="shared" si="23"/>
+        <v>18</v>
+      </c>
+      <c r="BA26" s="3">
         <f>IF(_xlfn.IFNA($A26,"")="","",AC26/(Connfiguration!$B$1/1000000))</f>
         <v>0.63080786775113051</v>
       </c>
-      <c r="BA26" cm="1">
-        <f t="array" ref="BA26">IF(OR(_xlfn.IFNA($A26,"")="", ROW()&lt;=3),"",$A26-_xlfn.XLOOKUP(AC26,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BB26" cm="1">
+        <f t="array" ref="BB26">IF(OR(_xlfn.IFNA($A26,"")="", ROW()&lt;=3),"",$A26-_xlfn.XLOOKUP(AC26,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-5</v>
       </c>
-      <c r="BB26" cm="1">
-        <f t="array" ref="BB26">IF(OR(_xlfn.IFNA($A26,"")="", ROW()&lt;=3),"",$A26-_xlfn.XLOOKUP(AZ26,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BC26" cm="1">
+        <f t="array" ref="BC26">IF(OR(_xlfn.IFNA($A26,"")="", ROW()&lt;=3),"",$A26-_xlfn.XLOOKUP(BA26,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-6</v>
       </c>
-      <c r="BC26" cm="1">
-        <f t="array" ref="BC26">IF(OR(_xlfn.IFNA($A26,"")="", ROW()&lt;=3),"",$A26-_xlfn.XLOOKUP(AC26,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BD26" cm="1">
+        <f t="array" ref="BD26">IF(OR(_xlfn.IFNA($A26,"")="", ROW()&lt;=3),"",$A26-_xlfn.XLOOKUP(AC26,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-10</v>
       </c>
-      <c r="BD26" cm="1">
-        <f t="array" ref="BD26">IF(OR(_xlfn.IFNA($A26,"")="", ROW()&lt;=3),"",$A26-_xlfn.XLOOKUP(AZ26,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BE26" cm="1">
+        <f t="array" ref="BE26">IF(OR(_xlfn.IFNA($A26,"")="", ROW()&lt;=3),"",$A26-_xlfn.XLOOKUP(BA26,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <f>IF(OR(Daily!$A27="",Daily!$B27="*"),NA(),Daily!A27)</f>
         <v>43878</v>
@@ -19283,28 +19395,32 @@
         <f t="shared" si="22"/>
         <v>14</v>
       </c>
-      <c r="AZ27" s="3">
+      <c r="AZ27">
+        <f t="shared" si="23"/>
+        <v>19</v>
+      </c>
+      <c r="BA27" s="3">
         <f>IF(_xlfn.IFNA($A27,"")="","",AC27/(Connfiguration!$B$1/1000000))</f>
         <v>0.63080786775113051</v>
       </c>
-      <c r="BA27" cm="1">
-        <f t="array" ref="BA27">IF(OR(_xlfn.IFNA($A27,"")="", ROW()&lt;=3),"",$A27-_xlfn.XLOOKUP(AC27,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BB27" cm="1">
+        <f t="array" ref="BB27">IF(OR(_xlfn.IFNA($A27,"")="", ROW()&lt;=3),"",$A27-_xlfn.XLOOKUP(AC27,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-4</v>
       </c>
-      <c r="BB27" cm="1">
-        <f t="array" ref="BB27">IF(OR(_xlfn.IFNA($A27,"")="", ROW()&lt;=3),"",$A27-_xlfn.XLOOKUP(AZ27,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BC27" cm="1">
+        <f t="array" ref="BC27">IF(OR(_xlfn.IFNA($A27,"")="", ROW()&lt;=3),"",$A27-_xlfn.XLOOKUP(BA27,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-5</v>
       </c>
-      <c r="BC27" cm="1">
-        <f t="array" ref="BC27">IF(OR(_xlfn.IFNA($A27,"")="", ROW()&lt;=3),"",$A27-_xlfn.XLOOKUP(AC27,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BD27" cm="1">
+        <f t="array" ref="BD27">IF(OR(_xlfn.IFNA($A27,"")="", ROW()&lt;=3),"",$A27-_xlfn.XLOOKUP(AC27,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-9</v>
       </c>
-      <c r="BD27" cm="1">
-        <f t="array" ref="BD27">IF(OR(_xlfn.IFNA($A27,"")="", ROW()&lt;=3),"",$A27-_xlfn.XLOOKUP(AZ27,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BE27" cm="1">
+        <f t="array" ref="BE27">IF(OR(_xlfn.IFNA($A27,"")="", ROW()&lt;=3),"",$A27-_xlfn.XLOOKUP(BA27,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <f>IF(OR(Daily!$A28="",Daily!$B28="*"),NA(),Daily!A28)</f>
         <v>43879</v>
@@ -19509,28 +19625,32 @@
         <f t="shared" si="22"/>
         <v>13</v>
       </c>
-      <c r="AZ28" s="3">
+      <c r="AZ28">
+        <f t="shared" si="23"/>
+        <v>20</v>
+      </c>
+      <c r="BA28" s="3">
         <f>IF(_xlfn.IFNA($A28,"")="","",AC28/(Connfiguration!$B$1/1000000))</f>
         <v>0.63080786775113051</v>
       </c>
-      <c r="BA28" cm="1">
-        <f t="array" ref="BA28">IF(OR(_xlfn.IFNA($A28,"")="", ROW()&lt;=3),"",$A28-_xlfn.XLOOKUP(AC28,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BB28" cm="1">
+        <f t="array" ref="BB28">IF(OR(_xlfn.IFNA($A28,"")="", ROW()&lt;=3),"",$A28-_xlfn.XLOOKUP(AC28,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-3</v>
       </c>
-      <c r="BB28" cm="1">
-        <f t="array" ref="BB28">IF(OR(_xlfn.IFNA($A28,"")="", ROW()&lt;=3),"",$A28-_xlfn.XLOOKUP(AZ28,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BC28" cm="1">
+        <f t="array" ref="BC28">IF(OR(_xlfn.IFNA($A28,"")="", ROW()&lt;=3),"",$A28-_xlfn.XLOOKUP(BA28,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-4</v>
       </c>
-      <c r="BC28" cm="1">
-        <f t="array" ref="BC28">IF(OR(_xlfn.IFNA($A28,"")="", ROW()&lt;=3),"",$A28-_xlfn.XLOOKUP(AC28,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BD28" cm="1">
+        <f t="array" ref="BD28">IF(OR(_xlfn.IFNA($A28,"")="", ROW()&lt;=3),"",$A28-_xlfn.XLOOKUP(AC28,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-8</v>
       </c>
-      <c r="BD28" cm="1">
-        <f t="array" ref="BD28">IF(OR(_xlfn.IFNA($A28,"")="", ROW()&lt;=3),"",$A28-_xlfn.XLOOKUP(AZ28,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BE28" cm="1">
+        <f t="array" ref="BE28">IF(OR(_xlfn.IFNA($A28,"")="", ROW()&lt;=3),"",$A28-_xlfn.XLOOKUP(BA28,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <f>IF(OR(Daily!$A29="",Daily!$B29="*"),NA(),Daily!A29)</f>
         <v>43880</v>
@@ -19735,28 +19855,32 @@
         <f t="shared" si="22"/>
         <v>12</v>
       </c>
-      <c r="AZ29" s="3">
+      <c r="AZ29">
+        <f t="shared" si="23"/>
+        <v>21</v>
+      </c>
+      <c r="BA29" s="3">
         <f>IF(_xlfn.IFNA($A29,"")="","",AC29/(Connfiguration!$B$1/1000000))</f>
         <v>0.63080786775113051</v>
       </c>
-      <c r="BA29" cm="1">
-        <f t="array" ref="BA29">IF(OR(_xlfn.IFNA($A29,"")="", ROW()&lt;=3),"",$A29-_xlfn.XLOOKUP(AC29,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BB29" cm="1">
+        <f t="array" ref="BB29">IF(OR(_xlfn.IFNA($A29,"")="", ROW()&lt;=3),"",$A29-_xlfn.XLOOKUP(AC29,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-2</v>
       </c>
-      <c r="BB29" cm="1">
-        <f t="array" ref="BB29">IF(OR(_xlfn.IFNA($A29,"")="", ROW()&lt;=3),"",$A29-_xlfn.XLOOKUP(AZ29,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BC29" cm="1">
+        <f t="array" ref="BC29">IF(OR(_xlfn.IFNA($A29,"")="", ROW()&lt;=3),"",$A29-_xlfn.XLOOKUP(BA29,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-3</v>
       </c>
-      <c r="BC29" cm="1">
-        <f t="array" ref="BC29">IF(OR(_xlfn.IFNA($A29,"")="", ROW()&lt;=3),"",$A29-_xlfn.XLOOKUP(AC29,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BD29" cm="1">
+        <f t="array" ref="BD29">IF(OR(_xlfn.IFNA($A29,"")="", ROW()&lt;=3),"",$A29-_xlfn.XLOOKUP(AC29,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-7</v>
       </c>
-      <c r="BD29" cm="1">
-        <f t="array" ref="BD29">IF(OR(_xlfn.IFNA($A29,"")="", ROW()&lt;=3),"",$A29-_xlfn.XLOOKUP(AZ29,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BE29" cm="1">
+        <f t="array" ref="BE29">IF(OR(_xlfn.IFNA($A29,"")="", ROW()&lt;=3),"",$A29-_xlfn.XLOOKUP(BA29,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <f>IF(OR(Daily!$A30="",Daily!$B30="*"),NA(),Daily!A30)</f>
         <v>43881</v>
@@ -19961,28 +20085,32 @@
         <f t="shared" si="22"/>
         <v>11</v>
       </c>
-      <c r="AZ30" s="3">
+      <c r="AZ30">
+        <f t="shared" si="23"/>
+        <v>22</v>
+      </c>
+      <c r="BA30" s="3">
         <f>IF(_xlfn.IFNA($A30,"")="","",AC30/(Connfiguration!$B$1/1000000))</f>
         <v>0.67023335948557616</v>
       </c>
-      <c r="BA30" cm="1">
-        <f t="array" ref="BA30">IF(OR(_xlfn.IFNA($A30,"")="", ROW()&lt;=3),"",$A30-_xlfn.XLOOKUP(AC30,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BB30" cm="1">
+        <f t="array" ref="BB30">IF(OR(_xlfn.IFNA($A30,"")="", ROW()&lt;=3),"",$A30-_xlfn.XLOOKUP(AC30,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-1</v>
       </c>
-      <c r="BB30" cm="1">
-        <f t="array" ref="BB30">IF(OR(_xlfn.IFNA($A30,"")="", ROW()&lt;=3),"",$A30-_xlfn.XLOOKUP(AZ30,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BC30" cm="1">
+        <f t="array" ref="BC30">IF(OR(_xlfn.IFNA($A30,"")="", ROW()&lt;=3),"",$A30-_xlfn.XLOOKUP(BA30,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-2</v>
       </c>
-      <c r="BC30" cm="1">
-        <f t="array" ref="BC30">IF(OR(_xlfn.IFNA($A30,"")="", ROW()&lt;=3),"",$A30-_xlfn.XLOOKUP(AC30,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BD30" cm="1">
+        <f t="array" ref="BD30">IF(OR(_xlfn.IFNA($A30,"")="", ROW()&lt;=3),"",$A30-_xlfn.XLOOKUP(AC30,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-6</v>
       </c>
-      <c r="BD30" cm="1">
-        <f t="array" ref="BD30">IF(OR(_xlfn.IFNA($A30,"")="", ROW()&lt;=3),"",$A30-_xlfn.XLOOKUP(AZ30,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BE30" cm="1">
+        <f t="array" ref="BE30">IF(OR(_xlfn.IFNA($A30,"")="", ROW()&lt;=3),"",$A30-_xlfn.XLOOKUP(BA30,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <f>IF(OR(Daily!$A31="",Daily!$B31="*"),NA(),Daily!A31)</f>
         <v>43882</v>
@@ -20187,28 +20315,32 @@
         <f t="shared" si="22"/>
         <v>11</v>
       </c>
-      <c r="AZ31" s="3">
+      <c r="AZ31">
+        <f t="shared" si="23"/>
+        <v>22</v>
+      </c>
+      <c r="BA31" s="3">
         <f>IF(_xlfn.IFNA($A31,"")="","",AC31/(Connfiguration!$B$1/1000000))</f>
         <v>0.70965885122002181</v>
       </c>
-      <c r="BA31" cm="1">
-        <f t="array" ref="BA31">IF(OR(_xlfn.IFNA($A31,"")="", ROW()&lt;=3),"",$A31-_xlfn.XLOOKUP(AC31,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v>0</v>
-      </c>
       <c r="BB31" cm="1">
-        <f t="array" ref="BB31">IF(OR(_xlfn.IFNA($A31,"")="", ROW()&lt;=3),"",$A31-_xlfn.XLOOKUP(AZ31,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BB31">IF(OR(_xlfn.IFNA($A31,"")="", ROW()&lt;=3),"",$A31-_xlfn.XLOOKUP(AC31,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BC31" cm="1">
+        <f t="array" ref="BC31">IF(OR(_xlfn.IFNA($A31,"")="", ROW()&lt;=3),"",$A31-_xlfn.XLOOKUP(BA31,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-1</v>
       </c>
-      <c r="BC31" cm="1">
-        <f t="array" ref="BC31">IF(OR(_xlfn.IFNA($A31,"")="", ROW()&lt;=3),"",$A31-_xlfn.XLOOKUP(AC31,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BD31" cm="1">
+        <f t="array" ref="BD31">IF(OR(_xlfn.IFNA($A31,"")="", ROW()&lt;=3),"",$A31-_xlfn.XLOOKUP(AC31,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-5</v>
       </c>
-      <c r="BD31" cm="1">
-        <f t="array" ref="BD31">IF(OR(_xlfn.IFNA($A31,"")="", ROW()&lt;=3),"",$A31-_xlfn.XLOOKUP(AZ31,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BE31" cm="1">
+        <f t="array" ref="BE31">IF(OR(_xlfn.IFNA($A31,"")="", ROW()&lt;=3),"",$A31-_xlfn.XLOOKUP(BA31,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <f>IF(OR(Daily!$A32="",Daily!$B32="*"),NA(),Daily!A32)</f>
         <v>43883</v>
@@ -20413,28 +20545,32 @@
         <f t="shared" si="22"/>
         <v>11</v>
       </c>
-      <c r="AZ32" s="3">
+      <c r="AZ32">
+        <f t="shared" si="23"/>
+        <v>19</v>
+      </c>
+      <c r="BA32" s="3">
         <f>IF(_xlfn.IFNA($A32,"")="","",AC32/(Connfiguration!$B$1/1000000))</f>
         <v>0.94621180162669583</v>
       </c>
-      <c r="BA32" cm="1">
-        <f t="array" ref="BA32">IF(OR(_xlfn.IFNA($A32,"")="", ROW()&lt;=3),"",$A32-_xlfn.XLOOKUP(AC32,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v>0</v>
-      </c>
       <c r="BB32" cm="1">
-        <f t="array" ref="BB32">IF(OR(_xlfn.IFNA($A32,"")="", ROW()&lt;=3),"",$A32-_xlfn.XLOOKUP(AZ32,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BB32">IF(OR(_xlfn.IFNA($A32,"")="", ROW()&lt;=3),"",$A32-_xlfn.XLOOKUP(AC32,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>0</v>
       </c>
       <c r="BC32" cm="1">
-        <f t="array" ref="BC32">IF(OR(_xlfn.IFNA($A32,"")="", ROW()&lt;=3),"",$A32-_xlfn.XLOOKUP(AC32,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BC32">IF(OR(_xlfn.IFNA($A32,"")="", ROW()&lt;=3),"",$A32-_xlfn.XLOOKUP(BA32,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BD32" cm="1">
+        <f t="array" ref="BD32">IF(OR(_xlfn.IFNA($A32,"")="", ROW()&lt;=3),"",$A32-_xlfn.XLOOKUP(AC32,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-5</v>
       </c>
-      <c r="BD32" cm="1">
-        <f t="array" ref="BD32">IF(OR(_xlfn.IFNA($A32,"")="", ROW()&lt;=3),"",$A32-_xlfn.XLOOKUP(AZ32,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BE32" cm="1">
+        <f t="array" ref="BE32">IF(OR(_xlfn.IFNA($A32,"")="", ROW()&lt;=3),"",$A32-_xlfn.XLOOKUP(BA32,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <f>IF(OR(Daily!$A33="",Daily!$B33="*"),NA(),Daily!A33)</f>
         <v>43884</v>
@@ -20639,28 +20775,32 @@
         <f t="shared" si="22"/>
         <v>10</v>
       </c>
-      <c r="AZ33" s="3">
+      <c r="AZ33">
+        <f t="shared" si="23"/>
+        <v>20</v>
+      </c>
+      <c r="BA33" s="3">
         <f>IF(_xlfn.IFNA($A33,"")="","",AC33/(Connfiguration!$B$1/1000000))</f>
         <v>0.94621180162669583</v>
       </c>
-      <c r="BA33" cm="1">
-        <f t="array" ref="BA33">IF(OR(_xlfn.IFNA($A33,"")="", ROW()&lt;=3),"",$A33-_xlfn.XLOOKUP(AC33,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BB33" cm="1">
+        <f t="array" ref="BB33">IF(OR(_xlfn.IFNA($A33,"")="", ROW()&lt;=3),"",$A33-_xlfn.XLOOKUP(AC33,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>1</v>
       </c>
-      <c r="BB33" cm="1">
-        <f t="array" ref="BB33">IF(OR(_xlfn.IFNA($A33,"")="", ROW()&lt;=3),"",$A33-_xlfn.XLOOKUP(AZ33,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BC33" cm="1">
+        <f t="array" ref="BC33">IF(OR(_xlfn.IFNA($A33,"")="", ROW()&lt;=3),"",$A33-_xlfn.XLOOKUP(BA33,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>1</v>
       </c>
-      <c r="BC33" cm="1">
-        <f t="array" ref="BC33">IF(OR(_xlfn.IFNA($A33,"")="", ROW()&lt;=3),"",$A33-_xlfn.XLOOKUP(AC33,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BD33" cm="1">
+        <f t="array" ref="BD33">IF(OR(_xlfn.IFNA($A33,"")="", ROW()&lt;=3),"",$A33-_xlfn.XLOOKUP(AC33,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-4</v>
       </c>
-      <c r="BD33" cm="1">
-        <f t="array" ref="BD33">IF(OR(_xlfn.IFNA($A33,"")="", ROW()&lt;=3),"",$A33-_xlfn.XLOOKUP(AZ33,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BE33" cm="1">
+        <f t="array" ref="BE33">IF(OR(_xlfn.IFNA($A33,"")="", ROW()&lt;=3),"",$A33-_xlfn.XLOOKUP(BA33,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <f>IF(OR(Daily!$A34="",Daily!$B34="*"),NA(),Daily!A34)</f>
         <v>43885</v>
@@ -20865,28 +21005,32 @@
         <f t="shared" si="22"/>
         <v>9</v>
       </c>
-      <c r="AZ34" s="3">
+      <c r="AZ34">
+        <f t="shared" si="23"/>
+        <v>21</v>
+      </c>
+      <c r="BA34" s="3">
         <f>IF(_xlfn.IFNA($A34,"")="","",AC34/(Connfiguration!$B$1/1000000))</f>
         <v>0.94621180162669583</v>
       </c>
-      <c r="BA34" cm="1">
-        <f t="array" ref="BA34">IF(OR(_xlfn.IFNA($A34,"")="", ROW()&lt;=3),"",$A34-_xlfn.XLOOKUP(AC34,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BB34" cm="1">
+        <f t="array" ref="BB34">IF(OR(_xlfn.IFNA($A34,"")="", ROW()&lt;=3),"",$A34-_xlfn.XLOOKUP(AC34,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>2</v>
       </c>
-      <c r="BB34" cm="1">
-        <f t="array" ref="BB34">IF(OR(_xlfn.IFNA($A34,"")="", ROW()&lt;=3),"",$A34-_xlfn.XLOOKUP(AZ34,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BC34" cm="1">
+        <f t="array" ref="BC34">IF(OR(_xlfn.IFNA($A34,"")="", ROW()&lt;=3),"",$A34-_xlfn.XLOOKUP(BA34,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>2</v>
       </c>
-      <c r="BC34" cm="1">
-        <f t="array" ref="BC34">IF(OR(_xlfn.IFNA($A34,"")="", ROW()&lt;=3),"",$A34-_xlfn.XLOOKUP(AC34,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BD34" cm="1">
+        <f t="array" ref="BD34">IF(OR(_xlfn.IFNA($A34,"")="", ROW()&lt;=3),"",$A34-_xlfn.XLOOKUP(AC34,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-3</v>
       </c>
-      <c r="BD34" cm="1">
-        <f t="array" ref="BD34">IF(OR(_xlfn.IFNA($A34,"")="", ROW()&lt;=3),"",$A34-_xlfn.XLOOKUP(AZ34,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BE34" cm="1">
+        <f t="array" ref="BE34">IF(OR(_xlfn.IFNA($A34,"")="", ROW()&lt;=3),"",$A34-_xlfn.XLOOKUP(BA34,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <f>IF(OR(Daily!$A35="",Daily!$B35="*"),NA(),Daily!A35)</f>
         <v>43886</v>
@@ -21091,28 +21235,32 @@
         <f t="shared" si="22"/>
         <v>8</v>
       </c>
-      <c r="AZ35" s="3">
+      <c r="AZ35">
+        <f t="shared" si="23"/>
+        <v>22</v>
+      </c>
+      <c r="BA35" s="3">
         <f>IF(_xlfn.IFNA($A35,"")="","",AC35/(Connfiguration!$B$1/1000000))</f>
         <v>0.94621180162669583</v>
       </c>
-      <c r="BA35" cm="1">
-        <f t="array" ref="BA35">IF(OR(_xlfn.IFNA($A35,"")="", ROW()&lt;=3),"",$A35-_xlfn.XLOOKUP(AC35,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BB35" cm="1">
+        <f t="array" ref="BB35">IF(OR(_xlfn.IFNA($A35,"")="", ROW()&lt;=3),"",$A35-_xlfn.XLOOKUP(AC35,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>3</v>
       </c>
-      <c r="BB35" cm="1">
-        <f t="array" ref="BB35">IF(OR(_xlfn.IFNA($A35,"")="", ROW()&lt;=3),"",$A35-_xlfn.XLOOKUP(AZ35,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BC35" cm="1">
+        <f t="array" ref="BC35">IF(OR(_xlfn.IFNA($A35,"")="", ROW()&lt;=3),"",$A35-_xlfn.XLOOKUP(BA35,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>3</v>
       </c>
-      <c r="BC35" cm="1">
-        <f t="array" ref="BC35">IF(OR(_xlfn.IFNA($A35,"")="", ROW()&lt;=3),"",$A35-_xlfn.XLOOKUP(AC35,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BD35" cm="1">
+        <f t="array" ref="BD35">IF(OR(_xlfn.IFNA($A35,"")="", ROW()&lt;=3),"",$A35-_xlfn.XLOOKUP(AC35,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-2</v>
       </c>
-      <c r="BD35" cm="1">
-        <f t="array" ref="BD35">IF(OR(_xlfn.IFNA($A35,"")="", ROW()&lt;=3),"",$A35-_xlfn.XLOOKUP(AZ35,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BE35" cm="1">
+        <f t="array" ref="BE35">IF(OR(_xlfn.IFNA($A35,"")="", ROW()&lt;=3),"",$A35-_xlfn.XLOOKUP(BA35,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <f>IF(OR(Daily!$A36="",Daily!$B36="*"),NA(),Daily!A36)</f>
         <v>43887</v>
@@ -21317,28 +21465,32 @@
         <f t="shared" si="22"/>
         <v>7</v>
       </c>
-      <c r="AZ36" s="3">
+      <c r="AZ36">
+        <f t="shared" si="23"/>
+        <v>23</v>
+      </c>
+      <c r="BA36" s="3">
         <f>IF(_xlfn.IFNA($A36,"")="","",AC36/(Connfiguration!$B$1/1000000))</f>
         <v>0.94621180162669583</v>
       </c>
-      <c r="BA36" cm="1">
-        <f t="array" ref="BA36">IF(OR(_xlfn.IFNA($A36,"")="", ROW()&lt;=3),"",$A36-_xlfn.XLOOKUP(AC36,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BB36" cm="1">
+        <f t="array" ref="BB36">IF(OR(_xlfn.IFNA($A36,"")="", ROW()&lt;=3),"",$A36-_xlfn.XLOOKUP(AC36,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>4</v>
       </c>
-      <c r="BB36" cm="1">
-        <f t="array" ref="BB36">IF(OR(_xlfn.IFNA($A36,"")="", ROW()&lt;=3),"",$A36-_xlfn.XLOOKUP(AZ36,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BC36" cm="1">
+        <f t="array" ref="BC36">IF(OR(_xlfn.IFNA($A36,"")="", ROW()&lt;=3),"",$A36-_xlfn.XLOOKUP(BA36,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>4</v>
       </c>
-      <c r="BC36" cm="1">
-        <f t="array" ref="BC36">IF(OR(_xlfn.IFNA($A36,"")="", ROW()&lt;=3),"",$A36-_xlfn.XLOOKUP(AC36,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BD36" cm="1">
+        <f t="array" ref="BD36">IF(OR(_xlfn.IFNA($A36,"")="", ROW()&lt;=3),"",$A36-_xlfn.XLOOKUP(AC36,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>-1</v>
       </c>
-      <c r="BD36" cm="1">
-        <f t="array" ref="BD36">IF(OR(_xlfn.IFNA($A36,"")="", ROW()&lt;=3),"",$A36-_xlfn.XLOOKUP(AZ36,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BE36" cm="1">
+        <f t="array" ref="BE36">IF(OR(_xlfn.IFNA($A36,"")="", ROW()&lt;=3),"",$A36-_xlfn.XLOOKUP(BA36,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <f>IF(OR(Daily!$A37="",Daily!$B37="*"),NA(),Daily!A37)</f>
         <v>43888</v>
@@ -21543,28 +21695,32 @@
         <f t="shared" si="22"/>
         <v>6</v>
       </c>
-      <c r="AZ37" s="3">
+      <c r="AZ37">
+        <f t="shared" si="23"/>
+        <v>24</v>
+      </c>
+      <c r="BA37" s="3">
         <f>IF(_xlfn.IFNA($A37,"")="","",AC37/(Connfiguration!$B$1/1000000))</f>
         <v>0.94621180162669583</v>
       </c>
-      <c r="BA37" cm="1">
-        <f t="array" ref="BA37">IF(OR(_xlfn.IFNA($A37,"")="", ROW()&lt;=3),"",$A37-_xlfn.XLOOKUP(AC37,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BB37" cm="1">
+        <f t="array" ref="BB37">IF(OR(_xlfn.IFNA($A37,"")="", ROW()&lt;=3),"",$A37-_xlfn.XLOOKUP(AC37,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>5</v>
       </c>
-      <c r="BB37" cm="1">
-        <f t="array" ref="BB37">IF(OR(_xlfn.IFNA($A37,"")="", ROW()&lt;=3),"",$A37-_xlfn.XLOOKUP(AZ37,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BC37" cm="1">
+        <f t="array" ref="BC37">IF(OR(_xlfn.IFNA($A37,"")="", ROW()&lt;=3),"",$A37-_xlfn.XLOOKUP(BA37,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>5</v>
       </c>
-      <c r="BC37" cm="1">
-        <f t="array" ref="BC37">IF(OR(_xlfn.IFNA($A37,"")="", ROW()&lt;=3),"",$A37-_xlfn.XLOOKUP(AC37,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v>0</v>
-      </c>
       <c r="BD37" cm="1">
-        <f t="array" ref="BD37">IF(OR(_xlfn.IFNA($A37,"")="", ROW()&lt;=3),"",$A37-_xlfn.XLOOKUP(AZ37,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BD37">IF(OR(_xlfn.IFNA($A37,"")="", ROW()&lt;=3),"",$A37-_xlfn.XLOOKUP(AC37,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BE37" cm="1">
+        <f t="array" ref="BE37">IF(OR(_xlfn.IFNA($A37,"")="", ROW()&lt;=3),"",$A37-_xlfn.XLOOKUP(BA37,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <f>IF(OR(Daily!$A38="",Daily!$B38="*"),NA(),Daily!A38)</f>
         <v>43889</v>
@@ -21769,28 +21925,32 @@
         <f t="shared" si="22"/>
         <v>5</v>
       </c>
-      <c r="AZ38" s="3">
+      <c r="AZ38">
+        <f t="shared" si="23"/>
+        <v>24</v>
+      </c>
+      <c r="BA38" s="3">
         <f>IF(_xlfn.IFNA($A38,"")="","",AC38/(Connfiguration!$B$1/1000000))</f>
         <v>1.0250627850955871</v>
       </c>
-      <c r="BA38" cm="1">
-        <f t="array" ref="BA38">IF(OR(_xlfn.IFNA($A38,"")="", ROW()&lt;=3),"",$A38-_xlfn.XLOOKUP(AC38,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BB38" cm="1">
+        <f t="array" ref="BB38">IF(OR(_xlfn.IFNA($A38,"")="", ROW()&lt;=3),"",$A38-_xlfn.XLOOKUP(AC38,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>6</v>
       </c>
-      <c r="BB38" cm="1">
-        <f t="array" ref="BB38">IF(OR(_xlfn.IFNA($A38,"")="", ROW()&lt;=3),"",$A38-_xlfn.XLOOKUP(AZ38,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BC38" cm="1">
+        <f t="array" ref="BC38">IF(OR(_xlfn.IFNA($A38,"")="", ROW()&lt;=3),"",$A38-_xlfn.XLOOKUP(BA38,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>6</v>
       </c>
-      <c r="BC38" cm="1">
-        <f t="array" ref="BC38">IF(OR(_xlfn.IFNA($A38,"")="", ROW()&lt;=3),"",$A38-_xlfn.XLOOKUP(AC38,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BD38" cm="1">
+        <f t="array" ref="BD38">IF(OR(_xlfn.IFNA($A38,"")="", ROW()&lt;=3),"",$A38-_xlfn.XLOOKUP(AC38,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>1</v>
       </c>
-      <c r="BD38" cm="1">
-        <f t="array" ref="BD38">IF(OR(_xlfn.IFNA($A38,"")="", ROW()&lt;=3),"",$A38-_xlfn.XLOOKUP(AZ38,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BE38" cm="1">
+        <f t="array" ref="BE38">IF(OR(_xlfn.IFNA($A38,"")="", ROW()&lt;=3),"",$A38-_xlfn.XLOOKUP(BA38,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <f>IF(OR(Daily!$A39="",Daily!$B39="*"),NA(),Daily!A39)</f>
         <v>43890</v>
@@ -21995,28 +22155,32 @@
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="AZ39" s="3">
+      <c r="AZ39">
+        <f t="shared" si="23"/>
+        <v>25</v>
+      </c>
+      <c r="BA39" s="3">
         <f>IF(_xlfn.IFNA($A39,"")="","",AC39/(Connfiguration!$B$1/1000000))</f>
         <v>1.0250627850955871</v>
       </c>
-      <c r="BA39" cm="1">
-        <f t="array" ref="BA39">IF(OR(_xlfn.IFNA($A39,"")="", ROW()&lt;=3),"",$A39-_xlfn.XLOOKUP(AC39,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BB39" cm="1">
+        <f t="array" ref="BB39">IF(OR(_xlfn.IFNA($A39,"")="", ROW()&lt;=3),"",$A39-_xlfn.XLOOKUP(AC39,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>7</v>
       </c>
-      <c r="BB39" cm="1">
-        <f t="array" ref="BB39">IF(OR(_xlfn.IFNA($A39,"")="", ROW()&lt;=3),"",$A39-_xlfn.XLOOKUP(AZ39,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BC39" cm="1">
+        <f t="array" ref="BC39">IF(OR(_xlfn.IFNA($A39,"")="", ROW()&lt;=3),"",$A39-_xlfn.XLOOKUP(BA39,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>7</v>
       </c>
-      <c r="BC39" cm="1">
-        <f t="array" ref="BC39">IF(OR(_xlfn.IFNA($A39,"")="", ROW()&lt;=3),"",$A39-_xlfn.XLOOKUP(AC39,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BD39" cm="1">
+        <f t="array" ref="BD39">IF(OR(_xlfn.IFNA($A39,"")="", ROW()&lt;=3),"",$A39-_xlfn.XLOOKUP(AC39,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>2</v>
       </c>
-      <c r="BD39" cm="1">
-        <f t="array" ref="BD39">IF(OR(_xlfn.IFNA($A39,"")="", ROW()&lt;=3),"",$A39-_xlfn.XLOOKUP(AZ39,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BE39" cm="1">
+        <f t="array" ref="BE39">IF(OR(_xlfn.IFNA($A39,"")="", ROW()&lt;=3),"",$A39-_xlfn.XLOOKUP(BA39,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <f>IF(OR(Daily!$A40="",Daily!$B40="*"),NA(),Daily!A40)</f>
         <v>43891</v>
@@ -22221,28 +22385,32 @@
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="AZ40" s="3">
+      <c r="AZ40">
+        <f t="shared" si="23"/>
+        <v>25</v>
+      </c>
+      <c r="BA40" s="3">
         <f>IF(_xlfn.IFNA($A40,"")="","",AC40/(Connfiguration!$B$1/1000000))</f>
         <v>1.1827647520333697</v>
       </c>
-      <c r="BA40" cm="1">
-        <f t="array" ref="BA40">IF(OR(_xlfn.IFNA($A40,"")="", ROW()&lt;=3),"",$A40-_xlfn.XLOOKUP(AC40,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BB40" cm="1">
+        <f t="array" ref="BB40">IF(OR(_xlfn.IFNA($A40,"")="", ROW()&lt;=3),"",$A40-_xlfn.XLOOKUP(AC40,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>8</v>
       </c>
-      <c r="BB40" cm="1">
-        <f t="array" ref="BB40">IF(OR(_xlfn.IFNA($A40,"")="", ROW()&lt;=3),"",$A40-_xlfn.XLOOKUP(AZ40,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BC40" cm="1">
+        <f t="array" ref="BC40">IF(OR(_xlfn.IFNA($A40,"")="", ROW()&lt;=3),"",$A40-_xlfn.XLOOKUP(BA40,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>8</v>
       </c>
-      <c r="BC40" cm="1">
-        <f t="array" ref="BC40">IF(OR(_xlfn.IFNA($A40,"")="", ROW()&lt;=3),"",$A40-_xlfn.XLOOKUP(AC40,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BD40" cm="1">
+        <f t="array" ref="BD40">IF(OR(_xlfn.IFNA($A40,"")="", ROW()&lt;=3),"",$A40-_xlfn.XLOOKUP(AC40,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>3</v>
       </c>
-      <c r="BD40" cm="1">
-        <f t="array" ref="BD40">IF(OR(_xlfn.IFNA($A40,"")="", ROW()&lt;=3),"",$A40-_xlfn.XLOOKUP(AZ40,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BE40" cm="1">
+        <f t="array" ref="BE40">IF(OR(_xlfn.IFNA($A40,"")="", ROW()&lt;=3),"",$A40-_xlfn.XLOOKUP(BA40,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <f>IF(OR(Daily!$A41="",Daily!$B41="*"),NA(),Daily!A41)</f>
         <v>43892</v>
@@ -22447,28 +22615,32 @@
         <f t="shared" si="22"/>
         <v>5</v>
       </c>
-      <c r="AZ41" s="3">
+      <c r="AZ41">
+        <f t="shared" si="23"/>
+        <v>11</v>
+      </c>
+      <c r="BA41" s="3">
         <f>IF(_xlfn.IFNA($A41,"")="","",AC41/(Connfiguration!$B$1/1000000))</f>
         <v>1.3404667189711523</v>
       </c>
-      <c r="BA41" cm="1">
-        <f t="array" ref="BA41">IF(OR(_xlfn.IFNA($A41,"")="", ROW()&lt;=3),"",$A41-_xlfn.XLOOKUP(AC41,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BB41" cm="1">
+        <f t="array" ref="BB41">IF(OR(_xlfn.IFNA($A41,"")="", ROW()&lt;=3),"",$A41-_xlfn.XLOOKUP(AC41,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>9</v>
       </c>
-      <c r="BB41" cm="1">
-        <f t="array" ref="BB41">IF(OR(_xlfn.IFNA($A41,"")="", ROW()&lt;=3),"",$A41-_xlfn.XLOOKUP(AZ41,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BC41" cm="1">
+        <f t="array" ref="BC41">IF(OR(_xlfn.IFNA($A41,"")="", ROW()&lt;=3),"",$A41-_xlfn.XLOOKUP(BA41,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>8</v>
       </c>
-      <c r="BC41" cm="1">
-        <f t="array" ref="BC41">IF(OR(_xlfn.IFNA($A41,"")="", ROW()&lt;=3),"",$A41-_xlfn.XLOOKUP(AC41,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BD41" cm="1">
+        <f t="array" ref="BD41">IF(OR(_xlfn.IFNA($A41,"")="", ROW()&lt;=3),"",$A41-_xlfn.XLOOKUP(AC41,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>4</v>
       </c>
-      <c r="BD41" cm="1">
-        <f t="array" ref="BD41">IF(OR(_xlfn.IFNA($A41,"")="", ROW()&lt;=3),"",$A41-_xlfn.XLOOKUP(AZ41,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BE41" cm="1">
+        <f t="array" ref="BE41">IF(OR(_xlfn.IFNA($A41,"")="", ROW()&lt;=3),"",$A41-_xlfn.XLOOKUP(BA41,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <f>IF(OR(Daily!$A42="",Daily!$B42="*"),NA(),Daily!A42)</f>
         <v>43893</v>
@@ -22673,28 +22845,32 @@
         <f t="shared" si="22"/>
         <v>6</v>
       </c>
-      <c r="AZ42" s="3">
+      <c r="AZ42">
+        <f t="shared" si="23"/>
+        <v>11</v>
+      </c>
+      <c r="BA42" s="3">
         <f>IF(_xlfn.IFNA($A42,"")="","",AC42/(Connfiguration!$B$1/1000000))</f>
         <v>1.6558706528467175</v>
       </c>
-      <c r="BA42" cm="1">
-        <f t="array" ref="BA42">IF(OR(_xlfn.IFNA($A42,"")="", ROW()&lt;=3),"",$A42-_xlfn.XLOOKUP(AC42,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BB42" cm="1">
+        <f t="array" ref="BB42">IF(OR(_xlfn.IFNA($A42,"")="", ROW()&lt;=3),"",$A42-_xlfn.XLOOKUP(AC42,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>10</v>
       </c>
-      <c r="BB42" cm="1">
-        <f t="array" ref="BB42">IF(OR(_xlfn.IFNA($A42,"")="", ROW()&lt;=3),"",$A42-_xlfn.XLOOKUP(AZ42,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BC42" cm="1">
+        <f t="array" ref="BC42">IF(OR(_xlfn.IFNA($A42,"")="", ROW()&lt;=3),"",$A42-_xlfn.XLOOKUP(BA42,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>9</v>
       </c>
-      <c r="BC42" cm="1">
-        <f t="array" ref="BC42">IF(OR(_xlfn.IFNA($A42,"")="", ROW()&lt;=3),"",$A42-_xlfn.XLOOKUP(AC42,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BD42" cm="1">
+        <f t="array" ref="BD42">IF(OR(_xlfn.IFNA($A42,"")="", ROW()&lt;=3),"",$A42-_xlfn.XLOOKUP(AC42,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>4</v>
       </c>
-      <c r="BD42" cm="1">
-        <f t="array" ref="BD42">IF(OR(_xlfn.IFNA($A42,"")="", ROW()&lt;=3),"",$A42-_xlfn.XLOOKUP(AZ42,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BE42" cm="1">
+        <f t="array" ref="BE42">IF(OR(_xlfn.IFNA($A42,"")="", ROW()&lt;=3),"",$A42-_xlfn.XLOOKUP(BA42,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <f>IF(OR(Daily!$A43="",Daily!$B43="*"),NA(),Daily!A43)</f>
         <v>43894</v>
@@ -22899,28 +23075,32 @@
         <f t="shared" si="22"/>
         <v>6</v>
       </c>
-      <c r="AZ43" s="3">
+      <c r="AZ43">
+        <f t="shared" si="23"/>
+        <v>4</v>
+      </c>
+      <c r="BA43" s="3">
         <f>IF(_xlfn.IFNA($A43,"")="","",AC43/(Connfiguration!$B$1/1000000))</f>
         <v>2.0501255701911743</v>
       </c>
-      <c r="BA43" cm="1">
-        <f t="array" ref="BA43">IF(OR(_xlfn.IFNA($A43,"")="", ROW()&lt;=3),"",$A43-_xlfn.XLOOKUP(AC43,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BB43" cm="1">
+        <f t="array" ref="BB43">IF(OR(_xlfn.IFNA($A43,"")="", ROW()&lt;=3),"",$A43-_xlfn.XLOOKUP(AC43,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>11</v>
       </c>
-      <c r="BB43" cm="1">
-        <f t="array" ref="BB43">IF(OR(_xlfn.IFNA($A43,"")="", ROW()&lt;=3),"",$A43-_xlfn.XLOOKUP(AZ43,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BC43" cm="1">
+        <f t="array" ref="BC43">IF(OR(_xlfn.IFNA($A43,"")="", ROW()&lt;=3),"",$A43-_xlfn.XLOOKUP(BA43,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>10</v>
       </c>
-      <c r="BC43" cm="1">
-        <f t="array" ref="BC43">IF(OR(_xlfn.IFNA($A43,"")="", ROW()&lt;=3),"",$A43-_xlfn.XLOOKUP(AC43,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BD43" cm="1">
+        <f t="array" ref="BD43">IF(OR(_xlfn.IFNA($A43,"")="", ROW()&lt;=3),"",$A43-_xlfn.XLOOKUP(AC43,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>5</v>
       </c>
-      <c r="BD43" cm="1">
-        <f t="array" ref="BD43">IF(OR(_xlfn.IFNA($A43,"")="", ROW()&lt;=3),"",$A43-_xlfn.XLOOKUP(AZ43,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BE43" cm="1">
+        <f t="array" ref="BE43">IF(OR(_xlfn.IFNA($A43,"")="", ROW()&lt;=3),"",$A43-_xlfn.XLOOKUP(BA43,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <f>IF(OR(Daily!$A44="",Daily!$B44="*"),NA(),Daily!A44)</f>
         <v>43895</v>
@@ -23125,28 +23305,32 @@
         <f t="shared" si="22"/>
         <v>6</v>
       </c>
-      <c r="AZ44" s="3">
+      <c r="AZ44">
+        <f t="shared" si="23"/>
+        <v>4</v>
+      </c>
+      <c r="BA44" s="3">
         <f>IF(_xlfn.IFNA($A44,"")="","",AC44/(Connfiguration!$B$1/1000000))</f>
         <v>2.3655295040667395</v>
       </c>
-      <c r="BA44" cm="1">
-        <f t="array" ref="BA44">IF(OR(_xlfn.IFNA($A44,"")="", ROW()&lt;=3),"",$A44-_xlfn.XLOOKUP(AC44,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BB44" cm="1">
+        <f t="array" ref="BB44">IF(OR(_xlfn.IFNA($A44,"")="", ROW()&lt;=3),"",$A44-_xlfn.XLOOKUP(AC44,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>12</v>
       </c>
-      <c r="BB44" cm="1">
-        <f t="array" ref="BB44">IF(OR(_xlfn.IFNA($A44,"")="", ROW()&lt;=3),"",$A44-_xlfn.XLOOKUP(AZ44,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BC44" cm="1">
+        <f t="array" ref="BC44">IF(OR(_xlfn.IFNA($A44,"")="", ROW()&lt;=3),"",$A44-_xlfn.XLOOKUP(BA44,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>11</v>
       </c>
-      <c r="BC44" cm="1">
-        <f t="array" ref="BC44">IF(OR(_xlfn.IFNA($A44,"")="", ROW()&lt;=3),"",$A44-_xlfn.XLOOKUP(AC44,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BD44" cm="1">
+        <f t="array" ref="BD44">IF(OR(_xlfn.IFNA($A44,"")="", ROW()&lt;=3),"",$A44-_xlfn.XLOOKUP(AC44,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>5</v>
       </c>
-      <c r="BD44" cm="1">
-        <f t="array" ref="BD44">IF(OR(_xlfn.IFNA($A44,"")="", ROW()&lt;=3),"",$A44-_xlfn.XLOOKUP(AZ44,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BE44" cm="1">
+        <f t="array" ref="BE44">IF(OR(_xlfn.IFNA($A44,"")="", ROW()&lt;=3),"",$A44-_xlfn.XLOOKUP(BA44,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <f>IF(OR(Daily!$A45="",Daily!$B45="*"),NA(),Daily!A45)</f>
         <v>43896</v>
@@ -23351,28 +23535,32 @@
         <f t="shared" si="22"/>
         <v>5</v>
       </c>
-      <c r="AZ45" s="3">
+      <c r="AZ45">
+        <f t="shared" si="23"/>
+        <v>5</v>
+      </c>
+      <c r="BA45" s="3">
         <f>IF(_xlfn.IFNA($A45,"")="","",AC45/(Connfiguration!$B$1/1000000))</f>
         <v>2.5232314710045221</v>
       </c>
-      <c r="BA45" cm="1">
-        <f t="array" ref="BA45">IF(OR(_xlfn.IFNA($A45,"")="", ROW()&lt;=3),"",$A45-_xlfn.XLOOKUP(AC45,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BB45" cm="1">
+        <f t="array" ref="BB45">IF(OR(_xlfn.IFNA($A45,"")="", ROW()&lt;=3),"",$A45-_xlfn.XLOOKUP(AC45,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>13</v>
       </c>
-      <c r="BB45" cm="1">
-        <f t="array" ref="BB45">IF(OR(_xlfn.IFNA($A45,"")="", ROW()&lt;=3),"",$A45-_xlfn.XLOOKUP(AZ45,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BC45" cm="1">
+        <f t="array" ref="BC45">IF(OR(_xlfn.IFNA($A45,"")="", ROW()&lt;=3),"",$A45-_xlfn.XLOOKUP(BA45,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>11</v>
       </c>
-      <c r="BC45" cm="1">
-        <f t="array" ref="BC45">IF(OR(_xlfn.IFNA($A45,"")="", ROW()&lt;=3),"",$A45-_xlfn.XLOOKUP(AC45,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BD45" cm="1">
+        <f t="array" ref="BD45">IF(OR(_xlfn.IFNA($A45,"")="", ROW()&lt;=3),"",$A45-_xlfn.XLOOKUP(AC45,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>6</v>
       </c>
-      <c r="BD45" cm="1">
-        <f t="array" ref="BD45">IF(OR(_xlfn.IFNA($A45,"")="", ROW()&lt;=3),"",$A45-_xlfn.XLOOKUP(AZ45,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BE45" cm="1">
+        <f t="array" ref="BE45">IF(OR(_xlfn.IFNA($A45,"")="", ROW()&lt;=3),"",$A45-_xlfn.XLOOKUP(BA45,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <f>IF(OR(Daily!$A46="",Daily!$B46="*"),NA(),Daily!A46)</f>
         <v>43897</v>
@@ -23577,28 +23765,32 @@
         <f t="shared" si="22"/>
         <v>5</v>
       </c>
-      <c r="AZ46" s="3">
+      <c r="AZ46">
+        <f t="shared" si="23"/>
+        <v>5</v>
+      </c>
+      <c r="BA46" s="3">
         <f>IF(_xlfn.IFNA($A46,"")="","",AC46/(Connfiguration!$B$1/1000000))</f>
         <v>2.8780608966145329</v>
       </c>
-      <c r="BA46" cm="1">
-        <f t="array" ref="BA46">IF(OR(_xlfn.IFNA($A46,"")="", ROW()&lt;=3),"",$A46-_xlfn.XLOOKUP(AC46,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BB46" cm="1">
+        <f t="array" ref="BB46">IF(OR(_xlfn.IFNA($A46,"")="", ROW()&lt;=3),"",$A46-_xlfn.XLOOKUP(AC46,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>14</v>
       </c>
-      <c r="BB46" cm="1">
-        <f t="array" ref="BB46">IF(OR(_xlfn.IFNA($A46,"")="", ROW()&lt;=3),"",$A46-_xlfn.XLOOKUP(AZ46,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BC46" cm="1">
+        <f t="array" ref="BC46">IF(OR(_xlfn.IFNA($A46,"")="", ROW()&lt;=3),"",$A46-_xlfn.XLOOKUP(BA46,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>12</v>
       </c>
-      <c r="BC46" cm="1">
-        <f t="array" ref="BC46">IF(OR(_xlfn.IFNA($A46,"")="", ROW()&lt;=3),"",$A46-_xlfn.XLOOKUP(AC46,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BD46" cm="1">
+        <f t="array" ref="BD46">IF(OR(_xlfn.IFNA($A46,"")="", ROW()&lt;=3),"",$A46-_xlfn.XLOOKUP(AC46,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>7</v>
       </c>
-      <c r="BD46" cm="1">
-        <f t="array" ref="BD46">IF(OR(_xlfn.IFNA($A46,"")="", ROW()&lt;=3),"",$A46-_xlfn.XLOOKUP(AZ46,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BE46" cm="1">
+        <f t="array" ref="BE46">IF(OR(_xlfn.IFNA($A46,"")="", ROW()&lt;=3),"",$A46-_xlfn.XLOOKUP(BA46,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <f>IF(OR(Daily!$A47="",Daily!$B47="*"),NA(),Daily!A47)</f>
         <v>43898</v>
@@ -23803,28 +23995,32 @@
         <f t="shared" si="22"/>
         <v>5</v>
       </c>
-      <c r="AZ47" s="3">
+      <c r="AZ47">
+        <f t="shared" si="23"/>
+        <v>6</v>
+      </c>
+      <c r="BA47" s="3">
         <f>IF(_xlfn.IFNA($A47,"")="","",AC47/(Connfiguration!$B$1/1000000))</f>
         <v>3.1934648304900981</v>
       </c>
-      <c r="BA47" cm="1">
-        <f t="array" ref="BA47">IF(OR(_xlfn.IFNA($A47,"")="", ROW()&lt;=3),"",$A47-_xlfn.XLOOKUP(AC47,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BB47" cm="1">
+        <f t="array" ref="BB47">IF(OR(_xlfn.IFNA($A47,"")="", ROW()&lt;=3),"",$A47-_xlfn.XLOOKUP(AC47,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>14</v>
       </c>
-      <c r="BB47" cm="1">
-        <f t="array" ref="BB47">IF(OR(_xlfn.IFNA($A47,"")="", ROW()&lt;=3),"",$A47-_xlfn.XLOOKUP(AZ47,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BC47" cm="1">
+        <f t="array" ref="BC47">IF(OR(_xlfn.IFNA($A47,"")="", ROW()&lt;=3),"",$A47-_xlfn.XLOOKUP(BA47,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>13</v>
       </c>
-      <c r="BC47" cm="1">
-        <f t="array" ref="BC47">IF(OR(_xlfn.IFNA($A47,"")="", ROW()&lt;=3),"",$A47-_xlfn.XLOOKUP(AC47,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BD47" cm="1">
+        <f t="array" ref="BD47">IF(OR(_xlfn.IFNA($A47,"")="", ROW()&lt;=3),"",$A47-_xlfn.XLOOKUP(AC47,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>8</v>
       </c>
-      <c r="BD47" cm="1">
-        <f t="array" ref="BD47">IF(OR(_xlfn.IFNA($A47,"")="", ROW()&lt;=3),"",$A47-_xlfn.XLOOKUP(AZ47,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BE47" cm="1">
+        <f t="array" ref="BE47">IF(OR(_xlfn.IFNA($A47,"")="", ROW()&lt;=3),"",$A47-_xlfn.XLOOKUP(BA47,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <f>IF(OR(Daily!$A48="",Daily!$B48="*"),NA(),Daily!A48)</f>
         <v>43899</v>
@@ -24029,28 +24225,32 @@
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="AZ48" s="3">
+      <c r="AZ48">
+        <f t="shared" si="23"/>
+        <v>6</v>
+      </c>
+      <c r="BA48" s="3">
         <f>IF(_xlfn.IFNA($A48,"")="","",AC48/(Connfiguration!$B$1/1000000))</f>
         <v>3.6665707313034464</v>
       </c>
-      <c r="BA48" cm="1">
-        <f t="array" ref="BA48">IF(OR(_xlfn.IFNA($A48,"")="", ROW()&lt;=3),"",$A48-_xlfn.XLOOKUP(AC48,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BB48" cm="1">
+        <f t="array" ref="BB48">IF(OR(_xlfn.IFNA($A48,"")="", ROW()&lt;=3),"",$A48-_xlfn.XLOOKUP(AC48,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>15</v>
       </c>
-      <c r="BB48" cm="1">
-        <f t="array" ref="BB48">IF(OR(_xlfn.IFNA($A48,"")="", ROW()&lt;=3),"",$A48-_xlfn.XLOOKUP(AZ48,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BC48" cm="1">
+        <f t="array" ref="BC48">IF(OR(_xlfn.IFNA($A48,"")="", ROW()&lt;=3),"",$A48-_xlfn.XLOOKUP(BA48,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>14</v>
       </c>
-      <c r="BC48" cm="1">
-        <f t="array" ref="BC48">IF(OR(_xlfn.IFNA($A48,"")="", ROW()&lt;=3),"",$A48-_xlfn.XLOOKUP(AC48,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BD48" cm="1">
+        <f t="array" ref="BD48">IF(OR(_xlfn.IFNA($A48,"")="", ROW()&lt;=3),"",$A48-_xlfn.XLOOKUP(AC48,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>9</v>
       </c>
-      <c r="BD48" cm="1">
-        <f t="array" ref="BD48">IF(OR(_xlfn.IFNA($A48,"")="", ROW()&lt;=3),"",$A48-_xlfn.XLOOKUP(AZ48,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BE48" cm="1">
+        <f t="array" ref="BE48">IF(OR(_xlfn.IFNA($A48,"")="", ROW()&lt;=3),"",$A48-_xlfn.XLOOKUP(BA48,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <f>IF(OR(Daily!$A49="",Daily!$B49="*"),NA(),Daily!A49)</f>
         <v>43900</v>
@@ -24255,28 +24455,32 @@
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="AZ49" s="3">
+      <c r="AZ49">
+        <f t="shared" si="23"/>
+        <v>6</v>
+      </c>
+      <c r="BA49" s="3">
         <f>IF(_xlfn.IFNA($A49,"")="","",AC49/(Connfiguration!$B$1/1000000))</f>
         <v>4.4550805659923594</v>
       </c>
-      <c r="BA49" cm="1">
-        <f t="array" ref="BA49">IF(OR(_xlfn.IFNA($A49,"")="", ROW()&lt;=3),"",$A49-_xlfn.XLOOKUP(AC49,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BB49" cm="1">
+        <f t="array" ref="BB49">IF(OR(_xlfn.IFNA($A49,"")="", ROW()&lt;=3),"",$A49-_xlfn.XLOOKUP(AC49,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>16</v>
       </c>
-      <c r="BB49" cm="1">
-        <f t="array" ref="BB49">IF(OR(_xlfn.IFNA($A49,"")="", ROW()&lt;=3),"",$A49-_xlfn.XLOOKUP(AZ49,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BC49" cm="1">
+        <f t="array" ref="BC49">IF(OR(_xlfn.IFNA($A49,"")="", ROW()&lt;=3),"",$A49-_xlfn.XLOOKUP(BA49,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>14</v>
       </c>
-      <c r="BC49" cm="1">
-        <f t="array" ref="BC49">IF(OR(_xlfn.IFNA($A49,"")="", ROW()&lt;=3),"",$A49-_xlfn.XLOOKUP(AC49,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BD49" cm="1">
+        <f t="array" ref="BD49">IF(OR(_xlfn.IFNA($A49,"")="", ROW()&lt;=3),"",$A49-_xlfn.XLOOKUP(AC49,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>9</v>
       </c>
-      <c r="BD49" cm="1">
-        <f t="array" ref="BD49">IF(OR(_xlfn.IFNA($A49,"")="", ROW()&lt;=3),"",$A49-_xlfn.XLOOKUP(AZ49,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BE49" cm="1">
+        <f t="array" ref="BE49">IF(OR(_xlfn.IFNA($A49,"")="", ROW()&lt;=3),"",$A49-_xlfn.XLOOKUP(BA49,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <f>IF(OR(Daily!$A50="",Daily!$B50="*"),NA(),Daily!A50)</f>
         <v>43901</v>
@@ -24481,28 +24685,32 @@
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="AZ50" s="3">
+      <c r="AZ50">
+        <f t="shared" si="23"/>
+        <v>5</v>
+      </c>
+      <c r="BA50" s="3">
         <f>IF(_xlfn.IFNA($A50,"")="","",AC50/(Connfiguration!$B$1/1000000))</f>
         <v>5.0464629420090441</v>
       </c>
-      <c r="BA50" cm="1">
-        <f t="array" ref="BA50">IF(OR(_xlfn.IFNA($A50,"")="", ROW()&lt;=3),"",$A50-_xlfn.XLOOKUP(AC50,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BB50" cm="1">
+        <f t="array" ref="BB50">IF(OR(_xlfn.IFNA($A50,"")="", ROW()&lt;=3),"",$A50-_xlfn.XLOOKUP(AC50,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>17</v>
       </c>
-      <c r="BB50" cm="1">
-        <f t="array" ref="BB50">IF(OR(_xlfn.IFNA($A50,"")="", ROW()&lt;=3),"",$A50-_xlfn.XLOOKUP(AZ50,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BC50" cm="1">
+        <f t="array" ref="BC50">IF(OR(_xlfn.IFNA($A50,"")="", ROW()&lt;=3),"",$A50-_xlfn.XLOOKUP(BA50,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>15</v>
       </c>
-      <c r="BC50" cm="1">
-        <f t="array" ref="BC50">IF(OR(_xlfn.IFNA($A50,"")="", ROW()&lt;=3),"",$A50-_xlfn.XLOOKUP(AC50,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BD50" cm="1">
+        <f t="array" ref="BD50">IF(OR(_xlfn.IFNA($A50,"")="", ROW()&lt;=3),"",$A50-_xlfn.XLOOKUP(AC50,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>10</v>
       </c>
-      <c r="BD50" cm="1">
-        <f t="array" ref="BD50">IF(OR(_xlfn.IFNA($A50,"")="", ROW()&lt;=3),"",$A50-_xlfn.XLOOKUP(AZ50,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BE50" cm="1">
+        <f t="array" ref="BE50">IF(OR(_xlfn.IFNA($A50,"")="", ROW()&lt;=3),"",$A50-_xlfn.XLOOKUP(BA50,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <f>IF(OR(Daily!$A51="",Daily!$B51="*"),NA(),Daily!A51)</f>
         <v>43902</v>
@@ -24707,28 +24915,32 @@
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="AZ51" s="3">
+      <c r="AZ51">
+        <f t="shared" si="23"/>
+        <v>5</v>
+      </c>
+      <c r="BA51" s="3">
         <f>IF(_xlfn.IFNA($A51,"")="","",AC51/(Connfiguration!$B$1/1000000))</f>
         <v>6.2292276940424136</v>
       </c>
-      <c r="BA51" cm="1">
-        <f t="array" ref="BA51">IF(OR(_xlfn.IFNA($A51,"")="", ROW()&lt;=3),"",$A51-_xlfn.XLOOKUP(AC51,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BB51" cm="1">
+        <f t="array" ref="BB51">IF(OR(_xlfn.IFNA($A51,"")="", ROW()&lt;=3),"",$A51-_xlfn.XLOOKUP(AC51,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>17</v>
       </c>
-      <c r="BB51" cm="1">
-        <f t="array" ref="BB51">IF(OR(_xlfn.IFNA($A51,"")="", ROW()&lt;=3),"",$A51-_xlfn.XLOOKUP(AZ51,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BC51" cm="1">
+        <f t="array" ref="BC51">IF(OR(_xlfn.IFNA($A51,"")="", ROW()&lt;=3),"",$A51-_xlfn.XLOOKUP(BA51,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>15</v>
       </c>
-      <c r="BC51" cm="1">
-        <f t="array" ref="BC51">IF(OR(_xlfn.IFNA($A51,"")="", ROW()&lt;=3),"",$A51-_xlfn.XLOOKUP(AC51,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BD51" cm="1">
+        <f t="array" ref="BD51">IF(OR(_xlfn.IFNA($A51,"")="", ROW()&lt;=3),"",$A51-_xlfn.XLOOKUP(AC51,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>10</v>
       </c>
-      <c r="BD51" cm="1">
-        <f t="array" ref="BD51">IF(OR(_xlfn.IFNA($A51,"")="", ROW()&lt;=3),"",$A51-_xlfn.XLOOKUP(AZ51,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BE51" cm="1">
+        <f t="array" ref="BE51">IF(OR(_xlfn.IFNA($A51,"")="", ROW()&lt;=3),"",$A51-_xlfn.XLOOKUP(BA51,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <f>IF(OR(Daily!$A52="",Daily!$B52="*"),NA(),Daily!A52)</f>
         <v>43903</v>
@@ -24933,28 +25145,32 @@
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="AZ52" s="3">
+      <c r="AZ52">
+        <f t="shared" si="23"/>
+        <v>4</v>
+      </c>
+      <c r="BA52" s="3">
         <f>IF(_xlfn.IFNA($A52,"")="","",AC52/(Connfiguration!$B$1/1000000))</f>
         <v>7.8456728551546862</v>
       </c>
-      <c r="BA52" cm="1">
-        <f t="array" ref="BA52">IF(OR(_xlfn.IFNA($A52,"")="", ROW()&lt;=3),"",$A52-_xlfn.XLOOKUP(AC52,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BB52" cm="1">
+        <f t="array" ref="BB52">IF(OR(_xlfn.IFNA($A52,"")="", ROW()&lt;=3),"",$A52-_xlfn.XLOOKUP(AC52,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>18</v>
       </c>
-      <c r="BB52" cm="1">
-        <f t="array" ref="BB52">IF(OR(_xlfn.IFNA($A52,"")="", ROW()&lt;=3),"",$A52-_xlfn.XLOOKUP(AZ52,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BC52" cm="1">
+        <f t="array" ref="BC52">IF(OR(_xlfn.IFNA($A52,"")="", ROW()&lt;=3),"",$A52-_xlfn.XLOOKUP(BA52,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>15</v>
       </c>
-      <c r="BC52" cm="1">
-        <f t="array" ref="BC52">IF(OR(_xlfn.IFNA($A52,"")="", ROW()&lt;=3),"",$A52-_xlfn.XLOOKUP(AC52,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BD52" cm="1">
+        <f t="array" ref="BD52">IF(OR(_xlfn.IFNA($A52,"")="", ROW()&lt;=3),"",$A52-_xlfn.XLOOKUP(AC52,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>10</v>
       </c>
-      <c r="BD52" cm="1">
-        <f t="array" ref="BD52">IF(OR(_xlfn.IFNA($A52,"")="", ROW()&lt;=3),"",$A52-_xlfn.XLOOKUP(AZ52,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BE52" cm="1">
+        <f t="array" ref="BE52">IF(OR(_xlfn.IFNA($A52,"")="", ROW()&lt;=3),"",$A52-_xlfn.XLOOKUP(BA52,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <f>IF(OR(Daily!$A53="",Daily!$B53="*"),NA(),Daily!A53)</f>
         <v>43904</v>
@@ -25155,32 +25371,36 @@
         <f t="shared" si="21"/>
         <v>0.24390243902439024</v>
       </c>
-      <c r="AY53" t="e">
+      <c r="AY53">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AZ53" s="3">
+        <v>4</v>
+      </c>
+      <c r="AZ53">
+        <f t="shared" si="23"/>
+        <v>4</v>
+      </c>
+      <c r="BA53" s="3">
         <f>IF(_xlfn.IFNA($A53,"")="","",AC53/(Connfiguration!$B$1/1000000))</f>
         <v>9.8563729336114143</v>
       </c>
-      <c r="BA53" cm="1">
-        <f t="array" ref="BA53">IF(OR(_xlfn.IFNA($A53,"")="", ROW()&lt;=3),"",$A53-_xlfn.XLOOKUP(AC53,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BB53" cm="1">
+        <f t="array" ref="BB53">IF(OR(_xlfn.IFNA($A53,"")="", ROW()&lt;=3),"",$A53-_xlfn.XLOOKUP(AC53,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>18</v>
       </c>
-      <c r="BB53" cm="1">
-        <f t="array" ref="BB53">IF(OR(_xlfn.IFNA($A53,"")="", ROW()&lt;=3),"",$A53-_xlfn.XLOOKUP(AZ53,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BC53" cm="1">
+        <f t="array" ref="BC53">IF(OR(_xlfn.IFNA($A53,"")="", ROW()&lt;=3),"",$A53-_xlfn.XLOOKUP(BA53,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>16</v>
       </c>
-      <c r="BC53" cm="1">
-        <f t="array" ref="BC53">IF(OR(_xlfn.IFNA($A53,"")="", ROW()&lt;=3),"",$A53-_xlfn.XLOOKUP(AC53,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BD53" cm="1">
+        <f t="array" ref="BD53">IF(OR(_xlfn.IFNA($A53,"")="", ROW()&lt;=3),"",$A53-_xlfn.XLOOKUP(AC53,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>10</v>
       </c>
-      <c r="BD53" cm="1">
-        <f t="array" ref="BD53">IF(OR(_xlfn.IFNA($A53,"")="", ROW()&lt;=3),"",$A53-_xlfn.XLOOKUP(AZ53,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BE53" cm="1">
+        <f t="array" ref="BE53">IF(OR(_xlfn.IFNA($A53,"")="", ROW()&lt;=3),"",$A53-_xlfn.XLOOKUP(BA53,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <f>IF(OR(Daily!$A54="",Daily!$B54="*"),NA(),Daily!A54)</f>
         <v>43905</v>
@@ -25385,28 +25605,32 @@
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
-      <c r="AZ54" s="3">
+      <c r="AZ54">
+        <f t="shared" si="23"/>
+        <v>4</v>
+      </c>
+      <c r="BA54" s="3">
         <f>IF(_xlfn.IFNA($A54,"")="","",AC54/(Connfiguration!$B$1/1000000))</f>
         <v>11.788222028599252</v>
       </c>
-      <c r="BA54" cm="1">
-        <f t="array" ref="BA54">IF(OR(_xlfn.IFNA($A54,"")="", ROW()&lt;=3),"",$A54-_xlfn.XLOOKUP(AC54,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BB54" cm="1">
+        <f t="array" ref="BB54">IF(OR(_xlfn.IFNA($A54,"")="", ROW()&lt;=3),"",$A54-_xlfn.XLOOKUP(AC54,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>19</v>
       </c>
-      <c r="BB54" cm="1">
-        <f t="array" ref="BB54">IF(OR(_xlfn.IFNA($A54,"")="", ROW()&lt;=3),"",$A54-_xlfn.XLOOKUP(AZ54,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BC54" cm="1">
+        <f t="array" ref="BC54">IF(OR(_xlfn.IFNA($A54,"")="", ROW()&lt;=3),"",$A54-_xlfn.XLOOKUP(BA54,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>16</v>
       </c>
-      <c r="BC54" cm="1">
-        <f t="array" ref="BC54">IF(OR(_xlfn.IFNA($A54,"")="", ROW()&lt;=3),"",$A54-_xlfn.XLOOKUP(AC54,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BD54" cm="1">
+        <f t="array" ref="BD54">IF(OR(_xlfn.IFNA($A54,"")="", ROW()&lt;=3),"",$A54-_xlfn.XLOOKUP(AC54,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>10</v>
       </c>
-      <c r="BD54" cm="1">
-        <f t="array" ref="BD54">IF(OR(_xlfn.IFNA($A54,"")="", ROW()&lt;=3),"",$A54-_xlfn.XLOOKUP(AZ54,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BE54" cm="1">
+        <f t="array" ref="BE54">IF(OR(_xlfn.IFNA($A54,"")="", ROW()&lt;=3),"",$A54-_xlfn.XLOOKUP(BA54,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <f>IF(OR(Daily!$A55="",Daily!$B55="*"),NA(),Daily!A55)</f>
         <v>43906</v>
@@ -25611,28 +25835,32 @@
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
-      <c r="AZ55" s="3">
+      <c r="AZ55">
+        <f t="shared" si="23"/>
+        <v>4</v>
+      </c>
+      <c r="BA55" s="3">
         <f>IF(_xlfn.IFNA($A55,"")="","",AC55/(Connfiguration!$B$1/1000000))</f>
         <v>14.863410383886013</v>
       </c>
-      <c r="BA55" cm="1">
-        <f t="array" ref="BA55">IF(OR(_xlfn.IFNA($A55,"")="", ROW()&lt;=3),"",$A55-_xlfn.XLOOKUP(AC55,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BB55" cm="1">
+        <f t="array" ref="BB55">IF(OR(_xlfn.IFNA($A55,"")="", ROW()&lt;=3),"",$A55-_xlfn.XLOOKUP(AC55,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>19</v>
       </c>
-      <c r="BB55" cm="1">
-        <f t="array" ref="BB55">IF(OR(_xlfn.IFNA($A55,"")="", ROW()&lt;=3),"",$A55-_xlfn.XLOOKUP(AZ55,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BC55" cm="1">
+        <f t="array" ref="BC55">IF(OR(_xlfn.IFNA($A55,"")="", ROW()&lt;=3),"",$A55-_xlfn.XLOOKUP(BA55,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>16</v>
       </c>
-      <c r="BC55" cm="1">
-        <f t="array" ref="BC55">IF(OR(_xlfn.IFNA($A55,"")="", ROW()&lt;=3),"",$A55-_xlfn.XLOOKUP(AC55,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BD55" cm="1">
+        <f t="array" ref="BD55">IF(OR(_xlfn.IFNA($A55,"")="", ROW()&lt;=3),"",$A55-_xlfn.XLOOKUP(AC55,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>11</v>
       </c>
-      <c r="BD55" cm="1">
-        <f t="array" ref="BD55">IF(OR(_xlfn.IFNA($A55,"")="", ROW()&lt;=3),"",$A55-_xlfn.XLOOKUP(AZ55,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BE55" cm="1">
+        <f t="array" ref="BE55">IF(OR(_xlfn.IFNA($A55,"")="", ROW()&lt;=3),"",$A55-_xlfn.XLOOKUP(BA55,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <f>IF(OR(Daily!$A56="",Daily!$B56="*"),NA(),Daily!A56)</f>
         <v>43907</v>
@@ -25837,254 +26065,262 @@
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
-      <c r="AZ56" s="3">
+      <c r="AZ56">
+        <f t="shared" si="23"/>
+        <v>4</v>
+      </c>
+      <c r="BA56" s="3">
         <f>IF(_xlfn.IFNA($A56,"")="","",AC56/(Connfiguration!$B$1/1000000))</f>
         <v>17.938598739172775</v>
       </c>
-      <c r="BA56" cm="1">
-        <f t="array" ref="BA56">IF(OR(_xlfn.IFNA($A56,"")="", ROW()&lt;=3),"",$A56-_xlfn.XLOOKUP(AC56,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BB56" cm="1">
+        <f t="array" ref="BB56">IF(OR(_xlfn.IFNA($A56,"")="", ROW()&lt;=3),"",$A56-_xlfn.XLOOKUP(AC56,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>19</v>
       </c>
-      <c r="BB56" cm="1">
-        <f t="array" ref="BB56">IF(OR(_xlfn.IFNA($A56,"")="", ROW()&lt;=3),"",$A56-_xlfn.XLOOKUP(AZ56,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BC56" cm="1">
+        <f t="array" ref="BC56">IF(OR(_xlfn.IFNA($A56,"")="", ROW()&lt;=3),"",$A56-_xlfn.XLOOKUP(BA56,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>17</v>
       </c>
-      <c r="BC56" cm="1">
-        <f t="array" ref="BC56">IF(OR(_xlfn.IFNA($A56,"")="", ROW()&lt;=3),"",$A56-_xlfn.XLOOKUP(AC56,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BD56" cm="1">
+        <f t="array" ref="BD56">IF(OR(_xlfn.IFNA($A56,"")="", ROW()&lt;=3),"",$A56-_xlfn.XLOOKUP(AC56,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>11</v>
       </c>
-      <c r="BD56" cm="1">
-        <f t="array" ref="BD56">IF(OR(_xlfn.IFNA($A56,"")="", ROW()&lt;=3),"",$A56-_xlfn.XLOOKUP(AZ56,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+      <c r="BE56" cm="1">
+        <f t="array" ref="BE56">IF(OR(_xlfn.IFNA($A56,"")="", ROW()&lt;=3),"",$A56-_xlfn.XLOOKUP(BA56,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="e">
+    <row r="57" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
         <f>IF(OR(Daily!$A57="",Daily!$B57="*"),NA(),Daily!A57)</f>
+        <v>43908</v>
+      </c>
+      <c r="B57">
+        <f>IF(_xlfn.IFNA($A57,"")="","",Daily!C57+IF(ROW(A57)&gt;4,B56,0))</f>
+        <v>3</v>
+      </c>
+      <c r="C57">
+        <f>IF(_xlfn.IFNA($A57,"")="","",Daily!D57+IF(ROW(B57)&gt;4,C56,0))</f>
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <f>IF(_xlfn.IFNA($A57,"")="","",Daily!E57+IF(ROW(C57)&gt;4,D56,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <f>IF(_xlfn.IFNA($A57,"")="","",Daily!F57+IF(ROW(D57)&gt;4,E56,0))</f>
+        <v>267</v>
+      </c>
+      <c r="F57">
+        <f>IF(_xlfn.IFNA($A57,"")="","",Daily!G57+IF(ROW(E57)&gt;4,F56,0))</f>
+        <v>4</v>
+      </c>
+      <c r="G57">
+        <f>IF(_xlfn.IFNA($A57,"")="","",Daily!H57+IF(ROW(F57)&gt;4,G56,0))</f>
+        <v>5</v>
+      </c>
+      <c r="H57">
+        <f>IF(_xlfn.IFNA($A57,"")="","",Daily!I57+IF(ROW(G57)&gt;4,H56,0))</f>
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <f>IF(_xlfn.IFNA($A57,"")="","",Daily!J57+IF(ROW(H57)&gt;4,I56,0))</f>
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <f>IF(_xlfn.IFNA($A57,"")="","",Daily!K57+IF(ROW(I57)&gt;4,J56,0))</f>
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <f>IF(_xlfn.IFNA($A57,"")="","",Daily!L57+IF(ROW(J57)&gt;4,K56,0))</f>
+        <v>37</v>
+      </c>
+      <c r="L57">
+        <f>IF(_xlfn.IFNA($A57,"")="","",Daily!M57+IF(ROW(K57)&gt;4,L56,0))</f>
+        <v>9</v>
+      </c>
+      <c r="M57">
+        <f>IF(_xlfn.IFNA($A57,"")="","",Daily!N57+IF(ROW(L57)&gt;4,M56,0))</f>
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <f>IF(_xlfn.IFNA($A57,"")="","",Daily!O57+IF(ROW(M57)&gt;4,N56,0))</f>
+        <v>94</v>
+      </c>
+      <c r="O57">
+        <f>IF(_xlfn.IFNA($A57,"")="","",Daily!P57+IF(ROW(N57)&gt;4,O56,0))</f>
+        <v>8</v>
+      </c>
+      <c r="P57">
+        <f>IF(_xlfn.IFNA($A57,"")="","",Daily!Q57+IF(ROW(O57)&gt;4,P56,0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <f>IF(_xlfn.IFNA($A57,"")="","",Daily!R57+IF(ROW(P57)&gt;4,Q56,0))</f>
+        <v>10</v>
+      </c>
+      <c r="R57">
+        <f>IF(_xlfn.IFNA($A57,"")="","",Daily!S57+IF(ROW(Q57)&gt;4,R56,0))</f>
+        <v>1</v>
+      </c>
+      <c r="S57">
+        <f>IF(_xlfn.IFNA($A57,"")="","",Daily!T57+IF(ROW(R57)&gt;4,S56,0))</f>
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <f>IF(_xlfn.IFNA($A57,"")="","",Daily!U57+IF(ROW(S57)&gt;4,T56,0))</f>
+        <v>35</v>
+      </c>
+      <c r="U57">
+        <f>IF(_xlfn.IFNA($A57,"")="","",Daily!V57+IF(ROW(T57)&gt;4,U56,0))</f>
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <f>IF(_xlfn.IFNA($A57,"")="","",Daily!W57+IF(ROW(U57)&gt;4,V56,0))</f>
+        <v>1</v>
+      </c>
+      <c r="W57">
+        <f>IF(_xlfn.IFNA($A57,"")="","",Daily!X57+IF(ROW(V57)&gt;4,W56,0))</f>
+        <v>121</v>
+      </c>
+      <c r="X57">
+        <f>IF(_xlfn.IFNA($A57,"")="","",Daily!Y57+IF(ROW(W57)&gt;4,X56,0))</f>
+        <v>7</v>
+      </c>
+      <c r="Y57">
+        <f>IF(_xlfn.IFNA($A57,"")="","",Daily!Z57+IF(ROW(X57)&gt;4,Y56,0))</f>
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <f>IF(_xlfn.IFNA($A57,"")="","",Daily!C57+Daily!F57+Daily!I57+Daily!L57+Daily!O57+Daily!R57+Daily!U57+Daily!X57)</f>
+        <v>113</v>
+      </c>
+      <c r="AA57">
+        <f>IF(_xlfn.IFNA($A57,"")="","",Daily!D57+Daily!G57+Daily!J57+Daily!M57+Daily!P57+Daily!S57+Daily!V57+Daily!Y57+Daily!AA57)</f>
+        <v>14</v>
+      </c>
+      <c r="AB57">
+        <f>IF(_xlfn.IFNA($A57,"")="","",Daily!E57+Daily!H57+Daily!K57+Daily!N57+Daily!Q57+Daily!T57+Daily!W57+Daily!Z57)</f>
+        <v>1</v>
+      </c>
+      <c r="AC57">
+        <f t="shared" si="0"/>
+        <v>568</v>
+      </c>
+      <c r="AD57">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="AE57">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="AF57" s="5">
+        <f t="shared" si="3"/>
+        <v>1.4487179487179487</v>
+      </c>
+      <c r="AG57">
+        <f t="shared" si="4"/>
+        <v>519</v>
+      </c>
+      <c r="AH57">
+        <f t="shared" si="5"/>
+        <v>301</v>
+      </c>
+      <c r="AI57">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="AJ57">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AK57">
+        <f t="shared" si="8"/>
+        <v>261</v>
+      </c>
+      <c r="AL57" s="2">
+        <f t="shared" si="9"/>
+        <v>0.12244897959183673</v>
+      </c>
+      <c r="AM57" s="2">
+        <f t="shared" si="10"/>
+        <v>0.87755102040816324</v>
+      </c>
+      <c r="AN57" s="2">
+        <f t="shared" si="11"/>
+        <v>5.2816901408450703E-3</v>
+      </c>
+      <c r="AO57" s="2">
+        <f t="shared" si="12"/>
+        <v>0.47007042253521125</v>
+      </c>
+      <c r="AP57" s="2">
+        <f t="shared" si="13"/>
+        <v>1.7605633802816902E-3</v>
+      </c>
+      <c r="AQ57" s="2">
+        <f t="shared" si="14"/>
+        <v>6.5140845070422532E-2</v>
+      </c>
+      <c r="AR57" s="2">
+        <f t="shared" si="15"/>
+        <v>0.16549295774647887</v>
+      </c>
+      <c r="AS57" s="2">
+        <f t="shared" si="16"/>
+        <v>1.7605633802816902E-2</v>
+      </c>
+      <c r="AT57" s="2">
+        <f t="shared" si="17"/>
+        <v>6.1619718309859156E-2</v>
+      </c>
+      <c r="AU57" s="2">
+        <f t="shared" si="18"/>
+        <v>0.2130281690140845</v>
+      </c>
+      <c r="AV57" s="3">
+        <f t="shared" ca="1" si="19"/>
+        <v>62.857142857142854</v>
+      </c>
+      <c r="AW57" s="2">
+        <f t="shared" si="20"/>
+        <v>0.24835164835164836</v>
+      </c>
+      <c r="AX57" s="2">
+        <f t="shared" si="21"/>
+        <v>0.44871794871794873</v>
+      </c>
+      <c r="AY57" t="e">
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
-      <c r="B57" t="str">
-        <f>IF(_xlfn.IFNA($A57,"")="","",Daily!C57+IF(ROW(A57)&gt;4,B56,0))</f>
-        <v/>
-      </c>
-      <c r="C57" t="str">
-        <f>IF(_xlfn.IFNA($A57,"")="","",Daily!D57+IF(ROW(B57)&gt;4,C56,0))</f>
-        <v/>
-      </c>
-      <c r="D57" t="str">
-        <f>IF(_xlfn.IFNA($A57,"")="","",Daily!E57+IF(ROW(C57)&gt;4,D56,0))</f>
-        <v/>
-      </c>
-      <c r="E57" t="str">
-        <f>IF(_xlfn.IFNA($A57,"")="","",Daily!F57+IF(ROW(D57)&gt;4,E56,0))</f>
-        <v/>
-      </c>
-      <c r="F57" t="str">
-        <f>IF(_xlfn.IFNA($A57,"")="","",Daily!G57+IF(ROW(E57)&gt;4,F56,0))</f>
-        <v/>
-      </c>
-      <c r="G57" t="str">
-        <f>IF(_xlfn.IFNA($A57,"")="","",Daily!H57+IF(ROW(F57)&gt;4,G56,0))</f>
-        <v/>
-      </c>
-      <c r="H57" t="str">
-        <f>IF(_xlfn.IFNA($A57,"")="","",Daily!I57+IF(ROW(G57)&gt;4,H56,0))</f>
-        <v/>
-      </c>
-      <c r="I57" t="str">
-        <f>IF(_xlfn.IFNA($A57,"")="","",Daily!J57+IF(ROW(H57)&gt;4,I56,0))</f>
-        <v/>
-      </c>
-      <c r="J57" t="str">
-        <f>IF(_xlfn.IFNA($A57,"")="","",Daily!K57+IF(ROW(I57)&gt;4,J56,0))</f>
-        <v/>
-      </c>
-      <c r="K57" t="str">
-        <f>IF(_xlfn.IFNA($A57,"")="","",Daily!L57+IF(ROW(J57)&gt;4,K56,0))</f>
-        <v/>
-      </c>
-      <c r="L57" t="str">
-        <f>IF(_xlfn.IFNA($A57,"")="","",Daily!M57+IF(ROW(K57)&gt;4,L56,0))</f>
-        <v/>
-      </c>
-      <c r="M57" t="str">
-        <f>IF(_xlfn.IFNA($A57,"")="","",Daily!N57+IF(ROW(L57)&gt;4,M56,0))</f>
-        <v/>
-      </c>
-      <c r="N57" t="str">
-        <f>IF(_xlfn.IFNA($A57,"")="","",Daily!O57+IF(ROW(M57)&gt;4,N56,0))</f>
-        <v/>
-      </c>
-      <c r="O57" t="str">
-        <f>IF(_xlfn.IFNA($A57,"")="","",Daily!P57+IF(ROW(N57)&gt;4,O56,0))</f>
-        <v/>
-      </c>
-      <c r="P57" t="str">
-        <f>IF(_xlfn.IFNA($A57,"")="","",Daily!Q57+IF(ROW(O57)&gt;4,P56,0))</f>
-        <v/>
-      </c>
-      <c r="Q57" t="str">
-        <f>IF(_xlfn.IFNA($A57,"")="","",Daily!R57+IF(ROW(P57)&gt;4,Q56,0))</f>
-        <v/>
-      </c>
-      <c r="R57" t="str">
-        <f>IF(_xlfn.IFNA($A57,"")="","",Daily!S57+IF(ROW(Q57)&gt;4,R56,0))</f>
-        <v/>
-      </c>
-      <c r="S57" t="str">
-        <f>IF(_xlfn.IFNA($A57,"")="","",Daily!T57+IF(ROW(R57)&gt;4,S56,0))</f>
-        <v/>
-      </c>
-      <c r="T57" t="str">
-        <f>IF(_xlfn.IFNA($A57,"")="","",Daily!U57+IF(ROW(S57)&gt;4,T56,0))</f>
-        <v/>
-      </c>
-      <c r="U57" t="str">
-        <f>IF(_xlfn.IFNA($A57,"")="","",Daily!V57+IF(ROW(T57)&gt;4,U56,0))</f>
-        <v/>
-      </c>
-      <c r="V57" t="str">
-        <f>IF(_xlfn.IFNA($A57,"")="","",Daily!W57+IF(ROW(U57)&gt;4,V56,0))</f>
-        <v/>
-      </c>
-      <c r="W57" t="str">
-        <f>IF(_xlfn.IFNA($A57,"")="","",Daily!X57+IF(ROW(V57)&gt;4,W56,0))</f>
-        <v/>
-      </c>
-      <c r="X57" t="str">
-        <f>IF(_xlfn.IFNA($A57,"")="","",Daily!Y57+IF(ROW(W57)&gt;4,X56,0))</f>
-        <v/>
-      </c>
-      <c r="Y57" t="str">
-        <f>IF(_xlfn.IFNA($A57,"")="","",Daily!Z57+IF(ROW(X57)&gt;4,Y56,0))</f>
-        <v/>
-      </c>
-      <c r="Z57" t="str">
-        <f>IF(_xlfn.IFNA($A57,"")="","",Daily!C57+Daily!F57+Daily!I57+Daily!L57+Daily!O57+Daily!R57+Daily!U57+Daily!X57)</f>
-        <v/>
-      </c>
-      <c r="AA57" t="str">
-        <f>IF(_xlfn.IFNA($A57,"")="","",Daily!D57+Daily!G57+Daily!J57+Daily!M57+Daily!P57+Daily!S57+Daily!V57+Daily!Y57+Daily!AA57)</f>
-        <v/>
-      </c>
-      <c r="AB57" t="str">
-        <f>IF(_xlfn.IFNA($A57,"")="","",Daily!E57+Daily!H57+Daily!K57+Daily!N57+Daily!Q57+Daily!T57+Daily!W57+Daily!Z57)</f>
-        <v/>
-      </c>
-      <c r="AC57" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AD57" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AE57" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AF57" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AG57" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AH57" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AI57" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AJ57" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AK57" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AL57" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AM57" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AN57" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AO57" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AP57" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AQ57" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="AR57" s="2" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AS57" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="AT57" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AU57" s="2" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="AV57" s="3" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AW57" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="AX57" s="2" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AY57" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="AZ57" s="3" t="str">
+      <c r="AZ57">
+        <f t="shared" si="23"/>
+        <v>4</v>
+      </c>
+      <c r="BA57" s="3">
         <f>IF(_xlfn.IFNA($A57,"")="","",AC57/(Connfiguration!$B$1/1000000))</f>
-        <v/>
-      </c>
-      <c r="BA57" t="str" cm="1">
-        <f t="array" ref="BA57">IF(OR(_xlfn.IFNA($A57,"")="", ROW()&lt;=3),"",$A57-_xlfn.XLOOKUP(AC57,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
-      <c r="BB57" t="str" cm="1">
-        <f t="array" ref="BB57">IF(OR(_xlfn.IFNA($A57,"")="", ROW()&lt;=3),"",$A57-_xlfn.XLOOKUP(AZ57,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
-      <c r="BC57" t="str" cm="1">
-        <f t="array" ref="BC57">IF(OR(_xlfn.IFNA($A57,"")="", ROW()&lt;=3),"",$A57-_xlfn.XLOOKUP(AC57,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
-      <c r="BD57" t="str" cm="1">
-        <f t="array" ref="BD57">IF(OR(_xlfn.IFNA($A57,"")="", ROW()&lt;=3),"",$A57-_xlfn.XLOOKUP(AZ57,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:56" x14ac:dyDescent="0.2">
+        <v>22.393679305165133</v>
+      </c>
+      <c r="BB57" cm="1">
+        <f t="array" ref="BB57">IF(OR(_xlfn.IFNA($A57,"")="", ROW()&lt;=3),"",$A57-_xlfn.XLOOKUP(AC57,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v>20</v>
+      </c>
+      <c r="BC57" cm="1">
+        <f t="array" ref="BC57">IF(OR(_xlfn.IFNA($A57,"")="", ROW()&lt;=3),"",$A57-_xlfn.XLOOKUP(BA57,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v>17</v>
+      </c>
+      <c r="BD57" cm="1">
+        <f t="array" ref="BD57">IF(OR(_xlfn.IFNA($A57,"")="", ROW()&lt;=3),"",$A57-_xlfn.XLOOKUP(AC57,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v>12</v>
+      </c>
+      <c r="BE57" cm="1">
+        <f t="array" ref="BE57">IF(OR(_xlfn.IFNA($A57,"")="", ROW()&lt;=3),"",$A57-_xlfn.XLOOKUP(BA57,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="e">
         <f>IF(OR(Daily!$A58="",Daily!$B58="*"),NA(),Daily!A58)</f>
         <v>#N/A</v>
@@ -26289,28 +26525,32 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="AZ58" s="3" t="str">
+      <c r="AZ58" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="BA58" s="3" t="str">
         <f>IF(_xlfn.IFNA($A58,"")="","",AC58/(Connfiguration!$B$1/1000000))</f>
         <v/>
       </c>
-      <c r="BA58" t="str" cm="1">
-        <f t="array" ref="BA58">IF(OR(_xlfn.IFNA($A58,"")="", ROW()&lt;=3),"",$A58-_xlfn.XLOOKUP(AC58,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
       <c r="BB58" t="str" cm="1">
-        <f t="array" ref="BB58">IF(OR(_xlfn.IFNA($A58,"")="", ROW()&lt;=3),"",$A58-_xlfn.XLOOKUP(AZ58,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BB58">IF(OR(_xlfn.IFNA($A58,"")="", ROW()&lt;=3),"",$A58-_xlfn.XLOOKUP(AC58,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BC58" t="str" cm="1">
-        <f t="array" ref="BC58">IF(OR(_xlfn.IFNA($A58,"")="", ROW()&lt;=3),"",$A58-_xlfn.XLOOKUP(AC58,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BC58">IF(OR(_xlfn.IFNA($A58,"")="", ROW()&lt;=3),"",$A58-_xlfn.XLOOKUP(BA58,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BD58" t="str" cm="1">
-        <f t="array" ref="BD58">IF(OR(_xlfn.IFNA($A58,"")="", ROW()&lt;=3),"",$A58-_xlfn.XLOOKUP(AZ58,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:56" x14ac:dyDescent="0.2">
+        <f t="array" ref="BD58">IF(OR(_xlfn.IFNA($A58,"")="", ROW()&lt;=3),"",$A58-_xlfn.XLOOKUP(AC58,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BE58" t="str" cm="1">
+        <f t="array" ref="BE58">IF(OR(_xlfn.IFNA($A58,"")="", ROW()&lt;=3),"",$A58-_xlfn.XLOOKUP(BA58,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="e">
         <f>IF(OR(Daily!$A59="",Daily!$B59="*"),NA(),Daily!A59)</f>
         <v>#N/A</v>
@@ -26515,28 +26755,32 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="AZ59" s="3" t="str">
+      <c r="AZ59" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="BA59" s="3" t="str">
         <f>IF(_xlfn.IFNA($A59,"")="","",AC59/(Connfiguration!$B$1/1000000))</f>
         <v/>
       </c>
-      <c r="BA59" t="str" cm="1">
-        <f t="array" ref="BA59">IF(OR(_xlfn.IFNA($A59,"")="", ROW()&lt;=3),"",$A59-_xlfn.XLOOKUP(AC59,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
       <c r="BB59" t="str" cm="1">
-        <f t="array" ref="BB59">IF(OR(_xlfn.IFNA($A59,"")="", ROW()&lt;=3),"",$A59-_xlfn.XLOOKUP(AZ59,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BB59">IF(OR(_xlfn.IFNA($A59,"")="", ROW()&lt;=3),"",$A59-_xlfn.XLOOKUP(AC59,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BC59" t="str" cm="1">
-        <f t="array" ref="BC59">IF(OR(_xlfn.IFNA($A59,"")="", ROW()&lt;=3),"",$A59-_xlfn.XLOOKUP(AC59,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BC59">IF(OR(_xlfn.IFNA($A59,"")="", ROW()&lt;=3),"",$A59-_xlfn.XLOOKUP(BA59,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BD59" t="str" cm="1">
-        <f t="array" ref="BD59">IF(OR(_xlfn.IFNA($A59,"")="", ROW()&lt;=3),"",$A59-_xlfn.XLOOKUP(AZ59,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:56" x14ac:dyDescent="0.2">
+        <f t="array" ref="BD59">IF(OR(_xlfn.IFNA($A59,"")="", ROW()&lt;=3),"",$A59-_xlfn.XLOOKUP(AC59,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BE59" t="str" cm="1">
+        <f t="array" ref="BE59">IF(OR(_xlfn.IFNA($A59,"")="", ROW()&lt;=3),"",$A59-_xlfn.XLOOKUP(BA59,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="e">
         <f>IF(OR(Daily!$A60="",Daily!$B60="*"),NA(),Daily!A60)</f>
         <v>#N/A</v>
@@ -26741,28 +26985,32 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="AZ60" s="3" t="str">
+      <c r="AZ60" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="BA60" s="3" t="str">
         <f>IF(_xlfn.IFNA($A60,"")="","",AC60/(Connfiguration!$B$1/1000000))</f>
         <v/>
       </c>
-      <c r="BA60" t="str" cm="1">
-        <f t="array" ref="BA60">IF(OR(_xlfn.IFNA($A60,"")="", ROW()&lt;=3),"",$A60-_xlfn.XLOOKUP(AC60,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
       <c r="BB60" t="str" cm="1">
-        <f t="array" ref="BB60">IF(OR(_xlfn.IFNA($A60,"")="", ROW()&lt;=3),"",$A60-_xlfn.XLOOKUP(AZ60,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BB60">IF(OR(_xlfn.IFNA($A60,"")="", ROW()&lt;=3),"",$A60-_xlfn.XLOOKUP(AC60,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BC60" t="str" cm="1">
-        <f t="array" ref="BC60">IF(OR(_xlfn.IFNA($A60,"")="", ROW()&lt;=3),"",$A60-_xlfn.XLOOKUP(AC60,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BC60">IF(OR(_xlfn.IFNA($A60,"")="", ROW()&lt;=3),"",$A60-_xlfn.XLOOKUP(BA60,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BD60" t="str" cm="1">
-        <f t="array" ref="BD60">IF(OR(_xlfn.IFNA($A60,"")="", ROW()&lt;=3),"",$A60-_xlfn.XLOOKUP(AZ60,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:56" x14ac:dyDescent="0.2">
+        <f t="array" ref="BD60">IF(OR(_xlfn.IFNA($A60,"")="", ROW()&lt;=3),"",$A60-_xlfn.XLOOKUP(AC60,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BE60" t="str" cm="1">
+        <f t="array" ref="BE60">IF(OR(_xlfn.IFNA($A60,"")="", ROW()&lt;=3),"",$A60-_xlfn.XLOOKUP(BA60,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="e">
         <f>IF(OR(Daily!$A61="",Daily!$B61="*"),NA(),Daily!A61)</f>
         <v>#N/A</v>
@@ -26967,28 +27215,32 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="AZ61" s="3" t="str">
+      <c r="AZ61" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="BA61" s="3" t="str">
         <f>IF(_xlfn.IFNA($A61,"")="","",AC61/(Connfiguration!$B$1/1000000))</f>
         <v/>
       </c>
-      <c r="BA61" t="str" cm="1">
-        <f t="array" ref="BA61">IF(OR(_xlfn.IFNA($A61,"")="", ROW()&lt;=3),"",$A61-_xlfn.XLOOKUP(AC61,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
       <c r="BB61" t="str" cm="1">
-        <f t="array" ref="BB61">IF(OR(_xlfn.IFNA($A61,"")="", ROW()&lt;=3),"",$A61-_xlfn.XLOOKUP(AZ61,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BB61">IF(OR(_xlfn.IFNA($A61,"")="", ROW()&lt;=3),"",$A61-_xlfn.XLOOKUP(AC61,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BC61" t="str" cm="1">
-        <f t="array" ref="BC61">IF(OR(_xlfn.IFNA($A61,"")="", ROW()&lt;=3),"",$A61-_xlfn.XLOOKUP(AC61,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BC61">IF(OR(_xlfn.IFNA($A61,"")="", ROW()&lt;=3),"",$A61-_xlfn.XLOOKUP(BA61,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BD61" t="str" cm="1">
-        <f t="array" ref="BD61">IF(OR(_xlfn.IFNA($A61,"")="", ROW()&lt;=3),"",$A61-_xlfn.XLOOKUP(AZ61,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:56" x14ac:dyDescent="0.2">
+        <f t="array" ref="BD61">IF(OR(_xlfn.IFNA($A61,"")="", ROW()&lt;=3),"",$A61-_xlfn.XLOOKUP(AC61,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BE61" t="str" cm="1">
+        <f t="array" ref="BE61">IF(OR(_xlfn.IFNA($A61,"")="", ROW()&lt;=3),"",$A61-_xlfn.XLOOKUP(BA61,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="e">
         <f>IF(OR(Daily!$A62="",Daily!$B62="*"),NA(),Daily!A62)</f>
         <v>#N/A</v>
@@ -27193,28 +27445,32 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="AZ62" s="3" t="str">
+      <c r="AZ62" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="BA62" s="3" t="str">
         <f>IF(_xlfn.IFNA($A62,"")="","",AC62/(Connfiguration!$B$1/1000000))</f>
         <v/>
       </c>
-      <c r="BA62" t="str" cm="1">
-        <f t="array" ref="BA62">IF(OR(_xlfn.IFNA($A62,"")="", ROW()&lt;=3),"",$A62-_xlfn.XLOOKUP(AC62,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
       <c r="BB62" t="str" cm="1">
-        <f t="array" ref="BB62">IF(OR(_xlfn.IFNA($A62,"")="", ROW()&lt;=3),"",$A62-_xlfn.XLOOKUP(AZ62,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BB62">IF(OR(_xlfn.IFNA($A62,"")="", ROW()&lt;=3),"",$A62-_xlfn.XLOOKUP(AC62,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BC62" t="str" cm="1">
-        <f t="array" ref="BC62">IF(OR(_xlfn.IFNA($A62,"")="", ROW()&lt;=3),"",$A62-_xlfn.XLOOKUP(AC62,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BC62">IF(OR(_xlfn.IFNA($A62,"")="", ROW()&lt;=3),"",$A62-_xlfn.XLOOKUP(BA62,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BD62" t="str" cm="1">
-        <f t="array" ref="BD62">IF(OR(_xlfn.IFNA($A62,"")="", ROW()&lt;=3),"",$A62-_xlfn.XLOOKUP(AZ62,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:56" x14ac:dyDescent="0.2">
+        <f t="array" ref="BD62">IF(OR(_xlfn.IFNA($A62,"")="", ROW()&lt;=3),"",$A62-_xlfn.XLOOKUP(AC62,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BE62" t="str" cm="1">
+        <f t="array" ref="BE62">IF(OR(_xlfn.IFNA($A62,"")="", ROW()&lt;=3),"",$A62-_xlfn.XLOOKUP(BA62,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="e">
         <f>IF(OR(Daily!$A63="",Daily!$B63="*"),NA(),Daily!A63)</f>
         <v>#N/A</v>
@@ -27419,28 +27675,32 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="AZ63" s="3" t="str">
+      <c r="AZ63" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="BA63" s="3" t="str">
         <f>IF(_xlfn.IFNA($A63,"")="","",AC63/(Connfiguration!$B$1/1000000))</f>
         <v/>
       </c>
-      <c r="BA63" t="str" cm="1">
-        <f t="array" ref="BA63">IF(OR(_xlfn.IFNA($A63,"")="", ROW()&lt;=3),"",$A63-_xlfn.XLOOKUP(AC63,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
       <c r="BB63" t="str" cm="1">
-        <f t="array" ref="BB63">IF(OR(_xlfn.IFNA($A63,"")="", ROW()&lt;=3),"",$A63-_xlfn.XLOOKUP(AZ63,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BB63">IF(OR(_xlfn.IFNA($A63,"")="", ROW()&lt;=3),"",$A63-_xlfn.XLOOKUP(AC63,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BC63" t="str" cm="1">
-        <f t="array" ref="BC63">IF(OR(_xlfn.IFNA($A63,"")="", ROW()&lt;=3),"",$A63-_xlfn.XLOOKUP(AC63,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BC63">IF(OR(_xlfn.IFNA($A63,"")="", ROW()&lt;=3),"",$A63-_xlfn.XLOOKUP(BA63,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BD63" t="str" cm="1">
-        <f t="array" ref="BD63">IF(OR(_xlfn.IFNA($A63,"")="", ROW()&lt;=3),"",$A63-_xlfn.XLOOKUP(AZ63,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:56" x14ac:dyDescent="0.2">
+        <f t="array" ref="BD63">IF(OR(_xlfn.IFNA($A63,"")="", ROW()&lt;=3),"",$A63-_xlfn.XLOOKUP(AC63,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BE63" t="str" cm="1">
+        <f t="array" ref="BE63">IF(OR(_xlfn.IFNA($A63,"")="", ROW()&lt;=3),"",$A63-_xlfn.XLOOKUP(BA63,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="e">
         <f>IF(OR(Daily!$A64="",Daily!$B64="*"),NA(),Daily!A64)</f>
         <v>#N/A</v>
@@ -27645,28 +27905,32 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="AZ64" s="3" t="str">
+      <c r="AZ64" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="BA64" s="3" t="str">
         <f>IF(_xlfn.IFNA($A64,"")="","",AC64/(Connfiguration!$B$1/1000000))</f>
         <v/>
       </c>
-      <c r="BA64" t="str" cm="1">
-        <f t="array" ref="BA64">IF(OR(_xlfn.IFNA($A64,"")="", ROW()&lt;=3),"",$A64-_xlfn.XLOOKUP(AC64,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
       <c r="BB64" t="str" cm="1">
-        <f t="array" ref="BB64">IF(OR(_xlfn.IFNA($A64,"")="", ROW()&lt;=3),"",$A64-_xlfn.XLOOKUP(AZ64,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BB64">IF(OR(_xlfn.IFNA($A64,"")="", ROW()&lt;=3),"",$A64-_xlfn.XLOOKUP(AC64,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BC64" t="str" cm="1">
-        <f t="array" ref="BC64">IF(OR(_xlfn.IFNA($A64,"")="", ROW()&lt;=3),"",$A64-_xlfn.XLOOKUP(AC64,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BC64">IF(OR(_xlfn.IFNA($A64,"")="", ROW()&lt;=3),"",$A64-_xlfn.XLOOKUP(BA64,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BD64" t="str" cm="1">
-        <f t="array" ref="BD64">IF(OR(_xlfn.IFNA($A64,"")="", ROW()&lt;=3),"",$A64-_xlfn.XLOOKUP(AZ64,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:56" x14ac:dyDescent="0.2">
+        <f t="array" ref="BD64">IF(OR(_xlfn.IFNA($A64,"")="", ROW()&lt;=3),"",$A64-_xlfn.XLOOKUP(AC64,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BE64" t="str" cm="1">
+        <f t="array" ref="BE64">IF(OR(_xlfn.IFNA($A64,"")="", ROW()&lt;=3),"",$A64-_xlfn.XLOOKUP(BA64,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="e">
         <f>IF(OR(Daily!$A65="",Daily!$B65="*"),NA(),Daily!A65)</f>
         <v>#N/A</v>
@@ -27871,28 +28135,32 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="AZ65" s="3" t="str">
+      <c r="AZ65" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="BA65" s="3" t="str">
         <f>IF(_xlfn.IFNA($A65,"")="","",AC65/(Connfiguration!$B$1/1000000))</f>
         <v/>
       </c>
-      <c r="BA65" t="str" cm="1">
-        <f t="array" ref="BA65">IF(OR(_xlfn.IFNA($A65,"")="", ROW()&lt;=3),"",$A65-_xlfn.XLOOKUP(AC65,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
       <c r="BB65" t="str" cm="1">
-        <f t="array" ref="BB65">IF(OR(_xlfn.IFNA($A65,"")="", ROW()&lt;=3),"",$A65-_xlfn.XLOOKUP(AZ65,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BB65">IF(OR(_xlfn.IFNA($A65,"")="", ROW()&lt;=3),"",$A65-_xlfn.XLOOKUP(AC65,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BC65" t="str" cm="1">
-        <f t="array" ref="BC65">IF(OR(_xlfn.IFNA($A65,"")="", ROW()&lt;=3),"",$A65-_xlfn.XLOOKUP(AC65,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BC65">IF(OR(_xlfn.IFNA($A65,"")="", ROW()&lt;=3),"",$A65-_xlfn.XLOOKUP(BA65,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BD65" t="str" cm="1">
-        <f t="array" ref="BD65">IF(OR(_xlfn.IFNA($A65,"")="", ROW()&lt;=3),"",$A65-_xlfn.XLOOKUP(AZ65,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="1:56" x14ac:dyDescent="0.2">
+        <f t="array" ref="BD65">IF(OR(_xlfn.IFNA($A65,"")="", ROW()&lt;=3),"",$A65-_xlfn.XLOOKUP(AC65,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BE65" t="str" cm="1">
+        <f t="array" ref="BE65">IF(OR(_xlfn.IFNA($A65,"")="", ROW()&lt;=3),"",$A65-_xlfn.XLOOKUP(BA65,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="e">
         <f>IF(OR(Daily!$A66="",Daily!$B66="*"),NA(),Daily!A66)</f>
         <v>#N/A</v>
@@ -28097,28 +28365,32 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="AZ66" s="3" t="str">
+      <c r="AZ66" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="BA66" s="3" t="str">
         <f>IF(_xlfn.IFNA($A66,"")="","",AC66/(Connfiguration!$B$1/1000000))</f>
         <v/>
       </c>
-      <c r="BA66" t="str" cm="1">
-        <f t="array" ref="BA66">IF(OR(_xlfn.IFNA($A66,"")="", ROW()&lt;=3),"",$A66-_xlfn.XLOOKUP(AC66,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
       <c r="BB66" t="str" cm="1">
-        <f t="array" ref="BB66">IF(OR(_xlfn.IFNA($A66,"")="", ROW()&lt;=3),"",$A66-_xlfn.XLOOKUP(AZ66,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BB66">IF(OR(_xlfn.IFNA($A66,"")="", ROW()&lt;=3),"",$A66-_xlfn.XLOOKUP(AC66,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BC66" t="str" cm="1">
-        <f t="array" ref="BC66">IF(OR(_xlfn.IFNA($A66,"")="", ROW()&lt;=3),"",$A66-_xlfn.XLOOKUP(AC66,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BC66">IF(OR(_xlfn.IFNA($A66,"")="", ROW()&lt;=3),"",$A66-_xlfn.XLOOKUP(BA66,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BD66" t="str" cm="1">
-        <f t="array" ref="BD66">IF(OR(_xlfn.IFNA($A66,"")="", ROW()&lt;=3),"",$A66-_xlfn.XLOOKUP(AZ66,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:56" x14ac:dyDescent="0.2">
+        <f t="array" ref="BD66">IF(OR(_xlfn.IFNA($A66,"")="", ROW()&lt;=3),"",$A66-_xlfn.XLOOKUP(AC66,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BE66" t="str" cm="1">
+        <f t="array" ref="BE66">IF(OR(_xlfn.IFNA($A66,"")="", ROW()&lt;=3),"",$A66-_xlfn.XLOOKUP(BA66,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="e">
         <f>IF(OR(Daily!$A67="",Daily!$B67="*"),NA(),Daily!A67)</f>
         <v>#N/A</v>
@@ -28323,28 +28595,32 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="AZ67" s="3" t="str">
+      <c r="AZ67" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="BA67" s="3" t="str">
         <f>IF(_xlfn.IFNA($A67,"")="","",AC67/(Connfiguration!$B$1/1000000))</f>
         <v/>
       </c>
-      <c r="BA67" t="str" cm="1">
-        <f t="array" ref="BA67">IF(OR(_xlfn.IFNA($A67,"")="", ROW()&lt;=3),"",$A67-_xlfn.XLOOKUP(AC67,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
       <c r="BB67" t="str" cm="1">
-        <f t="array" ref="BB67">IF(OR(_xlfn.IFNA($A67,"")="", ROW()&lt;=3),"",$A67-_xlfn.XLOOKUP(AZ67,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BB67">IF(OR(_xlfn.IFNA($A67,"")="", ROW()&lt;=3),"",$A67-_xlfn.XLOOKUP(AC67,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BC67" t="str" cm="1">
-        <f t="array" ref="BC67">IF(OR(_xlfn.IFNA($A67,"")="", ROW()&lt;=3),"",$A67-_xlfn.XLOOKUP(AC67,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BC67">IF(OR(_xlfn.IFNA($A67,"")="", ROW()&lt;=3),"",$A67-_xlfn.XLOOKUP(BA67,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BD67" t="str" cm="1">
-        <f t="array" ref="BD67">IF(OR(_xlfn.IFNA($A67,"")="", ROW()&lt;=3),"",$A67-_xlfn.XLOOKUP(AZ67,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:56" x14ac:dyDescent="0.2">
+        <f t="array" ref="BD67">IF(OR(_xlfn.IFNA($A67,"")="", ROW()&lt;=3),"",$A67-_xlfn.XLOOKUP(AC67,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BE67" t="str" cm="1">
+        <f t="array" ref="BE67">IF(OR(_xlfn.IFNA($A67,"")="", ROW()&lt;=3),"",$A67-_xlfn.XLOOKUP(BA67,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="e">
         <f>IF(OR(Daily!$A68="",Daily!$B68="*"),NA(),Daily!A68)</f>
         <v>#N/A</v>
@@ -28458,119 +28734,123 @@
         <v/>
       </c>
       <c r="AC68" t="str">
-        <f t="shared" ref="AC68:AC100" si="23">IF(_xlfn.IFNA($A68,"")="","",Z68+IF(ROW()&gt;4,AC67,0))</f>
+        <f t="shared" ref="AC68:AC100" si="24">IF(_xlfn.IFNA($A68,"")="","",Z68+IF(ROW()&gt;4,AC67,0))</f>
         <v/>
       </c>
       <c r="AD68" t="str">
-        <f t="shared" ref="AD68:AD100" si="24">IF(_xlfn.IFNA($A68,"")="","",AA68+IF(ROW()&gt;4,AD67,0))</f>
+        <f t="shared" ref="AD68:AD100" si="25">IF(_xlfn.IFNA($A68,"")="","",AA68+IF(ROW()&gt;4,AD67,0))</f>
         <v/>
       </c>
       <c r="AE68" t="str">
-        <f t="shared" ref="AE68:AE100" si="25">IF(_xlfn.IFNA($A68,"")="","",AB68+IF(ROW()&gt;4,AE67,0))</f>
+        <f t="shared" ref="AE68:AE100" si="26">IF(_xlfn.IFNA($A68,"")="","",AB68+IF(ROW()&gt;4,AE67,0))</f>
         <v/>
       </c>
       <c r="AF68" s="5" t="str">
-        <f t="shared" ref="AF68:AF100" si="26">IF(OR(_xlfn.IFNA($A68,"")="",ROW()&lt;=3),"",IF(Z67=0,0,Z68/Z67))</f>
+        <f t="shared" ref="AF68:AF100" si="27">IF(OR(_xlfn.IFNA($A68,"")="",ROW()&lt;=3),"",IF(Z67=0,0,Z68/Z67))</f>
         <v/>
       </c>
       <c r="AG68" t="str">
-        <f t="shared" ref="AG68:AG100" si="27">IF(_xlfn.IFNA($A68,"")="","",AC68-AD68-AE68)</f>
+        <f t="shared" ref="AG68:AG100" si="28">IF(_xlfn.IFNA($A68,"")="","",AC68-AD68-AE68)</f>
         <v/>
       </c>
       <c r="AH68" t="str">
-        <f t="shared" ref="AH68:AH100" si="28">IF(_xlfn.IFNA($A68,"")="","",AC68-E68)</f>
+        <f t="shared" ref="AH68:AH100" si="29">IF(_xlfn.IFNA($A68,"")="","",AC68-E68)</f>
         <v/>
       </c>
       <c r="AI68" t="str">
-        <f t="shared" ref="AI68:AI100" si="29">IF(_xlfn.IFNA($A68,"")="","",AD68-F68)</f>
+        <f t="shared" ref="AI68:AI100" si="30">IF(_xlfn.IFNA($A68,"")="","",AD68-F68)</f>
         <v/>
       </c>
       <c r="AJ68" t="str">
-        <f t="shared" ref="AJ68:AJ100" si="30">IF(_xlfn.IFNA($A68,"")="","",AE68-G68)</f>
+        <f t="shared" ref="AJ68:AJ100" si="31">IF(_xlfn.IFNA($A68,"")="","",AE68-G68)</f>
         <v/>
       </c>
       <c r="AK68" t="str">
-        <f t="shared" ref="AK68:AK100" si="31">IF(_xlfn.IFNA($A68,"")="","",AH68-AI68-AJ68)</f>
+        <f t="shared" ref="AK68:AK100" si="32">IF(_xlfn.IFNA($A68,"")="","",AH68-AI68-AJ68)</f>
         <v/>
       </c>
       <c r="AL68" s="2" t="str">
-        <f t="shared" ref="AL68:AL100" si="32">IF(_xlfn.IFNA($A68,"")="","",IF($AD68+$AE68=0,"",AE68/($AD68+$AE68)))</f>
+        <f t="shared" ref="AL68:AL100" si="33">IF(_xlfn.IFNA($A68,"")="","",IF($AD68+$AE68=0,"",AE68/($AD68+$AE68)))</f>
         <v/>
       </c>
       <c r="AM68" s="2" t="str">
-        <f t="shared" ref="AM68:AM100" si="33">IF(_xlfn.IFNA($A68,"")="","",IF($AD68+$AE68=0,"",AD68/($AD68+$AE68)))</f>
+        <f t="shared" ref="AM68:AM100" si="34">IF(_xlfn.IFNA($A68,"")="","",IF($AD68+$AE68=0,"",AD68/($AD68+$AE68)))</f>
         <v/>
       </c>
       <c r="AN68" s="2" t="str">
-        <f t="shared" ref="AN68:AN100" si="34">IF(_xlfn.IFNA($A68,"")="","",IF($AC68=0,0,B68/$AC68))</f>
+        <f t="shared" ref="AN68:AN100" si="35">IF(_xlfn.IFNA($A68,"")="","",IF($AC68=0,0,B68/$AC68))</f>
         <v/>
       </c>
       <c r="AO68" s="2" t="str">
-        <f t="shared" ref="AO68:AO100" si="35">IF(_xlfn.IFNA($A68,"")="","",IF($AC68=0,0,E68/$AC68))</f>
+        <f t="shared" ref="AO68:AO100" si="36">IF(_xlfn.IFNA($A68,"")="","",IF($AC68=0,0,E68/$AC68))</f>
         <v/>
       </c>
       <c r="AP68" s="2" t="str">
-        <f t="shared" ref="AP68:AP100" si="36">IF(_xlfn.IFNA($A68,"")="","",IF($AC68=0,0,H68/$AC68))</f>
+        <f t="shared" ref="AP68:AP100" si="37">IF(_xlfn.IFNA($A68,"")="","",IF($AC68=0,0,H68/$AC68))</f>
         <v/>
       </c>
       <c r="AQ68" s="2" t="str">
-        <f t="shared" ref="AQ68:AQ100" si="37">IF(_xlfn.IFNA($A68,"")="","",IF($AC68=0,0,K68/$AC68))</f>
+        <f t="shared" ref="AQ68:AQ100" si="38">IF(_xlfn.IFNA($A68,"")="","",IF($AC68=0,0,K68/$AC68))</f>
         <v/>
       </c>
       <c r="AR68" s="2" t="str">
-        <f t="shared" ref="AR68:AR100" si="38">IF(_xlfn.IFNA($A68,"")="","",IF($AC68=0,0,N68/$AC68))</f>
+        <f t="shared" ref="AR68:AR100" si="39">IF(_xlfn.IFNA($A68,"")="","",IF($AC68=0,0,N68/$AC68))</f>
         <v/>
       </c>
       <c r="AS68" s="2" t="str">
-        <f t="shared" ref="AS68:AS100" si="39">IF(_xlfn.IFNA($A68,"")="","",IF($AC68=0,0,Q68/$AC68))</f>
+        <f t="shared" ref="AS68:AS100" si="40">IF(_xlfn.IFNA($A68,"")="","",IF($AC68=0,0,Q68/$AC68))</f>
         <v/>
       </c>
       <c r="AT68" s="2" t="str">
-        <f t="shared" ref="AT68:AT100" si="40">IF(_xlfn.IFNA($A68,"")="","",IF($AC68=0,0,T68/$AC68))</f>
+        <f t="shared" ref="AT68:AT100" si="41">IF(_xlfn.IFNA($A68,"")="","",IF($AC68=0,0,T68/$AC68))</f>
         <v/>
       </c>
       <c r="AU68" s="2" t="str">
-        <f t="shared" ref="AU68:AU100" si="41">IF(_xlfn.IFNA($A68,"")="","",IF($AC68=0,0,W68/AC68))</f>
+        <f t="shared" ref="AU68:AU100" si="42">IF(_xlfn.IFNA($A68,"")="","",IF($AC68=0,0,W68/AC68))</f>
         <v/>
       </c>
       <c r="AV68" s="3" t="str">
-        <f t="shared" ref="AV68:AV100" ca="1" si="42">IF(_xlfn.IFNA($A68,"")="","",AVERAGE(INDIRECT("Z"&amp;MAX(ROW()-6,3)&amp;":Z"&amp;ROW())))</f>
+        <f t="shared" ref="AV68:AV100" ca="1" si="43">IF(_xlfn.IFNA($A68,"")="","",AVERAGE(INDIRECT("Z"&amp;MAX(ROW()-6,3)&amp;":Z"&amp;ROW())))</f>
         <v/>
       </c>
       <c r="AW68" s="2" t="str">
-        <f t="shared" ref="AW68:AW100" si="43">IF(OR(ROW()&lt;=3,_xlfn.IFNA($A68,"")=""),"",IF(AC67=0,1,Z68/AC67))</f>
+        <f t="shared" ref="AW68:AW100" si="44">IF(OR(ROW()&lt;=3,_xlfn.IFNA($A68,"")=""),"",IF(AC67=0,1,Z68/AC67))</f>
         <v/>
       </c>
       <c r="AX68" s="2" t="str">
-        <f t="shared" ref="AX68:AX100" si="44">IF(OR(ROW()&lt;=3,_xlfn.IFNA($A68,"")=""),"",IF(Z67=0,0,(Z68-Z67)/Z67))</f>
+        <f t="shared" ref="AX68:AX100" si="45">IF(OR(ROW()&lt;=3,_xlfn.IFNA($A68,"")=""),"",IF(Z67=0,0,(Z68-Z67)/Z67))</f>
         <v/>
       </c>
       <c r="AY68" t="str">
-        <f t="shared" ref="AY68:AY100" si="45">IF(OR(_xlfn.IFNA($A68,"")="",AC68=0),"",_xlfn.XLOOKUP(AC68*2,AC$3:AC$2000,A$3:A$2000,NA(),1,1)-A68)</f>
-        <v/>
-      </c>
-      <c r="AZ68" s="3" t="str">
+        <f t="shared" ref="AY68:AY100" si="46">IF(OR(_xlfn.IFNA($A68,"")="",AC68=0),"",_xlfn.XLOOKUP(AC68*2,AC$3:AC$2000,A$3:A$2000,NA(),1,1)-A68)</f>
+        <v/>
+      </c>
+      <c r="AZ68" t="str">
+        <f t="shared" ref="AZ68:AZ100" si="47">IF(OR(_xlfn.IFNA($A68,"")="",AC68=0),"",A68-_xlfn.XLOOKUP(AC68/2,AC$3:AC$2000,A$3:A$2000,NA(),-1,-1))</f>
+        <v/>
+      </c>
+      <c r="BA68" s="3" t="str">
         <f>IF(_xlfn.IFNA($A68,"")="","",AC68/(Connfiguration!$B$1/1000000))</f>
         <v/>
       </c>
-      <c r="BA68" t="str" cm="1">
-        <f t="array" ref="BA68">IF(OR(_xlfn.IFNA($A68,"")="", ROW()&lt;=3),"",$A68-_xlfn.XLOOKUP(AC68,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
       <c r="BB68" t="str" cm="1">
-        <f t="array" ref="BB68">IF(OR(_xlfn.IFNA($A68,"")="", ROW()&lt;=3),"",$A68-_xlfn.XLOOKUP(AZ68,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BB68">IF(OR(_xlfn.IFNA($A68,"")="", ROW()&lt;=3),"",$A68-_xlfn.XLOOKUP(AC68,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BC68" t="str" cm="1">
-        <f t="array" ref="BC68">IF(OR(_xlfn.IFNA($A68,"")="", ROW()&lt;=3),"",$A68-_xlfn.XLOOKUP(AC68,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BC68">IF(OR(_xlfn.IFNA($A68,"")="", ROW()&lt;=3),"",$A68-_xlfn.XLOOKUP(BA68,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BD68" t="str" cm="1">
-        <f t="array" ref="BD68">IF(OR(_xlfn.IFNA($A68,"")="", ROW()&lt;=3),"",$A68-_xlfn.XLOOKUP(AZ68,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:56" x14ac:dyDescent="0.2">
+        <f t="array" ref="BD68">IF(OR(_xlfn.IFNA($A68,"")="", ROW()&lt;=3),"",$A68-_xlfn.XLOOKUP(AC68,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BE68" t="str" cm="1">
+        <f t="array" ref="BE68">IF(OR(_xlfn.IFNA($A68,"")="", ROW()&lt;=3),"",$A68-_xlfn.XLOOKUP(BA68,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="e">
         <f>IF(OR(Daily!$A69="",Daily!$B69="*"),NA(),Daily!A69)</f>
         <v>#N/A</v>
@@ -28684,119 +28964,123 @@
         <v/>
       </c>
       <c r="AC69" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AD69" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AE69" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AF69" s="5" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AG69" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AH69" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AI69" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AJ69" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AK69" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AL69" s="2" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AM69" s="2" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AN69" s="2" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AO69" s="2" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AP69" s="2" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="AQ69" s="2" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="AR69" s="2" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AS69" s="2" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AT69" s="2" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AU69" s="2" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AV69" s="3" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AW69" s="2" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AX69" s="2" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AY69" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="AZ69" s="3" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="AZ69" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="BA69" s="3" t="str">
         <f>IF(_xlfn.IFNA($A69,"")="","",AC69/(Connfiguration!$B$1/1000000))</f>
         <v/>
       </c>
-      <c r="BA69" t="str" cm="1">
-        <f t="array" ref="BA69">IF(OR(_xlfn.IFNA($A69,"")="", ROW()&lt;=3),"",$A69-_xlfn.XLOOKUP(AC69,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
       <c r="BB69" t="str" cm="1">
-        <f t="array" ref="BB69">IF(OR(_xlfn.IFNA($A69,"")="", ROW()&lt;=3),"",$A69-_xlfn.XLOOKUP(AZ69,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BB69">IF(OR(_xlfn.IFNA($A69,"")="", ROW()&lt;=3),"",$A69-_xlfn.XLOOKUP(AC69,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BC69" t="str" cm="1">
-        <f t="array" ref="BC69">IF(OR(_xlfn.IFNA($A69,"")="", ROW()&lt;=3),"",$A69-_xlfn.XLOOKUP(AC69,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BC69">IF(OR(_xlfn.IFNA($A69,"")="", ROW()&lt;=3),"",$A69-_xlfn.XLOOKUP(BA69,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BD69" t="str" cm="1">
-        <f t="array" ref="BD69">IF(OR(_xlfn.IFNA($A69,"")="", ROW()&lt;=3),"",$A69-_xlfn.XLOOKUP(AZ69,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:56" x14ac:dyDescent="0.2">
+        <f t="array" ref="BD69">IF(OR(_xlfn.IFNA($A69,"")="", ROW()&lt;=3),"",$A69-_xlfn.XLOOKUP(AC69,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BE69" t="str" cm="1">
+        <f t="array" ref="BE69">IF(OR(_xlfn.IFNA($A69,"")="", ROW()&lt;=3),"",$A69-_xlfn.XLOOKUP(BA69,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="e">
         <f>IF(OR(Daily!$A70="",Daily!$B70="*"),NA(),Daily!A70)</f>
         <v>#N/A</v>
@@ -28910,119 +29194,123 @@
         <v/>
       </c>
       <c r="AC70" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AD70" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AE70" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AF70" s="5" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AG70" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AH70" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AI70" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AJ70" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AK70" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AL70" s="2" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AM70" s="2" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AN70" s="2" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AO70" s="2" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AP70" s="2" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="AQ70" s="2" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="AR70" s="2" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AS70" s="2" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AT70" s="2" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AU70" s="2" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AV70" s="3" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AW70" s="2" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AX70" s="2" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AY70" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="AZ70" s="3" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="AZ70" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="BA70" s="3" t="str">
         <f>IF(_xlfn.IFNA($A70,"")="","",AC70/(Connfiguration!$B$1/1000000))</f>
         <v/>
       </c>
-      <c r="BA70" t="str" cm="1">
-        <f t="array" ref="BA70">IF(OR(_xlfn.IFNA($A70,"")="", ROW()&lt;=3),"",$A70-_xlfn.XLOOKUP(AC70,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
       <c r="BB70" t="str" cm="1">
-        <f t="array" ref="BB70">IF(OR(_xlfn.IFNA($A70,"")="", ROW()&lt;=3),"",$A70-_xlfn.XLOOKUP(AZ70,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BB70">IF(OR(_xlfn.IFNA($A70,"")="", ROW()&lt;=3),"",$A70-_xlfn.XLOOKUP(AC70,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BC70" t="str" cm="1">
-        <f t="array" ref="BC70">IF(OR(_xlfn.IFNA($A70,"")="", ROW()&lt;=3),"",$A70-_xlfn.XLOOKUP(AC70,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BC70">IF(OR(_xlfn.IFNA($A70,"")="", ROW()&lt;=3),"",$A70-_xlfn.XLOOKUP(BA70,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BD70" t="str" cm="1">
-        <f t="array" ref="BD70">IF(OR(_xlfn.IFNA($A70,"")="", ROW()&lt;=3),"",$A70-_xlfn.XLOOKUP(AZ70,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="1:56" x14ac:dyDescent="0.2">
+        <f t="array" ref="BD70">IF(OR(_xlfn.IFNA($A70,"")="", ROW()&lt;=3),"",$A70-_xlfn.XLOOKUP(AC70,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BE70" t="str" cm="1">
+        <f t="array" ref="BE70">IF(OR(_xlfn.IFNA($A70,"")="", ROW()&lt;=3),"",$A70-_xlfn.XLOOKUP(BA70,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="e">
         <f>IF(OR(Daily!$A71="",Daily!$B71="*"),NA(),Daily!A71)</f>
         <v>#N/A</v>
@@ -29136,119 +29424,123 @@
         <v/>
       </c>
       <c r="AC71" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AD71" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AE71" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AF71" s="5" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AG71" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AH71" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AI71" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AJ71" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AK71" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AL71" s="2" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AM71" s="2" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AN71" s="2" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AO71" s="2" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AP71" s="2" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="AQ71" s="2" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="AR71" s="2" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AS71" s="2" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AT71" s="2" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AU71" s="2" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AV71" s="3" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AW71" s="2" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AX71" s="2" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AY71" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="AZ71" s="3" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="AZ71" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="BA71" s="3" t="str">
         <f>IF(_xlfn.IFNA($A71,"")="","",AC71/(Connfiguration!$B$1/1000000))</f>
         <v/>
       </c>
-      <c r="BA71" t="str" cm="1">
-        <f t="array" ref="BA71">IF(OR(_xlfn.IFNA($A71,"")="", ROW()&lt;=3),"",$A71-_xlfn.XLOOKUP(AC71,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
       <c r="BB71" t="str" cm="1">
-        <f t="array" ref="BB71">IF(OR(_xlfn.IFNA($A71,"")="", ROW()&lt;=3),"",$A71-_xlfn.XLOOKUP(AZ71,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BB71">IF(OR(_xlfn.IFNA($A71,"")="", ROW()&lt;=3),"",$A71-_xlfn.XLOOKUP(AC71,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BC71" t="str" cm="1">
-        <f t="array" ref="BC71">IF(OR(_xlfn.IFNA($A71,"")="", ROW()&lt;=3),"",$A71-_xlfn.XLOOKUP(AC71,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BC71">IF(OR(_xlfn.IFNA($A71,"")="", ROW()&lt;=3),"",$A71-_xlfn.XLOOKUP(BA71,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BD71" t="str" cm="1">
-        <f t="array" ref="BD71">IF(OR(_xlfn.IFNA($A71,"")="", ROW()&lt;=3),"",$A71-_xlfn.XLOOKUP(AZ71,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="1:56" x14ac:dyDescent="0.2">
+        <f t="array" ref="BD71">IF(OR(_xlfn.IFNA($A71,"")="", ROW()&lt;=3),"",$A71-_xlfn.XLOOKUP(AC71,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BE71" t="str" cm="1">
+        <f t="array" ref="BE71">IF(OR(_xlfn.IFNA($A71,"")="", ROW()&lt;=3),"",$A71-_xlfn.XLOOKUP(BA71,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="e">
         <f>IF(OR(Daily!$A72="",Daily!$B72="*"),NA(),Daily!A72)</f>
         <v>#N/A</v>
@@ -29362,119 +29654,123 @@
         <v/>
       </c>
       <c r="AC72" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AD72" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AE72" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AF72" s="5" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AG72" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AH72" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AI72" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AJ72" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AK72" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AL72" s="2" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AM72" s="2" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AN72" s="2" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AO72" s="2" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AP72" s="2" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="AQ72" s="2" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="AR72" s="2" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AS72" s="2" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AT72" s="2" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AU72" s="2" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AV72" s="3" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AW72" s="2" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AX72" s="2" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AY72" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="AZ72" s="3" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="AZ72" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="BA72" s="3" t="str">
         <f>IF(_xlfn.IFNA($A72,"")="","",AC72/(Connfiguration!$B$1/1000000))</f>
         <v/>
       </c>
-      <c r="BA72" t="str" cm="1">
-        <f t="array" ref="BA72">IF(OR(_xlfn.IFNA($A72,"")="", ROW()&lt;=3),"",$A72-_xlfn.XLOOKUP(AC72,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
       <c r="BB72" t="str" cm="1">
-        <f t="array" ref="BB72">IF(OR(_xlfn.IFNA($A72,"")="", ROW()&lt;=3),"",$A72-_xlfn.XLOOKUP(AZ72,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BB72">IF(OR(_xlfn.IFNA($A72,"")="", ROW()&lt;=3),"",$A72-_xlfn.XLOOKUP(AC72,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BC72" t="str" cm="1">
-        <f t="array" ref="BC72">IF(OR(_xlfn.IFNA($A72,"")="", ROW()&lt;=3),"",$A72-_xlfn.XLOOKUP(AC72,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BC72">IF(OR(_xlfn.IFNA($A72,"")="", ROW()&lt;=3),"",$A72-_xlfn.XLOOKUP(BA72,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BD72" t="str" cm="1">
-        <f t="array" ref="BD72">IF(OR(_xlfn.IFNA($A72,"")="", ROW()&lt;=3),"",$A72-_xlfn.XLOOKUP(AZ72,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="1:56" x14ac:dyDescent="0.2">
+        <f t="array" ref="BD72">IF(OR(_xlfn.IFNA($A72,"")="", ROW()&lt;=3),"",$A72-_xlfn.XLOOKUP(AC72,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BE72" t="str" cm="1">
+        <f t="array" ref="BE72">IF(OR(_xlfn.IFNA($A72,"")="", ROW()&lt;=3),"",$A72-_xlfn.XLOOKUP(BA72,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="e">
         <f>IF(OR(Daily!$A73="",Daily!$B73="*"),NA(),Daily!A73)</f>
         <v>#N/A</v>
@@ -29588,119 +29884,123 @@
         <v/>
       </c>
       <c r="AC73" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AD73" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AE73" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AF73" s="5" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AG73" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AH73" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AI73" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AJ73" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AK73" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AL73" s="2" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AM73" s="2" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AN73" s="2" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AO73" s="2" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AP73" s="2" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="AQ73" s="2" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="AR73" s="2" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AS73" s="2" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AT73" s="2" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AU73" s="2" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AV73" s="3" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AW73" s="2" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AX73" s="2" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AY73" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="AZ73" s="3" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="AZ73" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="BA73" s="3" t="str">
         <f>IF(_xlfn.IFNA($A73,"")="","",AC73/(Connfiguration!$B$1/1000000))</f>
         <v/>
       </c>
-      <c r="BA73" t="str" cm="1">
-        <f t="array" ref="BA73">IF(OR(_xlfn.IFNA($A73,"")="", ROW()&lt;=3),"",$A73-_xlfn.XLOOKUP(AC73,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
       <c r="BB73" t="str" cm="1">
-        <f t="array" ref="BB73">IF(OR(_xlfn.IFNA($A73,"")="", ROW()&lt;=3),"",$A73-_xlfn.XLOOKUP(AZ73,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BB73">IF(OR(_xlfn.IFNA($A73,"")="", ROW()&lt;=3),"",$A73-_xlfn.XLOOKUP(AC73,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BC73" t="str" cm="1">
-        <f t="array" ref="BC73">IF(OR(_xlfn.IFNA($A73,"")="", ROW()&lt;=3),"",$A73-_xlfn.XLOOKUP(AC73,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BC73">IF(OR(_xlfn.IFNA($A73,"")="", ROW()&lt;=3),"",$A73-_xlfn.XLOOKUP(BA73,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BD73" t="str" cm="1">
-        <f t="array" ref="BD73">IF(OR(_xlfn.IFNA($A73,"")="", ROW()&lt;=3),"",$A73-_xlfn.XLOOKUP(AZ73,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="1:56" x14ac:dyDescent="0.2">
+        <f t="array" ref="BD73">IF(OR(_xlfn.IFNA($A73,"")="", ROW()&lt;=3),"",$A73-_xlfn.XLOOKUP(AC73,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BE73" t="str" cm="1">
+        <f t="array" ref="BE73">IF(OR(_xlfn.IFNA($A73,"")="", ROW()&lt;=3),"",$A73-_xlfn.XLOOKUP(BA73,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="e">
         <f>IF(OR(Daily!$A74="",Daily!$B74="*"),NA(),Daily!A74)</f>
         <v>#N/A</v>
@@ -29814,119 +30114,123 @@
         <v/>
       </c>
       <c r="AC74" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AD74" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AE74" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AF74" s="5" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AG74" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AH74" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AI74" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AJ74" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AK74" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AL74" s="2" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AM74" s="2" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AN74" s="2" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AO74" s="2" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AP74" s="2" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="AQ74" s="2" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="AR74" s="2" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AS74" s="2" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AT74" s="2" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AU74" s="2" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AV74" s="3" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AW74" s="2" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AX74" s="2" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AY74" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="AZ74" s="3" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="AZ74" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="BA74" s="3" t="str">
         <f>IF(_xlfn.IFNA($A74,"")="","",AC74/(Connfiguration!$B$1/1000000))</f>
         <v/>
       </c>
-      <c r="BA74" t="str" cm="1">
-        <f t="array" ref="BA74">IF(OR(_xlfn.IFNA($A74,"")="", ROW()&lt;=3),"",$A74-_xlfn.XLOOKUP(AC74,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
       <c r="BB74" t="str" cm="1">
-        <f t="array" ref="BB74">IF(OR(_xlfn.IFNA($A74,"")="", ROW()&lt;=3),"",$A74-_xlfn.XLOOKUP(AZ74,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BB74">IF(OR(_xlfn.IFNA($A74,"")="", ROW()&lt;=3),"",$A74-_xlfn.XLOOKUP(AC74,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BC74" t="str" cm="1">
-        <f t="array" ref="BC74">IF(OR(_xlfn.IFNA($A74,"")="", ROW()&lt;=3),"",$A74-_xlfn.XLOOKUP(AC74,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BC74">IF(OR(_xlfn.IFNA($A74,"")="", ROW()&lt;=3),"",$A74-_xlfn.XLOOKUP(BA74,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BD74" t="str" cm="1">
-        <f t="array" ref="BD74">IF(OR(_xlfn.IFNA($A74,"")="", ROW()&lt;=3),"",$A74-_xlfn.XLOOKUP(AZ74,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="1:56" x14ac:dyDescent="0.2">
+        <f t="array" ref="BD74">IF(OR(_xlfn.IFNA($A74,"")="", ROW()&lt;=3),"",$A74-_xlfn.XLOOKUP(AC74,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BE74" t="str" cm="1">
+        <f t="array" ref="BE74">IF(OR(_xlfn.IFNA($A74,"")="", ROW()&lt;=3),"",$A74-_xlfn.XLOOKUP(BA74,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="e">
         <f>IF(OR(Daily!$A75="",Daily!$B75="*"),NA(),Daily!A75)</f>
         <v>#N/A</v>
@@ -30040,119 +30344,123 @@
         <v/>
       </c>
       <c r="AC75" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AD75" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AE75" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AF75" s="5" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AG75" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AH75" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AI75" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AJ75" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AK75" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AL75" s="2" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AM75" s="2" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AN75" s="2" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AO75" s="2" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AP75" s="2" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="AQ75" s="2" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="AR75" s="2" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AS75" s="2" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AT75" s="2" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AU75" s="2" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AV75" s="3" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AW75" s="2" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AX75" s="2" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AY75" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="AZ75" s="3" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="AZ75" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="BA75" s="3" t="str">
         <f>IF(_xlfn.IFNA($A75,"")="","",AC75/(Connfiguration!$B$1/1000000))</f>
         <v/>
       </c>
-      <c r="BA75" t="str" cm="1">
-        <f t="array" ref="BA75">IF(OR(_xlfn.IFNA($A75,"")="", ROW()&lt;=3),"",$A75-_xlfn.XLOOKUP(AC75,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
       <c r="BB75" t="str" cm="1">
-        <f t="array" ref="BB75">IF(OR(_xlfn.IFNA($A75,"")="", ROW()&lt;=3),"",$A75-_xlfn.XLOOKUP(AZ75,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BB75">IF(OR(_xlfn.IFNA($A75,"")="", ROW()&lt;=3),"",$A75-_xlfn.XLOOKUP(AC75,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BC75" t="str" cm="1">
-        <f t="array" ref="BC75">IF(OR(_xlfn.IFNA($A75,"")="", ROW()&lt;=3),"",$A75-_xlfn.XLOOKUP(AC75,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BC75">IF(OR(_xlfn.IFNA($A75,"")="", ROW()&lt;=3),"",$A75-_xlfn.XLOOKUP(BA75,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BD75" t="str" cm="1">
-        <f t="array" ref="BD75">IF(OR(_xlfn.IFNA($A75,"")="", ROW()&lt;=3),"",$A75-_xlfn.XLOOKUP(AZ75,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="1:56" x14ac:dyDescent="0.2">
+        <f t="array" ref="BD75">IF(OR(_xlfn.IFNA($A75,"")="", ROW()&lt;=3),"",$A75-_xlfn.XLOOKUP(AC75,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BE75" t="str" cm="1">
+        <f t="array" ref="BE75">IF(OR(_xlfn.IFNA($A75,"")="", ROW()&lt;=3),"",$A75-_xlfn.XLOOKUP(BA75,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="e">
         <f>IF(OR(Daily!$A76="",Daily!$B76="*"),NA(),Daily!A76)</f>
         <v>#N/A</v>
@@ -30266,119 +30574,123 @@
         <v/>
       </c>
       <c r="AC76" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AD76" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AE76" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AF76" s="5" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AG76" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AH76" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AI76" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AJ76" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AK76" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AL76" s="2" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AM76" s="2" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AN76" s="2" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AO76" s="2" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AP76" s="2" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="AQ76" s="2" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="AR76" s="2" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AS76" s="2" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AT76" s="2" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AU76" s="2" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AV76" s="3" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AW76" s="2" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AX76" s="2" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AY76" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="AZ76" s="3" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="AZ76" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="BA76" s="3" t="str">
         <f>IF(_xlfn.IFNA($A76,"")="","",AC76/(Connfiguration!$B$1/1000000))</f>
         <v/>
       </c>
-      <c r="BA76" t="str" cm="1">
-        <f t="array" ref="BA76">IF(OR(_xlfn.IFNA($A76,"")="", ROW()&lt;=3),"",$A76-_xlfn.XLOOKUP(AC76,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
       <c r="BB76" t="str" cm="1">
-        <f t="array" ref="BB76">IF(OR(_xlfn.IFNA($A76,"")="", ROW()&lt;=3),"",$A76-_xlfn.XLOOKUP(AZ76,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BB76">IF(OR(_xlfn.IFNA($A76,"")="", ROW()&lt;=3),"",$A76-_xlfn.XLOOKUP(AC76,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BC76" t="str" cm="1">
-        <f t="array" ref="BC76">IF(OR(_xlfn.IFNA($A76,"")="", ROW()&lt;=3),"",$A76-_xlfn.XLOOKUP(AC76,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BC76">IF(OR(_xlfn.IFNA($A76,"")="", ROW()&lt;=3),"",$A76-_xlfn.XLOOKUP(BA76,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BD76" t="str" cm="1">
-        <f t="array" ref="BD76">IF(OR(_xlfn.IFNA($A76,"")="", ROW()&lt;=3),"",$A76-_xlfn.XLOOKUP(AZ76,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="1:56" x14ac:dyDescent="0.2">
+        <f t="array" ref="BD76">IF(OR(_xlfn.IFNA($A76,"")="", ROW()&lt;=3),"",$A76-_xlfn.XLOOKUP(AC76,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BE76" t="str" cm="1">
+        <f t="array" ref="BE76">IF(OR(_xlfn.IFNA($A76,"")="", ROW()&lt;=3),"",$A76-_xlfn.XLOOKUP(BA76,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="e">
         <f>IF(OR(Daily!$A77="",Daily!$B77="*"),NA(),Daily!A77)</f>
         <v>#N/A</v>
@@ -30492,119 +30804,123 @@
         <v/>
       </c>
       <c r="AC77" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AD77" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AE77" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AF77" s="5" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AG77" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AH77" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AI77" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AJ77" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AK77" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AL77" s="2" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AM77" s="2" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AN77" s="2" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AO77" s="2" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AP77" s="2" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="AQ77" s="2" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="AR77" s="2" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AS77" s="2" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AT77" s="2" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AU77" s="2" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AV77" s="3" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AW77" s="2" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AX77" s="2" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AY77" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="AZ77" s="3" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="AZ77" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="BA77" s="3" t="str">
         <f>IF(_xlfn.IFNA($A77,"")="","",AC77/(Connfiguration!$B$1/1000000))</f>
         <v/>
       </c>
-      <c r="BA77" t="str" cm="1">
-        <f t="array" ref="BA77">IF(OR(_xlfn.IFNA($A77,"")="", ROW()&lt;=3),"",$A77-_xlfn.XLOOKUP(AC77,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
       <c r="BB77" t="str" cm="1">
-        <f t="array" ref="BB77">IF(OR(_xlfn.IFNA($A77,"")="", ROW()&lt;=3),"",$A77-_xlfn.XLOOKUP(AZ77,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BB77">IF(OR(_xlfn.IFNA($A77,"")="", ROW()&lt;=3),"",$A77-_xlfn.XLOOKUP(AC77,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BC77" t="str" cm="1">
-        <f t="array" ref="BC77">IF(OR(_xlfn.IFNA($A77,"")="", ROW()&lt;=3),"",$A77-_xlfn.XLOOKUP(AC77,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BC77">IF(OR(_xlfn.IFNA($A77,"")="", ROW()&lt;=3),"",$A77-_xlfn.XLOOKUP(BA77,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BD77" t="str" cm="1">
-        <f t="array" ref="BD77">IF(OR(_xlfn.IFNA($A77,"")="", ROW()&lt;=3),"",$A77-_xlfn.XLOOKUP(AZ77,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="1:56" x14ac:dyDescent="0.2">
+        <f t="array" ref="BD77">IF(OR(_xlfn.IFNA($A77,"")="", ROW()&lt;=3),"",$A77-_xlfn.XLOOKUP(AC77,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BE77" t="str" cm="1">
+        <f t="array" ref="BE77">IF(OR(_xlfn.IFNA($A77,"")="", ROW()&lt;=3),"",$A77-_xlfn.XLOOKUP(BA77,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="e">
         <f>IF(OR(Daily!$A78="",Daily!$B78="*"),NA(),Daily!A78)</f>
         <v>#N/A</v>
@@ -30718,119 +31034,123 @@
         <v/>
       </c>
       <c r="AC78" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AD78" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AE78" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AF78" s="5" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AG78" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AH78" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AI78" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AJ78" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AK78" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AL78" s="2" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AM78" s="2" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AN78" s="2" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AO78" s="2" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AP78" s="2" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="AQ78" s="2" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="AR78" s="2" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AS78" s="2" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AT78" s="2" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AU78" s="2" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AV78" s="3" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AW78" s="2" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AX78" s="2" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AY78" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="AZ78" s="3" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="AZ78" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="BA78" s="3" t="str">
         <f>IF(_xlfn.IFNA($A78,"")="","",AC78/(Connfiguration!$B$1/1000000))</f>
         <v/>
       </c>
-      <c r="BA78" t="str" cm="1">
-        <f t="array" ref="BA78">IF(OR(_xlfn.IFNA($A78,"")="", ROW()&lt;=3),"",$A78-_xlfn.XLOOKUP(AC78,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
       <c r="BB78" t="str" cm="1">
-        <f t="array" ref="BB78">IF(OR(_xlfn.IFNA($A78,"")="", ROW()&lt;=3),"",$A78-_xlfn.XLOOKUP(AZ78,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BB78">IF(OR(_xlfn.IFNA($A78,"")="", ROW()&lt;=3),"",$A78-_xlfn.XLOOKUP(AC78,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BC78" t="str" cm="1">
-        <f t="array" ref="BC78">IF(OR(_xlfn.IFNA($A78,"")="", ROW()&lt;=3),"",$A78-_xlfn.XLOOKUP(AC78,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BC78">IF(OR(_xlfn.IFNA($A78,"")="", ROW()&lt;=3),"",$A78-_xlfn.XLOOKUP(BA78,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BD78" t="str" cm="1">
-        <f t="array" ref="BD78">IF(OR(_xlfn.IFNA($A78,"")="", ROW()&lt;=3),"",$A78-_xlfn.XLOOKUP(AZ78,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="1:56" x14ac:dyDescent="0.2">
+        <f t="array" ref="BD78">IF(OR(_xlfn.IFNA($A78,"")="", ROW()&lt;=3),"",$A78-_xlfn.XLOOKUP(AC78,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BE78" t="str" cm="1">
+        <f t="array" ref="BE78">IF(OR(_xlfn.IFNA($A78,"")="", ROW()&lt;=3),"",$A78-_xlfn.XLOOKUP(BA78,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="e">
         <f>IF(OR(Daily!$A79="",Daily!$B79="*"),NA(),Daily!A79)</f>
         <v>#N/A</v>
@@ -30944,119 +31264,123 @@
         <v/>
       </c>
       <c r="AC79" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AD79" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AE79" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AF79" s="5" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AG79" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AH79" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AI79" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AJ79" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AK79" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AL79" s="2" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AM79" s="2" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AN79" s="2" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AO79" s="2" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AP79" s="2" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="AQ79" s="2" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="AR79" s="2" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AS79" s="2" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AT79" s="2" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AU79" s="2" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AV79" s="3" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AW79" s="2" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AX79" s="2" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AY79" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="AZ79" s="3" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="AZ79" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="BA79" s="3" t="str">
         <f>IF(_xlfn.IFNA($A79,"")="","",AC79/(Connfiguration!$B$1/1000000))</f>
         <v/>
       </c>
-      <c r="BA79" t="str" cm="1">
-        <f t="array" ref="BA79">IF(OR(_xlfn.IFNA($A79,"")="", ROW()&lt;=3),"",$A79-_xlfn.XLOOKUP(AC79,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
       <c r="BB79" t="str" cm="1">
-        <f t="array" ref="BB79">IF(OR(_xlfn.IFNA($A79,"")="", ROW()&lt;=3),"",$A79-_xlfn.XLOOKUP(AZ79,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BB79">IF(OR(_xlfn.IFNA($A79,"")="", ROW()&lt;=3),"",$A79-_xlfn.XLOOKUP(AC79,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BC79" t="str" cm="1">
-        <f t="array" ref="BC79">IF(OR(_xlfn.IFNA($A79,"")="", ROW()&lt;=3),"",$A79-_xlfn.XLOOKUP(AC79,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BC79">IF(OR(_xlfn.IFNA($A79,"")="", ROW()&lt;=3),"",$A79-_xlfn.XLOOKUP(BA79,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BD79" t="str" cm="1">
-        <f t="array" ref="BD79">IF(OR(_xlfn.IFNA($A79,"")="", ROW()&lt;=3),"",$A79-_xlfn.XLOOKUP(AZ79,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="1:56" x14ac:dyDescent="0.2">
+        <f t="array" ref="BD79">IF(OR(_xlfn.IFNA($A79,"")="", ROW()&lt;=3),"",$A79-_xlfn.XLOOKUP(AC79,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BE79" t="str" cm="1">
+        <f t="array" ref="BE79">IF(OR(_xlfn.IFNA($A79,"")="", ROW()&lt;=3),"",$A79-_xlfn.XLOOKUP(BA79,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="e">
         <f>IF(OR(Daily!$A80="",Daily!$B80="*"),NA(),Daily!A80)</f>
         <v>#N/A</v>
@@ -31170,119 +31494,123 @@
         <v/>
       </c>
       <c r="AC80" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AD80" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AE80" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AF80" s="5" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AG80" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AH80" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AI80" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AJ80" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AK80" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AL80" s="2" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AM80" s="2" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AN80" s="2" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AO80" s="2" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AP80" s="2" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="AQ80" s="2" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="AR80" s="2" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AS80" s="2" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AT80" s="2" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AU80" s="2" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AV80" s="3" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AW80" s="2" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AX80" s="2" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AY80" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="AZ80" s="3" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="AZ80" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="BA80" s="3" t="str">
         <f>IF(_xlfn.IFNA($A80,"")="","",AC80/(Connfiguration!$B$1/1000000))</f>
         <v/>
       </c>
-      <c r="BA80" t="str" cm="1">
-        <f t="array" ref="BA80">IF(OR(_xlfn.IFNA($A80,"")="", ROW()&lt;=3),"",$A80-_xlfn.XLOOKUP(AC80,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
       <c r="BB80" t="str" cm="1">
-        <f t="array" ref="BB80">IF(OR(_xlfn.IFNA($A80,"")="", ROW()&lt;=3),"",$A80-_xlfn.XLOOKUP(AZ80,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BB80">IF(OR(_xlfn.IFNA($A80,"")="", ROW()&lt;=3),"",$A80-_xlfn.XLOOKUP(AC80,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BC80" t="str" cm="1">
-        <f t="array" ref="BC80">IF(OR(_xlfn.IFNA($A80,"")="", ROW()&lt;=3),"",$A80-_xlfn.XLOOKUP(AC80,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BC80">IF(OR(_xlfn.IFNA($A80,"")="", ROW()&lt;=3),"",$A80-_xlfn.XLOOKUP(BA80,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BD80" t="str" cm="1">
-        <f t="array" ref="BD80">IF(OR(_xlfn.IFNA($A80,"")="", ROW()&lt;=3),"",$A80-_xlfn.XLOOKUP(AZ80,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="1:56" x14ac:dyDescent="0.2">
+        <f t="array" ref="BD80">IF(OR(_xlfn.IFNA($A80,"")="", ROW()&lt;=3),"",$A80-_xlfn.XLOOKUP(AC80,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BE80" t="str" cm="1">
+        <f t="array" ref="BE80">IF(OR(_xlfn.IFNA($A80,"")="", ROW()&lt;=3),"",$A80-_xlfn.XLOOKUP(BA80,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="e">
         <f>IF(OR(Daily!$A81="",Daily!$B81="*"),NA(),Daily!A81)</f>
         <v>#N/A</v>
@@ -31396,119 +31724,123 @@
         <v/>
       </c>
       <c r="AC81" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AD81" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AE81" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AF81" s="5" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AG81" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AH81" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AI81" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AJ81" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AK81" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AL81" s="2" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AM81" s="2" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AN81" s="2" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AO81" s="2" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AP81" s="2" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="AQ81" s="2" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="AR81" s="2" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AS81" s="2" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AT81" s="2" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AU81" s="2" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AV81" s="3" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AW81" s="2" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AX81" s="2" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AY81" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="AZ81" s="3" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="AZ81" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="BA81" s="3" t="str">
         <f>IF(_xlfn.IFNA($A81,"")="","",AC81/(Connfiguration!$B$1/1000000))</f>
         <v/>
       </c>
-      <c r="BA81" t="str" cm="1">
-        <f t="array" ref="BA81">IF(OR(_xlfn.IFNA($A81,"")="", ROW()&lt;=3),"",$A81-_xlfn.XLOOKUP(AC81,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
       <c r="BB81" t="str" cm="1">
-        <f t="array" ref="BB81">IF(OR(_xlfn.IFNA($A81,"")="", ROW()&lt;=3),"",$A81-_xlfn.XLOOKUP(AZ81,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BB81">IF(OR(_xlfn.IFNA($A81,"")="", ROW()&lt;=3),"",$A81-_xlfn.XLOOKUP(AC81,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BC81" t="str" cm="1">
-        <f t="array" ref="BC81">IF(OR(_xlfn.IFNA($A81,"")="", ROW()&lt;=3),"",$A81-_xlfn.XLOOKUP(AC81,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BC81">IF(OR(_xlfn.IFNA($A81,"")="", ROW()&lt;=3),"",$A81-_xlfn.XLOOKUP(BA81,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BD81" t="str" cm="1">
-        <f t="array" ref="BD81">IF(OR(_xlfn.IFNA($A81,"")="", ROW()&lt;=3),"",$A81-_xlfn.XLOOKUP(AZ81,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="1:56" x14ac:dyDescent="0.2">
+        <f t="array" ref="BD81">IF(OR(_xlfn.IFNA($A81,"")="", ROW()&lt;=3),"",$A81-_xlfn.XLOOKUP(AC81,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BE81" t="str" cm="1">
+        <f t="array" ref="BE81">IF(OR(_xlfn.IFNA($A81,"")="", ROW()&lt;=3),"",$A81-_xlfn.XLOOKUP(BA81,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="e">
         <f>IF(OR(Daily!$A82="",Daily!$B82="*"),NA(),Daily!A82)</f>
         <v>#N/A</v>
@@ -31622,119 +31954,123 @@
         <v/>
       </c>
       <c r="AC82" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AD82" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AE82" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AF82" s="5" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AG82" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AH82" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AI82" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AJ82" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AK82" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AL82" s="2" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AM82" s="2" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AN82" s="2" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AO82" s="2" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AP82" s="2" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="AQ82" s="2" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="AR82" s="2" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AS82" s="2" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AT82" s="2" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AU82" s="2" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AV82" s="3" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AW82" s="2" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AX82" s="2" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AY82" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="AZ82" s="3" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="AZ82" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="BA82" s="3" t="str">
         <f>IF(_xlfn.IFNA($A82,"")="","",AC82/(Connfiguration!$B$1/1000000))</f>
         <v/>
       </c>
-      <c r="BA82" t="str" cm="1">
-        <f t="array" ref="BA82">IF(OR(_xlfn.IFNA($A82,"")="", ROW()&lt;=3),"",$A82-_xlfn.XLOOKUP(AC82,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
       <c r="BB82" t="str" cm="1">
-        <f t="array" ref="BB82">IF(OR(_xlfn.IFNA($A82,"")="", ROW()&lt;=3),"",$A82-_xlfn.XLOOKUP(AZ82,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BB82">IF(OR(_xlfn.IFNA($A82,"")="", ROW()&lt;=3),"",$A82-_xlfn.XLOOKUP(AC82,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BC82" t="str" cm="1">
-        <f t="array" ref="BC82">IF(OR(_xlfn.IFNA($A82,"")="", ROW()&lt;=3),"",$A82-_xlfn.XLOOKUP(AC82,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BC82">IF(OR(_xlfn.IFNA($A82,"")="", ROW()&lt;=3),"",$A82-_xlfn.XLOOKUP(BA82,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BD82" t="str" cm="1">
-        <f t="array" ref="BD82">IF(OR(_xlfn.IFNA($A82,"")="", ROW()&lt;=3),"",$A82-_xlfn.XLOOKUP(AZ82,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="1:56" x14ac:dyDescent="0.2">
+        <f t="array" ref="BD82">IF(OR(_xlfn.IFNA($A82,"")="", ROW()&lt;=3),"",$A82-_xlfn.XLOOKUP(AC82,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BE82" t="str" cm="1">
+        <f t="array" ref="BE82">IF(OR(_xlfn.IFNA($A82,"")="", ROW()&lt;=3),"",$A82-_xlfn.XLOOKUP(BA82,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="e">
         <f>IF(OR(Daily!$A83="",Daily!$B83="*"),NA(),Daily!A83)</f>
         <v>#N/A</v>
@@ -31848,119 +32184,123 @@
         <v/>
       </c>
       <c r="AC83" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AD83" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AE83" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AF83" s="5" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AG83" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AH83" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AI83" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AJ83" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AK83" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AL83" s="2" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AM83" s="2" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AN83" s="2" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AO83" s="2" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AP83" s="2" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="AQ83" s="2" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="AR83" s="2" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AS83" s="2" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AT83" s="2" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AU83" s="2" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AV83" s="3" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AW83" s="2" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AX83" s="2" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AY83" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="AZ83" s="3" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="AZ83" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="BA83" s="3" t="str">
         <f>IF(_xlfn.IFNA($A83,"")="","",AC83/(Connfiguration!$B$1/1000000))</f>
         <v/>
       </c>
-      <c r="BA83" t="str" cm="1">
-        <f t="array" ref="BA83">IF(OR(_xlfn.IFNA($A83,"")="", ROW()&lt;=3),"",$A83-_xlfn.XLOOKUP(AC83,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
       <c r="BB83" t="str" cm="1">
-        <f t="array" ref="BB83">IF(OR(_xlfn.IFNA($A83,"")="", ROW()&lt;=3),"",$A83-_xlfn.XLOOKUP(AZ83,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BB83">IF(OR(_xlfn.IFNA($A83,"")="", ROW()&lt;=3),"",$A83-_xlfn.XLOOKUP(AC83,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BC83" t="str" cm="1">
-        <f t="array" ref="BC83">IF(OR(_xlfn.IFNA($A83,"")="", ROW()&lt;=3),"",$A83-_xlfn.XLOOKUP(AC83,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BC83">IF(OR(_xlfn.IFNA($A83,"")="", ROW()&lt;=3),"",$A83-_xlfn.XLOOKUP(BA83,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BD83" t="str" cm="1">
-        <f t="array" ref="BD83">IF(OR(_xlfn.IFNA($A83,"")="", ROW()&lt;=3),"",$A83-_xlfn.XLOOKUP(AZ83,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="1:56" x14ac:dyDescent="0.2">
+        <f t="array" ref="BD83">IF(OR(_xlfn.IFNA($A83,"")="", ROW()&lt;=3),"",$A83-_xlfn.XLOOKUP(AC83,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BE83" t="str" cm="1">
+        <f t="array" ref="BE83">IF(OR(_xlfn.IFNA($A83,"")="", ROW()&lt;=3),"",$A83-_xlfn.XLOOKUP(BA83,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="e">
         <f>IF(OR(Daily!$A84="",Daily!$B84="*"),NA(),Daily!A84)</f>
         <v>#N/A</v>
@@ -32074,119 +32414,123 @@
         <v/>
       </c>
       <c r="AC84" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AD84" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AE84" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AF84" s="5" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AG84" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AH84" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AI84" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AJ84" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AK84" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AL84" s="2" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AM84" s="2" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AN84" s="2" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AO84" s="2" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AP84" s="2" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="AQ84" s="2" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="AR84" s="2" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AS84" s="2" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AT84" s="2" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AU84" s="2" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AV84" s="3" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AW84" s="2" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AX84" s="2" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AY84" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="AZ84" s="3" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="AZ84" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="BA84" s="3" t="str">
         <f>IF(_xlfn.IFNA($A84,"")="","",AC84/(Connfiguration!$B$1/1000000))</f>
         <v/>
       </c>
-      <c r="BA84" t="str" cm="1">
-        <f t="array" ref="BA84">IF(OR(_xlfn.IFNA($A84,"")="", ROW()&lt;=3),"",$A84-_xlfn.XLOOKUP(AC84,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
       <c r="BB84" t="str" cm="1">
-        <f t="array" ref="BB84">IF(OR(_xlfn.IFNA($A84,"")="", ROW()&lt;=3),"",$A84-_xlfn.XLOOKUP(AZ84,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BB84">IF(OR(_xlfn.IFNA($A84,"")="", ROW()&lt;=3),"",$A84-_xlfn.XLOOKUP(AC84,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BC84" t="str" cm="1">
-        <f t="array" ref="BC84">IF(OR(_xlfn.IFNA($A84,"")="", ROW()&lt;=3),"",$A84-_xlfn.XLOOKUP(AC84,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BC84">IF(OR(_xlfn.IFNA($A84,"")="", ROW()&lt;=3),"",$A84-_xlfn.XLOOKUP(BA84,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BD84" t="str" cm="1">
-        <f t="array" ref="BD84">IF(OR(_xlfn.IFNA($A84,"")="", ROW()&lt;=3),"",$A84-_xlfn.XLOOKUP(AZ84,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="1:56" x14ac:dyDescent="0.2">
+        <f t="array" ref="BD84">IF(OR(_xlfn.IFNA($A84,"")="", ROW()&lt;=3),"",$A84-_xlfn.XLOOKUP(AC84,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BE84" t="str" cm="1">
+        <f t="array" ref="BE84">IF(OR(_xlfn.IFNA($A84,"")="", ROW()&lt;=3),"",$A84-_xlfn.XLOOKUP(BA84,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="e">
         <f>IF(OR(Daily!$A85="",Daily!$B85="*"),NA(),Daily!A85)</f>
         <v>#N/A</v>
@@ -32300,119 +32644,123 @@
         <v/>
       </c>
       <c r="AC85" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AD85" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AE85" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AF85" s="5" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AG85" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AH85" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AI85" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AJ85" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AK85" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AL85" s="2" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AM85" s="2" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AN85" s="2" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AO85" s="2" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AP85" s="2" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="AQ85" s="2" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="AR85" s="2" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AS85" s="2" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AT85" s="2" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AU85" s="2" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AV85" s="3" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AW85" s="2" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AX85" s="2" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AY85" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="AZ85" s="3" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="AZ85" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="BA85" s="3" t="str">
         <f>IF(_xlfn.IFNA($A85,"")="","",AC85/(Connfiguration!$B$1/1000000))</f>
         <v/>
       </c>
-      <c r="BA85" t="str" cm="1">
-        <f t="array" ref="BA85">IF(OR(_xlfn.IFNA($A85,"")="", ROW()&lt;=3),"",$A85-_xlfn.XLOOKUP(AC85,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
       <c r="BB85" t="str" cm="1">
-        <f t="array" ref="BB85">IF(OR(_xlfn.IFNA($A85,"")="", ROW()&lt;=3),"",$A85-_xlfn.XLOOKUP(AZ85,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BB85">IF(OR(_xlfn.IFNA($A85,"")="", ROW()&lt;=3),"",$A85-_xlfn.XLOOKUP(AC85,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BC85" t="str" cm="1">
-        <f t="array" ref="BC85">IF(OR(_xlfn.IFNA($A85,"")="", ROW()&lt;=3),"",$A85-_xlfn.XLOOKUP(AC85,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BC85">IF(OR(_xlfn.IFNA($A85,"")="", ROW()&lt;=3),"",$A85-_xlfn.XLOOKUP(BA85,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BD85" t="str" cm="1">
-        <f t="array" ref="BD85">IF(OR(_xlfn.IFNA($A85,"")="", ROW()&lt;=3),"",$A85-_xlfn.XLOOKUP(AZ85,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="1:56" x14ac:dyDescent="0.2">
+        <f t="array" ref="BD85">IF(OR(_xlfn.IFNA($A85,"")="", ROW()&lt;=3),"",$A85-_xlfn.XLOOKUP(AC85,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BE85" t="str" cm="1">
+        <f t="array" ref="BE85">IF(OR(_xlfn.IFNA($A85,"")="", ROW()&lt;=3),"",$A85-_xlfn.XLOOKUP(BA85,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="e">
         <f>IF(OR(Daily!$A86="",Daily!$B86="*"),NA(),Daily!A86)</f>
         <v>#N/A</v>
@@ -32526,119 +32874,123 @@
         <v/>
       </c>
       <c r="AC86" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AD86" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AE86" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AF86" s="5" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AG86" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AH86" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AI86" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AJ86" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AK86" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AL86" s="2" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AM86" s="2" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AN86" s="2" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AO86" s="2" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AP86" s="2" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="AQ86" s="2" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="AR86" s="2" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AS86" s="2" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AT86" s="2" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AU86" s="2" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AV86" s="3" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AW86" s="2" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AX86" s="2" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AY86" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="AZ86" s="3" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="AZ86" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="BA86" s="3" t="str">
         <f>IF(_xlfn.IFNA($A86,"")="","",AC86/(Connfiguration!$B$1/1000000))</f>
         <v/>
       </c>
-      <c r="BA86" t="str" cm="1">
-        <f t="array" ref="BA86">IF(OR(_xlfn.IFNA($A86,"")="", ROW()&lt;=3),"",$A86-_xlfn.XLOOKUP(AC86,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
       <c r="BB86" t="str" cm="1">
-        <f t="array" ref="BB86">IF(OR(_xlfn.IFNA($A86,"")="", ROW()&lt;=3),"",$A86-_xlfn.XLOOKUP(AZ86,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BB86">IF(OR(_xlfn.IFNA($A86,"")="", ROW()&lt;=3),"",$A86-_xlfn.XLOOKUP(AC86,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BC86" t="str" cm="1">
-        <f t="array" ref="BC86">IF(OR(_xlfn.IFNA($A86,"")="", ROW()&lt;=3),"",$A86-_xlfn.XLOOKUP(AC86,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BC86">IF(OR(_xlfn.IFNA($A86,"")="", ROW()&lt;=3),"",$A86-_xlfn.XLOOKUP(BA86,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BD86" t="str" cm="1">
-        <f t="array" ref="BD86">IF(OR(_xlfn.IFNA($A86,"")="", ROW()&lt;=3),"",$A86-_xlfn.XLOOKUP(AZ86,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="1:56" x14ac:dyDescent="0.2">
+        <f t="array" ref="BD86">IF(OR(_xlfn.IFNA($A86,"")="", ROW()&lt;=3),"",$A86-_xlfn.XLOOKUP(AC86,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BE86" t="str" cm="1">
+        <f t="array" ref="BE86">IF(OR(_xlfn.IFNA($A86,"")="", ROW()&lt;=3),"",$A86-_xlfn.XLOOKUP(BA86,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="e">
         <f>IF(OR(Daily!$A87="",Daily!$B87="*"),NA(),Daily!A87)</f>
         <v>#N/A</v>
@@ -32752,119 +33104,123 @@
         <v/>
       </c>
       <c r="AC87" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AD87" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AE87" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AF87" s="5" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AG87" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AH87" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AI87" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AJ87" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AK87" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AL87" s="2" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AM87" s="2" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AN87" s="2" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AO87" s="2" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AP87" s="2" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="AQ87" s="2" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="AR87" s="2" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AS87" s="2" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AT87" s="2" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AU87" s="2" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AV87" s="3" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AW87" s="2" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AX87" s="2" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AY87" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="AZ87" s="3" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="AZ87" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="BA87" s="3" t="str">
         <f>IF(_xlfn.IFNA($A87,"")="","",AC87/(Connfiguration!$B$1/1000000))</f>
         <v/>
       </c>
-      <c r="BA87" t="str" cm="1">
-        <f t="array" ref="BA87">IF(OR(_xlfn.IFNA($A87,"")="", ROW()&lt;=3),"",$A87-_xlfn.XLOOKUP(AC87,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
       <c r="BB87" t="str" cm="1">
-        <f t="array" ref="BB87">IF(OR(_xlfn.IFNA($A87,"")="", ROW()&lt;=3),"",$A87-_xlfn.XLOOKUP(AZ87,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BB87">IF(OR(_xlfn.IFNA($A87,"")="", ROW()&lt;=3),"",$A87-_xlfn.XLOOKUP(AC87,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BC87" t="str" cm="1">
-        <f t="array" ref="BC87">IF(OR(_xlfn.IFNA($A87,"")="", ROW()&lt;=3),"",$A87-_xlfn.XLOOKUP(AC87,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BC87">IF(OR(_xlfn.IFNA($A87,"")="", ROW()&lt;=3),"",$A87-_xlfn.XLOOKUP(BA87,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BD87" t="str" cm="1">
-        <f t="array" ref="BD87">IF(OR(_xlfn.IFNA($A87,"")="", ROW()&lt;=3),"",$A87-_xlfn.XLOOKUP(AZ87,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="1:56" x14ac:dyDescent="0.2">
+        <f t="array" ref="BD87">IF(OR(_xlfn.IFNA($A87,"")="", ROW()&lt;=3),"",$A87-_xlfn.XLOOKUP(AC87,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BE87" t="str" cm="1">
+        <f t="array" ref="BE87">IF(OR(_xlfn.IFNA($A87,"")="", ROW()&lt;=3),"",$A87-_xlfn.XLOOKUP(BA87,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="e">
         <f>IF(OR(Daily!$A88="",Daily!$B88="*"),NA(),Daily!A88)</f>
         <v>#N/A</v>
@@ -32978,119 +33334,123 @@
         <v/>
       </c>
       <c r="AC88" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AD88" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AE88" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AF88" s="5" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AG88" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AH88" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AI88" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AJ88" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AK88" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AL88" s="2" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AM88" s="2" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AN88" s="2" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AO88" s="2" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AP88" s="2" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="AQ88" s="2" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="AR88" s="2" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AS88" s="2" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AT88" s="2" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AU88" s="2" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AV88" s="3" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AW88" s="2" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AX88" s="2" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AY88" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="AZ88" s="3" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="AZ88" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="BA88" s="3" t="str">
         <f>IF(_xlfn.IFNA($A88,"")="","",AC88/(Connfiguration!$B$1/1000000))</f>
         <v/>
       </c>
-      <c r="BA88" t="str" cm="1">
-        <f t="array" ref="BA88">IF(OR(_xlfn.IFNA($A88,"")="", ROW()&lt;=3),"",$A88-_xlfn.XLOOKUP(AC88,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
       <c r="BB88" t="str" cm="1">
-        <f t="array" ref="BB88">IF(OR(_xlfn.IFNA($A88,"")="", ROW()&lt;=3),"",$A88-_xlfn.XLOOKUP(AZ88,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BB88">IF(OR(_xlfn.IFNA($A88,"")="", ROW()&lt;=3),"",$A88-_xlfn.XLOOKUP(AC88,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BC88" t="str" cm="1">
-        <f t="array" ref="BC88">IF(OR(_xlfn.IFNA($A88,"")="", ROW()&lt;=3),"",$A88-_xlfn.XLOOKUP(AC88,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BC88">IF(OR(_xlfn.IFNA($A88,"")="", ROW()&lt;=3),"",$A88-_xlfn.XLOOKUP(BA88,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BD88" t="str" cm="1">
-        <f t="array" ref="BD88">IF(OR(_xlfn.IFNA($A88,"")="", ROW()&lt;=3),"",$A88-_xlfn.XLOOKUP(AZ88,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="1:56" x14ac:dyDescent="0.2">
+        <f t="array" ref="BD88">IF(OR(_xlfn.IFNA($A88,"")="", ROW()&lt;=3),"",$A88-_xlfn.XLOOKUP(AC88,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BE88" t="str" cm="1">
+        <f t="array" ref="BE88">IF(OR(_xlfn.IFNA($A88,"")="", ROW()&lt;=3),"",$A88-_xlfn.XLOOKUP(BA88,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="e">
         <f>IF(OR(Daily!$A89="",Daily!$B89="*"),NA(),Daily!A89)</f>
         <v>#N/A</v>
@@ -33204,119 +33564,123 @@
         <v/>
       </c>
       <c r="AC89" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AD89" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AE89" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AF89" s="5" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AG89" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AH89" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AI89" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AJ89" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AK89" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AL89" s="2" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AM89" s="2" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AN89" s="2" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AO89" s="2" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AP89" s="2" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="AQ89" s="2" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="AR89" s="2" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AS89" s="2" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AT89" s="2" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AU89" s="2" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AV89" s="3" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AW89" s="2" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AX89" s="2" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AY89" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="AZ89" s="3" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="AZ89" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="BA89" s="3" t="str">
         <f>IF(_xlfn.IFNA($A89,"")="","",AC89/(Connfiguration!$B$1/1000000))</f>
         <v/>
       </c>
-      <c r="BA89" t="str" cm="1">
-        <f t="array" ref="BA89">IF(OR(_xlfn.IFNA($A89,"")="", ROW()&lt;=3),"",$A89-_xlfn.XLOOKUP(AC89,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
       <c r="BB89" t="str" cm="1">
-        <f t="array" ref="BB89">IF(OR(_xlfn.IFNA($A89,"")="", ROW()&lt;=3),"",$A89-_xlfn.XLOOKUP(AZ89,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BB89">IF(OR(_xlfn.IFNA($A89,"")="", ROW()&lt;=3),"",$A89-_xlfn.XLOOKUP(AC89,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BC89" t="str" cm="1">
-        <f t="array" ref="BC89">IF(OR(_xlfn.IFNA($A89,"")="", ROW()&lt;=3),"",$A89-_xlfn.XLOOKUP(AC89,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BC89">IF(OR(_xlfn.IFNA($A89,"")="", ROW()&lt;=3),"",$A89-_xlfn.XLOOKUP(BA89,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BD89" t="str" cm="1">
-        <f t="array" ref="BD89">IF(OR(_xlfn.IFNA($A89,"")="", ROW()&lt;=3),"",$A89-_xlfn.XLOOKUP(AZ89,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="1:56" x14ac:dyDescent="0.2">
+        <f t="array" ref="BD89">IF(OR(_xlfn.IFNA($A89,"")="", ROW()&lt;=3),"",$A89-_xlfn.XLOOKUP(AC89,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BE89" t="str" cm="1">
+        <f t="array" ref="BE89">IF(OR(_xlfn.IFNA($A89,"")="", ROW()&lt;=3),"",$A89-_xlfn.XLOOKUP(BA89,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="e">
         <f>IF(OR(Daily!$A90="",Daily!$B90="*"),NA(),Daily!A90)</f>
         <v>#N/A</v>
@@ -33430,119 +33794,123 @@
         <v/>
       </c>
       <c r="AC90" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AD90" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AE90" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AF90" s="5" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AG90" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AH90" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AI90" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AJ90" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AK90" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AL90" s="2" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AM90" s="2" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AN90" s="2" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AO90" s="2" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AP90" s="2" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="AQ90" s="2" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="AR90" s="2" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AS90" s="2" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AT90" s="2" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AU90" s="2" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AV90" s="3" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AW90" s="2" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AX90" s="2" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AY90" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="AZ90" s="3" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="AZ90" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="BA90" s="3" t="str">
         <f>IF(_xlfn.IFNA($A90,"")="","",AC90/(Connfiguration!$B$1/1000000))</f>
         <v/>
       </c>
-      <c r="BA90" t="str" cm="1">
-        <f t="array" ref="BA90">IF(OR(_xlfn.IFNA($A90,"")="", ROW()&lt;=3),"",$A90-_xlfn.XLOOKUP(AC90,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
       <c r="BB90" t="str" cm="1">
-        <f t="array" ref="BB90">IF(OR(_xlfn.IFNA($A90,"")="", ROW()&lt;=3),"",$A90-_xlfn.XLOOKUP(AZ90,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BB90">IF(OR(_xlfn.IFNA($A90,"")="", ROW()&lt;=3),"",$A90-_xlfn.XLOOKUP(AC90,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BC90" t="str" cm="1">
-        <f t="array" ref="BC90">IF(OR(_xlfn.IFNA($A90,"")="", ROW()&lt;=3),"",$A90-_xlfn.XLOOKUP(AC90,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BC90">IF(OR(_xlfn.IFNA($A90,"")="", ROW()&lt;=3),"",$A90-_xlfn.XLOOKUP(BA90,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BD90" t="str" cm="1">
-        <f t="array" ref="BD90">IF(OR(_xlfn.IFNA($A90,"")="", ROW()&lt;=3),"",$A90-_xlfn.XLOOKUP(AZ90,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="1:56" x14ac:dyDescent="0.2">
+        <f t="array" ref="BD90">IF(OR(_xlfn.IFNA($A90,"")="", ROW()&lt;=3),"",$A90-_xlfn.XLOOKUP(AC90,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BE90" t="str" cm="1">
+        <f t="array" ref="BE90">IF(OR(_xlfn.IFNA($A90,"")="", ROW()&lt;=3),"",$A90-_xlfn.XLOOKUP(BA90,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="e">
         <f>IF(OR(Daily!$A91="",Daily!$B91="*"),NA(),Daily!A91)</f>
         <v>#N/A</v>
@@ -33656,119 +34024,123 @@
         <v/>
       </c>
       <c r="AC91" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AD91" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AE91" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AF91" s="5" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AG91" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AH91" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AI91" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AJ91" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AK91" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AL91" s="2" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AM91" s="2" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AN91" s="2" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AO91" s="2" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AP91" s="2" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="AQ91" s="2" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="AR91" s="2" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AS91" s="2" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AT91" s="2" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AU91" s="2" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AV91" s="3" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AW91" s="2" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AX91" s="2" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AY91" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="AZ91" s="3" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="AZ91" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="BA91" s="3" t="str">
         <f>IF(_xlfn.IFNA($A91,"")="","",AC91/(Connfiguration!$B$1/1000000))</f>
         <v/>
       </c>
-      <c r="BA91" t="str" cm="1">
-        <f t="array" ref="BA91">IF(OR(_xlfn.IFNA($A91,"")="", ROW()&lt;=3),"",$A91-_xlfn.XLOOKUP(AC91,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
       <c r="BB91" t="str" cm="1">
-        <f t="array" ref="BB91">IF(OR(_xlfn.IFNA($A91,"")="", ROW()&lt;=3),"",$A91-_xlfn.XLOOKUP(AZ91,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BB91">IF(OR(_xlfn.IFNA($A91,"")="", ROW()&lt;=3),"",$A91-_xlfn.XLOOKUP(AC91,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BC91" t="str" cm="1">
-        <f t="array" ref="BC91">IF(OR(_xlfn.IFNA($A91,"")="", ROW()&lt;=3),"",$A91-_xlfn.XLOOKUP(AC91,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BC91">IF(OR(_xlfn.IFNA($A91,"")="", ROW()&lt;=3),"",$A91-_xlfn.XLOOKUP(BA91,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BD91" t="str" cm="1">
-        <f t="array" ref="BD91">IF(OR(_xlfn.IFNA($A91,"")="", ROW()&lt;=3),"",$A91-_xlfn.XLOOKUP(AZ91,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="1:56" x14ac:dyDescent="0.2">
+        <f t="array" ref="BD91">IF(OR(_xlfn.IFNA($A91,"")="", ROW()&lt;=3),"",$A91-_xlfn.XLOOKUP(AC91,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BE91" t="str" cm="1">
+        <f t="array" ref="BE91">IF(OR(_xlfn.IFNA($A91,"")="", ROW()&lt;=3),"",$A91-_xlfn.XLOOKUP(BA91,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="e">
         <f>IF(OR(Daily!$A92="",Daily!$B92="*"),NA(),Daily!A92)</f>
         <v>#N/A</v>
@@ -33882,119 +34254,123 @@
         <v/>
       </c>
       <c r="AC92" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AD92" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AE92" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AF92" s="5" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AG92" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AH92" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AI92" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AJ92" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AK92" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AL92" s="2" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AM92" s="2" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AN92" s="2" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AO92" s="2" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AP92" s="2" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="AQ92" s="2" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="AR92" s="2" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AS92" s="2" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AT92" s="2" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AU92" s="2" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AV92" s="3" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AW92" s="2" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AX92" s="2" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AY92" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="AZ92" s="3" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="AZ92" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="BA92" s="3" t="str">
         <f>IF(_xlfn.IFNA($A92,"")="","",AC92/(Connfiguration!$B$1/1000000))</f>
         <v/>
       </c>
-      <c r="BA92" t="str" cm="1">
-        <f t="array" ref="BA92">IF(OR(_xlfn.IFNA($A92,"")="", ROW()&lt;=3),"",$A92-_xlfn.XLOOKUP(AC92,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
       <c r="BB92" t="str" cm="1">
-        <f t="array" ref="BB92">IF(OR(_xlfn.IFNA($A92,"")="", ROW()&lt;=3),"",$A92-_xlfn.XLOOKUP(AZ92,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BB92">IF(OR(_xlfn.IFNA($A92,"")="", ROW()&lt;=3),"",$A92-_xlfn.XLOOKUP(AC92,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BC92" t="str" cm="1">
-        <f t="array" ref="BC92">IF(OR(_xlfn.IFNA($A92,"")="", ROW()&lt;=3),"",$A92-_xlfn.XLOOKUP(AC92,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BC92">IF(OR(_xlfn.IFNA($A92,"")="", ROW()&lt;=3),"",$A92-_xlfn.XLOOKUP(BA92,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BD92" t="str" cm="1">
-        <f t="array" ref="BD92">IF(OR(_xlfn.IFNA($A92,"")="", ROW()&lt;=3),"",$A92-_xlfn.XLOOKUP(AZ92,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="1:56" x14ac:dyDescent="0.2">
+        <f t="array" ref="BD92">IF(OR(_xlfn.IFNA($A92,"")="", ROW()&lt;=3),"",$A92-_xlfn.XLOOKUP(AC92,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BE92" t="str" cm="1">
+        <f t="array" ref="BE92">IF(OR(_xlfn.IFNA($A92,"")="", ROW()&lt;=3),"",$A92-_xlfn.XLOOKUP(BA92,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="e">
         <f>IF(OR(Daily!$A93="",Daily!$B93="*"),NA(),Daily!A93)</f>
         <v>#N/A</v>
@@ -34108,119 +34484,123 @@
         <v/>
       </c>
       <c r="AC93" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AD93" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AE93" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AF93" s="5" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AG93" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AH93" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AI93" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AJ93" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AK93" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AL93" s="2" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AM93" s="2" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AN93" s="2" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AO93" s="2" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AP93" s="2" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="AQ93" s="2" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="AR93" s="2" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AS93" s="2" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AT93" s="2" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AU93" s="2" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AV93" s="3" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AW93" s="2" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AX93" s="2" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AY93" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="AZ93" s="3" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="AZ93" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="BA93" s="3" t="str">
         <f>IF(_xlfn.IFNA($A93,"")="","",AC93/(Connfiguration!$B$1/1000000))</f>
         <v/>
       </c>
-      <c r="BA93" t="str" cm="1">
-        <f t="array" ref="BA93">IF(OR(_xlfn.IFNA($A93,"")="", ROW()&lt;=3),"",$A93-_xlfn.XLOOKUP(AC93,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
       <c r="BB93" t="str" cm="1">
-        <f t="array" ref="BB93">IF(OR(_xlfn.IFNA($A93,"")="", ROW()&lt;=3),"",$A93-_xlfn.XLOOKUP(AZ93,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BB93">IF(OR(_xlfn.IFNA($A93,"")="", ROW()&lt;=3),"",$A93-_xlfn.XLOOKUP(AC93,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BC93" t="str" cm="1">
-        <f t="array" ref="BC93">IF(OR(_xlfn.IFNA($A93,"")="", ROW()&lt;=3),"",$A93-_xlfn.XLOOKUP(AC93,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BC93">IF(OR(_xlfn.IFNA($A93,"")="", ROW()&lt;=3),"",$A93-_xlfn.XLOOKUP(BA93,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BD93" t="str" cm="1">
-        <f t="array" ref="BD93">IF(OR(_xlfn.IFNA($A93,"")="", ROW()&lt;=3),"",$A93-_xlfn.XLOOKUP(AZ93,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="1:56" x14ac:dyDescent="0.2">
+        <f t="array" ref="BD93">IF(OR(_xlfn.IFNA($A93,"")="", ROW()&lt;=3),"",$A93-_xlfn.XLOOKUP(AC93,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BE93" t="str" cm="1">
+        <f t="array" ref="BE93">IF(OR(_xlfn.IFNA($A93,"")="", ROW()&lt;=3),"",$A93-_xlfn.XLOOKUP(BA93,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="e">
         <f>IF(OR(Daily!$A94="",Daily!$B94="*"),NA(),Daily!A94)</f>
         <v>#N/A</v>
@@ -34334,119 +34714,123 @@
         <v/>
       </c>
       <c r="AC94" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AD94" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AE94" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AF94" s="5" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AG94" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AH94" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AI94" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AJ94" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AK94" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AL94" s="2" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AM94" s="2" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AN94" s="2" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AO94" s="2" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AP94" s="2" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="AQ94" s="2" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="AR94" s="2" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AS94" s="2" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AT94" s="2" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AU94" s="2" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AV94" s="3" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AW94" s="2" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AX94" s="2" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AY94" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="AZ94" s="3" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="AZ94" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="BA94" s="3" t="str">
         <f>IF(_xlfn.IFNA($A94,"")="","",AC94/(Connfiguration!$B$1/1000000))</f>
         <v/>
       </c>
-      <c r="BA94" t="str" cm="1">
-        <f t="array" ref="BA94">IF(OR(_xlfn.IFNA($A94,"")="", ROW()&lt;=3),"",$A94-_xlfn.XLOOKUP(AC94,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
       <c r="BB94" t="str" cm="1">
-        <f t="array" ref="BB94">IF(OR(_xlfn.IFNA($A94,"")="", ROW()&lt;=3),"",$A94-_xlfn.XLOOKUP(AZ94,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BB94">IF(OR(_xlfn.IFNA($A94,"")="", ROW()&lt;=3),"",$A94-_xlfn.XLOOKUP(AC94,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BC94" t="str" cm="1">
-        <f t="array" ref="BC94">IF(OR(_xlfn.IFNA($A94,"")="", ROW()&lt;=3),"",$A94-_xlfn.XLOOKUP(AC94,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BC94">IF(OR(_xlfn.IFNA($A94,"")="", ROW()&lt;=3),"",$A94-_xlfn.XLOOKUP(BA94,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BD94" t="str" cm="1">
-        <f t="array" ref="BD94">IF(OR(_xlfn.IFNA($A94,"")="", ROW()&lt;=3),"",$A94-_xlfn.XLOOKUP(AZ94,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="95" spans="1:56" x14ac:dyDescent="0.2">
+        <f t="array" ref="BD94">IF(OR(_xlfn.IFNA($A94,"")="", ROW()&lt;=3),"",$A94-_xlfn.XLOOKUP(AC94,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BE94" t="str" cm="1">
+        <f t="array" ref="BE94">IF(OR(_xlfn.IFNA($A94,"")="", ROW()&lt;=3),"",$A94-_xlfn.XLOOKUP(BA94,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="e">
         <f>IF(OR(Daily!$A95="",Daily!$B95="*"),NA(),Daily!A95)</f>
         <v>#N/A</v>
@@ -34560,119 +34944,123 @@
         <v/>
       </c>
       <c r="AC95" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AD95" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AE95" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AF95" s="5" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AG95" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AH95" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AI95" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AJ95" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AK95" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AL95" s="2" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AM95" s="2" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AN95" s="2" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AO95" s="2" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AP95" s="2" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="AQ95" s="2" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="AR95" s="2" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AS95" s="2" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AT95" s="2" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AU95" s="2" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AV95" s="3" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AW95" s="2" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AX95" s="2" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AY95" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="AZ95" s="3" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="AZ95" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="BA95" s="3" t="str">
         <f>IF(_xlfn.IFNA($A95,"")="","",AC95/(Connfiguration!$B$1/1000000))</f>
         <v/>
       </c>
-      <c r="BA95" t="str" cm="1">
-        <f t="array" ref="BA95">IF(OR(_xlfn.IFNA($A95,"")="", ROW()&lt;=3),"",$A95-_xlfn.XLOOKUP(AC95,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
       <c r="BB95" t="str" cm="1">
-        <f t="array" ref="BB95">IF(OR(_xlfn.IFNA($A95,"")="", ROW()&lt;=3),"",$A95-_xlfn.XLOOKUP(AZ95,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BB95">IF(OR(_xlfn.IFNA($A95,"")="", ROW()&lt;=3),"",$A95-_xlfn.XLOOKUP(AC95,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BC95" t="str" cm="1">
-        <f t="array" ref="BC95">IF(OR(_xlfn.IFNA($A95,"")="", ROW()&lt;=3),"",$A95-_xlfn.XLOOKUP(AC95,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BC95">IF(OR(_xlfn.IFNA($A95,"")="", ROW()&lt;=3),"",$A95-_xlfn.XLOOKUP(BA95,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BD95" t="str" cm="1">
-        <f t="array" ref="BD95">IF(OR(_xlfn.IFNA($A95,"")="", ROW()&lt;=3),"",$A95-_xlfn.XLOOKUP(AZ95,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="1:56" x14ac:dyDescent="0.2">
+        <f t="array" ref="BD95">IF(OR(_xlfn.IFNA($A95,"")="", ROW()&lt;=3),"",$A95-_xlfn.XLOOKUP(AC95,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BE95" t="str" cm="1">
+        <f t="array" ref="BE95">IF(OR(_xlfn.IFNA($A95,"")="", ROW()&lt;=3),"",$A95-_xlfn.XLOOKUP(BA95,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="e">
         <f>IF(OR(Daily!$A96="",Daily!$B96="*"),NA(),Daily!A96)</f>
         <v>#N/A</v>
@@ -34786,119 +35174,123 @@
         <v/>
       </c>
       <c r="AC96" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AD96" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AE96" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AF96" s="5" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AG96" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AH96" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AI96" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AJ96" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AK96" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AL96" s="2" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AM96" s="2" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AN96" s="2" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AO96" s="2" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AP96" s="2" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="AQ96" s="2" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="AR96" s="2" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AS96" s="2" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AT96" s="2" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AU96" s="2" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AV96" s="3" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AW96" s="2" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AX96" s="2" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AY96" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="AZ96" s="3" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="AZ96" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="BA96" s="3" t="str">
         <f>IF(_xlfn.IFNA($A96,"")="","",AC96/(Connfiguration!$B$1/1000000))</f>
         <v/>
       </c>
-      <c r="BA96" t="str" cm="1">
-        <f t="array" ref="BA96">IF(OR(_xlfn.IFNA($A96,"")="", ROW()&lt;=3),"",$A96-_xlfn.XLOOKUP(AC96,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
       <c r="BB96" t="str" cm="1">
-        <f t="array" ref="BB96">IF(OR(_xlfn.IFNA($A96,"")="", ROW()&lt;=3),"",$A96-_xlfn.XLOOKUP(AZ96,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BB96">IF(OR(_xlfn.IFNA($A96,"")="", ROW()&lt;=3),"",$A96-_xlfn.XLOOKUP(AC96,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BC96" t="str" cm="1">
-        <f t="array" ref="BC96">IF(OR(_xlfn.IFNA($A96,"")="", ROW()&lt;=3),"",$A96-_xlfn.XLOOKUP(AC96,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BC96">IF(OR(_xlfn.IFNA($A96,"")="", ROW()&lt;=3),"",$A96-_xlfn.XLOOKUP(BA96,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BD96" t="str" cm="1">
-        <f t="array" ref="BD96">IF(OR(_xlfn.IFNA($A96,"")="", ROW()&lt;=3),"",$A96-_xlfn.XLOOKUP(AZ96,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="1:56" x14ac:dyDescent="0.2">
+        <f t="array" ref="BD96">IF(OR(_xlfn.IFNA($A96,"")="", ROW()&lt;=3),"",$A96-_xlfn.XLOOKUP(AC96,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BE96" t="str" cm="1">
+        <f t="array" ref="BE96">IF(OR(_xlfn.IFNA($A96,"")="", ROW()&lt;=3),"",$A96-_xlfn.XLOOKUP(BA96,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="e">
         <f>IF(OR(Daily!$A97="",Daily!$B97="*"),NA(),Daily!A97)</f>
         <v>#N/A</v>
@@ -35012,119 +35404,123 @@
         <v/>
       </c>
       <c r="AC97" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AD97" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AE97" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AF97" s="5" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AG97" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AH97" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AI97" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AJ97" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AK97" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AL97" s="2" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AM97" s="2" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AN97" s="2" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AO97" s="2" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AP97" s="2" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="AQ97" s="2" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="AR97" s="2" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AS97" s="2" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AT97" s="2" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AU97" s="2" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AV97" s="3" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AW97" s="2" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AX97" s="2" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AY97" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="AZ97" s="3" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="AZ97" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="BA97" s="3" t="str">
         <f>IF(_xlfn.IFNA($A97,"")="","",AC97/(Connfiguration!$B$1/1000000))</f>
         <v/>
       </c>
-      <c r="BA97" t="str" cm="1">
-        <f t="array" ref="BA97">IF(OR(_xlfn.IFNA($A97,"")="", ROW()&lt;=3),"",$A97-_xlfn.XLOOKUP(AC97,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
       <c r="BB97" t="str" cm="1">
-        <f t="array" ref="BB97">IF(OR(_xlfn.IFNA($A97,"")="", ROW()&lt;=3),"",$A97-_xlfn.XLOOKUP(AZ97,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BB97">IF(OR(_xlfn.IFNA($A97,"")="", ROW()&lt;=3),"",$A97-_xlfn.XLOOKUP(AC97,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BC97" t="str" cm="1">
-        <f t="array" ref="BC97">IF(OR(_xlfn.IFNA($A97,"")="", ROW()&lt;=3),"",$A97-_xlfn.XLOOKUP(AC97,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BC97">IF(OR(_xlfn.IFNA($A97,"")="", ROW()&lt;=3),"",$A97-_xlfn.XLOOKUP(BA97,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BD97" t="str" cm="1">
-        <f t="array" ref="BD97">IF(OR(_xlfn.IFNA($A97,"")="", ROW()&lt;=3),"",$A97-_xlfn.XLOOKUP(AZ97,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="98" spans="1:56" x14ac:dyDescent="0.2">
+        <f t="array" ref="BD97">IF(OR(_xlfn.IFNA($A97,"")="", ROW()&lt;=3),"",$A97-_xlfn.XLOOKUP(AC97,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BE97" t="str" cm="1">
+        <f t="array" ref="BE97">IF(OR(_xlfn.IFNA($A97,"")="", ROW()&lt;=3),"",$A97-_xlfn.XLOOKUP(BA97,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="e">
         <f>IF(OR(Daily!$A98="",Daily!$B98="*"),NA(),Daily!A98)</f>
         <v>#N/A</v>
@@ -35238,119 +35634,123 @@
         <v/>
       </c>
       <c r="AC98" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AD98" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AE98" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AF98" s="5" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AG98" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AH98" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AI98" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AJ98" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AK98" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AL98" s="2" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AM98" s="2" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AN98" s="2" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AO98" s="2" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AP98" s="2" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="AQ98" s="2" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="AR98" s="2" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AS98" s="2" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AT98" s="2" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AU98" s="2" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AV98" s="3" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AW98" s="2" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AX98" s="2" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AY98" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="AZ98" s="3" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="AZ98" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="BA98" s="3" t="str">
         <f>IF(_xlfn.IFNA($A98,"")="","",AC98/(Connfiguration!$B$1/1000000))</f>
         <v/>
       </c>
-      <c r="BA98" t="str" cm="1">
-        <f t="array" ref="BA98">IF(OR(_xlfn.IFNA($A98,"")="", ROW()&lt;=3),"",$A98-_xlfn.XLOOKUP(AC98,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
       <c r="BB98" t="str" cm="1">
-        <f t="array" ref="BB98">IF(OR(_xlfn.IFNA($A98,"")="", ROW()&lt;=3),"",$A98-_xlfn.XLOOKUP(AZ98,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BB98">IF(OR(_xlfn.IFNA($A98,"")="", ROW()&lt;=3),"",$A98-_xlfn.XLOOKUP(AC98,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BC98" t="str" cm="1">
-        <f t="array" ref="BC98">IF(OR(_xlfn.IFNA($A98,"")="", ROW()&lt;=3),"",$A98-_xlfn.XLOOKUP(AC98,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BC98">IF(OR(_xlfn.IFNA($A98,"")="", ROW()&lt;=3),"",$A98-_xlfn.XLOOKUP(BA98,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BD98" t="str" cm="1">
-        <f t="array" ref="BD98">IF(OR(_xlfn.IFNA($A98,"")="", ROW()&lt;=3),"",$A98-_xlfn.XLOOKUP(AZ98,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="99" spans="1:56" x14ac:dyDescent="0.2">
+        <f t="array" ref="BD98">IF(OR(_xlfn.IFNA($A98,"")="", ROW()&lt;=3),"",$A98-_xlfn.XLOOKUP(AC98,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BE98" t="str" cm="1">
+        <f t="array" ref="BE98">IF(OR(_xlfn.IFNA($A98,"")="", ROW()&lt;=3),"",$A98-_xlfn.XLOOKUP(BA98,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="e">
         <f>IF(OR(Daily!$A99="",Daily!$B99="*"),NA(),Daily!A99)</f>
         <v>#N/A</v>
@@ -35464,119 +35864,123 @@
         <v/>
       </c>
       <c r="AC99" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AD99" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AE99" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AF99" s="5" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AG99" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AH99" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AI99" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AJ99" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AK99" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AL99" s="2" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AM99" s="2" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AN99" s="2" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AO99" s="2" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AP99" s="2" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="AQ99" s="2" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="AR99" s="2" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AS99" s="2" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AT99" s="2" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AU99" s="2" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AV99" s="3" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AW99" s="2" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AX99" s="2" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AY99" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="AZ99" s="3" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="AZ99" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="BA99" s="3" t="str">
         <f>IF(_xlfn.IFNA($A99,"")="","",AC99/(Connfiguration!$B$1/1000000))</f>
         <v/>
       </c>
-      <c r="BA99" t="str" cm="1">
-        <f t="array" ref="BA99">IF(OR(_xlfn.IFNA($A99,"")="", ROW()&lt;=3),"",$A99-_xlfn.XLOOKUP(AC99,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
       <c r="BB99" t="str" cm="1">
-        <f t="array" ref="BB99">IF(OR(_xlfn.IFNA($A99,"")="", ROW()&lt;=3),"",$A99-_xlfn.XLOOKUP(AZ99,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BB99">IF(OR(_xlfn.IFNA($A99,"")="", ROW()&lt;=3),"",$A99-_xlfn.XLOOKUP(AC99,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BC99" t="str" cm="1">
-        <f t="array" ref="BC99">IF(OR(_xlfn.IFNA($A99,"")="", ROW()&lt;=3),"",$A99-_xlfn.XLOOKUP(AC99,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BC99">IF(OR(_xlfn.IFNA($A99,"")="", ROW()&lt;=3),"",$A99-_xlfn.XLOOKUP(BA99,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BD99" t="str" cm="1">
-        <f t="array" ref="BD99">IF(OR(_xlfn.IFNA($A99,"")="", ROW()&lt;=3),"",$A99-_xlfn.XLOOKUP(AZ99,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="100" spans="1:56" x14ac:dyDescent="0.2">
+        <f t="array" ref="BD99">IF(OR(_xlfn.IFNA($A99,"")="", ROW()&lt;=3),"",$A99-_xlfn.XLOOKUP(AC99,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BE99" t="str" cm="1">
+        <f t="array" ref="BE99">IF(OR(_xlfn.IFNA($A99,"")="", ROW()&lt;=3),"",$A99-_xlfn.XLOOKUP(BA99,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="e">
         <f>IF(OR(Daily!$A100="",Daily!$B100="*"),NA(),Daily!A100)</f>
         <v>#N/A</v>
@@ -35690,152 +36094,156 @@
         <v/>
       </c>
       <c r="AC100" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AD100" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AE100" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AF100" s="5" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AG100" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AH100" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AI100" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AJ100" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AK100" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AL100" s="2" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AM100" s="2" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AN100" s="2" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AO100" s="2" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AP100" s="2" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="AQ100" s="2" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="AR100" s="2" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AS100" s="2" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AT100" s="2" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AU100" s="2" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AV100" s="3" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AW100" s="2" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AX100" s="2" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AY100" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="AZ100" s="3" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="AZ100" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="BA100" s="3" t="str">
         <f>IF(_xlfn.IFNA($A100,"")="","",AC100/(Connfiguration!$B$1/1000000))</f>
         <v/>
       </c>
-      <c r="BA100" t="str" cm="1">
-        <f t="array" ref="BA100">IF(OR(_xlfn.IFNA($A100,"")="", ROW()&lt;=3),"",$A100-_xlfn.XLOOKUP(AC100,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
       <c r="BB100" t="str" cm="1">
-        <f t="array" ref="BB100">IF(OR(_xlfn.IFNA($A100,"")="", ROW()&lt;=3),"",$A100-_xlfn.XLOOKUP(AZ100,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BB100">IF(OR(_xlfn.IFNA($A100,"")="", ROW()&lt;=3),"",$A100-_xlfn.XLOOKUP(AC100,International!$C$3:$C$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BC100" t="str" cm="1">
-        <f t="array" ref="BC100">IF(OR(_xlfn.IFNA($A100,"")="", ROW()&lt;=3),"",$A100-_xlfn.XLOOKUP(AC100,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <f t="array" ref="BC100">IF(OR(_xlfn.IFNA($A100,"")="", ROW()&lt;=3),"",$A100-_xlfn.XLOOKUP(BA100,International!$D$3:$D$2000,International!$A$3:A$2000,NA(),1,1))</f>
         <v/>
       </c>
       <c r="BD100" t="str" cm="1">
-        <f t="array" ref="BD100">IF(OR(_xlfn.IFNA($A100,"")="", ROW()&lt;=3),"",$A100-_xlfn.XLOOKUP(AZ100,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="101" spans="1:56" x14ac:dyDescent="0.2">
+        <f t="array" ref="BD100">IF(OR(_xlfn.IFNA($A100,"")="", ROW()&lt;=3),"",$A100-_xlfn.XLOOKUP(AC100,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+      <c r="BE100" t="str" cm="1">
+        <f t="array" ref="BE100">IF(OR(_xlfn.IFNA($A100,"")="", ROW()&lt;=3),"",$A100-_xlfn.XLOOKUP(BA100,International!$F$3:$F$2000,International!$A$3:A$2000,NA(),1,1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
     </row>
-    <row r="102" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
     </row>
-    <row r="103" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
     </row>
-    <row r="104" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
     </row>
-    <row r="105" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
     </row>
-    <row r="106" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
     </row>
-    <row r="107" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
     </row>
-    <row r="108" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
     </row>
-    <row r="109" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
     </row>
-    <row r="110" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
     </row>
-    <row r="111" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
     </row>
-    <row r="112" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
@@ -35932,9 +36340,9 @@
       <c r="A143" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="BA1:BB1"/>
-    <mergeCell ref="BC1:BD1"/>
+  <mergeCells count="16">
+    <mergeCell ref="BB1:BC1"/>
+    <mergeCell ref="BD1:BE1"/>
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
@@ -35948,6 +36356,7 @@
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AH1:AJ1"/>
     <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AY1:AZ1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -35958,17 +36367,17 @@
   <dimension ref="A1:G109"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="E55" sqref="E55"/>
+      <selection pane="bottomRight" activeCell="J73" sqref="J73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="23" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.89453125" style="3"/>
+    <col min="7" max="7" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -37279,41 +37688,57 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="1"/>
-      <c r="C56" t="str">
+      <c r="A56" s="1">
+        <v>43906</v>
+      </c>
+      <c r="B56">
+        <v>3233</v>
+      </c>
+      <c r="C56">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D56" s="3" t="str">
+        <v>27979</v>
+      </c>
+      <c r="D56" s="3">
         <f>IF($A56="","",C56/(Connfiguration!$B$2/1000000))</f>
-        <v/>
-      </c>
-      <c r="F56" t="str">
+        <v>463.53894046850519</v>
+      </c>
+      <c r="E56">
+        <v>1210</v>
+      </c>
+      <c r="F56">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G56" s="3" t="str">
+        <v>6633</v>
+      </c>
+      <c r="G56" s="3">
         <f>IF($A56="","",F56/(Connfiguration!$B$3/1000000))</f>
-        <v/>
+        <v>98.8981496667611</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="1"/>
-      <c r="C57" t="str">
+      <c r="A57" s="1">
+        <v>43907</v>
+      </c>
+      <c r="B57">
+        <v>3526</v>
+      </c>
+      <c r="C57">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D57" s="3" t="str">
+        <v>31505</v>
+      </c>
+      <c r="D57" s="3">
         <f>IF($A57="","",C57/(Connfiguration!$B$2/1000000))</f>
-        <v/>
-      </c>
-      <c r="F57" t="str">
+        <v>521.95554949999121</v>
+      </c>
+      <c r="E57">
+        <v>1097</v>
+      </c>
+      <c r="F57">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G57" s="3" t="str">
+        <v>7730</v>
+      </c>
+      <c r="G57" s="3">
         <f>IF($A57="","",F57/(Connfiguration!$B$3/1000000))</f>
-        <v/>
+        <v>115.25443945787174</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -38171,13 +38596,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52250498-B13A-3F44-9F82-349791E8BD3C}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -38351,6 +38776,22 @@
       </c>
       <c r="C24" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>43908</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -38366,10 +38807,10 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.890625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="149.72265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="149.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
